--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD089D27-55DB-4756-A5FA-E38ECDFACFD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B98D37-AC18-481E-A345-4CD684C02134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -346,20 +346,6 @@
 afficher le nombre d'article sur l'icone de l'accueil</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">supprimer un produit du </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tableau panier </t>
-    </r>
-  </si>
-  <si>
     <t>controleFormulaire</t>
   </si>
   <si>
@@ -398,9 +384,6 @@
 ALORS envoieDonneesApi</t>
   </si>
   <si>
-    <t>ajoutNouveauProduit</t>
-  </si>
-  <si>
     <t>compteurNombreProduit</t>
   </si>
   <si>
@@ -408,10 +391,6 @@
   </si>
   <si>
     <t>getDonneesApiPersonnalisation</t>
-  </si>
-  <si>
-    <t>retourner les strings
-correspondant aux options de personnalisation de chaque type de produit</t>
   </si>
   <si>
     <t>personnalisationProduitHTML</t>
@@ -424,37 +403,12 @@
 stringTableauPanier</t>
   </si>
   <si>
-    <t>Convertir les donnes du array en string</t>
-  </si>
-  <si>
     <t>Recuperer les informations de tous les éléments
 prends en parametre l'URL pour la dupliquer facilement a chaque catégorie
 Utiliser les promesses ici</t>
   </si>
   <si>
     <t>onreadystatechange</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A chaque ajout d'un contenu au </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tableau panier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, ajout d'une nouvelle ligne avec la descritpion du produit</t>
-    </r>
   </si>
   <si>
     <r>
@@ -477,8 +431,66 @@
     <t>POUR CHAQUE index present dans le tableau, CRÉER un nouveau bloc produit HTML qui contiendra le contenu de la description du produit</t>
   </si>
   <si>
-    <t>CRÉER un nouveau bloc element produit en html qui retourne les elements descriptif du produit
-Attribut a chaque nouveau bloc avec un numéro</t>
+    <t>console.log pour verifier que le nombre de bloc correspond à la numérotation</t>
+  </si>
+  <si>
+    <t>tableauProduitPanier</t>
+  </si>
+  <si>
+    <t>CRÉER un tableau de produit panier. Ajout du produit EN FONCTION de son ID</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A chaque ajout d'un contenu au </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tableauProduitPanier</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, ajout d'une nouvelle ligne avec la description du produit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">supprimer un produit du </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tableau panier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+modif de quantité</t>
+    </r>
+  </si>
+  <si>
+    <t>Convertir les donnes du array en string
+A REECRIRE</t>
+  </si>
+  <si>
+    <t>Fonction generique avec la 1ere fonction de recuperation IF id present 
+REFLEXION AVEC UNE FONCTION GLOBALE DE REQUETE</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,6 +717,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -920,8 +954,8 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -983,7 +1017,7 @@
         <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -994,10 +1028,10 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1011,7 +1045,7 @@
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1022,38 +1056,40 @@
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:26" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>75</v>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1064,58 +1100,58 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="15" t="s">
-        <v>97</v>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
-        <v>79</v>
+      <c r="C11" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="16" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="11"/>
@@ -1143,15 +1179,15 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1162,10 +1198,10 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1175,11 +1211,11 @@
         <v>78</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>107</v>
+      <c r="C16" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="12"/>
@@ -1190,10 +1226,10 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="12"/>
@@ -1204,24 +1240,24 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B98D37-AC18-481E-A345-4CD684C02134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6786CB-FAB4-4817-BF79-FB30CF6C2132}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -336,12 +336,6 @@
     <t>Calculer le prix totale suivant le nombre d'article ajouté</t>
   </si>
   <si>
-    <t>barreRechercherProduit</t>
-  </si>
-  <si>
-    <t>afficher les produits ayant les valeurs dans la barre de recherche</t>
-  </si>
-  <si>
     <t>compter le nombre d'article dans le panier
 afficher le nombre d'article sur l'icone de l'accueil</t>
   </si>
@@ -384,19 +378,10 @@
 ALORS envoieDonneesApi</t>
   </si>
   <si>
-    <t>compteurNombreProduit</t>
-  </si>
-  <si>
-    <t>compte le nombre de bloc de produit en html</t>
-  </si>
-  <si>
     <t>getDonneesApiPersonnalisation</t>
   </si>
   <si>
     <t>personnalisationProduitHTML</t>
-  </si>
-  <si>
-    <t>la fonction doit ajouter la personnalisation sur le html</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -426,12 +411,6 @@
       </rPr>
       <t>tableauDonnees</t>
     </r>
-  </si>
-  <si>
-    <t>POUR CHAQUE index present dans le tableau, CRÉER un nouveau bloc produit HTML qui contiendra le contenu de la description du produit</t>
-  </si>
-  <si>
-    <t>console.log pour verifier que le nombre de bloc correspond à la numérotation</t>
   </si>
   <si>
     <t>tableauProduitPanier</t>
@@ -491,6 +470,19 @@
   <si>
     <t>Fonction generique avec la 1ere fonction de recuperation IF id present 
 REFLEXION AVEC UNE FONCTION GLOBALE DE REQUETE</t>
+  </si>
+  <si>
+    <t>la fonction doit ajouter la personnalisation dans le html</t>
+  </si>
+  <si>
+    <t>POUR CHAQUE index present dans le tableau, AJOUTER un nouveau bloc HTML qui contiendra le contenu de la description du produit</t>
+  </si>
+  <si>
+    <t>clickEnvoiePageProduit</t>
+  </si>
+  <si>
+    <t>Au click sur le produit, ouvre une nouvelle page,
+RETOURNE les informations du produit concerné dans le HTML de la page produit</t>
   </si>
 </sst>
 </file>
@@ -552,7 +544,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,12 +560,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -716,22 +702,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -951,11 +930,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1004"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1009,7 +988,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="5"/>
@@ -1017,21 +996,21 @@
         <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -1045,40 +1024,38 @@
         <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>75</v>
+    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>108</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="12"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:26" s="23" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1086,24 +1063,24 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>114</v>
+        <v>97</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1114,80 +1091,80 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
-        <v>96</v>
+      <c r="C11" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="19" t="s">
         <v>78</v>
       </c>
       <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
-        <v>82</v>
+      <c r="C13" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="15" t="s">
-        <v>95</v>
+      <c r="C14" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1197,13 +1174,13 @@
         <v>78</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="12"/>
+      <c r="C15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="4"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1211,11 +1188,11 @@
         <v>78</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>113</v>
+      <c r="C16" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="12"/>
@@ -1225,70 +1202,63 @@
         <v>78</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="15" t="s">
-        <v>94</v>
+      <c r="C17" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>89</v>
-      </c>
+    <row r="19" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
+      <c r="B20" s="3"/>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
@@ -1306,7 +1276,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="4"/>
@@ -1412,11 +1382,9 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D42" s="2"/>
@@ -1463,7 +1431,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -6232,11 +6200,6 @@
       <c r="D1004" s="2"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
-    </row>
-    <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="2"/>
-      <c r="E1005" s="2"/>
-      <c r="F1005" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6786CB-FAB4-4817-BF79-FB30CF6C2132}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40614321-1169-409F-A069-EA12F05F6BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -484,6 +484,9 @@
     <t>Au click sur le produit, ouvre une nouvelle page,
 RETOURNE les informations du produit concerné dans le HTML de la page produit</t>
   </si>
+  <si>
+    <t>au click, si l'ID du lien est egale a un Id du tableau, ALORS je recupere le lien URL de l'article correspondant</t>
+  </si>
 </sst>
 </file>
 
@@ -932,9 +935,9 @@
   </sheetPr>
   <dimension ref="A1:Z1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1029,9 @@
       <c r="D4" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40614321-1169-409F-A069-EA12F05F6BF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C7DFE-D6E9-4230-B32E-6C07949FAEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>accueil js</t>
-  </si>
-  <si>
-    <t>descriptionProduitHTML</t>
   </si>
   <si>
     <t>produit js</t>
@@ -388,29 +385,7 @@
 stringTableauPanier</t>
   </si>
   <si>
-    <t>Recuperer les informations de tous les éléments
-prends en parametre l'URL pour la dupliquer facilement a chaque catégorie
-Utiliser les promesses ici</t>
-  </si>
-  <si>
     <t>onreadystatechange</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">recupere les donnees de l'API, elles sont stocké sous la forme d'un tableau, avec pour chaque index = un produit.
-Chaque index contient des objets correspondant a la description des produits
-Ce tableau est le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tableauDonnees</t>
-    </r>
   </si>
   <si>
     <t>tableauProduitPanier</t>
@@ -475,24 +450,59 @@
     <t>la fonction doit ajouter la personnalisation dans le html</t>
   </si>
   <si>
-    <t>POUR CHAQUE index present dans le tableau, AJOUTER un nouveau bloc HTML qui contiendra le contenu de la description du produit</t>
-  </si>
-  <si>
-    <t>clickEnvoiePageProduit</t>
-  </si>
-  <si>
-    <t>Au click sur le produit, ouvre une nouvelle page,
-RETOURNE les informations du produit concerné dans le HTML de la page produit</t>
-  </si>
-  <si>
-    <t>au click, si l'ID du lien est egale a un Id du tableau, ALORS je recupere le lien URL de l'article correspondant</t>
+    <t>listeProduitsAccueil</t>
+  </si>
+  <si>
+    <t>Recuperer les donnees de l'API, à partir de l'ID correspondant ,
+Intégration du contenu dans le HTML</t>
+  </si>
+  <si>
+    <t>getPromise</t>
+  </si>
+  <si>
+    <t>Recupere les donnees de la promesse pour les retourner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">envoie la requete au serveur </t>
+  </si>
+  <si>
+    <t>getPromise().then</t>
+  </si>
+  <si>
+    <t>Une fois les getPromise retournée, je peux utiliser les donnees</t>
+  </si>
+  <si>
+    <t>creationBlocHtmlProduit</t>
+  </si>
+  <si>
+    <t>creation du bloc html pour la page produit</t>
+  </si>
+  <si>
+    <t>creationBlocHTMLAccueil</t>
+  </si>
+  <si>
+    <t>creation du bloc html pour la page accueil</t>
+  </si>
+  <si>
+    <t>POUR CHAQUE index present dans le tableau, AJOUTER les parametres a la fonction creationBlocHTMLAccueil</t>
+  </si>
+  <si>
+    <t>insertionDescriptifProduits</t>
+  </si>
+  <si>
+    <t>accueil js
+porduit js</t>
+  </si>
+  <si>
+    <t>Creation de la fonction promesse qui prend en parametre l'URL et retourne la promesse
+pour la page produit, ajout d'un parametre à l'URL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -536,13 +546,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -664,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,6 +717,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,11 +940,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1004"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -991,318 +998,344 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>75</v>
+      <c r="A2" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>75</v>
+      <c r="A3" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="14" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
+      <c r="C10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>104</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>78</v>
+      <c r="A11" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="15" t="s">
-        <v>93</v>
-      </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
-        <v>85</v>
+      <c r="C14" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>78</v>
+      <c r="A15" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="C15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
-        <v>90</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+    <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
+    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
@@ -1387,24 +1420,32 @@
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="2"/>
@@ -1436,22 +1477,22 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -6205,6 +6246,26 @@
       <c r="D1004" s="2"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
+    </row>
+    <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+    </row>
+    <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C7DFE-D6E9-4230-B32E-6C07949FAEBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6790F36-7F3F-4E6B-917D-3AAED3C9218E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -375,12 +375,6 @@
 ALORS envoieDonneesApi</t>
   </si>
   <si>
-    <t>getDonneesApiPersonnalisation</t>
-  </si>
-  <si>
-    <t>personnalisationProduitHTML</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 stringTableauPanier</t>
   </si>
@@ -443,13 +437,6 @@
 A REECRIRE</t>
   </si>
   <si>
-    <t>Fonction generique avec la 1ere fonction de recuperation IF id present 
-REFLEXION AVEC UNE FONCTION GLOBALE DE REQUETE</t>
-  </si>
-  <si>
-    <t>la fonction doit ajouter la personnalisation dans le html</t>
-  </si>
-  <si>
     <t>listeProduitsAccueil</t>
   </si>
   <si>
@@ -487,15 +474,42 @@
     <t>POUR CHAQUE index present dans le tableau, AJOUTER les parametres a la fonction creationBlocHTMLAccueil</t>
   </si>
   <si>
-    <t>insertionDescriptifProduits</t>
-  </si>
-  <si>
     <t>accueil js
 porduit js</t>
   </si>
   <si>
     <t>Creation de la fonction promesse qui prend en parametre l'URL et retourne la promesse
 pour la page produit, ajout d'un parametre à l'URL</t>
+  </si>
+  <si>
+    <t>Devtool: inspect l'élément parent pour vérifier comment le bloc HTML est indenté</t>
+  </si>
+  <si>
+    <t>Faire le test avec différents donnees dans le tableau et vérifier si chaque données correspondent bien aux éléments incrémentés dans le HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consol.log de getPromise afin de voir si la promesse est bien envoyer et verifier son statuts </t>
+  </si>
+  <si>
+    <t>consol.log du paramètre avec le paramètre de la fonction pour vérifier si les données de la promesse sont bien récupérer</t>
+  </si>
+  <si>
+    <t>La fonction doit créer un nouvel omglet HTML du menu déroulant de personnalisation</t>
+  </si>
+  <si>
+    <t>menuPresonnalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">la fonction récupère les données en paramètre et créer pour chaque index l'onglet du menu déroulant </t>
+  </si>
+  <si>
+    <t>si le tableau de données n'a pas de données ou n'existe alors renvoie une erreur et désactive le bouton</t>
+  </si>
+  <si>
+    <t>nouvelOngletPersonnalisation</t>
+  </si>
+  <si>
+    <t>descriptifProduit</t>
   </si>
 </sst>
 </file>
@@ -944,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -999,58 +1013,62 @@
     </row>
     <row r="2" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>105</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>118</v>
+      </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>119</v>
+      </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1059,12 +1077,14 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="6"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1073,12 +1093,14 @@
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,12 +1109,14 @@
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="14" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1101,41 +1125,45 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>104</v>
+        <v>124</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -1143,10 +1171,10 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1160,7 +1188,7 @@
         <v>78</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -1216,7 +1244,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -1241,10 +1269,10 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="12"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6790F36-7F3F-4E6B-917D-3AAED3C9218E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C200C4F-3900-4A95-9E97-6FE651144163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -379,15 +379,6 @@
 stringTableauPanier</t>
   </si>
   <si>
-    <t>onreadystatechange</t>
-  </si>
-  <si>
-    <t>tableauProduitPanier</t>
-  </si>
-  <si>
-    <t>CRÉER un tableau de produit panier. Ajout du produit EN FONCTION de son ID</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">A chaque ajout d'un contenu au </t>
     </r>
@@ -440,63 +431,22 @@
     <t>listeProduitsAccueil</t>
   </si>
   <si>
-    <t>Recuperer les donnees de l'API, à partir de l'ID correspondant ,
-Intégration du contenu dans le HTML</t>
-  </si>
-  <si>
-    <t>getPromise</t>
-  </si>
-  <si>
-    <t>Recupere les donnees de la promesse pour les retourner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">envoie la requete au serveur </t>
-  </si>
-  <si>
-    <t>getPromise().then</t>
-  </si>
-  <si>
-    <t>Une fois les getPromise retournée, je peux utiliser les donnees</t>
-  </si>
-  <si>
     <t>creationBlocHtmlProduit</t>
   </si>
   <si>
-    <t>creation du bloc html pour la page produit</t>
-  </si>
-  <si>
     <t>creationBlocHTMLAccueil</t>
-  </si>
-  <si>
-    <t>creation du bloc html pour la page accueil</t>
-  </si>
-  <si>
-    <t>POUR CHAQUE index present dans le tableau, AJOUTER les parametres a la fonction creationBlocHTMLAccueil</t>
   </si>
   <si>
     <t>accueil js
 porduit js</t>
   </si>
   <si>
-    <t>Creation de la fonction promesse qui prend en parametre l'URL et retourne la promesse
-pour la page produit, ajout d'un parametre à l'URL</t>
-  </si>
-  <si>
     <t>Devtool: inspect l'élément parent pour vérifier comment le bloc HTML est indenté</t>
   </si>
   <si>
     <t>Faire le test avec différents donnees dans le tableau et vérifier si chaque données correspondent bien aux éléments incrémentés dans le HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">consol.log de getPromise afin de voir si la promesse est bien envoyer et verifier son statuts </t>
-  </si>
-  <si>
-    <t>consol.log du paramètre avec le paramètre de la fonction pour vérifier si les données de la promesse sont bien récupérer</t>
-  </si>
-  <si>
-    <t>La fonction doit créer un nouvel omglet HTML du menu déroulant de personnalisation</t>
-  </si>
-  <si>
     <t>menuPresonnalisation</t>
   </si>
   <si>
@@ -510,6 +460,48 @@
   </si>
   <si>
     <t>descriptifProduit</t>
+  </si>
+  <si>
+    <t>clickBoutonPanier</t>
+  </si>
+  <si>
+    <t>Au click du bouton Panier,
+POUR chaque element du cache navigateur,
+SI l'ID du produit est deja present dans le cache, ALORS ajouter +1 a sa valeur a chaque clique
+SI ID non présent, ALORS je l'ajoute au cache avec comme valeur 1</t>
+  </si>
+  <si>
+    <t>Console.log(local.storage) pour controler comment le cache s'incrémente au clique du produit. Faire le test lorsque le cache est vide. Puis lorsque l'ID est deja présent.
+Changer et revenir sur les memes pages pour verifier comment le compteur s'incremente</t>
+  </si>
+  <si>
+    <t>La fonction renvoie une autre valeur que "true"ou undefined</t>
+  </si>
+  <si>
+    <t>Si le tableau de données de personnalisation est vide ou n'existe pas</t>
+  </si>
+  <si>
+    <t>Si l'URL n'est pas la bonne ou n'est pas correcte</t>
+  </si>
+  <si>
+    <t>Recupere l'ID de la page,
+SI l'ID n'existe pas, alors lancer la promesse de requete avec l'URL en parametre. LORSQUE la promesse est OK alors execute le code correspondant
+SINON ajouter l'ID de la page a l'URL,LORSQUE la promesse est OK alors execute le code correspondant</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page accueil qui recevront le contenur des données</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page produit qui recevront le contenur des données</t>
+  </si>
+  <si>
+    <t>POUR CHAQUE index present dans le tableau de données, AJOUTER le contenu en parametres a la fonction creationBlocHTMLAccueil</t>
+  </si>
+  <si>
+    <t>POUR CHAQUE index present dans le tableau de données, AJOUTER le contenu en parametres a la fonction creationBlocHTMLProduit</t>
+  </si>
+  <si>
+    <t>La fonction doit créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
   </si>
 </sst>
 </file>
@@ -681,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -722,19 +714,31 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,11 +958,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1008"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -966,7 +970,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="27" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
@@ -981,7 +985,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1011,170 +1015,174 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>114</v>
+    <row r="2" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>114</v>
+    </row>
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="6"/>
+      <c r="E5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>112</v>
+      <c r="C6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>103</v>
+      <c r="D9" s="24" t="s">
+        <v>111</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>76</v>
+      <c r="A10" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>122</v>
+      <c r="C11" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>83</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1185,38 +1193,38 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+        <v>81</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
+      <c r="A14" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>97</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>85</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1226,27 +1234,27 @@
         <v>77</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="12"/>
+      <c r="C16" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="4"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,5045 +1263,5003 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B19" s="11"/>
-      <c r="C19" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>77</v>
-      </c>
+    <row r="20" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="4"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>90</v>
-      </c>
+    <row r="21" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
+    <row r="23" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" s="24"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="2"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="2"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
+      <c r="D48" s="26"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
+      <c r="D49" s="26"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
+      <c r="D50" s="26"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
+    <row r="52" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D52" s="26"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
+    <row r="53" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D53" s="26"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
+    <row r="54" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D54" s="26"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
+      <c r="D56" s="26"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
+      <c r="D57" s="26"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
+      <c r="D59" s="26"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
+      <c r="D60" s="26"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
+      <c r="D62" s="26"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
+      <c r="D63" s="26"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
+      <c r="D64" s="26"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
+      <c r="D65" s="26"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
+      <c r="D66" s="26"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
+      <c r="D67" s="26"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
+      <c r="D69" s="26"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
+      <c r="D70" s="26"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
+      <c r="D72" s="26"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
+      <c r="D73" s="26"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
+      <c r="D74" s="26"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D75" s="2"/>
+      <c r="D75" s="26"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="2"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="2"/>
+      <c r="D77" s="26"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="2"/>
+      <c r="D78" s="26"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D79" s="2"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D80" s="2"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D81" s="2"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D82" s="2"/>
+      <c r="D82" s="26"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D83" s="2"/>
+      <c r="D83" s="26"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D84" s="2"/>
+      <c r="D84" s="26"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D85" s="2"/>
+      <c r="D85" s="26"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D86" s="2"/>
+      <c r="D86" s="26"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D87" s="2"/>
+      <c r="D87" s="26"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D88" s="2"/>
+      <c r="D88" s="26"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D89" s="2"/>
+      <c r="D89" s="26"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D90" s="2"/>
+      <c r="D90" s="26"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D91" s="2"/>
+      <c r="D91" s="26"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D92" s="2"/>
+      <c r="D92" s="26"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D93" s="2"/>
+      <c r="D93" s="26"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D94" s="2"/>
+      <c r="D94" s="26"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D95" s="2"/>
+      <c r="D95" s="26"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D96" s="2"/>
+      <c r="D96" s="26"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D97" s="2"/>
+      <c r="D97" s="26"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D98" s="2"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D99" s="2"/>
+      <c r="D99" s="26"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D100" s="2"/>
+      <c r="D100" s="26"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D101" s="2"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D102" s="2"/>
+      <c r="D102" s="26"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D103" s="2"/>
+      <c r="D103" s="26"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D104" s="2"/>
+      <c r="D104" s="26"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D105" s="2"/>
+      <c r="D105" s="26"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D106" s="2"/>
+      <c r="D106" s="26"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D107" s="2"/>
+      <c r="D107" s="26"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D108" s="2"/>
+      <c r="D108" s="26"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D109" s="2"/>
+      <c r="D109" s="26"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D110" s="2"/>
+      <c r="D110" s="26"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D111" s="2"/>
+      <c r="D111" s="26"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D112" s="2"/>
+      <c r="D112" s="26"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D113" s="2"/>
+      <c r="D113" s="26"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D114" s="2"/>
+      <c r="D114" s="26"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="2"/>
+      <c r="D115" s="26"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D116" s="2"/>
+      <c r="D116" s="26"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D117" s="2"/>
+      <c r="D117" s="26"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D118" s="2"/>
+      <c r="D118" s="26"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D119" s="2"/>
+      <c r="D119" s="26"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D120" s="2"/>
+      <c r="D120" s="26"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D121" s="2"/>
+      <c r="D121" s="26"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D122" s="2"/>
+      <c r="D122" s="26"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D123" s="2"/>
+      <c r="D123" s="26"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D124" s="2"/>
+      <c r="D124" s="26"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D125" s="2"/>
+      <c r="D125" s="26"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D126" s="2"/>
+      <c r="D126" s="26"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D127" s="2"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D128" s="2"/>
+      <c r="D128" s="26"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D129" s="2"/>
+      <c r="D129" s="26"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D130" s="2"/>
+      <c r="D130" s="26"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D131" s="2"/>
+      <c r="D131" s="26"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D132" s="2"/>
+      <c r="D132" s="26"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D133" s="2"/>
+      <c r="D133" s="26"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D134" s="2"/>
+      <c r="D134" s="26"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D135" s="2"/>
+      <c r="D135" s="26"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D136" s="2"/>
+      <c r="D136" s="26"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D137" s="2"/>
+      <c r="D137" s="26"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D138" s="2"/>
+      <c r="D138" s="26"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D139" s="2"/>
+      <c r="D139" s="26"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D140" s="2"/>
+      <c r="D140" s="26"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D141" s="2"/>
+      <c r="D141" s="26"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D142" s="2"/>
+      <c r="D142" s="26"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D143" s="2"/>
+      <c r="D143" s="26"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D144" s="2"/>
+      <c r="D144" s="26"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D145" s="2"/>
+      <c r="D145" s="26"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D146" s="2"/>
+      <c r="D146" s="26"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D147" s="2"/>
+      <c r="D147" s="26"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D148" s="2"/>
+      <c r="D148" s="26"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D149" s="2"/>
+      <c r="D149" s="26"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D150" s="2"/>
+      <c r="D150" s="26"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D151" s="2"/>
+      <c r="D151" s="26"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D152" s="2"/>
+      <c r="D152" s="26"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D153" s="2"/>
+      <c r="D153" s="26"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D154" s="2"/>
+      <c r="D154" s="26"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D155" s="2"/>
+      <c r="D155" s="26"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="2"/>
+      <c r="D156" s="26"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D157" s="2"/>
+      <c r="D157" s="26"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="2"/>
+      <c r="D158" s="26"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D159" s="2"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D160" s="2"/>
+      <c r="D160" s="26"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D161" s="2"/>
+      <c r="D161" s="26"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D162" s="2"/>
+      <c r="D162" s="26"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D163" s="2"/>
+      <c r="D163" s="26"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="2"/>
+      <c r="D164" s="26"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="2"/>
+      <c r="D165" s="26"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="2"/>
+      <c r="D166" s="26"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="2"/>
+      <c r="D167" s="26"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="2"/>
+      <c r="D168" s="26"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="2"/>
+      <c r="D169" s="26"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="2"/>
+      <c r="D170" s="26"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D171" s="2"/>
+      <c r="D171" s="26"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D172" s="2"/>
+      <c r="D172" s="26"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D173" s="2"/>
+      <c r="D173" s="26"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D174" s="2"/>
+      <c r="D174" s="26"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D175" s="2"/>
+      <c r="D175" s="26"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D176" s="2"/>
+      <c r="D176" s="26"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D177" s="2"/>
+      <c r="D177" s="26"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D178" s="2"/>
+      <c r="D178" s="26"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D179" s="2"/>
+      <c r="D179" s="26"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D180" s="2"/>
+      <c r="D180" s="26"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D181" s="2"/>
+      <c r="D181" s="26"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D182" s="2"/>
+      <c r="D182" s="26"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D183" s="2"/>
+      <c r="D183" s="26"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D184" s="2"/>
+      <c r="D184" s="26"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D185" s="2"/>
+      <c r="D185" s="26"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D186" s="2"/>
+      <c r="D186" s="26"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D187" s="2"/>
+      <c r="D187" s="26"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D188" s="2"/>
+      <c r="D188" s="26"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D189" s="2"/>
+      <c r="D189" s="26"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D190" s="2"/>
+      <c r="D190" s="26"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D191" s="2"/>
+      <c r="D191" s="26"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D192" s="2"/>
+      <c r="D192" s="26"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D193" s="2"/>
+      <c r="D193" s="26"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D194" s="2"/>
+      <c r="D194" s="26"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D195" s="2"/>
+      <c r="D195" s="26"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D196" s="2"/>
+      <c r="D196" s="26"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D197" s="2"/>
+      <c r="D197" s="26"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D198" s="2"/>
+      <c r="D198" s="26"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D199" s="2"/>
+      <c r="D199" s="26"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D200" s="2"/>
+      <c r="D200" s="26"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D201" s="2"/>
+      <c r="D201" s="26"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D202" s="2"/>
+      <c r="D202" s="26"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D203" s="2"/>
+      <c r="D203" s="26"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D204" s="2"/>
+      <c r="D204" s="26"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D205" s="2"/>
+      <c r="D205" s="26"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D206" s="2"/>
+      <c r="D206" s="26"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D207" s="2"/>
+      <c r="D207" s="26"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D208" s="2"/>
+      <c r="D208" s="26"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D209" s="2"/>
+      <c r="D209" s="26"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D210" s="2"/>
+      <c r="D210" s="26"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D211" s="2"/>
+      <c r="D211" s="26"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D212" s="2"/>
+      <c r="D212" s="26"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D213" s="2"/>
+      <c r="D213" s="26"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D214" s="2"/>
+      <c r="D214" s="26"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D215" s="2"/>
+      <c r="D215" s="26"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D216" s="2"/>
+      <c r="D216" s="26"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D217" s="2"/>
+      <c r="D217" s="26"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D218" s="2"/>
+      <c r="D218" s="26"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D219" s="2"/>
+      <c r="D219" s="26"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D220" s="2"/>
+      <c r="D220" s="26"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D221" s="2"/>
+      <c r="D221" s="26"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D222" s="2"/>
+      <c r="D222" s="26"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D223" s="2"/>
+      <c r="D223" s="26"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D224" s="2"/>
+      <c r="D224" s="26"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D225" s="2"/>
+      <c r="D225" s="26"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D226" s="2"/>
+      <c r="D226" s="26"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D227" s="2"/>
+      <c r="D227" s="26"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D228" s="2"/>
+      <c r="D228" s="26"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D229" s="2"/>
+      <c r="D229" s="26"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D230" s="2"/>
+      <c r="D230" s="26"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D231" s="2"/>
+      <c r="D231" s="26"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D232" s="2"/>
+      <c r="D232" s="26"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D233" s="2"/>
+      <c r="D233" s="26"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D234" s="2"/>
+      <c r="D234" s="26"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D235" s="2"/>
+      <c r="D235" s="26"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D236" s="2"/>
+      <c r="D236" s="26"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D237" s="2"/>
+      <c r="D237" s="26"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D238" s="2"/>
+      <c r="D238" s="26"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D239" s="2"/>
+      <c r="D239" s="26"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D240" s="2"/>
+      <c r="D240" s="26"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D241" s="2"/>
+      <c r="D241" s="26"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D242" s="2"/>
+      <c r="D242" s="26"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D243" s="2"/>
+      <c r="D243" s="26"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D244" s="2"/>
+      <c r="D244" s="26"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D245" s="2"/>
+      <c r="D245" s="26"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D246" s="2"/>
+      <c r="D246" s="26"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D247" s="2"/>
+      <c r="D247" s="26"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D248" s="2"/>
+      <c r="D248" s="26"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D249" s="2"/>
+      <c r="D249" s="26"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D250" s="2"/>
+      <c r="D250" s="26"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D251" s="2"/>
+      <c r="D251" s="26"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D252" s="2"/>
+      <c r="D252" s="26"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D253" s="2"/>
+      <c r="D253" s="26"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D254" s="2"/>
+      <c r="D254" s="26"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D255" s="2"/>
+      <c r="D255" s="26"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D256" s="2"/>
+      <c r="D256" s="26"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D257" s="2"/>
+      <c r="D257" s="26"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D258" s="2"/>
+      <c r="D258" s="26"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D259" s="2"/>
+      <c r="D259" s="26"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D260" s="2"/>
+      <c r="D260" s="26"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D261" s="2"/>
+      <c r="D261" s="26"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D262" s="2"/>
+      <c r="D262" s="26"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D263" s="2"/>
+      <c r="D263" s="26"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D264" s="2"/>
+      <c r="D264" s="26"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D265" s="2"/>
+      <c r="D265" s="26"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D266" s="2"/>
+      <c r="D266" s="26"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D267" s="2"/>
+      <c r="D267" s="26"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D268" s="2"/>
+      <c r="D268" s="26"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D269" s="2"/>
+      <c r="D269" s="26"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D270" s="2"/>
+      <c r="D270" s="26"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D271" s="2"/>
+      <c r="D271" s="26"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D272" s="2"/>
+      <c r="D272" s="26"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D273" s="2"/>
+      <c r="D273" s="26"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D274" s="2"/>
+      <c r="D274" s="26"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D275" s="2"/>
+      <c r="D275" s="26"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D276" s="2"/>
+      <c r="D276" s="26"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D277" s="2"/>
+      <c r="D277" s="26"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D278" s="2"/>
+      <c r="D278" s="26"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D279" s="2"/>
+      <c r="D279" s="26"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D280" s="2"/>
+      <c r="D280" s="26"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D281" s="2"/>
+      <c r="D281" s="26"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="2"/>
+      <c r="D282" s="26"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="2"/>
+      <c r="D283" s="26"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="2"/>
+      <c r="D284" s="26"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="2"/>
+      <c r="D285" s="26"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="2"/>
+      <c r="D286" s="26"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="2"/>
+      <c r="D287" s="26"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="2"/>
+      <c r="D288" s="26"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="2"/>
+      <c r="D289" s="26"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="2"/>
+      <c r="D290" s="26"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="2"/>
+      <c r="D291" s="26"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="2"/>
+      <c r="D292" s="26"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="2"/>
+      <c r="D293" s="26"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="2"/>
+      <c r="D294" s="26"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="2"/>
+      <c r="D295" s="26"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="2"/>
+      <c r="D296" s="26"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="2"/>
+      <c r="D297" s="26"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="2"/>
+      <c r="D298" s="26"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="2"/>
+      <c r="D299" s="26"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="2"/>
+      <c r="D300" s="26"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="2"/>
+      <c r="D301" s="26"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="2"/>
+      <c r="D302" s="26"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="2"/>
+      <c r="D303" s="26"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="2"/>
+      <c r="D304" s="26"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="2"/>
+      <c r="D305" s="26"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="2"/>
+      <c r="D306" s="26"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="2"/>
+      <c r="D307" s="26"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="2"/>
+      <c r="D308" s="26"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="2"/>
+      <c r="D309" s="26"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="2"/>
+      <c r="D310" s="26"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="2"/>
+      <c r="D311" s="26"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="2"/>
+      <c r="D312" s="26"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="2"/>
+      <c r="D313" s="26"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="2"/>
+      <c r="D314" s="26"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="2"/>
+      <c r="D315" s="26"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="2"/>
+      <c r="D316" s="26"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="2"/>
+      <c r="D317" s="26"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="2"/>
+      <c r="D318" s="26"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="2"/>
+      <c r="D319" s="26"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="2"/>
+      <c r="D320" s="26"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="2"/>
+      <c r="D321" s="26"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="2"/>
+      <c r="D322" s="26"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="2"/>
+      <c r="D323" s="26"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="2"/>
+      <c r="D324" s="26"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="2"/>
+      <c r="D325" s="26"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="2"/>
+      <c r="D326" s="26"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="2"/>
+      <c r="D327" s="26"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="2"/>
+      <c r="D328" s="26"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="2"/>
+      <c r="D329" s="26"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="2"/>
+      <c r="D330" s="26"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="2"/>
+      <c r="D331" s="26"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="2"/>
+      <c r="D332" s="26"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="2"/>
+      <c r="D333" s="26"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="2"/>
+      <c r="D334" s="26"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="2"/>
+      <c r="D335" s="26"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="2"/>
+      <c r="D336" s="26"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="2"/>
+      <c r="D337" s="26"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="2"/>
+      <c r="D338" s="26"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="2"/>
+      <c r="D339" s="26"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="2"/>
+      <c r="D340" s="26"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="2"/>
+      <c r="D341" s="26"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="2"/>
+      <c r="D342" s="26"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="2"/>
+      <c r="D343" s="26"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="2"/>
+      <c r="D344" s="26"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="2"/>
+      <c r="D345" s="26"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="2"/>
+      <c r="D346" s="26"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="2"/>
+      <c r="D347" s="26"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="2"/>
+      <c r="D348" s="26"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="2"/>
+      <c r="D349" s="26"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="2"/>
+      <c r="D350" s="26"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="2"/>
+      <c r="D351" s="26"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="2"/>
+      <c r="D352" s="26"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="2"/>
+      <c r="D353" s="26"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="2"/>
+      <c r="D354" s="26"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="2"/>
+      <c r="D355" s="26"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="2"/>
+      <c r="D356" s="26"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="2"/>
+      <c r="D357" s="26"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="2"/>
+      <c r="D358" s="26"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="2"/>
+      <c r="D359" s="26"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="2"/>
+      <c r="D360" s="26"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="2"/>
+      <c r="D361" s="26"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="2"/>
+      <c r="D362" s="26"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="2"/>
+      <c r="D363" s="26"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="2"/>
+      <c r="D364" s="26"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="2"/>
+      <c r="D365" s="26"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="2"/>
+      <c r="D366" s="26"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="2"/>
+      <c r="D367" s="26"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="2"/>
+      <c r="D368" s="26"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="2"/>
+      <c r="D369" s="26"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="2"/>
+      <c r="D370" s="26"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="2"/>
+      <c r="D371" s="26"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="2"/>
+      <c r="D372" s="26"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="2"/>
+      <c r="D373" s="26"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="2"/>
+      <c r="D374" s="26"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="2"/>
+      <c r="D375" s="26"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="2"/>
+      <c r="D376" s="26"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="2"/>
+      <c r="D377" s="26"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="2"/>
+      <c r="D378" s="26"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="2"/>
+      <c r="D379" s="26"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="2"/>
+      <c r="D380" s="26"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="2"/>
+      <c r="D381" s="26"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="2"/>
+      <c r="D382" s="26"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="2"/>
+      <c r="D383" s="26"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="2"/>
+      <c r="D384" s="26"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="2"/>
+      <c r="D385" s="26"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="2"/>
+      <c r="D386" s="26"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="2"/>
+      <c r="D387" s="26"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="2"/>
+      <c r="D388" s="26"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="2"/>
+      <c r="D389" s="26"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="2"/>
+      <c r="D390" s="26"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="2"/>
+      <c r="D391" s="26"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="2"/>
+      <c r="D392" s="26"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="2"/>
+      <c r="D393" s="26"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="2"/>
+      <c r="D394" s="26"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="2"/>
+      <c r="D395" s="26"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="2"/>
+      <c r="D396" s="26"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="2"/>
+      <c r="D397" s="26"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="2"/>
+      <c r="D398" s="26"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="2"/>
+      <c r="D399" s="26"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="2"/>
+      <c r="D400" s="26"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="2"/>
+      <c r="D401" s="26"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="2"/>
+      <c r="D402" s="26"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="2"/>
+      <c r="D403" s="26"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="2"/>
+      <c r="D404" s="26"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="2"/>
+      <c r="D405" s="26"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="2"/>
+      <c r="D406" s="26"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="2"/>
+      <c r="D407" s="26"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="2"/>
+      <c r="D408" s="26"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="2"/>
+      <c r="D409" s="26"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="2"/>
+      <c r="D410" s="26"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="2"/>
+      <c r="D411" s="26"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="2"/>
+      <c r="D412" s="26"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="2"/>
+      <c r="D413" s="26"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="2"/>
+      <c r="D414" s="26"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="2"/>
+      <c r="D415" s="26"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="2"/>
+      <c r="D416" s="26"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="2"/>
+      <c r="D417" s="26"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="2"/>
+      <c r="D418" s="26"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="2"/>
+      <c r="D419" s="26"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="2"/>
+      <c r="D420" s="26"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="2"/>
+      <c r="D421" s="26"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="2"/>
+      <c r="D422" s="26"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="2"/>
+      <c r="D423" s="26"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="2"/>
+      <c r="D424" s="26"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="2"/>
+      <c r="D425" s="26"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="2"/>
+      <c r="D426" s="26"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="2"/>
+      <c r="D427" s="26"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="2"/>
+      <c r="D428" s="26"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="2"/>
+      <c r="D429" s="26"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="2"/>
+      <c r="D430" s="26"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="2"/>
+      <c r="D431" s="26"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="2"/>
+      <c r="D432" s="26"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="2"/>
+      <c r="D433" s="26"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="2"/>
+      <c r="D434" s="26"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="2"/>
+      <c r="D435" s="26"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="2"/>
+      <c r="D436" s="26"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="2"/>
+      <c r="D437" s="26"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="2"/>
+      <c r="D438" s="26"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="2"/>
+      <c r="D439" s="26"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="2"/>
+      <c r="D440" s="26"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="2"/>
+      <c r="D441" s="26"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="2"/>
+      <c r="D442" s="26"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="2"/>
+      <c r="D443" s="26"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="2"/>
+      <c r="D444" s="26"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="2"/>
+      <c r="D445" s="26"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="2"/>
+      <c r="D446" s="26"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="2"/>
+      <c r="D447" s="26"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="2"/>
+      <c r="D448" s="26"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="2"/>
+      <c r="D449" s="26"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="2"/>
+      <c r="D450" s="26"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="2"/>
+      <c r="D451" s="26"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
     <row r="452" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="2"/>
+      <c r="D452" s="26"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="2"/>
+      <c r="D453" s="26"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="2"/>
+      <c r="D454" s="26"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="2"/>
+      <c r="D455" s="26"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
     <row r="456" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="2"/>
+      <c r="D456" s="26"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="2"/>
+      <c r="D457" s="26"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="2"/>
+      <c r="D458" s="26"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="2"/>
+      <c r="D459" s="26"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="2"/>
+      <c r="D460" s="26"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
     <row r="461" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="2"/>
+      <c r="D461" s="26"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="2"/>
+      <c r="D462" s="26"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="2"/>
+      <c r="D463" s="26"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="2"/>
+      <c r="D464" s="26"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="2"/>
+      <c r="D465" s="26"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
     <row r="466" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="2"/>
+      <c r="D466" s="26"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="2"/>
+      <c r="D467" s="26"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
     <row r="468" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="2"/>
+      <c r="D468" s="26"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
     <row r="469" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="2"/>
+      <c r="D469" s="26"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="2"/>
+      <c r="D470" s="26"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="2"/>
+      <c r="D471" s="26"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="2"/>
+      <c r="D472" s="26"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="2"/>
+      <c r="D473" s="26"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
     <row r="474" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="2"/>
+      <c r="D474" s="26"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="2"/>
+      <c r="D475" s="26"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="2"/>
+      <c r="D476" s="26"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
     <row r="477" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="2"/>
+      <c r="D477" s="26"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="2"/>
+      <c r="D478" s="26"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="2"/>
+      <c r="D479" s="26"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="2"/>
+      <c r="D480" s="26"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="2"/>
+      <c r="D481" s="26"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="2"/>
+      <c r="D482" s="26"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="2"/>
+      <c r="D483" s="26"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="2"/>
+      <c r="D484" s="26"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="2"/>
+      <c r="D485" s="26"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="2"/>
+      <c r="D486" s="26"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
     <row r="487" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="2"/>
+      <c r="D487" s="26"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="2"/>
+      <c r="D488" s="26"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="2"/>
+      <c r="D489" s="26"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="2"/>
+      <c r="D490" s="26"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
     <row r="491" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="2"/>
+      <c r="D491" s="26"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="2"/>
+      <c r="D492" s="26"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
     <row r="493" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="2"/>
+      <c r="D493" s="26"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="2"/>
+      <c r="D494" s="26"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
     <row r="495" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="2"/>
+      <c r="D495" s="26"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
     <row r="496" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="2"/>
+      <c r="D496" s="26"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="2"/>
+      <c r="D497" s="26"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
     <row r="498" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="2"/>
+      <c r="D498" s="26"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
     <row r="499" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="2"/>
+      <c r="D499" s="26"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="2"/>
+      <c r="D500" s="26"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
     <row r="501" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="2"/>
+      <c r="D501" s="26"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="2"/>
+      <c r="D502" s="26"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
     </row>
     <row r="503" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="2"/>
+      <c r="D503" s="26"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="2"/>
+      <c r="D504" s="26"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="2"/>
+      <c r="D505" s="26"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
     <row r="506" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="2"/>
+      <c r="D506" s="26"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
     <row r="507" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="2"/>
+      <c r="D507" s="26"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
     <row r="508" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="2"/>
+      <c r="D508" s="26"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="2"/>
+      <c r="D509" s="26"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="2"/>
+      <c r="D510" s="26"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
     <row r="511" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="2"/>
+      <c r="D511" s="26"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="2"/>
+      <c r="D512" s="26"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
     <row r="513" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="2"/>
+      <c r="D513" s="26"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
     <row r="514" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="2"/>
+      <c r="D514" s="26"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="2"/>
+      <c r="D515" s="26"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="2"/>
+      <c r="D516" s="26"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="2"/>
+      <c r="D517" s="26"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="2"/>
+      <c r="D518" s="26"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
     </row>
     <row r="519" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="2"/>
+      <c r="D519" s="26"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="2"/>
+      <c r="D520" s="26"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
     <row r="521" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="2"/>
+      <c r="D521" s="26"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="2"/>
+      <c r="D522" s="26"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
     <row r="523" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="2"/>
+      <c r="D523" s="26"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
     <row r="524" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="2"/>
+      <c r="D524" s="26"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="2"/>
+      <c r="D525" s="26"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
     <row r="526" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="2"/>
+      <c r="D526" s="26"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
     <row r="527" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="2"/>
+      <c r="D527" s="26"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="2"/>
+      <c r="D528" s="26"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
     <row r="529" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="2"/>
+      <c r="D529" s="26"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
     <row r="530" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="2"/>
+      <c r="D530" s="26"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
     <row r="531" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="2"/>
+      <c r="D531" s="26"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
     <row r="532" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="2"/>
+      <c r="D532" s="26"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
     <row r="533" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="2"/>
+      <c r="D533" s="26"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
     <row r="534" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="2"/>
+      <c r="D534" s="26"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
     </row>
     <row r="535" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="2"/>
+      <c r="D535" s="26"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
     </row>
     <row r="536" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="2"/>
+      <c r="D536" s="26"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
     <row r="537" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="2"/>
+      <c r="D537" s="26"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
     <row r="538" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="2"/>
+      <c r="D538" s="26"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
     <row r="539" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="2"/>
+      <c r="D539" s="26"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
     <row r="540" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="2"/>
+      <c r="D540" s="26"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
     <row r="541" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="2"/>
+      <c r="D541" s="26"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
     <row r="542" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="2"/>
+      <c r="D542" s="26"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="2"/>
+      <c r="D543" s="26"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
     <row r="544" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="2"/>
+      <c r="D544" s="26"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
     <row r="545" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="2"/>
+      <c r="D545" s="26"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="2"/>
+      <c r="D546" s="26"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
     </row>
     <row r="547" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="2"/>
+      <c r="D547" s="26"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
     <row r="548" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="2"/>
+      <c r="D548" s="26"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
     <row r="549" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="2"/>
+      <c r="D549" s="26"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="2"/>
+      <c r="D550" s="26"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
     </row>
     <row r="551" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="2"/>
+      <c r="D551" s="26"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
     </row>
     <row r="552" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="2"/>
+      <c r="D552" s="26"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
     <row r="553" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="2"/>
+      <c r="D553" s="26"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
     <row r="554" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="2"/>
+      <c r="D554" s="26"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="2"/>
+      <c r="D555" s="26"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
     <row r="556" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="2"/>
+      <c r="D556" s="26"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
     <row r="557" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="2"/>
+      <c r="D557" s="26"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
     <row r="558" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="2"/>
+      <c r="D558" s="26"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
     <row r="559" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="2"/>
+      <c r="D559" s="26"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="2"/>
+      <c r="D560" s="26"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
     <row r="561" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="2"/>
+      <c r="D561" s="26"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="2"/>
+      <c r="D562" s="26"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
     <row r="563" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="2"/>
+      <c r="D563" s="26"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
     <row r="564" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="2"/>
+      <c r="D564" s="26"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
     <row r="565" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="2"/>
+      <c r="D565" s="26"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
     <row r="566" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="2"/>
+      <c r="D566" s="26"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
     <row r="567" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="2"/>
+      <c r="D567" s="26"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
     </row>
     <row r="568" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="2"/>
+      <c r="D568" s="26"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
     </row>
     <row r="569" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="2"/>
+      <c r="D569" s="26"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
     <row r="570" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="2"/>
+      <c r="D570" s="26"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
     <row r="571" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="2"/>
+      <c r="D571" s="26"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="2"/>
+      <c r="D572" s="26"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
     <row r="573" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="2"/>
+      <c r="D573" s="26"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="2"/>
+      <c r="D574" s="26"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
     <row r="575" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="2"/>
+      <c r="D575" s="26"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="2"/>
+      <c r="D576" s="26"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
     <row r="577" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="2"/>
+      <c r="D577" s="26"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
     <row r="578" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="2"/>
+      <c r="D578" s="26"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
     <row r="579" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="2"/>
+      <c r="D579" s="26"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
     <row r="580" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="2"/>
+      <c r="D580" s="26"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
     <row r="581" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="2"/>
+      <c r="D581" s="26"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
     <row r="582" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="2"/>
+      <c r="D582" s="26"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
     <row r="583" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="2"/>
+      <c r="D583" s="26"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
     </row>
     <row r="584" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="2"/>
+      <c r="D584" s="26"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
     <row r="585" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="2"/>
+      <c r="D585" s="26"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
     <row r="586" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="2"/>
+      <c r="D586" s="26"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="2"/>
+      <c r="D587" s="26"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
     <row r="588" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="2"/>
+      <c r="D588" s="26"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
     <row r="589" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="2"/>
+      <c r="D589" s="26"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
     <row r="590" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="2"/>
+      <c r="D590" s="26"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
     <row r="591" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="2"/>
+      <c r="D591" s="26"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
     <row r="592" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="2"/>
+      <c r="D592" s="26"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
     <row r="593" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="2"/>
+      <c r="D593" s="26"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
     <row r="594" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="2"/>
+      <c r="D594" s="26"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
     <row r="595" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="2"/>
+      <c r="D595" s="26"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
     <row r="596" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="2"/>
+      <c r="D596" s="26"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
     <row r="597" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="2"/>
+      <c r="D597" s="26"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
     <row r="598" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="2"/>
+      <c r="D598" s="26"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
     </row>
     <row r="599" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="2"/>
+      <c r="D599" s="26"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
     </row>
     <row r="600" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="2"/>
+      <c r="D600" s="26"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
     </row>
     <row r="601" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="2"/>
+      <c r="D601" s="26"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="2"/>
+      <c r="D602" s="26"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
     <row r="603" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="2"/>
+      <c r="D603" s="26"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
     <row r="604" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="2"/>
+      <c r="D604" s="26"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
     <row r="605" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="2"/>
+      <c r="D605" s="26"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
     <row r="606" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="2"/>
+      <c r="D606" s="26"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
     </row>
     <row r="607" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="2"/>
+      <c r="D607" s="26"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="2"/>
+      <c r="D608" s="26"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
     <row r="609" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="2"/>
+      <c r="D609" s="26"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
     <row r="610" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="2"/>
+      <c r="D610" s="26"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
     <row r="611" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="2"/>
+      <c r="D611" s="26"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
     <row r="612" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="2"/>
+      <c r="D612" s="26"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
     <row r="613" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="2"/>
+      <c r="D613" s="26"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
     <row r="614" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="2"/>
+      <c r="D614" s="26"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
     </row>
     <row r="615" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="2"/>
+      <c r="D615" s="26"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
     </row>
     <row r="616" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="2"/>
+      <c r="D616" s="26"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
     </row>
     <row r="617" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="2"/>
+      <c r="D617" s="26"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
     <row r="618" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="2"/>
+      <c r="D618" s="26"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="2"/>
+      <c r="D619" s="26"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
     <row r="620" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="2"/>
+      <c r="D620" s="26"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
     <row r="621" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="2"/>
+      <c r="D621" s="26"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
     <row r="622" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="2"/>
+      <c r="D622" s="26"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="2"/>
+      <c r="D623" s="26"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
     <row r="624" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="2"/>
+      <c r="D624" s="26"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
     </row>
     <row r="625" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="2"/>
+      <c r="D625" s="26"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
     <row r="626" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="2"/>
+      <c r="D626" s="26"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
     <row r="627" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="2"/>
+      <c r="D627" s="26"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
     <row r="628" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="2"/>
+      <c r="D628" s="26"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
     <row r="629" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="2"/>
+      <c r="D629" s="26"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
     <row r="630" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="2"/>
+      <c r="D630" s="26"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
     </row>
     <row r="631" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="2"/>
+      <c r="D631" s="26"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
     </row>
     <row r="632" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="2"/>
+      <c r="D632" s="26"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
     </row>
     <row r="633" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="2"/>
+      <c r="D633" s="26"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
     <row r="634" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="2"/>
+      <c r="D634" s="26"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
     <row r="635" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="2"/>
+      <c r="D635" s="26"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
     <row r="636" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="2"/>
+      <c r="D636" s="26"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
     <row r="637" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="2"/>
+      <c r="D637" s="26"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
     <row r="638" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="2"/>
+      <c r="D638" s="26"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
     </row>
     <row r="639" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="2"/>
+      <c r="D639" s="26"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
     <row r="640" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="2"/>
+      <c r="D640" s="26"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
     <row r="641" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="2"/>
+      <c r="D641" s="26"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
     <row r="642" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="2"/>
+      <c r="D642" s="26"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
     </row>
     <row r="643" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="2"/>
+      <c r="D643" s="26"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
     <row r="644" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="2"/>
+      <c r="D644" s="26"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="2"/>
+      <c r="D645" s="26"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
     </row>
     <row r="646" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="2"/>
+      <c r="D646" s="26"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
     </row>
     <row r="647" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="2"/>
+      <c r="D647" s="26"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
     </row>
     <row r="648" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="2"/>
+      <c r="D648" s="26"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
     <row r="649" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="2"/>
+      <c r="D649" s="26"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
     <row r="650" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="2"/>
+      <c r="D650" s="26"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
     </row>
     <row r="651" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="2"/>
+      <c r="D651" s="26"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
     <row r="652" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="2"/>
+      <c r="D652" s="26"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="2"/>
+      <c r="D653" s="26"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
     <row r="654" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="2"/>
+      <c r="D654" s="26"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
     </row>
     <row r="655" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="2"/>
+      <c r="D655" s="26"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
     </row>
     <row r="656" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="2"/>
+      <c r="D656" s="26"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
     </row>
     <row r="657" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="2"/>
+      <c r="D657" s="26"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
     <row r="658" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="2"/>
+      <c r="D658" s="26"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="2"/>
+      <c r="D659" s="26"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
     </row>
     <row r="660" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="2"/>
+      <c r="D660" s="26"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
     </row>
     <row r="661" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="2"/>
+      <c r="D661" s="26"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
     <row r="662" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="2"/>
+      <c r="D662" s="26"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
     </row>
     <row r="663" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="2"/>
+      <c r="D663" s="26"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
     </row>
     <row r="664" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="2"/>
+      <c r="D664" s="26"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
     </row>
     <row r="665" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="2"/>
+      <c r="D665" s="26"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
     <row r="666" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="2"/>
+      <c r="D666" s="26"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
     </row>
     <row r="667" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="2"/>
+      <c r="D667" s="26"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="2"/>
+      <c r="D668" s="26"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
     </row>
     <row r="669" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="2"/>
+      <c r="D669" s="26"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
     </row>
     <row r="670" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="2"/>
+      <c r="D670" s="26"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
     </row>
     <row r="671" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="2"/>
+      <c r="D671" s="26"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
     </row>
     <row r="672" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="2"/>
+      <c r="D672" s="26"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
     <row r="673" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="2"/>
+      <c r="D673" s="26"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
     </row>
     <row r="674" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="2"/>
+      <c r="D674" s="26"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
     </row>
     <row r="675" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="2"/>
+      <c r="D675" s="26"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
     </row>
     <row r="676" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="2"/>
+      <c r="D676" s="26"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
     </row>
     <row r="677" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="2"/>
+      <c r="D677" s="26"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
     </row>
     <row r="678" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="2"/>
+      <c r="D678" s="26"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
     </row>
     <row r="679" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="2"/>
+      <c r="D679" s="26"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
     </row>
     <row r="680" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="2"/>
+      <c r="D680" s="26"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
     </row>
     <row r="681" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="2"/>
+      <c r="D681" s="26"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
     <row r="682" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="2"/>
+      <c r="D682" s="26"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
     </row>
     <row r="683" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="2"/>
+      <c r="D683" s="26"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="2"/>
+      <c r="D684" s="26"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
     </row>
     <row r="685" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D685" s="2"/>
+      <c r="D685" s="26"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
     </row>
     <row r="686" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D686" s="2"/>
+      <c r="D686" s="26"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
     <row r="687" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D687" s="2"/>
+      <c r="D687" s="26"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
     <row r="688" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D688" s="2"/>
+      <c r="D688" s="26"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
     <row r="689" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D689" s="2"/>
+      <c r="D689" s="26"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
     </row>
     <row r="690" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D690" s="2"/>
+      <c r="D690" s="26"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
     </row>
     <row r="691" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D691" s="2"/>
+      <c r="D691" s="26"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
     </row>
     <row r="692" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D692" s="2"/>
+      <c r="D692" s="26"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
     </row>
     <row r="693" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D693" s="2"/>
+      <c r="D693" s="26"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
     </row>
     <row r="694" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D694" s="2"/>
+      <c r="D694" s="26"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
     </row>
     <row r="695" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D695" s="2"/>
+      <c r="D695" s="26"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
     </row>
     <row r="696" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D696" s="2"/>
+      <c r="D696" s="26"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
     </row>
     <row r="697" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D697" s="2"/>
+      <c r="D697" s="26"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
     </row>
     <row r="698" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D698" s="2"/>
+      <c r="D698" s="26"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
     </row>
     <row r="699" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D699" s="2"/>
+      <c r="D699" s="26"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
     </row>
     <row r="700" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D700" s="2"/>
+      <c r="D700" s="26"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D701" s="2"/>
+      <c r="D701" s="26"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
     <row r="702" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D702" s="2"/>
+      <c r="D702" s="26"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
     </row>
     <row r="703" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D703" s="2"/>
+      <c r="D703" s="26"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
     <row r="704" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D704" s="2"/>
+      <c r="D704" s="26"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
     </row>
     <row r="705" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D705" s="2"/>
+      <c r="D705" s="26"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
     </row>
     <row r="706" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D706" s="2"/>
+      <c r="D706" s="26"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
     </row>
     <row r="707" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D707" s="2"/>
+      <c r="D707" s="26"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
     </row>
     <row r="708" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D708" s="2"/>
+      <c r="D708" s="26"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
     </row>
     <row r="709" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D709" s="2"/>
+      <c r="D709" s="26"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
     </row>
     <row r="710" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D710" s="2"/>
+      <c r="D710" s="26"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
     </row>
     <row r="711" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D711" s="2"/>
+      <c r="D711" s="26"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
     </row>
     <row r="712" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D712" s="2"/>
+      <c r="D712" s="26"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
     </row>
     <row r="713" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D713" s="2"/>
+      <c r="D713" s="26"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
     </row>
     <row r="714" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D714" s="2"/>
+      <c r="D714" s="26"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
     </row>
     <row r="715" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D715" s="2"/>
+      <c r="D715" s="26"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
     </row>
     <row r="716" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D716" s="2"/>
+      <c r="D716" s="26"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
     </row>
     <row r="717" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D717" s="2"/>
+      <c r="D717" s="26"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
     </row>
     <row r="718" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D718" s="2"/>
+      <c r="D718" s="26"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
     <row r="719" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D719" s="2"/>
+      <c r="D719" s="26"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D720" s="2"/>
+      <c r="D720" s="26"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D721" s="2"/>
+      <c r="D721" s="26"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
     </row>
     <row r="722" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D722" s="2"/>
+      <c r="D722" s="26"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
     </row>
     <row r="723" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D723" s="2"/>
+      <c r="D723" s="26"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
     </row>
     <row r="724" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D724" s="2"/>
+      <c r="D724" s="26"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
     </row>
     <row r="725" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D725" s="2"/>
+      <c r="D725" s="26"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
     </row>
     <row r="726" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D726" s="2"/>
+      <c r="D726" s="26"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
     </row>
     <row r="727" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D727" s="2"/>
+      <c r="D727" s="26"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
     </row>
     <row r="728" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D728" s="2"/>
+      <c r="D728" s="26"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
     </row>
     <row r="729" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D729" s="2"/>
+      <c r="D729" s="26"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
     </row>
     <row r="730" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D730" s="2"/>
+      <c r="D730" s="26"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
     </row>
     <row r="731" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D731" s="2"/>
+      <c r="D731" s="26"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
     </row>
     <row r="732" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D732" s="2"/>
+      <c r="D732" s="26"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
     </row>
     <row r="733" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D733" s="2"/>
+      <c r="D733" s="26"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
     <row r="734" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D734" s="2"/>
+      <c r="D734" s="26"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
     </row>
     <row r="735" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D735" s="2"/>
+      <c r="D735" s="26"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D736" s="2"/>
+      <c r="D736" s="26"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
     </row>
     <row r="737" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D737" s="2"/>
+      <c r="D737" s="26"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
     </row>
     <row r="738" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D738" s="2"/>
+      <c r="D738" s="26"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
     </row>
     <row r="739" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D739" s="2"/>
+      <c r="D739" s="26"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
     <row r="740" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D740" s="2"/>
+      <c r="D740" s="26"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
     <row r="741" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D741" s="2"/>
+      <c r="D741" s="26"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
     <row r="742" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D742" s="2"/>
+      <c r="D742" s="26"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
     <row r="743" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D743" s="2"/>
+      <c r="D743" s="26"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
     <row r="744" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D744" s="2"/>
+      <c r="D744" s="26"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
     <row r="745" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D745" s="2"/>
+      <c r="D745" s="26"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
     </row>
     <row r="746" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D746" s="2"/>
+      <c r="D746" s="26"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
     </row>
     <row r="747" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D747" s="2"/>
+      <c r="D747" s="26"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
     </row>
     <row r="748" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D748" s="2"/>
+      <c r="D748" s="26"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
     </row>
     <row r="749" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D749" s="2"/>
+      <c r="D749" s="26"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
     </row>
     <row r="750" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D750" s="2"/>
+      <c r="D750" s="26"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
     </row>
     <row r="751" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D751" s="2"/>
+      <c r="D751" s="26"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
     </row>
     <row r="752" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D752" s="2"/>
+      <c r="D752" s="26"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
     </row>
     <row r="753" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D753" s="2"/>
+      <c r="D753" s="26"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
     </row>
     <row r="754" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D754" s="2"/>
+      <c r="D754" s="26"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
     </row>
     <row r="755" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D755" s="2"/>
+      <c r="D755" s="26"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
     </row>
     <row r="756" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D756" s="2"/>
+      <c r="D756" s="26"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
     <row r="757" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D757" s="2"/>
+      <c r="D757" s="26"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
     </row>
     <row r="758" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D758" s="2"/>
+      <c r="D758" s="26"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
     </row>
     <row r="759" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D759" s="2"/>
+      <c r="D759" s="26"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
     </row>
     <row r="760" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D760" s="2"/>
+      <c r="D760" s="26"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
     </row>
     <row r="761" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D761" s="2"/>
+      <c r="D761" s="26"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
     </row>
     <row r="762" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D762" s="2"/>
+      <c r="D762" s="26"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
     </row>
     <row r="763" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D763" s="2"/>
+      <c r="D763" s="26"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
     </row>
     <row r="764" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D764" s="2"/>
+      <c r="D764" s="26"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
     </row>
     <row r="765" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D765" s="2"/>
+      <c r="D765" s="26"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
     </row>
     <row r="766" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D766" s="2"/>
+      <c r="D766" s="26"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
     </row>
     <row r="767" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D767" s="2"/>
+      <c r="D767" s="26"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
     </row>
     <row r="768" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D768" s="2"/>
+      <c r="D768" s="26"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
     </row>
     <row r="769" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D769" s="2"/>
+      <c r="D769" s="26"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D770" s="2"/>
+      <c r="D770" s="26"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D771" s="2"/>
+      <c r="D771" s="26"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
     </row>
     <row r="772" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D772" s="2"/>
+      <c r="D772" s="26"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
     </row>
     <row r="773" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D773" s="2"/>
+      <c r="D773" s="26"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
     <row r="774" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D774" s="2"/>
+      <c r="D774" s="26"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
     </row>
     <row r="775" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D775" s="2"/>
+      <c r="D775" s="26"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D776" s="2"/>
+      <c r="D776" s="26"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
     </row>
     <row r="777" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D777" s="2"/>
+      <c r="D777" s="26"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
     </row>
     <row r="778" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D778" s="2"/>
+      <c r="D778" s="26"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
     </row>
     <row r="779" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D779" s="2"/>
+      <c r="D779" s="26"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
     </row>
     <row r="780" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D780" s="2"/>
+      <c r="D780" s="26"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
     </row>
     <row r="781" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D781" s="2"/>
+      <c r="D781" s="26"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
     </row>
     <row r="782" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D782" s="2"/>
+      <c r="D782" s="26"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
     </row>
     <row r="783" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D783" s="2"/>
+      <c r="D783" s="26"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D784" s="2"/>
+      <c r="D784" s="26"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
     </row>
     <row r="785" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D785" s="2"/>
+      <c r="D785" s="26"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
     </row>
     <row r="786" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D786" s="2"/>
+      <c r="D786" s="26"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
     <row r="787" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D787" s="2"/>
+      <c r="D787" s="26"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D788" s="2"/>
+      <c r="D788" s="26"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D789" s="2"/>
+      <c r="D789" s="26"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
     </row>
     <row r="790" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D790" s="2"/>
+      <c r="D790" s="26"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
     </row>
     <row r="791" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D791" s="2"/>
+      <c r="D791" s="26"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
     </row>
     <row r="792" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D792" s="2"/>
+      <c r="D792" s="26"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
     </row>
     <row r="793" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D793" s="2"/>
+      <c r="D793" s="26"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
     </row>
     <row r="794" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D794" s="2"/>
+      <c r="D794" s="26"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
     </row>
     <row r="795" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D795" s="2"/>
+      <c r="D795" s="26"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
     </row>
     <row r="796" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D796" s="2"/>
+      <c r="D796" s="26"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
     </row>
     <row r="797" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D797" s="2"/>
+      <c r="D797" s="26"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
     </row>
     <row r="798" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D798" s="2"/>
+      <c r="D798" s="26"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
     </row>
     <row r="799" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D799" s="2"/>
+      <c r="D799" s="26"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
     <row r="800" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D800" s="2"/>
+      <c r="D800" s="26"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D801" s="2"/>
+      <c r="D801" s="26"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
     </row>
     <row r="802" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D802" s="2"/>
+      <c r="D802" s="26"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
     </row>
     <row r="803" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D803" s="2"/>
+      <c r="D803" s="26"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
     </row>
     <row r="804" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D804" s="2"/>
+      <c r="D804" s="26"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
     </row>
     <row r="805" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D805" s="2"/>
+      <c r="D805" s="26"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
     </row>
     <row r="806" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D806" s="2"/>
+      <c r="D806" s="26"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
     </row>
     <row r="807" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D807" s="2"/>
+      <c r="D807" s="26"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D808" s="2"/>
+      <c r="D808" s="26"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
     </row>
     <row r="809" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D809" s="2"/>
+      <c r="D809" s="26"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
     </row>
     <row r="810" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D810" s="2"/>
+      <c r="D810" s="26"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
     </row>
     <row r="811" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D811" s="2"/>
+      <c r="D811" s="26"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
     </row>
     <row r="812" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D812" s="2"/>
+      <c r="D812" s="26"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
     </row>
     <row r="813" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D813" s="2"/>
+      <c r="D813" s="26"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
     </row>
     <row r="814" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D814" s="2"/>
+      <c r="D814" s="26"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
     </row>
     <row r="815" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D815" s="2"/>
+      <c r="D815" s="26"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
     </row>
     <row r="816" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D816" s="2"/>
+      <c r="D816" s="26"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
     </row>
     <row r="817" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D817" s="2"/>
+      <c r="D817" s="26"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
     </row>
     <row r="818" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D818" s="2"/>
+      <c r="D818" s="26"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
     </row>
     <row r="819" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D819" s="2"/>
+      <c r="D819" s="26"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
     </row>
     <row r="820" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D820" s="2"/>
+      <c r="D820" s="26"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
     </row>
     <row r="821" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D821" s="2"/>
+      <c r="D821" s="26"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
     </row>
     <row r="822" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D822" s="2"/>
+      <c r="D822" s="26"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
     <row r="823" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D823" s="2"/>
+      <c r="D823" s="26"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
     <row r="824" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D824" s="2"/>
+      <c r="D824" s="26"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
     </row>
     <row r="825" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D825" s="2"/>
+      <c r="D825" s="26"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D826" s="2"/>
+      <c r="D826" s="26"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
     </row>
     <row r="827" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D827" s="2"/>
+      <c r="D827" s="26"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
     </row>
     <row r="828" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D828" s="2"/>
+      <c r="D828" s="26"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
     </row>
     <row r="829" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D829" s="2"/>
+      <c r="D829" s="26"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
     </row>
     <row r="830" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="2"/>
+      <c r="D830" s="26"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D831" s="2"/>
+      <c r="D831" s="26"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
     </row>
     <row r="832" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D832" s="2"/>
+      <c r="D832" s="26"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
     </row>
     <row r="833" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D833" s="2"/>
+      <c r="D833" s="26"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
     </row>
     <row r="834" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D834" s="2"/>
+      <c r="D834" s="26"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
     </row>
     <row r="835" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D835" s="2"/>
+      <c r="D835" s="26"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
     </row>
     <row r="836" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D836" s="2"/>
+      <c r="D836" s="26"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
     </row>
     <row r="837" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D837" s="2"/>
+      <c r="D837" s="26"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
     </row>
     <row r="838" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D838" s="2"/>
+      <c r="D838" s="26"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
     <row r="839" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D839" s="2"/>
+      <c r="D839" s="26"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
     </row>
     <row r="840" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D840" s="2"/>
+      <c r="D840" s="26"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
     </row>
     <row r="841" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D841" s="2"/>
+      <c r="D841" s="26"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
     </row>
     <row r="842" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D842" s="2"/>
+      <c r="D842" s="26"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
     </row>
     <row r="843" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D843" s="2"/>
+      <c r="D843" s="26"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
     </row>
     <row r="844" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D844" s="2"/>
+      <c r="D844" s="26"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
     </row>
     <row r="845" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D845" s="2"/>
+      <c r="D845" s="26"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
     </row>
     <row r="846" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D846" s="2"/>
+      <c r="D846" s="26"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
     </row>
     <row r="847" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D847" s="2"/>
+      <c r="D847" s="26"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
     </row>
     <row r="848" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D848" s="2"/>
+      <c r="D848" s="26"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
     </row>
     <row r="849" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D849" s="2"/>
+      <c r="D849" s="26"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D850" s="2"/>
+      <c r="D850" s="26"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
     </row>
     <row r="851" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D851" s="2"/>
+      <c r="D851" s="26"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
     </row>
     <row r="852" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D852" s="2"/>
+      <c r="D852" s="26"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
     </row>
     <row r="853" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D853" s="2"/>
+      <c r="D853" s="26"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
     </row>
     <row r="854" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D854" s="2"/>
+      <c r="D854" s="26"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
     </row>
     <row r="855" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D855" s="2"/>
+      <c r="D855" s="26"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
     </row>
     <row r="856" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D856" s="2"/>
+      <c r="D856" s="26"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
     </row>
     <row r="857" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D857" s="2"/>
+      <c r="D857" s="26"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
     </row>
     <row r="858" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D858" s="2"/>
+      <c r="D858" s="26"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
     </row>
     <row r="859" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D859" s="2"/>
+      <c r="D859" s="26"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
     </row>
     <row r="860" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D860" s="2"/>
+      <c r="D860" s="26"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
     <row r="861" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D861" s="2"/>
+      <c r="D861" s="26"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
     </row>
     <row r="862" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D862" s="2"/>
+      <c r="D862" s="26"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
     </row>
     <row r="863" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D863" s="2"/>
+      <c r="D863" s="26"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D864" s="2"/>
+      <c r="D864" s="26"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
     </row>
     <row r="865" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D865" s="2"/>
+      <c r="D865" s="26"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
     </row>
     <row r="866" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D866" s="2"/>
+      <c r="D866" s="26"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
     </row>
     <row r="867" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D867" s="2"/>
+      <c r="D867" s="26"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
     </row>
     <row r="868" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D868" s="2"/>
+      <c r="D868" s="26"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
     </row>
     <row r="869" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D869" s="2"/>
+      <c r="D869" s="26"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
     </row>
     <row r="870" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D870" s="2"/>
+      <c r="D870" s="26"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
     </row>
     <row r="871" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D871" s="2"/>
+      <c r="D871" s="26"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D872" s="2"/>
+      <c r="D872" s="26"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
     </row>
     <row r="873" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D873" s="2"/>
+      <c r="D873" s="26"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
     </row>
     <row r="874" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D874" s="2"/>
+      <c r="D874" s="26"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
     </row>
     <row r="875" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D875" s="2"/>
+      <c r="D875" s="26"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
     </row>
     <row r="876" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D876" s="2"/>
+      <c r="D876" s="26"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
     </row>
     <row r="877" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D877" s="2"/>
+      <c r="D877" s="26"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
     </row>
     <row r="878" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D878" s="2"/>
+      <c r="D878" s="26"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
     </row>
     <row r="879" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D879" s="2"/>
+      <c r="D879" s="26"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
     </row>
     <row r="880" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D880" s="2"/>
+      <c r="D880" s="26"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
     </row>
     <row r="881" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D881" s="2"/>
+      <c r="D881" s="26"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
     </row>
     <row r="882" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D882" s="2"/>
+      <c r="D882" s="26"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
     </row>
     <row r="883" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D883" s="2"/>
+      <c r="D883" s="26"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
     </row>
     <row r="884" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D884" s="2"/>
+      <c r="D884" s="26"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
     </row>
     <row r="885" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D885" s="2"/>
+      <c r="D885" s="26"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
     </row>
     <row r="886" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D886" s="2"/>
+      <c r="D886" s="26"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
     </row>
     <row r="887" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D887" s="2"/>
+      <c r="D887" s="26"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
     </row>
     <row r="888" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D888" s="2"/>
+      <c r="D888" s="26"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
     </row>
     <row r="889" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D889" s="2"/>
+      <c r="D889" s="26"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
     </row>
     <row r="890" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D890" s="2"/>
+      <c r="D890" s="26"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
     </row>
     <row r="891" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D891" s="2"/>
+      <c r="D891" s="26"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
     </row>
     <row r="892" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D892" s="2"/>
+      <c r="D892" s="26"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
     </row>
     <row r="893" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D893" s="2"/>
+      <c r="D893" s="26"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
     </row>
     <row r="894" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D894" s="2"/>
+      <c r="D894" s="26"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
     </row>
     <row r="895" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D895" s="2"/>
+      <c r="D895" s="26"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
     </row>
     <row r="896" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D896" s="2"/>
+      <c r="D896" s="26"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
     </row>
     <row r="897" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D897" s="2"/>
+      <c r="D897" s="26"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
     </row>
     <row r="898" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D898" s="2"/>
+      <c r="D898" s="26"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
     </row>
     <row r="899" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D899" s="2"/>
+      <c r="D899" s="26"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
     </row>
     <row r="900" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D900" s="2"/>
+      <c r="D900" s="26"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
     </row>
     <row r="901" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D901" s="2"/>
+      <c r="D901" s="26"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
     </row>
     <row r="902" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D902" s="2"/>
+      <c r="D902" s="26"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
     </row>
     <row r="903" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D903" s="2"/>
+      <c r="D903" s="26"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
     </row>
     <row r="904" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D904" s="2"/>
+      <c r="D904" s="26"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
     </row>
     <row r="905" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D905" s="2"/>
+      <c r="D905" s="26"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
     </row>
     <row r="906" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D906" s="2"/>
+      <c r="D906" s="26"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
     </row>
     <row r="907" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D907" s="2"/>
+      <c r="D907" s="26"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
     </row>
     <row r="908" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D908" s="2"/>
+      <c r="D908" s="26"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
     </row>
     <row r="909" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D909" s="2"/>
+      <c r="D909" s="26"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D910" s="2"/>
+      <c r="D910" s="26"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
     </row>
     <row r="911" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D911" s="2"/>
+      <c r="D911" s="26"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
     </row>
     <row r="912" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D912" s="2"/>
+      <c r="D912" s="26"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
     </row>
     <row r="913" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D913" s="2"/>
+      <c r="D913" s="26"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
     </row>
     <row r="914" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D914" s="2"/>
+      <c r="D914" s="26"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
     </row>
     <row r="915" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D915" s="2"/>
+      <c r="D915" s="26"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
     </row>
     <row r="916" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D916" s="2"/>
+      <c r="D916" s="26"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
     </row>
     <row r="917" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D917" s="2"/>
+      <c r="D917" s="26"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
     </row>
     <row r="918" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D918" s="2"/>
+      <c r="D918" s="26"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
     </row>
     <row r="919" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D919" s="2"/>
+      <c r="D919" s="26"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
     </row>
     <row r="920" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D920" s="2"/>
+      <c r="D920" s="26"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
     </row>
     <row r="921" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D921" s="2"/>
+      <c r="D921" s="26"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
     </row>
     <row r="922" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D922" s="2"/>
+      <c r="D922" s="26"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
     </row>
     <row r="923" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D923" s="2"/>
+      <c r="D923" s="26"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D924" s="2"/>
+      <c r="D924" s="26"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
     </row>
     <row r="925" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D925" s="2"/>
+      <c r="D925" s="26"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
     </row>
     <row r="926" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D926" s="2"/>
+      <c r="D926" s="26"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
     </row>
     <row r="927" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D927" s="2"/>
+      <c r="D927" s="26"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
     <row r="928" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D928" s="2"/>
+      <c r="D928" s="26"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
     </row>
     <row r="929" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D929" s="2"/>
+      <c r="D929" s="26"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
     </row>
     <row r="930" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D930" s="2"/>
+      <c r="D930" s="26"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
     </row>
     <row r="931" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D931" s="2"/>
+      <c r="D931" s="26"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
     </row>
     <row r="932" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D932" s="2"/>
+      <c r="D932" s="26"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
     </row>
     <row r="933" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D933" s="2"/>
+      <c r="D933" s="26"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
     </row>
     <row r="934" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D934" s="2"/>
+      <c r="D934" s="26"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
     </row>
     <row r="935" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D935" s="2"/>
+      <c r="D935" s="26"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
     </row>
     <row r="936" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D936" s="2"/>
+      <c r="D936" s="26"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
     </row>
     <row r="937" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D937" s="2"/>
+      <c r="D937" s="26"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
     </row>
     <row r="938" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D938" s="2"/>
+      <c r="D938" s="26"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D939" s="2"/>
+      <c r="D939" s="26"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
     </row>
     <row r="940" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D940" s="2"/>
+      <c r="D940" s="26"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
     </row>
     <row r="941" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D941" s="2"/>
+      <c r="D941" s="26"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
     </row>
     <row r="942" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D942" s="2"/>
+      <c r="D942" s="26"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
     </row>
     <row r="943" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D943" s="2"/>
+      <c r="D943" s="26"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
     </row>
     <row r="944" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D944" s="2"/>
+      <c r="D944" s="26"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
     </row>
     <row r="945" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D945" s="2"/>
+      <c r="D945" s="26"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
     </row>
     <row r="946" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D946" s="2"/>
+      <c r="D946" s="26"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
     </row>
     <row r="947" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D947" s="2"/>
+      <c r="D947" s="26"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D948" s="2"/>
+      <c r="D948" s="26"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
     <row r="949" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D949" s="2"/>
+      <c r="D949" s="26"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
     <row r="950" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D950" s="2"/>
+      <c r="D950" s="26"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
     <row r="951" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D951" s="2"/>
+      <c r="D951" s="26"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
     </row>
     <row r="952" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D952" s="2"/>
+      <c r="D952" s="26"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
     </row>
     <row r="953" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D953" s="2"/>
+      <c r="D953" s="26"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
     <row r="954" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D954" s="2"/>
+      <c r="D954" s="26"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
     </row>
     <row r="955" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D955" s="2"/>
+      <c r="D955" s="26"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
     </row>
     <row r="956" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D956" s="2"/>
+      <c r="D956" s="26"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
     </row>
     <row r="957" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D957" s="2"/>
+      <c r="D957" s="26"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
     </row>
     <row r="958" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D958" s="2"/>
+      <c r="D958" s="26"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
     </row>
     <row r="959" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D959" s="2"/>
+      <c r="D959" s="26"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
     </row>
     <row r="960" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D960" s="2"/>
+      <c r="D960" s="26"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D961" s="2"/>
+      <c r="D961" s="26"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
     </row>
     <row r="962" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D962" s="2"/>
+      <c r="D962" s="26"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
     <row r="963" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D963" s="2"/>
+      <c r="D963" s="26"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
     </row>
     <row r="964" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D964" s="2"/>
+      <c r="D964" s="26"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
     </row>
     <row r="965" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D965" s="2"/>
+      <c r="D965" s="26"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
     </row>
     <row r="966" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D966" s="2"/>
+      <c r="D966" s="26"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
     </row>
     <row r="967" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D967" s="2"/>
+      <c r="D967" s="26"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
     </row>
     <row r="968" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D968" s="2"/>
+      <c r="D968" s="26"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D969" s="2"/>
+      <c r="D969" s="26"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
     <row r="970" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D970" s="2"/>
+      <c r="D970" s="26"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
     <row r="971" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D971" s="2"/>
+      <c r="D971" s="26"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
     <row r="972" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D972" s="2"/>
+      <c r="D972" s="26"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
     <row r="973" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D973" s="2"/>
+      <c r="D973" s="26"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
     <row r="974" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D974" s="2"/>
+      <c r="D974" s="26"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
     </row>
     <row r="975" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D975" s="2"/>
+      <c r="D975" s="26"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
     </row>
     <row r="976" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D976" s="2"/>
+      <c r="D976" s="26"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
     <row r="977" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D977" s="2"/>
+      <c r="D977" s="26"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
     </row>
     <row r="978" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D978" s="2"/>
+      <c r="D978" s="26"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
     </row>
     <row r="979" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D979" s="2"/>
+      <c r="D979" s="26"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
     </row>
     <row r="980" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D980" s="2"/>
+      <c r="D980" s="26"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
     </row>
     <row r="981" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D981" s="2"/>
+      <c r="D981" s="26"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
     </row>
     <row r="982" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D982" s="2"/>
+      <c r="D982" s="26"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
     </row>
     <row r="983" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D983" s="2"/>
+      <c r="D983" s="26"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
     </row>
     <row r="984" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D984" s="2"/>
+      <c r="D984" s="26"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
     </row>
     <row r="985" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D985" s="2"/>
+      <c r="D985" s="26"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
     </row>
     <row r="986" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D986" s="2"/>
+      <c r="D986" s="26"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
     </row>
     <row r="987" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D987" s="2"/>
+      <c r="D987" s="26"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
     </row>
     <row r="988" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D988" s="2"/>
+      <c r="D988" s="26"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
     </row>
     <row r="989" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D989" s="2"/>
+      <c r="D989" s="26"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
     </row>
     <row r="990" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D990" s="2"/>
+      <c r="D990" s="26"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
     <row r="991" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D991" s="2"/>
+      <c r="D991" s="26"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
     <row r="992" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D992" s="2"/>
+      <c r="D992" s="26"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
     </row>
     <row r="993" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D993" s="2"/>
+      <c r="D993" s="26"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D994" s="2"/>
+      <c r="D994" s="26"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
     </row>
     <row r="995" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D995" s="2"/>
+      <c r="D995" s="26"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
     </row>
     <row r="996" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D996" s="2"/>
+      <c r="D996" s="26"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
     <row r="997" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D997" s="2"/>
+      <c r="D997" s="26"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
     </row>
     <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="2"/>
+      <c r="D998" s="26"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
     </row>
     <row r="999" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D999" s="2"/>
+      <c r="D999" s="26"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="2"/>
+      <c r="D1000" s="26"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
     <row r="1001" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1001" s="2"/>
+      <c r="D1001" s="26"/>
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
     <row r="1002" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1002" s="2"/>
+      <c r="D1002" s="26"/>
       <c r="E1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
     <row r="1003" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1003" s="2"/>
+      <c r="D1003" s="26"/>
       <c r="E1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
     <row r="1004" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1004" s="2"/>
+      <c r="D1004" s="26"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="2"/>
+      <c r="D1005" s="26"/>
       <c r="E1005" s="2"/>
       <c r="F1005" s="2"/>
-    </row>
-    <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1006" s="2"/>
-      <c r="E1006" s="2"/>
-      <c r="F1006" s="2"/>
-    </row>
-    <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1007" s="2"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
-    </row>
-    <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1008" s="2"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C200C4F-3900-4A95-9E97-6FE651144163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C4C7DE-4F8E-4FE6-B75E-89227AAE8332}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -298,39 +298,7 @@
     <t>panier js</t>
   </si>
   <si>
-    <t>recapitulatifPanier</t>
-  </si>
-  <si>
-    <r>
-      <t>retourne les donnes produit dans un nouveau</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> tableau panier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-fonction commune a tous les produits</t>
-    </r>
-  </si>
-  <si>
-    <t>combienProduitPanier</t>
-  </si>
-  <si>
     <t>calculPrixTotalPanier</t>
-  </si>
-  <si>
-    <t>Calculer le prix totale suivant le nombre d'article ajouté</t>
   </si>
   <si>
     <t>compter le nombre d'article dans le panier
@@ -360,13 +328,6 @@
   <si>
     <t xml:space="preserve">
 clickValidationFormulaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-clickSuppressionProduitPanier</t>
-  </si>
-  <si>
-    <t>clickEnvoieProduitPanier</t>
   </si>
   <si>
     <t>envoyer le formulaire au serveur: 
@@ -379,51 +340,6 @@
 stringTableauPanier</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A chaque ajout d'un contenu au </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>tableauProduitPanier</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, ajout d'une nouvelle ligne avec la description du produit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">supprimer un produit du </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tableau panier </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-modif de quantité</t>
-    </r>
-  </si>
-  <si>
     <t>Convertir les donnes du array en string
 A REECRIRE</t>
   </si>
@@ -502,13 +418,80 @@
   </si>
   <si>
     <t>La fonction doit créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ajoutQuantitePanier</t>
+  </si>
+  <si>
+    <t>suppressionQuantitePanier</t>
+  </si>
+  <si>
+    <t>Au click, ajoute 1 de la valeur de l'id correspondant</t>
+  </si>
+  <si>
+    <t>calculPrixTotalUnitaire</t>
+  </si>
+  <si>
+    <t>Calculer le prix totale de chaque produit suivant sa quantité</t>
+  </si>
+  <si>
+    <t>Fais la somme de la fonction calculPrixTotalUnitaire</t>
+  </si>
+  <si>
+    <t>ListeProduitsPanier</t>
+  </si>
+  <si>
+    <t>PanierVide</t>
+  </si>
+  <si>
+    <t>Inserer un contenu HTML informant que le panier est vide si aucun produit n'est present dans le cache</t>
+  </si>
+  <si>
+    <t>Vider le cache et voir si la balise HTML ainsi que le message s'affiche correctement</t>
+  </si>
+  <si>
+    <t>Si il y a un produit en cache a 0 quantité</t>
+  </si>
+  <si>
+    <t>creationBlocHtmlPanier</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page panier qui recevront le contenur des données</t>
+  </si>
+  <si>
+    <t>Extraire les donnees du cache: ID et valeur, dans un array
+Si cache vide, alors renvoie la fonction PanierVide
+Comparer les ID presentes à chaque ID de l'API,
+Si correspond alors charger les donnees dans les parametres de la fonction creationBlocHtmlPanier</t>
+  </si>
+  <si>
+    <t>Ajout des differents produits dans le panier
+Puis faire varier leur valeur
+Vider le cache</t>
+  </si>
+  <si>
+    <t>nombreProduitsPanier</t>
+  </si>
+  <si>
+    <t>viderPanier</t>
+  </si>
+  <si>
+    <t>vide le cache du navigateur et recharge la page panier pour supprimer tout le panier</t>
+  </si>
+  <si>
+    <t>Ajouter des elements dans le panier et clicker sur le bouton vider panier
+Console.log(localstorage) pour regarder si le cache est bien vide</t>
+  </si>
+  <si>
+    <t>Creer un compteur pour recuperer la valeur de chaque objet du cache</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -549,14 +532,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,12 +544,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -673,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,12 +685,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,7 +701,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -958,11 +928,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1005"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -970,7 +940,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="26" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
@@ -985,7 +955,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1016,162 +986,164 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>102</v>
+      <c r="A2" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>116</v>
+      <c r="D2" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>117</v>
+        <v>93</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>119</v>
+        <v>91</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>98</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>77</v>
+      <c r="A9" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>111</v>
+        <v>102</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>96</v>
+        <v>125</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>76</v>
+    <row r="11" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="11"/>
-      <c r="C11" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="C11" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -1179,68 +1151,74 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="12"/>
+      <c r="C14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>85</v>
+      <c r="C15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="C16" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1248,13 +1226,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="C17" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="12"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1263,5003 +1241,5059 @@
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>88</v>
+        <v>80</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>81</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="E20" s="4"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="24"/>
+    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>86</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="24"/>
+    <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="23"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="24"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="24"/>
+      <c r="D29" s="23"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="24"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="24"/>
+      <c r="D31" s="23"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="24"/>
+      <c r="D32" s="23"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="24"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="24"/>
+      <c r="D34" s="23"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="24"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="24"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="24"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="24"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="24"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="24"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="24"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D42" s="26"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="26"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="26"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="26"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="26"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="26"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="26"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="26"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="26"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="26"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D52" s="26"/>
+    <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D52" s="25"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D53" s="26"/>
+    <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="25"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D54" s="26"/>
+    <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="25"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D55" s="26"/>
+    <row r="55" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="25"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="26"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="26"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="26"/>
+      <c r="D58" s="25"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="26"/>
+      <c r="D59" s="25"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="26"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="26"/>
+      <c r="D61" s="25"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="26"/>
+      <c r="D62" s="25"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="26"/>
+      <c r="D63" s="25"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="26"/>
+      <c r="D64" s="25"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D65" s="26"/>
+      <c r="D65" s="25"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D66" s="26"/>
+      <c r="D66" s="25"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="26"/>
+      <c r="D67" s="25"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D68" s="26"/>
+      <c r="D68" s="25"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D69" s="26"/>
+      <c r="D69" s="25"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="26"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="26"/>
+      <c r="D71" s="25"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="26"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="26"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="26"/>
+      <c r="D74" s="25"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D75" s="26"/>
+      <c r="D75" s="25"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="26"/>
+      <c r="D76" s="25"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="26"/>
+      <c r="D77" s="25"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="26"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D79" s="26"/>
+      <c r="D79" s="25"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D80" s="26"/>
+      <c r="D80" s="25"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D81" s="26"/>
+      <c r="D81" s="25"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D82" s="26"/>
+      <c r="D82" s="25"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D83" s="26"/>
+      <c r="D83" s="25"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D84" s="26"/>
+      <c r="D84" s="25"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D85" s="26"/>
+      <c r="D85" s="25"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D86" s="26"/>
+      <c r="D86" s="25"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D87" s="26"/>
+      <c r="D87" s="25"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D88" s="26"/>
+      <c r="D88" s="25"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D89" s="26"/>
+      <c r="D89" s="25"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D90" s="26"/>
+      <c r="D90" s="25"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D91" s="26"/>
+      <c r="D91" s="25"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D92" s="26"/>
+      <c r="D92" s="25"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D93" s="26"/>
+      <c r="D93" s="25"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D94" s="26"/>
+      <c r="D94" s="25"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D95" s="26"/>
+      <c r="D95" s="25"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D96" s="26"/>
+      <c r="D96" s="25"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D97" s="26"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D98" s="26"/>
+      <c r="D98" s="25"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D99" s="26"/>
+      <c r="D99" s="25"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D100" s="26"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D101" s="26"/>
+      <c r="D101" s="25"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D102" s="26"/>
+      <c r="D102" s="25"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D103" s="26"/>
+      <c r="D103" s="25"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D104" s="26"/>
+      <c r="D104" s="25"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D105" s="26"/>
+      <c r="D105" s="25"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D106" s="26"/>
+      <c r="D106" s="25"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D107" s="26"/>
+      <c r="D107" s="25"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D108" s="26"/>
+      <c r="D108" s="25"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D109" s="26"/>
+      <c r="D109" s="25"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D110" s="26"/>
+      <c r="D110" s="25"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D111" s="26"/>
+      <c r="D111" s="25"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D112" s="26"/>
+      <c r="D112" s="25"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D113" s="26"/>
+      <c r="D113" s="25"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D114" s="26"/>
+      <c r="D114" s="25"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="26"/>
+      <c r="D115" s="25"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D116" s="26"/>
+      <c r="D116" s="25"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D117" s="26"/>
+      <c r="D117" s="25"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D118" s="26"/>
+      <c r="D118" s="25"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D119" s="26"/>
+      <c r="D119" s="25"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D120" s="26"/>
+      <c r="D120" s="25"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D121" s="26"/>
+      <c r="D121" s="25"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D122" s="26"/>
+      <c r="D122" s="25"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D123" s="26"/>
+      <c r="D123" s="25"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D124" s="26"/>
+      <c r="D124" s="25"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D125" s="26"/>
+      <c r="D125" s="25"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D126" s="26"/>
+      <c r="D126" s="25"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D127" s="26"/>
+      <c r="D127" s="25"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D128" s="26"/>
+      <c r="D128" s="25"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D129" s="26"/>
+      <c r="D129" s="25"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D130" s="26"/>
+      <c r="D130" s="25"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D131" s="26"/>
+      <c r="D131" s="25"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D132" s="26"/>
+      <c r="D132" s="25"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D133" s="26"/>
+      <c r="D133" s="25"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D134" s="26"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D135" s="26"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D136" s="26"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D137" s="26"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D138" s="26"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D139" s="26"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D140" s="26"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D141" s="26"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D142" s="26"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D143" s="26"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D144" s="26"/>
+      <c r="D144" s="25"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D145" s="26"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D146" s="26"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D147" s="26"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D148" s="26"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D149" s="26"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D150" s="26"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D151" s="26"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D152" s="26"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D153" s="26"/>
+      <c r="D153" s="25"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D154" s="26"/>
+      <c r="D154" s="25"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D155" s="26"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="26"/>
+      <c r="D156" s="25"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D157" s="26"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="26"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D159" s="26"/>
+      <c r="D159" s="25"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D160" s="26"/>
+      <c r="D160" s="25"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D161" s="26"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D162" s="26"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D163" s="26"/>
+      <c r="D163" s="25"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="26"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="26"/>
+      <c r="D165" s="25"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="26"/>
+      <c r="D166" s="25"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="26"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="26"/>
+      <c r="D168" s="25"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="26"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="26"/>
+      <c r="D170" s="25"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D171" s="26"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D172" s="26"/>
+      <c r="D172" s="25"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D173" s="26"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D174" s="26"/>
+      <c r="D174" s="25"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D175" s="26"/>
+      <c r="D175" s="25"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D176" s="26"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D177" s="26"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D178" s="26"/>
+      <c r="D178" s="25"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D179" s="26"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D180" s="26"/>
+      <c r="D180" s="25"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D181" s="26"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D182" s="26"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D183" s="26"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D184" s="26"/>
+      <c r="D184" s="25"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D185" s="26"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D186" s="26"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D187" s="26"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D188" s="26"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D189" s="26"/>
+      <c r="D189" s="25"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D190" s="26"/>
+      <c r="D190" s="25"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D191" s="26"/>
+      <c r="D191" s="25"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D192" s="26"/>
+      <c r="D192" s="25"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D193" s="26"/>
+      <c r="D193" s="25"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D194" s="26"/>
+      <c r="D194" s="25"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D195" s="26"/>
+      <c r="D195" s="25"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D196" s="26"/>
+      <c r="D196" s="25"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D197" s="26"/>
+      <c r="D197" s="25"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D198" s="26"/>
+      <c r="D198" s="25"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D199" s="26"/>
+      <c r="D199" s="25"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D200" s="26"/>
+      <c r="D200" s="25"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D201" s="26"/>
+      <c r="D201" s="25"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D202" s="26"/>
+      <c r="D202" s="25"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D203" s="26"/>
+      <c r="D203" s="25"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D204" s="26"/>
+      <c r="D204" s="25"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D205" s="26"/>
+      <c r="D205" s="25"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D206" s="26"/>
+      <c r="D206" s="25"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D207" s="26"/>
+      <c r="D207" s="25"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D208" s="26"/>
+      <c r="D208" s="25"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D209" s="26"/>
+      <c r="D209" s="25"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D210" s="26"/>
+      <c r="D210" s="25"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D211" s="26"/>
+      <c r="D211" s="25"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D212" s="26"/>
+      <c r="D212" s="25"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D213" s="26"/>
+      <c r="D213" s="25"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D214" s="26"/>
+      <c r="D214" s="25"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D215" s="26"/>
+      <c r="D215" s="25"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D216" s="26"/>
+      <c r="D216" s="25"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D217" s="26"/>
+      <c r="D217" s="25"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D218" s="26"/>
+      <c r="D218" s="25"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D219" s="26"/>
+      <c r="D219" s="25"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D220" s="26"/>
+      <c r="D220" s="25"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D221" s="26"/>
+      <c r="D221" s="25"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D222" s="26"/>
+      <c r="D222" s="25"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D223" s="26"/>
+      <c r="D223" s="25"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D224" s="26"/>
+      <c r="D224" s="25"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D225" s="26"/>
+      <c r="D225" s="25"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D226" s="26"/>
+      <c r="D226" s="25"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D227" s="26"/>
+      <c r="D227" s="25"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D228" s="26"/>
+      <c r="D228" s="25"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D229" s="26"/>
+      <c r="D229" s="25"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D230" s="26"/>
+      <c r="D230" s="25"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D231" s="26"/>
+      <c r="D231" s="25"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D232" s="26"/>
+      <c r="D232" s="25"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D233" s="26"/>
+      <c r="D233" s="25"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D234" s="26"/>
+      <c r="D234" s="25"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D235" s="26"/>
+      <c r="D235" s="25"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D236" s="26"/>
+      <c r="D236" s="25"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D237" s="26"/>
+      <c r="D237" s="25"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D238" s="26"/>
+      <c r="D238" s="25"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D239" s="26"/>
+      <c r="D239" s="25"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D240" s="26"/>
+      <c r="D240" s="25"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D241" s="26"/>
+      <c r="D241" s="25"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D242" s="26"/>
+      <c r="D242" s="25"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D243" s="26"/>
+      <c r="D243" s="25"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D244" s="26"/>
+      <c r="D244" s="25"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D245" s="26"/>
+      <c r="D245" s="25"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D246" s="26"/>
+      <c r="D246" s="25"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D247" s="26"/>
+      <c r="D247" s="25"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D248" s="26"/>
+      <c r="D248" s="25"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D249" s="26"/>
+      <c r="D249" s="25"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D250" s="26"/>
+      <c r="D250" s="25"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D251" s="26"/>
+      <c r="D251" s="25"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D252" s="26"/>
+      <c r="D252" s="25"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D253" s="26"/>
+      <c r="D253" s="25"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D254" s="26"/>
+      <c r="D254" s="25"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D255" s="26"/>
+      <c r="D255" s="25"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D256" s="26"/>
+      <c r="D256" s="25"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D257" s="26"/>
+      <c r="D257" s="25"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D258" s="26"/>
+      <c r="D258" s="25"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D259" s="26"/>
+      <c r="D259" s="25"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D260" s="26"/>
+      <c r="D260" s="25"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D261" s="26"/>
+      <c r="D261" s="25"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D262" s="26"/>
+      <c r="D262" s="25"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D263" s="26"/>
+      <c r="D263" s="25"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D264" s="26"/>
+      <c r="D264" s="25"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D265" s="26"/>
+      <c r="D265" s="25"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D266" s="26"/>
+      <c r="D266" s="25"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D267" s="26"/>
+      <c r="D267" s="25"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D268" s="26"/>
+      <c r="D268" s="25"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D269" s="26"/>
+      <c r="D269" s="25"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D270" s="26"/>
+      <c r="D270" s="25"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D271" s="26"/>
+      <c r="D271" s="25"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D272" s="26"/>
+      <c r="D272" s="25"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D273" s="26"/>
+      <c r="D273" s="25"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D274" s="26"/>
+      <c r="D274" s="25"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D275" s="26"/>
+      <c r="D275" s="25"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D276" s="26"/>
+      <c r="D276" s="25"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D277" s="26"/>
+      <c r="D277" s="25"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D278" s="26"/>
+      <c r="D278" s="25"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D279" s="26"/>
+      <c r="D279" s="25"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D280" s="26"/>
+      <c r="D280" s="25"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D281" s="26"/>
+      <c r="D281" s="25"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="26"/>
+      <c r="D282" s="25"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="26"/>
+      <c r="D283" s="25"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="26"/>
+      <c r="D284" s="25"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="26"/>
+      <c r="D285" s="25"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="26"/>
+      <c r="D286" s="25"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="26"/>
+      <c r="D287" s="25"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="26"/>
+      <c r="D288" s="25"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="26"/>
+      <c r="D289" s="25"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="26"/>
+      <c r="D290" s="25"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="26"/>
+      <c r="D291" s="25"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="26"/>
+      <c r="D292" s="25"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="26"/>
+      <c r="D293" s="25"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="26"/>
+      <c r="D294" s="25"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="26"/>
+      <c r="D295" s="25"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="26"/>
+      <c r="D296" s="25"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="26"/>
+      <c r="D297" s="25"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="26"/>
+      <c r="D298" s="25"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="26"/>
+      <c r="D299" s="25"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="26"/>
+      <c r="D300" s="25"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="26"/>
+      <c r="D301" s="25"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="26"/>
+      <c r="D302" s="25"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="26"/>
+      <c r="D303" s="25"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="26"/>
+      <c r="D304" s="25"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="26"/>
+      <c r="D305" s="25"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="26"/>
+      <c r="D306" s="25"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="26"/>
+      <c r="D307" s="25"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="26"/>
+      <c r="D308" s="25"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="26"/>
+      <c r="D309" s="25"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="26"/>
+      <c r="D310" s="25"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="26"/>
+      <c r="D311" s="25"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="26"/>
+      <c r="D312" s="25"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="26"/>
+      <c r="D313" s="25"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="26"/>
+      <c r="D314" s="25"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="26"/>
+      <c r="D315" s="25"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="26"/>
+      <c r="D316" s="25"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="26"/>
+      <c r="D317" s="25"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="26"/>
+      <c r="D318" s="25"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="26"/>
+      <c r="D319" s="25"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="26"/>
+      <c r="D320" s="25"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="26"/>
+      <c r="D321" s="25"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="26"/>
+      <c r="D322" s="25"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="26"/>
+      <c r="D323" s="25"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="26"/>
+      <c r="D324" s="25"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="26"/>
+      <c r="D325" s="25"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="26"/>
+      <c r="D326" s="25"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="26"/>
+      <c r="D327" s="25"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="26"/>
+      <c r="D328" s="25"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="26"/>
+      <c r="D329" s="25"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="26"/>
+      <c r="D330" s="25"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="26"/>
+      <c r="D331" s="25"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="26"/>
+      <c r="D332" s="25"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="26"/>
+      <c r="D333" s="25"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="26"/>
+      <c r="D334" s="25"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="26"/>
+      <c r="D335" s="25"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="26"/>
+      <c r="D336" s="25"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="26"/>
+      <c r="D337" s="25"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="26"/>
+      <c r="D338" s="25"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="26"/>
+      <c r="D339" s="25"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="26"/>
+      <c r="D340" s="25"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="26"/>
+      <c r="D341" s="25"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="26"/>
+      <c r="D342" s="25"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="26"/>
+      <c r="D343" s="25"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="26"/>
+      <c r="D344" s="25"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="26"/>
+      <c r="D345" s="25"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="26"/>
+      <c r="D346" s="25"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="26"/>
+      <c r="D347" s="25"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="26"/>
+      <c r="D348" s="25"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="26"/>
+      <c r="D349" s="25"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="26"/>
+      <c r="D350" s="25"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="26"/>
+      <c r="D351" s="25"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="26"/>
+      <c r="D352" s="25"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="26"/>
+      <c r="D353" s="25"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="26"/>
+      <c r="D354" s="25"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="26"/>
+      <c r="D355" s="25"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="26"/>
+      <c r="D356" s="25"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="26"/>
+      <c r="D357" s="25"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="26"/>
+      <c r="D358" s="25"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="26"/>
+      <c r="D359" s="25"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="26"/>
+      <c r="D360" s="25"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="26"/>
+      <c r="D361" s="25"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="26"/>
+      <c r="D362" s="25"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="26"/>
+      <c r="D363" s="25"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="26"/>
+      <c r="D364" s="25"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="26"/>
+      <c r="D365" s="25"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="26"/>
+      <c r="D366" s="25"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="26"/>
+      <c r="D367" s="25"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="26"/>
+      <c r="D368" s="25"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="26"/>
+      <c r="D369" s="25"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="26"/>
+      <c r="D370" s="25"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="26"/>
+      <c r="D371" s="25"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="26"/>
+      <c r="D372" s="25"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="26"/>
+      <c r="D373" s="25"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="26"/>
+      <c r="D374" s="25"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="26"/>
+      <c r="D375" s="25"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="26"/>
+      <c r="D376" s="25"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="26"/>
+      <c r="D377" s="25"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="26"/>
+      <c r="D378" s="25"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="26"/>
+      <c r="D379" s="25"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="26"/>
+      <c r="D380" s="25"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="26"/>
+      <c r="D381" s="25"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="26"/>
+      <c r="D382" s="25"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="26"/>
+      <c r="D383" s="25"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="26"/>
+      <c r="D384" s="25"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="26"/>
+      <c r="D385" s="25"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="26"/>
+      <c r="D386" s="25"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="26"/>
+      <c r="D387" s="25"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="26"/>
+      <c r="D388" s="25"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="26"/>
+      <c r="D389" s="25"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="26"/>
+      <c r="D390" s="25"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="26"/>
+      <c r="D391" s="25"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="26"/>
+      <c r="D392" s="25"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="26"/>
+      <c r="D393" s="25"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="26"/>
+      <c r="D394" s="25"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="26"/>
+      <c r="D395" s="25"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="26"/>
+      <c r="D396" s="25"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="26"/>
+      <c r="D397" s="25"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="26"/>
+      <c r="D398" s="25"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="26"/>
+      <c r="D399" s="25"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="26"/>
+      <c r="D400" s="25"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="26"/>
+      <c r="D401" s="25"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="26"/>
+      <c r="D402" s="25"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="26"/>
+      <c r="D403" s="25"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="26"/>
+      <c r="D404" s="25"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="26"/>
+      <c r="D405" s="25"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="26"/>
+      <c r="D406" s="25"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="26"/>
+      <c r="D407" s="25"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="26"/>
+      <c r="D408" s="25"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="26"/>
+      <c r="D409" s="25"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="26"/>
+      <c r="D410" s="25"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="26"/>
+      <c r="D411" s="25"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="26"/>
+      <c r="D412" s="25"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="26"/>
+      <c r="D413" s="25"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="26"/>
+      <c r="D414" s="25"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="26"/>
+      <c r="D415" s="25"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="26"/>
+      <c r="D416" s="25"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="26"/>
+      <c r="D417" s="25"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="26"/>
+      <c r="D418" s="25"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="26"/>
+      <c r="D419" s="25"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="26"/>
+      <c r="D420" s="25"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="26"/>
+      <c r="D421" s="25"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="26"/>
+      <c r="D422" s="25"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="26"/>
+      <c r="D423" s="25"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="26"/>
+      <c r="D424" s="25"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="26"/>
+      <c r="D425" s="25"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="26"/>
+      <c r="D426" s="25"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="26"/>
+      <c r="D427" s="25"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="26"/>
+      <c r="D428" s="25"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="26"/>
+      <c r="D429" s="25"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="26"/>
+      <c r="D430" s="25"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="26"/>
+      <c r="D431" s="25"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="26"/>
+      <c r="D432" s="25"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="26"/>
+      <c r="D433" s="25"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="26"/>
+      <c r="D434" s="25"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="26"/>
+      <c r="D435" s="25"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="26"/>
+      <c r="D436" s="25"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="26"/>
+      <c r="D437" s="25"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="26"/>
+      <c r="D438" s="25"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="26"/>
+      <c r="D439" s="25"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="26"/>
+      <c r="D440" s="25"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="26"/>
+      <c r="D441" s="25"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="26"/>
+      <c r="D442" s="25"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="26"/>
+      <c r="D443" s="25"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="26"/>
+      <c r="D444" s="25"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="26"/>
+      <c r="D445" s="25"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="26"/>
+      <c r="D446" s="25"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="26"/>
+      <c r="D447" s="25"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="26"/>
+      <c r="D448" s="25"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="26"/>
+      <c r="D449" s="25"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="26"/>
+      <c r="D450" s="25"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="26"/>
+      <c r="D451" s="25"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
     <row r="452" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="26"/>
+      <c r="D452" s="25"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="26"/>
+      <c r="D453" s="25"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="26"/>
+      <c r="D454" s="25"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="26"/>
+      <c r="D455" s="25"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
     <row r="456" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="26"/>
+      <c r="D456" s="25"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="26"/>
+      <c r="D457" s="25"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="26"/>
+      <c r="D458" s="25"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="26"/>
+      <c r="D459" s="25"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="26"/>
+      <c r="D460" s="25"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
     <row r="461" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="26"/>
+      <c r="D461" s="25"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="26"/>
+      <c r="D462" s="25"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="26"/>
+      <c r="D463" s="25"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="26"/>
+      <c r="D464" s="25"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="26"/>
+      <c r="D465" s="25"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
     <row r="466" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="26"/>
+      <c r="D466" s="25"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="26"/>
+      <c r="D467" s="25"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
     <row r="468" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="26"/>
+      <c r="D468" s="25"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
     <row r="469" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="26"/>
+      <c r="D469" s="25"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="26"/>
+      <c r="D470" s="25"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="26"/>
+      <c r="D471" s="25"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="26"/>
+      <c r="D472" s="25"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="26"/>
+      <c r="D473" s="25"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
     <row r="474" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="26"/>
+      <c r="D474" s="25"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="26"/>
+      <c r="D475" s="25"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="26"/>
+      <c r="D476" s="25"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
     <row r="477" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="26"/>
+      <c r="D477" s="25"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="26"/>
+      <c r="D478" s="25"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="26"/>
+      <c r="D479" s="25"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="26"/>
+      <c r="D480" s="25"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="26"/>
+      <c r="D481" s="25"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="26"/>
+      <c r="D482" s="25"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="26"/>
+      <c r="D483" s="25"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="26"/>
+      <c r="D484" s="25"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="26"/>
+      <c r="D485" s="25"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="26"/>
+      <c r="D486" s="25"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
     <row r="487" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="26"/>
+      <c r="D487" s="25"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="26"/>
+      <c r="D488" s="25"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="26"/>
+      <c r="D489" s="25"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="26"/>
+      <c r="D490" s="25"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
     <row r="491" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="26"/>
+      <c r="D491" s="25"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="26"/>
+      <c r="D492" s="25"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
     <row r="493" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="26"/>
+      <c r="D493" s="25"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="26"/>
+      <c r="D494" s="25"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
     <row r="495" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="26"/>
+      <c r="D495" s="25"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
     <row r="496" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="26"/>
+      <c r="D496" s="25"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="26"/>
+      <c r="D497" s="25"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
     <row r="498" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="26"/>
+      <c r="D498" s="25"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
     <row r="499" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="26"/>
+      <c r="D499" s="25"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="26"/>
+      <c r="D500" s="25"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
     <row r="501" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="26"/>
+      <c r="D501" s="25"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="26"/>
+      <c r="D502" s="25"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
     </row>
     <row r="503" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="26"/>
+      <c r="D503" s="25"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="26"/>
+      <c r="D504" s="25"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="26"/>
+      <c r="D505" s="25"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
     <row r="506" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="26"/>
+      <c r="D506" s="25"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
     <row r="507" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="26"/>
+      <c r="D507" s="25"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
     <row r="508" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="26"/>
+      <c r="D508" s="25"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="26"/>
+      <c r="D509" s="25"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="26"/>
+      <c r="D510" s="25"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
     <row r="511" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="26"/>
+      <c r="D511" s="25"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="26"/>
+      <c r="D512" s="25"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
     <row r="513" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="26"/>
+      <c r="D513" s="25"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
     <row r="514" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="26"/>
+      <c r="D514" s="25"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="26"/>
+      <c r="D515" s="25"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="26"/>
+      <c r="D516" s="25"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="26"/>
+      <c r="D517" s="25"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="26"/>
+      <c r="D518" s="25"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
     </row>
     <row r="519" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="26"/>
+      <c r="D519" s="25"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="26"/>
+      <c r="D520" s="25"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
     <row r="521" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="26"/>
+      <c r="D521" s="25"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="26"/>
+      <c r="D522" s="25"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
     <row r="523" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="26"/>
+      <c r="D523" s="25"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
     <row r="524" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="26"/>
+      <c r="D524" s="25"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="26"/>
+      <c r="D525" s="25"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
     <row r="526" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="26"/>
+      <c r="D526" s="25"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
     <row r="527" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="26"/>
+      <c r="D527" s="25"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="26"/>
+      <c r="D528" s="25"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
     <row r="529" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="26"/>
+      <c r="D529" s="25"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
     <row r="530" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="26"/>
+      <c r="D530" s="25"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
     <row r="531" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="26"/>
+      <c r="D531" s="25"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
     <row r="532" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="26"/>
+      <c r="D532" s="25"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
     <row r="533" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="26"/>
+      <c r="D533" s="25"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
     <row r="534" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="26"/>
+      <c r="D534" s="25"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
     </row>
     <row r="535" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="26"/>
+      <c r="D535" s="25"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
     </row>
     <row r="536" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="26"/>
+      <c r="D536" s="25"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
     <row r="537" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="26"/>
+      <c r="D537" s="25"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
     <row r="538" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="26"/>
+      <c r="D538" s="25"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
     <row r="539" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="26"/>
+      <c r="D539" s="25"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
     <row r="540" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="26"/>
+      <c r="D540" s="25"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
     <row r="541" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="26"/>
+      <c r="D541" s="25"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
     <row r="542" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="26"/>
+      <c r="D542" s="25"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="26"/>
+      <c r="D543" s="25"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
     <row r="544" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="26"/>
+      <c r="D544" s="25"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
     <row r="545" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="26"/>
+      <c r="D545" s="25"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="26"/>
+      <c r="D546" s="25"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
     </row>
     <row r="547" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="26"/>
+      <c r="D547" s="25"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
     <row r="548" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="26"/>
+      <c r="D548" s="25"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
     <row r="549" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="26"/>
+      <c r="D549" s="25"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="26"/>
+      <c r="D550" s="25"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
     </row>
     <row r="551" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="26"/>
+      <c r="D551" s="25"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
     </row>
     <row r="552" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="26"/>
+      <c r="D552" s="25"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
     <row r="553" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="26"/>
+      <c r="D553" s="25"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
     <row r="554" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="26"/>
+      <c r="D554" s="25"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="26"/>
+      <c r="D555" s="25"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
     <row r="556" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="26"/>
+      <c r="D556" s="25"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
     <row r="557" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="26"/>
+      <c r="D557" s="25"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
     <row r="558" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="26"/>
+      <c r="D558" s="25"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
     <row r="559" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="26"/>
+      <c r="D559" s="25"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="26"/>
+      <c r="D560" s="25"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
     <row r="561" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="26"/>
+      <c r="D561" s="25"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="26"/>
+      <c r="D562" s="25"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
     <row r="563" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="26"/>
+      <c r="D563" s="25"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
     <row r="564" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="26"/>
+      <c r="D564" s="25"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
     <row r="565" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="26"/>
+      <c r="D565" s="25"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
     <row r="566" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="26"/>
+      <c r="D566" s="25"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
     <row r="567" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="26"/>
+      <c r="D567" s="25"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
     </row>
     <row r="568" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="26"/>
+      <c r="D568" s="25"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
     </row>
     <row r="569" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="26"/>
+      <c r="D569" s="25"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
     <row r="570" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="26"/>
+      <c r="D570" s="25"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
     <row r="571" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="26"/>
+      <c r="D571" s="25"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="26"/>
+      <c r="D572" s="25"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
     <row r="573" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="26"/>
+      <c r="D573" s="25"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="26"/>
+      <c r="D574" s="25"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
     <row r="575" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="26"/>
+      <c r="D575" s="25"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="26"/>
+      <c r="D576" s="25"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
     <row r="577" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="26"/>
+      <c r="D577" s="25"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
     <row r="578" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="26"/>
+      <c r="D578" s="25"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
     <row r="579" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="26"/>
+      <c r="D579" s="25"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
     <row r="580" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="26"/>
+      <c r="D580" s="25"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
     <row r="581" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="26"/>
+      <c r="D581" s="25"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
     <row r="582" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="26"/>
+      <c r="D582" s="25"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
     <row r="583" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="26"/>
+      <c r="D583" s="25"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
     </row>
     <row r="584" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="26"/>
+      <c r="D584" s="25"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
     <row r="585" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="26"/>
+      <c r="D585" s="25"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
     <row r="586" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="26"/>
+      <c r="D586" s="25"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="26"/>
+      <c r="D587" s="25"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
     <row r="588" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="26"/>
+      <c r="D588" s="25"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
     <row r="589" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="26"/>
+      <c r="D589" s="25"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
     <row r="590" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="26"/>
+      <c r="D590" s="25"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
     <row r="591" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="26"/>
+      <c r="D591" s="25"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
     <row r="592" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="26"/>
+      <c r="D592" s="25"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
     <row r="593" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="26"/>
+      <c r="D593" s="25"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
     <row r="594" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="26"/>
+      <c r="D594" s="25"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
     <row r="595" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="26"/>
+      <c r="D595" s="25"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
     <row r="596" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="26"/>
+      <c r="D596" s="25"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
     <row r="597" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="26"/>
+      <c r="D597" s="25"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
     <row r="598" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="26"/>
+      <c r="D598" s="25"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
     </row>
     <row r="599" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="26"/>
+      <c r="D599" s="25"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
     </row>
     <row r="600" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="26"/>
+      <c r="D600" s="25"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
     </row>
     <row r="601" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="26"/>
+      <c r="D601" s="25"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="26"/>
+      <c r="D602" s="25"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
     <row r="603" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="26"/>
+      <c r="D603" s="25"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
     <row r="604" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="26"/>
+      <c r="D604" s="25"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
     <row r="605" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="26"/>
+      <c r="D605" s="25"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
     <row r="606" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="26"/>
+      <c r="D606" s="25"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
     </row>
     <row r="607" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="26"/>
+      <c r="D607" s="25"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="26"/>
+      <c r="D608" s="25"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
     <row r="609" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="26"/>
+      <c r="D609" s="25"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
     <row r="610" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="26"/>
+      <c r="D610" s="25"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
     <row r="611" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="26"/>
+      <c r="D611" s="25"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
     <row r="612" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="26"/>
+      <c r="D612" s="25"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
     <row r="613" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="26"/>
+      <c r="D613" s="25"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
     <row r="614" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="26"/>
+      <c r="D614" s="25"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
     </row>
     <row r="615" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="26"/>
+      <c r="D615" s="25"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
     </row>
     <row r="616" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="26"/>
+      <c r="D616" s="25"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
     </row>
     <row r="617" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="26"/>
+      <c r="D617" s="25"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
     <row r="618" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="26"/>
+      <c r="D618" s="25"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="26"/>
+      <c r="D619" s="25"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
     <row r="620" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="26"/>
+      <c r="D620" s="25"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
     <row r="621" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="26"/>
+      <c r="D621" s="25"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
     <row r="622" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="26"/>
+      <c r="D622" s="25"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="26"/>
+      <c r="D623" s="25"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
     <row r="624" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="26"/>
+      <c r="D624" s="25"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
     </row>
     <row r="625" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="26"/>
+      <c r="D625" s="25"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
     <row r="626" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="26"/>
+      <c r="D626" s="25"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
     <row r="627" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="26"/>
+      <c r="D627" s="25"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
     <row r="628" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="26"/>
+      <c r="D628" s="25"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
     <row r="629" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="26"/>
+      <c r="D629" s="25"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
     <row r="630" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="26"/>
+      <c r="D630" s="25"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
     </row>
     <row r="631" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="26"/>
+      <c r="D631" s="25"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
     </row>
     <row r="632" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="26"/>
+      <c r="D632" s="25"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
     </row>
     <row r="633" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="26"/>
+      <c r="D633" s="25"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
     <row r="634" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="26"/>
+      <c r="D634" s="25"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
     <row r="635" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="26"/>
+      <c r="D635" s="25"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
     <row r="636" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="26"/>
+      <c r="D636" s="25"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
     <row r="637" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="26"/>
+      <c r="D637" s="25"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
     <row r="638" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="26"/>
+      <c r="D638" s="25"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
     </row>
     <row r="639" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="26"/>
+      <c r="D639" s="25"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
     <row r="640" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="26"/>
+      <c r="D640" s="25"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
     <row r="641" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="26"/>
+      <c r="D641" s="25"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
     <row r="642" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="26"/>
+      <c r="D642" s="25"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
     </row>
     <row r="643" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="26"/>
+      <c r="D643" s="25"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
     <row r="644" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="26"/>
+      <c r="D644" s="25"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="26"/>
+      <c r="D645" s="25"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
     </row>
     <row r="646" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="26"/>
+      <c r="D646" s="25"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
     </row>
     <row r="647" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="26"/>
+      <c r="D647" s="25"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
     </row>
     <row r="648" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="26"/>
+      <c r="D648" s="25"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
     <row r="649" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="26"/>
+      <c r="D649" s="25"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
     <row r="650" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="26"/>
+      <c r="D650" s="25"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
     </row>
     <row r="651" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="26"/>
+      <c r="D651" s="25"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
     <row r="652" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="26"/>
+      <c r="D652" s="25"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="26"/>
+      <c r="D653" s="25"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
     <row r="654" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="26"/>
+      <c r="D654" s="25"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
     </row>
     <row r="655" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="26"/>
+      <c r="D655" s="25"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
     </row>
     <row r="656" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="26"/>
+      <c r="D656" s="25"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
     </row>
     <row r="657" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="26"/>
+      <c r="D657" s="25"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
     <row r="658" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="26"/>
+      <c r="D658" s="25"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="26"/>
+      <c r="D659" s="25"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
     </row>
     <row r="660" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="26"/>
+      <c r="D660" s="25"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
     </row>
     <row r="661" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="26"/>
+      <c r="D661" s="25"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
     <row r="662" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="26"/>
+      <c r="D662" s="25"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
     </row>
     <row r="663" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="26"/>
+      <c r="D663" s="25"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
     </row>
     <row r="664" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="26"/>
+      <c r="D664" s="25"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
     </row>
     <row r="665" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="26"/>
+      <c r="D665" s="25"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
     <row r="666" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="26"/>
+      <c r="D666" s="25"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
     </row>
     <row r="667" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="26"/>
+      <c r="D667" s="25"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="26"/>
+      <c r="D668" s="25"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
     </row>
     <row r="669" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="26"/>
+      <c r="D669" s="25"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
     </row>
     <row r="670" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="26"/>
+      <c r="D670" s="25"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
     </row>
     <row r="671" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="26"/>
+      <c r="D671" s="25"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
     </row>
     <row r="672" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="26"/>
+      <c r="D672" s="25"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
     <row r="673" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="26"/>
+      <c r="D673" s="25"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
     </row>
     <row r="674" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="26"/>
+      <c r="D674" s="25"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
     </row>
     <row r="675" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="26"/>
+      <c r="D675" s="25"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
     </row>
     <row r="676" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="26"/>
+      <c r="D676" s="25"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
     </row>
     <row r="677" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="26"/>
+      <c r="D677" s="25"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
     </row>
     <row r="678" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="26"/>
+      <c r="D678" s="25"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
     </row>
     <row r="679" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="26"/>
+      <c r="D679" s="25"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
     </row>
     <row r="680" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="26"/>
+      <c r="D680" s="25"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
     </row>
     <row r="681" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="26"/>
+      <c r="D681" s="25"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
     <row r="682" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="26"/>
+      <c r="D682" s="25"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
     </row>
     <row r="683" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="26"/>
+      <c r="D683" s="25"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="26"/>
+      <c r="D684" s="25"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
     </row>
     <row r="685" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D685" s="26"/>
+      <c r="D685" s="25"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
     </row>
     <row r="686" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D686" s="26"/>
+      <c r="D686" s="25"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
     <row r="687" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D687" s="26"/>
+      <c r="D687" s="25"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
     <row r="688" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D688" s="26"/>
+      <c r="D688" s="25"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
     <row r="689" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D689" s="26"/>
+      <c r="D689" s="25"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
     </row>
     <row r="690" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D690" s="26"/>
+      <c r="D690" s="25"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
     </row>
     <row r="691" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D691" s="26"/>
+      <c r="D691" s="25"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
     </row>
     <row r="692" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D692" s="26"/>
+      <c r="D692" s="25"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
     </row>
     <row r="693" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D693" s="26"/>
+      <c r="D693" s="25"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
     </row>
     <row r="694" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D694" s="26"/>
+      <c r="D694" s="25"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
     </row>
     <row r="695" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D695" s="26"/>
+      <c r="D695" s="25"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
     </row>
     <row r="696" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D696" s="26"/>
+      <c r="D696" s="25"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
     </row>
     <row r="697" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D697" s="26"/>
+      <c r="D697" s="25"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
     </row>
     <row r="698" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D698" s="26"/>
+      <c r="D698" s="25"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
     </row>
     <row r="699" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D699" s="26"/>
+      <c r="D699" s="25"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
     </row>
     <row r="700" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D700" s="26"/>
+      <c r="D700" s="25"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D701" s="26"/>
+      <c r="D701" s="25"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
     <row r="702" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D702" s="26"/>
+      <c r="D702" s="25"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
     </row>
     <row r="703" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D703" s="26"/>
+      <c r="D703" s="25"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
     <row r="704" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D704" s="26"/>
+      <c r="D704" s="25"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
     </row>
     <row r="705" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D705" s="26"/>
+      <c r="D705" s="25"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
     </row>
     <row r="706" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D706" s="26"/>
+      <c r="D706" s="25"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
     </row>
     <row r="707" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D707" s="26"/>
+      <c r="D707" s="25"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
     </row>
     <row r="708" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D708" s="26"/>
+      <c r="D708" s="25"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
     </row>
     <row r="709" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D709" s="26"/>
+      <c r="D709" s="25"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
     </row>
     <row r="710" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D710" s="26"/>
+      <c r="D710" s="25"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
     </row>
     <row r="711" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D711" s="26"/>
+      <c r="D711" s="25"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
     </row>
     <row r="712" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D712" s="26"/>
+      <c r="D712" s="25"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
     </row>
     <row r="713" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D713" s="26"/>
+      <c r="D713" s="25"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
     </row>
     <row r="714" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D714" s="26"/>
+      <c r="D714" s="25"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
     </row>
     <row r="715" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D715" s="26"/>
+      <c r="D715" s="25"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
     </row>
     <row r="716" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D716" s="26"/>
+      <c r="D716" s="25"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
     </row>
     <row r="717" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D717" s="26"/>
+      <c r="D717" s="25"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
     </row>
     <row r="718" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D718" s="26"/>
+      <c r="D718" s="25"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
     <row r="719" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D719" s="26"/>
+      <c r="D719" s="25"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D720" s="26"/>
+      <c r="D720" s="25"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D721" s="26"/>
+      <c r="D721" s="25"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
     </row>
     <row r="722" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D722" s="26"/>
+      <c r="D722" s="25"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
     </row>
     <row r="723" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D723" s="26"/>
+      <c r="D723" s="25"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
     </row>
     <row r="724" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D724" s="26"/>
+      <c r="D724" s="25"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
     </row>
     <row r="725" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D725" s="26"/>
+      <c r="D725" s="25"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
     </row>
     <row r="726" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D726" s="26"/>
+      <c r="D726" s="25"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
     </row>
     <row r="727" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D727" s="26"/>
+      <c r="D727" s="25"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
     </row>
     <row r="728" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D728" s="26"/>
+      <c r="D728" s="25"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
     </row>
     <row r="729" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D729" s="26"/>
+      <c r="D729" s="25"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
     </row>
     <row r="730" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D730" s="26"/>
+      <c r="D730" s="25"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
     </row>
     <row r="731" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D731" s="26"/>
+      <c r="D731" s="25"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
     </row>
     <row r="732" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D732" s="26"/>
+      <c r="D732" s="25"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
     </row>
     <row r="733" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D733" s="26"/>
+      <c r="D733" s="25"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
     <row r="734" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D734" s="26"/>
+      <c r="D734" s="25"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
     </row>
     <row r="735" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D735" s="26"/>
+      <c r="D735" s="25"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D736" s="26"/>
+      <c r="D736" s="25"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
     </row>
     <row r="737" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D737" s="26"/>
+      <c r="D737" s="25"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
     </row>
     <row r="738" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D738" s="26"/>
+      <c r="D738" s="25"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
     </row>
     <row r="739" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D739" s="26"/>
+      <c r="D739" s="25"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
     <row r="740" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D740" s="26"/>
+      <c r="D740" s="25"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
     <row r="741" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D741" s="26"/>
+      <c r="D741" s="25"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
     <row r="742" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D742" s="26"/>
+      <c r="D742" s="25"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
     <row r="743" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D743" s="26"/>
+      <c r="D743" s="25"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
     <row r="744" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D744" s="26"/>
+      <c r="D744" s="25"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
     <row r="745" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D745" s="26"/>
+      <c r="D745" s="25"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
     </row>
     <row r="746" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D746" s="26"/>
+      <c r="D746" s="25"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
     </row>
     <row r="747" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D747" s="26"/>
+      <c r="D747" s="25"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
     </row>
     <row r="748" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D748" s="26"/>
+      <c r="D748" s="25"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
     </row>
     <row r="749" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D749" s="26"/>
+      <c r="D749" s="25"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
     </row>
     <row r="750" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D750" s="26"/>
+      <c r="D750" s="25"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
     </row>
     <row r="751" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D751" s="26"/>
+      <c r="D751" s="25"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
     </row>
     <row r="752" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D752" s="26"/>
+      <c r="D752" s="25"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
     </row>
     <row r="753" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D753" s="26"/>
+      <c r="D753" s="25"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
     </row>
     <row r="754" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D754" s="26"/>
+      <c r="D754" s="25"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
     </row>
     <row r="755" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D755" s="26"/>
+      <c r="D755" s="25"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
     </row>
     <row r="756" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D756" s="26"/>
+      <c r="D756" s="25"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
     <row r="757" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D757" s="26"/>
+      <c r="D757" s="25"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
     </row>
     <row r="758" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D758" s="26"/>
+      <c r="D758" s="25"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
     </row>
     <row r="759" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D759" s="26"/>
+      <c r="D759" s="25"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
     </row>
     <row r="760" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D760" s="26"/>
+      <c r="D760" s="25"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
     </row>
     <row r="761" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D761" s="26"/>
+      <c r="D761" s="25"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
     </row>
     <row r="762" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D762" s="26"/>
+      <c r="D762" s="25"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
     </row>
     <row r="763" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D763" s="26"/>
+      <c r="D763" s="25"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
     </row>
     <row r="764" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D764" s="26"/>
+      <c r="D764" s="25"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
     </row>
     <row r="765" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D765" s="26"/>
+      <c r="D765" s="25"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
     </row>
     <row r="766" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D766" s="26"/>
+      <c r="D766" s="25"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
     </row>
     <row r="767" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D767" s="26"/>
+      <c r="D767" s="25"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
     </row>
     <row r="768" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D768" s="26"/>
+      <c r="D768" s="25"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
     </row>
     <row r="769" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D769" s="26"/>
+      <c r="D769" s="25"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D770" s="26"/>
+      <c r="D770" s="25"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D771" s="26"/>
+      <c r="D771" s="25"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
     </row>
     <row r="772" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D772" s="26"/>
+      <c r="D772" s="25"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
     </row>
     <row r="773" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D773" s="26"/>
+      <c r="D773" s="25"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
     <row r="774" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D774" s="26"/>
+      <c r="D774" s="25"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
     </row>
     <row r="775" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D775" s="26"/>
+      <c r="D775" s="25"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D776" s="26"/>
+      <c r="D776" s="25"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
     </row>
     <row r="777" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D777" s="26"/>
+      <c r="D777" s="25"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
     </row>
     <row r="778" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D778" s="26"/>
+      <c r="D778" s="25"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
     </row>
     <row r="779" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D779" s="26"/>
+      <c r="D779" s="25"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
     </row>
     <row r="780" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D780" s="26"/>
+      <c r="D780" s="25"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
     </row>
     <row r="781" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D781" s="26"/>
+      <c r="D781" s="25"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
     </row>
     <row r="782" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D782" s="26"/>
+      <c r="D782" s="25"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
     </row>
     <row r="783" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D783" s="26"/>
+      <c r="D783" s="25"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D784" s="26"/>
+      <c r="D784" s="25"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
     </row>
     <row r="785" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D785" s="26"/>
+      <c r="D785" s="25"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
     </row>
     <row r="786" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D786" s="26"/>
+      <c r="D786" s="25"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
     <row r="787" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D787" s="26"/>
+      <c r="D787" s="25"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D788" s="26"/>
+      <c r="D788" s="25"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D789" s="26"/>
+      <c r="D789" s="25"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
     </row>
     <row r="790" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D790" s="26"/>
+      <c r="D790" s="25"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
     </row>
     <row r="791" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D791" s="26"/>
+      <c r="D791" s="25"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
     </row>
     <row r="792" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D792" s="26"/>
+      <c r="D792" s="25"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
     </row>
     <row r="793" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D793" s="26"/>
+      <c r="D793" s="25"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
     </row>
     <row r="794" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D794" s="26"/>
+      <c r="D794" s="25"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
     </row>
     <row r="795" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D795" s="26"/>
+      <c r="D795" s="25"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
     </row>
     <row r="796" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D796" s="26"/>
+      <c r="D796" s="25"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
     </row>
     <row r="797" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D797" s="26"/>
+      <c r="D797" s="25"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
     </row>
     <row r="798" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D798" s="26"/>
+      <c r="D798" s="25"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
     </row>
     <row r="799" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D799" s="26"/>
+      <c r="D799" s="25"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
     <row r="800" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D800" s="26"/>
+      <c r="D800" s="25"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D801" s="26"/>
+      <c r="D801" s="25"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
     </row>
     <row r="802" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D802" s="26"/>
+      <c r="D802" s="25"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
     </row>
     <row r="803" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D803" s="26"/>
+      <c r="D803" s="25"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
     </row>
     <row r="804" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D804" s="26"/>
+      <c r="D804" s="25"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
     </row>
     <row r="805" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D805" s="26"/>
+      <c r="D805" s="25"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
     </row>
     <row r="806" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D806" s="26"/>
+      <c r="D806" s="25"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
     </row>
     <row r="807" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D807" s="26"/>
+      <c r="D807" s="25"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D808" s="26"/>
+      <c r="D808" s="25"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
     </row>
     <row r="809" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D809" s="26"/>
+      <c r="D809" s="25"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
     </row>
     <row r="810" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D810" s="26"/>
+      <c r="D810" s="25"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
     </row>
     <row r="811" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D811" s="26"/>
+      <c r="D811" s="25"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
     </row>
     <row r="812" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D812" s="26"/>
+      <c r="D812" s="25"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
     </row>
     <row r="813" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D813" s="26"/>
+      <c r="D813" s="25"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
     </row>
     <row r="814" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D814" s="26"/>
+      <c r="D814" s="25"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
     </row>
     <row r="815" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D815" s="26"/>
+      <c r="D815" s="25"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
     </row>
     <row r="816" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D816" s="26"/>
+      <c r="D816" s="25"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
     </row>
     <row r="817" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D817" s="26"/>
+      <c r="D817" s="25"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
     </row>
     <row r="818" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D818" s="26"/>
+      <c r="D818" s="25"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
     </row>
     <row r="819" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D819" s="26"/>
+      <c r="D819" s="25"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
     </row>
     <row r="820" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D820" s="26"/>
+      <c r="D820" s="25"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
     </row>
     <row r="821" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D821" s="26"/>
+      <c r="D821" s="25"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
     </row>
     <row r="822" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D822" s="26"/>
+      <c r="D822" s="25"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
     <row r="823" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D823" s="26"/>
+      <c r="D823" s="25"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
     <row r="824" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D824" s="26"/>
+      <c r="D824" s="25"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
     </row>
     <row r="825" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D825" s="26"/>
+      <c r="D825" s="25"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D826" s="26"/>
+      <c r="D826" s="25"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
     </row>
     <row r="827" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D827" s="26"/>
+      <c r="D827" s="25"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
     </row>
     <row r="828" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D828" s="26"/>
+      <c r="D828" s="25"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
     </row>
     <row r="829" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D829" s="26"/>
+      <c r="D829" s="25"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
     </row>
     <row r="830" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="26"/>
+      <c r="D830" s="25"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D831" s="26"/>
+      <c r="D831" s="25"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
     </row>
     <row r="832" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D832" s="26"/>
+      <c r="D832" s="25"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
     </row>
     <row r="833" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D833" s="26"/>
+      <c r="D833" s="25"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
     </row>
     <row r="834" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D834" s="26"/>
+      <c r="D834" s="25"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
     </row>
     <row r="835" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D835" s="26"/>
+      <c r="D835" s="25"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
     </row>
     <row r="836" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D836" s="26"/>
+      <c r="D836" s="25"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
     </row>
     <row r="837" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D837" s="26"/>
+      <c r="D837" s="25"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
     </row>
     <row r="838" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D838" s="26"/>
+      <c r="D838" s="25"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
     <row r="839" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D839" s="26"/>
+      <c r="D839" s="25"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
     </row>
     <row r="840" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D840" s="26"/>
+      <c r="D840" s="25"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
     </row>
     <row r="841" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D841" s="26"/>
+      <c r="D841" s="25"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
     </row>
     <row r="842" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D842" s="26"/>
+      <c r="D842" s="25"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
     </row>
     <row r="843" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D843" s="26"/>
+      <c r="D843" s="25"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
     </row>
     <row r="844" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D844" s="26"/>
+      <c r="D844" s="25"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
     </row>
     <row r="845" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D845" s="26"/>
+      <c r="D845" s="25"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
     </row>
     <row r="846" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D846" s="26"/>
+      <c r="D846" s="25"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
     </row>
     <row r="847" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D847" s="26"/>
+      <c r="D847" s="25"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
     </row>
     <row r="848" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D848" s="26"/>
+      <c r="D848" s="25"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
     </row>
     <row r="849" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D849" s="26"/>
+      <c r="D849" s="25"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D850" s="26"/>
+      <c r="D850" s="25"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
     </row>
     <row r="851" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D851" s="26"/>
+      <c r="D851" s="25"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
     </row>
     <row r="852" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D852" s="26"/>
+      <c r="D852" s="25"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
     </row>
     <row r="853" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D853" s="26"/>
+      <c r="D853" s="25"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
     </row>
     <row r="854" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D854" s="26"/>
+      <c r="D854" s="25"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
     </row>
     <row r="855" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D855" s="26"/>
+      <c r="D855" s="25"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
     </row>
     <row r="856" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D856" s="26"/>
+      <c r="D856" s="25"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
     </row>
     <row r="857" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D857" s="26"/>
+      <c r="D857" s="25"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
     </row>
     <row r="858" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D858" s="26"/>
+      <c r="D858" s="25"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
     </row>
     <row r="859" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D859" s="26"/>
+      <c r="D859" s="25"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
     </row>
     <row r="860" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D860" s="26"/>
+      <c r="D860" s="25"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
     <row r="861" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D861" s="26"/>
+      <c r="D861" s="25"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
     </row>
     <row r="862" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D862" s="26"/>
+      <c r="D862" s="25"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
     </row>
     <row r="863" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D863" s="26"/>
+      <c r="D863" s="25"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D864" s="26"/>
+      <c r="D864" s="25"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
     </row>
     <row r="865" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D865" s="26"/>
+      <c r="D865" s="25"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
     </row>
     <row r="866" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D866" s="26"/>
+      <c r="D866" s="25"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
     </row>
     <row r="867" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D867" s="26"/>
+      <c r="D867" s="25"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
     </row>
     <row r="868" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D868" s="26"/>
+      <c r="D868" s="25"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
     </row>
     <row r="869" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D869" s="26"/>
+      <c r="D869" s="25"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
     </row>
     <row r="870" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D870" s="26"/>
+      <c r="D870" s="25"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
     </row>
     <row r="871" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D871" s="26"/>
+      <c r="D871" s="25"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D872" s="26"/>
+      <c r="D872" s="25"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
     </row>
     <row r="873" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D873" s="26"/>
+      <c r="D873" s="25"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
     </row>
     <row r="874" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D874" s="26"/>
+      <c r="D874" s="25"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
     </row>
     <row r="875" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D875" s="26"/>
+      <c r="D875" s="25"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
     </row>
     <row r="876" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D876" s="26"/>
+      <c r="D876" s="25"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
     </row>
     <row r="877" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D877" s="26"/>
+      <c r="D877" s="25"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
     </row>
     <row r="878" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D878" s="26"/>
+      <c r="D878" s="25"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
     </row>
     <row r="879" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D879" s="26"/>
+      <c r="D879" s="25"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
     </row>
     <row r="880" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D880" s="26"/>
+      <c r="D880" s="25"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
     </row>
     <row r="881" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D881" s="26"/>
+      <c r="D881" s="25"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
     </row>
     <row r="882" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D882" s="26"/>
+      <c r="D882" s="25"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
     </row>
     <row r="883" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D883" s="26"/>
+      <c r="D883" s="25"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
     </row>
     <row r="884" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D884" s="26"/>
+      <c r="D884" s="25"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
     </row>
     <row r="885" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D885" s="26"/>
+      <c r="D885" s="25"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
     </row>
     <row r="886" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D886" s="26"/>
+      <c r="D886" s="25"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
     </row>
     <row r="887" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D887" s="26"/>
+      <c r="D887" s="25"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
     </row>
     <row r="888" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D888" s="26"/>
+      <c r="D888" s="25"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
     </row>
     <row r="889" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D889" s="26"/>
+      <c r="D889" s="25"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
     </row>
     <row r="890" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D890" s="26"/>
+      <c r="D890" s="25"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
     </row>
     <row r="891" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D891" s="26"/>
+      <c r="D891" s="25"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
     </row>
     <row r="892" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D892" s="26"/>
+      <c r="D892" s="25"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
     </row>
     <row r="893" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D893" s="26"/>
+      <c r="D893" s="25"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
     </row>
     <row r="894" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D894" s="26"/>
+      <c r="D894" s="25"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
     </row>
     <row r="895" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D895" s="26"/>
+      <c r="D895" s="25"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
     </row>
     <row r="896" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D896" s="26"/>
+      <c r="D896" s="25"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
     </row>
     <row r="897" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D897" s="26"/>
+      <c r="D897" s="25"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
     </row>
     <row r="898" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D898" s="26"/>
+      <c r="D898" s="25"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
     </row>
     <row r="899" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D899" s="26"/>
+      <c r="D899" s="25"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
     </row>
     <row r="900" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D900" s="26"/>
+      <c r="D900" s="25"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
     </row>
     <row r="901" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D901" s="26"/>
+      <c r="D901" s="25"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
     </row>
     <row r="902" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D902" s="26"/>
+      <c r="D902" s="25"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
     </row>
     <row r="903" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D903" s="26"/>
+      <c r="D903" s="25"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
     </row>
     <row r="904" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D904" s="26"/>
+      <c r="D904" s="25"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
     </row>
     <row r="905" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D905" s="26"/>
+      <c r="D905" s="25"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
     </row>
     <row r="906" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D906" s="26"/>
+      <c r="D906" s="25"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
     </row>
     <row r="907" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D907" s="26"/>
+      <c r="D907" s="25"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
     </row>
     <row r="908" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D908" s="26"/>
+      <c r="D908" s="25"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
     </row>
     <row r="909" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D909" s="26"/>
+      <c r="D909" s="25"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D910" s="26"/>
+      <c r="D910" s="25"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
     </row>
     <row r="911" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D911" s="26"/>
+      <c r="D911" s="25"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
     </row>
     <row r="912" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D912" s="26"/>
+      <c r="D912" s="25"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
     </row>
     <row r="913" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D913" s="26"/>
+      <c r="D913" s="25"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
     </row>
     <row r="914" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D914" s="26"/>
+      <c r="D914" s="25"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
     </row>
     <row r="915" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D915" s="26"/>
+      <c r="D915" s="25"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
     </row>
     <row r="916" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D916" s="26"/>
+      <c r="D916" s="25"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
     </row>
     <row r="917" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D917" s="26"/>
+      <c r="D917" s="25"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
     </row>
     <row r="918" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D918" s="26"/>
+      <c r="D918" s="25"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
     </row>
     <row r="919" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D919" s="26"/>
+      <c r="D919" s="25"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
     </row>
     <row r="920" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D920" s="26"/>
+      <c r="D920" s="25"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
     </row>
     <row r="921" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D921" s="26"/>
+      <c r="D921" s="25"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
     </row>
     <row r="922" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D922" s="26"/>
+      <c r="D922" s="25"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
     </row>
     <row r="923" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D923" s="26"/>
+      <c r="D923" s="25"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D924" s="26"/>
+      <c r="D924" s="25"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
     </row>
     <row r="925" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D925" s="26"/>
+      <c r="D925" s="25"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
     </row>
     <row r="926" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D926" s="26"/>
+      <c r="D926" s="25"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
     </row>
     <row r="927" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D927" s="26"/>
+      <c r="D927" s="25"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
     <row r="928" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D928" s="26"/>
+      <c r="D928" s="25"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
     </row>
     <row r="929" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D929" s="26"/>
+      <c r="D929" s="25"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
     </row>
     <row r="930" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D930" s="26"/>
+      <c r="D930" s="25"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
     </row>
     <row r="931" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D931" s="26"/>
+      <c r="D931" s="25"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
     </row>
     <row r="932" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D932" s="26"/>
+      <c r="D932" s="25"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
     </row>
     <row r="933" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D933" s="26"/>
+      <c r="D933" s="25"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
     </row>
     <row r="934" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D934" s="26"/>
+      <c r="D934" s="25"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
     </row>
     <row r="935" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D935" s="26"/>
+      <c r="D935" s="25"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
     </row>
     <row r="936" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D936" s="26"/>
+      <c r="D936" s="25"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
     </row>
     <row r="937" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D937" s="26"/>
+      <c r="D937" s="25"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
     </row>
     <row r="938" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D938" s="26"/>
+      <c r="D938" s="25"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D939" s="26"/>
+      <c r="D939" s="25"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
     </row>
     <row r="940" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D940" s="26"/>
+      <c r="D940" s="25"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
     </row>
     <row r="941" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D941" s="26"/>
+      <c r="D941" s="25"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
     </row>
     <row r="942" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D942" s="26"/>
+      <c r="D942" s="25"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
     </row>
     <row r="943" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D943" s="26"/>
+      <c r="D943" s="25"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
     </row>
     <row r="944" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D944" s="26"/>
+      <c r="D944" s="25"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
     </row>
     <row r="945" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D945" s="26"/>
+      <c r="D945" s="25"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
     </row>
     <row r="946" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D946" s="26"/>
+      <c r="D946" s="25"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
     </row>
     <row r="947" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D947" s="26"/>
+      <c r="D947" s="25"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D948" s="26"/>
+      <c r="D948" s="25"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
     <row r="949" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D949" s="26"/>
+      <c r="D949" s="25"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
     <row r="950" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D950" s="26"/>
+      <c r="D950" s="25"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
     <row r="951" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D951" s="26"/>
+      <c r="D951" s="25"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
     </row>
     <row r="952" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D952" s="26"/>
+      <c r="D952" s="25"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
     </row>
     <row r="953" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D953" s="26"/>
+      <c r="D953" s="25"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
     <row r="954" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D954" s="26"/>
+      <c r="D954" s="25"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
     </row>
     <row r="955" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D955" s="26"/>
+      <c r="D955" s="25"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
     </row>
     <row r="956" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D956" s="26"/>
+      <c r="D956" s="25"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
     </row>
     <row r="957" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D957" s="26"/>
+      <c r="D957" s="25"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
     </row>
     <row r="958" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D958" s="26"/>
+      <c r="D958" s="25"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
     </row>
     <row r="959" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D959" s="26"/>
+      <c r="D959" s="25"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
     </row>
     <row r="960" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D960" s="26"/>
+      <c r="D960" s="25"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D961" s="26"/>
+      <c r="D961" s="25"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
     </row>
     <row r="962" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D962" s="26"/>
+      <c r="D962" s="25"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
     <row r="963" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D963" s="26"/>
+      <c r="D963" s="25"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
     </row>
     <row r="964" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D964" s="26"/>
+      <c r="D964" s="25"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
     </row>
     <row r="965" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D965" s="26"/>
+      <c r="D965" s="25"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
     </row>
     <row r="966" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D966" s="26"/>
+      <c r="D966" s="25"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
     </row>
     <row r="967" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D967" s="26"/>
+      <c r="D967" s="25"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
     </row>
     <row r="968" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D968" s="26"/>
+      <c r="D968" s="25"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D969" s="26"/>
+      <c r="D969" s="25"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
     <row r="970" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D970" s="26"/>
+      <c r="D970" s="25"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
     <row r="971" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D971" s="26"/>
+      <c r="D971" s="25"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
     <row r="972" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D972" s="26"/>
+      <c r="D972" s="25"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
     <row r="973" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D973" s="26"/>
+      <c r="D973" s="25"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
     <row r="974" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D974" s="26"/>
+      <c r="D974" s="25"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
     </row>
     <row r="975" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D975" s="26"/>
+      <c r="D975" s="25"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
     </row>
     <row r="976" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D976" s="26"/>
+      <c r="D976" s="25"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
     <row r="977" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D977" s="26"/>
+      <c r="D977" s="25"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
     </row>
     <row r="978" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D978" s="26"/>
+      <c r="D978" s="25"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
     </row>
     <row r="979" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D979" s="26"/>
+      <c r="D979" s="25"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
     </row>
     <row r="980" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D980" s="26"/>
+      <c r="D980" s="25"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
     </row>
     <row r="981" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D981" s="26"/>
+      <c r="D981" s="25"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
     </row>
     <row r="982" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D982" s="26"/>
+      <c r="D982" s="25"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
     </row>
     <row r="983" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D983" s="26"/>
+      <c r="D983" s="25"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
     </row>
     <row r="984" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D984" s="26"/>
+      <c r="D984" s="25"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
     </row>
     <row r="985" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D985" s="26"/>
+      <c r="D985" s="25"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
     </row>
     <row r="986" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D986" s="26"/>
+      <c r="D986" s="25"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
     </row>
     <row r="987" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D987" s="26"/>
+      <c r="D987" s="25"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
     </row>
     <row r="988" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D988" s="26"/>
+      <c r="D988" s="25"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
     </row>
     <row r="989" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D989" s="26"/>
+      <c r="D989" s="25"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
     </row>
     <row r="990" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D990" s="26"/>
+      <c r="D990" s="25"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
     <row r="991" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D991" s="26"/>
+      <c r="D991" s="25"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
     <row r="992" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D992" s="26"/>
+      <c r="D992" s="25"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
     </row>
     <row r="993" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D993" s="26"/>
+      <c r="D993" s="25"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D994" s="26"/>
+      <c r="D994" s="25"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
     </row>
     <row r="995" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D995" s="26"/>
+      <c r="D995" s="25"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
     </row>
     <row r="996" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D996" s="26"/>
+      <c r="D996" s="25"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
     <row r="997" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D997" s="26"/>
+      <c r="D997" s="25"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
     </row>
     <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="26"/>
+      <c r="D998" s="25"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
     </row>
     <row r="999" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D999" s="26"/>
+      <c r="D999" s="25"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="26"/>
+      <c r="D1000" s="25"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
     <row r="1001" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1001" s="26"/>
+      <c r="D1001" s="25"/>
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
     <row r="1002" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1002" s="26"/>
+      <c r="D1002" s="25"/>
       <c r="E1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
     <row r="1003" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1003" s="26"/>
+      <c r="D1003" s="25"/>
       <c r="E1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
     <row r="1004" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1004" s="26"/>
+      <c r="D1004" s="25"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="26"/>
+      <c r="D1005" s="25"/>
       <c r="E1005" s="2"/>
       <c r="F1005" s="2"/>
+    </row>
+    <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1006" s="25"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1007" s="25"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1008" s="25"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1009" s="25"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C4C7DE-4F8E-4FE6-B75E-89227AAE8332}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55507348-2815-44E3-919E-75195F4C9CA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -298,9 +298,6 @@
     <t>panier js</t>
   </si>
   <si>
-    <t>calculPrixTotalPanier</t>
-  </si>
-  <si>
     <t>compter le nombre d'article dans le panier
 afficher le nombre d'article sur l'icone de l'accueil</t>
   </si>
@@ -420,25 +417,6 @@
     <t>La fonction doit créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ajoutQuantitePanier</t>
-  </si>
-  <si>
-    <t>suppressionQuantitePanier</t>
-  </si>
-  <si>
-    <t>Au click, ajoute 1 de la valeur de l'id correspondant</t>
-  </si>
-  <si>
-    <t>calculPrixTotalUnitaire</t>
-  </si>
-  <si>
-    <t>Calculer le prix totale de chaque produit suivant sa quantité</t>
-  </si>
-  <si>
-    <t>Fais la somme de la fonction calculPrixTotalUnitaire</t>
-  </si>
-  <si>
     <t>ListeProduitsPanier</t>
   </si>
   <si>
@@ -477,14 +455,32 @@
     <t>viderPanier</t>
   </si>
   <si>
-    <t>vide le cache du navigateur et recharge la page panier pour supprimer tout le panier</t>
-  </si>
-  <si>
     <t>Ajouter des elements dans le panier et clicker sur le bouton vider panier
 Console.log(localstorage) pour regarder si le cache est bien vide</t>
   </si>
   <si>
     <t>Creer un compteur pour recuperer la valeur de chaque objet du cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+boutonChangeQuantite</t>
+  </si>
+  <si>
+    <t>vider le cache du navigateur et recharge la page panier pour supprimer tout le panier</t>
+  </si>
+  <si>
+    <t>Ajouter les boutons d'options + et - pour faire varier les quantités du produit dans le panier
+Au click de -, retire 1 de la valeur de l'id correspondante dans le cache
+Au click de +, ajoute 1 de la valeur de l'id correspondante dans le cache</t>
+  </si>
+  <si>
+    <t>console.log(localstorage) et faire varier au click le nombre de produits dans le panier. Vérifier que le valeur dans le local storage varient bien également et correspondent aux résultats</t>
+  </si>
+  <si>
+    <t>Si les valeurs passent en négatives</t>
+  </si>
+  <si>
+    <t>le cache ne se vident pas</t>
   </si>
 </sst>
 </file>
@@ -533,7 +529,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -549,12 +545,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -684,7 +674,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -928,11 +917,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -940,7 +929,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
@@ -955,7 +944,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -986,19 +975,19 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>94</v>
+      <c r="A2" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>108</v>
+      <c r="D2" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1007,13 +996,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1023,13 +1012,13 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -1037,15 +1026,15 @@
       <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>110</v>
+        <v>91</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -1055,13 +1044,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>112</v>
+        <v>100</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -1071,14 +1060,14 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>113</v>
+        <v>99</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>112</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1087,14 +1076,14 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>98</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1103,16 +1092,16 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1121,10 +1110,10 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>126</v>
+        <v>118</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1135,13 +1124,13 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>127</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1151,16 +1140,16 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>115</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1169,13 +1158,13 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -1185,39 +1174,47 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+    </row>
+    <row r="15" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="11"/>
-      <c r="C16" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>80</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
     </row>
@@ -1226,13 +1223,13 @@
         <v>77</v>
       </c>
       <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
-        <v>117</v>
+      <c r="C17" s="17" t="s">
+        <v>88</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="E17" s="4"/>
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1240,13 +1237,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="12"/>
+      <c r="C18" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="4"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,5045 +1252,5003 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>81</v>
+        <v>84</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>85</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="C20" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="12"/>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>77</v>
-      </c>
+    <row r="21" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>88</v>
-      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="4"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>86</v>
-      </c>
+    <row r="22" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+    <row r="24" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="12"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="22"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="23"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="23"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="23"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="23"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="23"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="23"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="23"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="23"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="23"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="23"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="23"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="23"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="23"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="23"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="25"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="25"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="25"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="25"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="25"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="25"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="25"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="25"/>
+    <row r="53" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D53" s="24"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="25"/>
+    <row r="54" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D54" s="24"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="25"/>
+    <row r="55" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D55" s="24"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="25"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="25"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="25"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="25"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="25"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="25"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="25"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="25"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="25"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D65" s="25"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D66" s="25"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="25"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D68" s="25"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D69" s="25"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="25"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="25"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="25"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="25"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="25"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D75" s="25"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="25"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="25"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="25"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D79" s="25"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D80" s="25"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D81" s="25"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D82" s="25"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D83" s="25"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D84" s="25"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D85" s="25"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D86" s="25"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D87" s="25"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D88" s="25"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D89" s="25"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D90" s="25"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D91" s="25"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D92" s="25"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D93" s="25"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D94" s="25"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D95" s="25"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D96" s="25"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D97" s="25"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D98" s="25"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D99" s="25"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D100" s="25"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D101" s="25"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D102" s="25"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D103" s="25"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D104" s="25"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D105" s="25"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D106" s="25"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D107" s="25"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D108" s="25"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D109" s="25"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D110" s="25"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D111" s="25"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D112" s="25"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D113" s="25"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D114" s="25"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="25"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D116" s="25"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D117" s="25"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D118" s="25"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D119" s="25"/>
+      <c r="D119" s="24"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D120" s="25"/>
+      <c r="D120" s="24"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D121" s="25"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D122" s="25"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D123" s="25"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D124" s="25"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D125" s="25"/>
+      <c r="D125" s="24"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D126" s="25"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D127" s="25"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D128" s="25"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D129" s="25"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D130" s="25"/>
+      <c r="D130" s="24"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D131" s="25"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D132" s="25"/>
+      <c r="D132" s="24"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D133" s="25"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D134" s="25"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D135" s="25"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D136" s="25"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D137" s="25"/>
+      <c r="D137" s="24"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D138" s="25"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D139" s="25"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D140" s="25"/>
+      <c r="D140" s="24"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D141" s="25"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D142" s="25"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D143" s="25"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D144" s="25"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D145" s="25"/>
+      <c r="D145" s="24"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D146" s="25"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D147" s="25"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D148" s="25"/>
+      <c r="D148" s="24"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D149" s="25"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D150" s="25"/>
+      <c r="D150" s="24"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D151" s="25"/>
+      <c r="D151" s="24"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D152" s="25"/>
+      <c r="D152" s="24"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D153" s="25"/>
+      <c r="D153" s="24"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D154" s="25"/>
+      <c r="D154" s="24"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D155" s="25"/>
+      <c r="D155" s="24"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="25"/>
+      <c r="D156" s="24"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D157" s="25"/>
+      <c r="D157" s="24"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="25"/>
+      <c r="D158" s="24"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D159" s="25"/>
+      <c r="D159" s="24"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D160" s="25"/>
+      <c r="D160" s="24"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D161" s="25"/>
+      <c r="D161" s="24"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D162" s="25"/>
+      <c r="D162" s="24"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D163" s="25"/>
+      <c r="D163" s="24"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="25"/>
+      <c r="D164" s="24"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="25"/>
+      <c r="D165" s="24"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="25"/>
+      <c r="D166" s="24"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="25"/>
+      <c r="D167" s="24"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="25"/>
+      <c r="D168" s="24"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="25"/>
+      <c r="D169" s="24"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="25"/>
+      <c r="D170" s="24"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D171" s="25"/>
+      <c r="D171" s="24"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D172" s="25"/>
+      <c r="D172" s="24"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D173" s="25"/>
+      <c r="D173" s="24"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D174" s="25"/>
+      <c r="D174" s="24"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D175" s="25"/>
+      <c r="D175" s="24"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D176" s="25"/>
+      <c r="D176" s="24"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D177" s="25"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D178" s="25"/>
+      <c r="D178" s="24"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D179" s="25"/>
+      <c r="D179" s="24"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D180" s="25"/>
+      <c r="D180" s="24"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D181" s="25"/>
+      <c r="D181" s="24"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D182" s="25"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D183" s="25"/>
+      <c r="D183" s="24"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D184" s="25"/>
+      <c r="D184" s="24"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D185" s="25"/>
+      <c r="D185" s="24"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D186" s="25"/>
+      <c r="D186" s="24"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D187" s="25"/>
+      <c r="D187" s="24"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D188" s="25"/>
+      <c r="D188" s="24"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D189" s="25"/>
+      <c r="D189" s="24"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D190" s="25"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D191" s="25"/>
+      <c r="D191" s="24"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D192" s="25"/>
+      <c r="D192" s="24"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D193" s="25"/>
+      <c r="D193" s="24"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D194" s="25"/>
+      <c r="D194" s="24"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D195" s="25"/>
+      <c r="D195" s="24"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D196" s="25"/>
+      <c r="D196" s="24"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D197" s="25"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D198" s="25"/>
+      <c r="D198" s="24"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D199" s="25"/>
+      <c r="D199" s="24"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D200" s="25"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D201" s="25"/>
+      <c r="D201" s="24"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D202" s="25"/>
+      <c r="D202" s="24"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D203" s="25"/>
+      <c r="D203" s="24"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D204" s="25"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D205" s="25"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D206" s="25"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D207" s="25"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D208" s="25"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D209" s="25"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D210" s="25"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D211" s="25"/>
+      <c r="D211" s="24"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D212" s="25"/>
+      <c r="D212" s="24"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D213" s="25"/>
+      <c r="D213" s="24"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D214" s="25"/>
+      <c r="D214" s="24"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D215" s="25"/>
+      <c r="D215" s="24"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D216" s="25"/>
+      <c r="D216" s="24"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D217" s="25"/>
+      <c r="D217" s="24"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D218" s="25"/>
+      <c r="D218" s="24"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D219" s="25"/>
+      <c r="D219" s="24"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D220" s="25"/>
+      <c r="D220" s="24"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D221" s="25"/>
+      <c r="D221" s="24"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D222" s="25"/>
+      <c r="D222" s="24"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D223" s="25"/>
+      <c r="D223" s="24"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D224" s="25"/>
+      <c r="D224" s="24"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D225" s="25"/>
+      <c r="D225" s="24"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D226" s="25"/>
+      <c r="D226" s="24"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D227" s="25"/>
+      <c r="D227" s="24"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D228" s="25"/>
+      <c r="D228" s="24"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D229" s="25"/>
+      <c r="D229" s="24"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D230" s="25"/>
+      <c r="D230" s="24"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D231" s="25"/>
+      <c r="D231" s="24"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D232" s="25"/>
+      <c r="D232" s="24"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D233" s="25"/>
+      <c r="D233" s="24"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D234" s="25"/>
+      <c r="D234" s="24"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D235" s="25"/>
+      <c r="D235" s="24"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D236" s="25"/>
+      <c r="D236" s="24"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D237" s="25"/>
+      <c r="D237" s="24"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D238" s="25"/>
+      <c r="D238" s="24"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D239" s="25"/>
+      <c r="D239" s="24"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D240" s="25"/>
+      <c r="D240" s="24"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D241" s="25"/>
+      <c r="D241" s="24"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D242" s="25"/>
+      <c r="D242" s="24"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D243" s="25"/>
+      <c r="D243" s="24"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D244" s="25"/>
+      <c r="D244" s="24"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D245" s="25"/>
+      <c r="D245" s="24"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D246" s="25"/>
+      <c r="D246" s="24"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D247" s="25"/>
+      <c r="D247" s="24"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D248" s="25"/>
+      <c r="D248" s="24"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D249" s="25"/>
+      <c r="D249" s="24"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D250" s="25"/>
+      <c r="D250" s="24"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D251" s="25"/>
+      <c r="D251" s="24"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D252" s="25"/>
+      <c r="D252" s="24"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D253" s="25"/>
+      <c r="D253" s="24"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D254" s="25"/>
+      <c r="D254" s="24"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D255" s="25"/>
+      <c r="D255" s="24"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D256" s="25"/>
+      <c r="D256" s="24"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D257" s="25"/>
+      <c r="D257" s="24"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D258" s="25"/>
+      <c r="D258" s="24"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D259" s="25"/>
+      <c r="D259" s="24"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D260" s="25"/>
+      <c r="D260" s="24"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D261" s="25"/>
+      <c r="D261" s="24"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D262" s="25"/>
+      <c r="D262" s="24"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D263" s="25"/>
+      <c r="D263" s="24"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D264" s="25"/>
+      <c r="D264" s="24"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D265" s="25"/>
+      <c r="D265" s="24"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D266" s="25"/>
+      <c r="D266" s="24"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D267" s="25"/>
+      <c r="D267" s="24"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D268" s="25"/>
+      <c r="D268" s="24"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D269" s="25"/>
+      <c r="D269" s="24"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D270" s="25"/>
+      <c r="D270" s="24"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D271" s="25"/>
+      <c r="D271" s="24"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D272" s="25"/>
+      <c r="D272" s="24"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D273" s="25"/>
+      <c r="D273" s="24"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D274" s="25"/>
+      <c r="D274" s="24"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D275" s="25"/>
+      <c r="D275" s="24"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D276" s="25"/>
+      <c r="D276" s="24"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D277" s="25"/>
+      <c r="D277" s="24"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D278" s="25"/>
+      <c r="D278" s="24"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D279" s="25"/>
+      <c r="D279" s="24"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D280" s="25"/>
+      <c r="D280" s="24"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D281" s="25"/>
+      <c r="D281" s="24"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="25"/>
+      <c r="D282" s="24"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="25"/>
+      <c r="D283" s="24"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="25"/>
+      <c r="D284" s="24"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="25"/>
+      <c r="D285" s="24"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="25"/>
+      <c r="D286" s="24"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="25"/>
+      <c r="D287" s="24"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="25"/>
+      <c r="D288" s="24"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="25"/>
+      <c r="D289" s="24"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="25"/>
+      <c r="D290" s="24"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="25"/>
+      <c r="D291" s="24"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="25"/>
+      <c r="D292" s="24"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="25"/>
+      <c r="D293" s="24"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="25"/>
+      <c r="D294" s="24"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="25"/>
+      <c r="D295" s="24"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="25"/>
+      <c r="D296" s="24"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="25"/>
+      <c r="D297" s="24"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="25"/>
+      <c r="D298" s="24"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="25"/>
+      <c r="D299" s="24"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="25"/>
+      <c r="D300" s="24"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="25"/>
+      <c r="D301" s="24"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="25"/>
+      <c r="D302" s="24"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="25"/>
+      <c r="D303" s="24"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="25"/>
+      <c r="D304" s="24"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="25"/>
+      <c r="D305" s="24"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="25"/>
+      <c r="D306" s="24"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="25"/>
+      <c r="D307" s="24"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="25"/>
+      <c r="D308" s="24"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="25"/>
+      <c r="D309" s="24"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="25"/>
+      <c r="D310" s="24"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="25"/>
+      <c r="D311" s="24"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="25"/>
+      <c r="D312" s="24"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="25"/>
+      <c r="D313" s="24"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="25"/>
+      <c r="D314" s="24"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="25"/>
+      <c r="D315" s="24"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="25"/>
+      <c r="D316" s="24"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="25"/>
+      <c r="D317" s="24"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="25"/>
+      <c r="D318" s="24"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="25"/>
+      <c r="D319" s="24"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="25"/>
+      <c r="D320" s="24"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="25"/>
+      <c r="D321" s="24"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="25"/>
+      <c r="D322" s="24"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="25"/>
+      <c r="D323" s="24"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="25"/>
+      <c r="D324" s="24"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="25"/>
+      <c r="D325" s="24"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="25"/>
+      <c r="D326" s="24"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="25"/>
+      <c r="D327" s="24"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="25"/>
+      <c r="D328" s="24"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="25"/>
+      <c r="D329" s="24"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="25"/>
+      <c r="D330" s="24"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="25"/>
+      <c r="D331" s="24"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="25"/>
+      <c r="D332" s="24"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="25"/>
+      <c r="D333" s="24"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="25"/>
+      <c r="D334" s="24"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="25"/>
+      <c r="D335" s="24"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="25"/>
+      <c r="D336" s="24"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="25"/>
+      <c r="D337" s="24"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="25"/>
+      <c r="D338" s="24"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="25"/>
+      <c r="D339" s="24"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="25"/>
+      <c r="D340" s="24"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="25"/>
+      <c r="D341" s="24"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="25"/>
+      <c r="D342" s="24"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="25"/>
+      <c r="D343" s="24"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="25"/>
+      <c r="D344" s="24"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="25"/>
+      <c r="D345" s="24"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="25"/>
+      <c r="D346" s="24"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="25"/>
+      <c r="D347" s="24"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="25"/>
+      <c r="D348" s="24"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="25"/>
+      <c r="D349" s="24"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="25"/>
+      <c r="D350" s="24"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="25"/>
+      <c r="D351" s="24"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="25"/>
+      <c r="D352" s="24"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="25"/>
+      <c r="D353" s="24"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="25"/>
+      <c r="D354" s="24"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="25"/>
+      <c r="D355" s="24"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="25"/>
+      <c r="D356" s="24"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="25"/>
+      <c r="D357" s="24"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="25"/>
+      <c r="D358" s="24"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="25"/>
+      <c r="D359" s="24"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="25"/>
+      <c r="D360" s="24"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="25"/>
+      <c r="D361" s="24"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="25"/>
+      <c r="D362" s="24"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="25"/>
+      <c r="D363" s="24"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="25"/>
+      <c r="D364" s="24"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="25"/>
+      <c r="D365" s="24"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="25"/>
+      <c r="D366" s="24"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="25"/>
+      <c r="D367" s="24"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="25"/>
+      <c r="D368" s="24"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="25"/>
+      <c r="D369" s="24"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="25"/>
+      <c r="D370" s="24"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="25"/>
+      <c r="D371" s="24"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="25"/>
+      <c r="D372" s="24"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="25"/>
+      <c r="D373" s="24"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="25"/>
+      <c r="D374" s="24"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="25"/>
+      <c r="D375" s="24"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="25"/>
+      <c r="D376" s="24"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="25"/>
+      <c r="D377" s="24"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="25"/>
+      <c r="D378" s="24"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="25"/>
+      <c r="D379" s="24"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="25"/>
+      <c r="D380" s="24"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="25"/>
+      <c r="D381" s="24"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="25"/>
+      <c r="D382" s="24"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="25"/>
+      <c r="D383" s="24"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="25"/>
+      <c r="D384" s="24"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="25"/>
+      <c r="D385" s="24"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="25"/>
+      <c r="D386" s="24"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="25"/>
+      <c r="D387" s="24"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="25"/>
+      <c r="D388" s="24"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="25"/>
+      <c r="D389" s="24"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="25"/>
+      <c r="D390" s="24"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="25"/>
+      <c r="D391" s="24"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="25"/>
+      <c r="D392" s="24"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="25"/>
+      <c r="D393" s="24"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="25"/>
+      <c r="D394" s="24"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="25"/>
+      <c r="D395" s="24"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="25"/>
+      <c r="D396" s="24"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="25"/>
+      <c r="D397" s="24"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="25"/>
+      <c r="D398" s="24"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="25"/>
+      <c r="D399" s="24"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="25"/>
+      <c r="D400" s="24"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="25"/>
+      <c r="D401" s="24"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="25"/>
+      <c r="D402" s="24"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="25"/>
+      <c r="D403" s="24"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="25"/>
+      <c r="D404" s="24"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="25"/>
+      <c r="D405" s="24"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="25"/>
+      <c r="D406" s="24"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="25"/>
+      <c r="D407" s="24"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="25"/>
+      <c r="D408" s="24"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="25"/>
+      <c r="D409" s="24"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="25"/>
+      <c r="D410" s="24"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="25"/>
+      <c r="D411" s="24"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="25"/>
+      <c r="D412" s="24"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="25"/>
+      <c r="D413" s="24"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="25"/>
+      <c r="D414" s="24"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="25"/>
+      <c r="D415" s="24"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="25"/>
+      <c r="D416" s="24"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="25"/>
+      <c r="D417" s="24"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="25"/>
+      <c r="D418" s="24"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="25"/>
+      <c r="D419" s="24"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="25"/>
+      <c r="D420" s="24"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="25"/>
+      <c r="D421" s="24"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="25"/>
+      <c r="D422" s="24"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="25"/>
+      <c r="D423" s="24"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="25"/>
+      <c r="D424" s="24"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="25"/>
+      <c r="D425" s="24"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="25"/>
+      <c r="D426" s="24"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="25"/>
+      <c r="D427" s="24"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="25"/>
+      <c r="D428" s="24"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="25"/>
+      <c r="D429" s="24"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="25"/>
+      <c r="D430" s="24"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="25"/>
+      <c r="D431" s="24"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="25"/>
+      <c r="D432" s="24"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="25"/>
+      <c r="D433" s="24"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="25"/>
+      <c r="D434" s="24"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="25"/>
+      <c r="D435" s="24"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="25"/>
+      <c r="D436" s="24"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="25"/>
+      <c r="D437" s="24"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="25"/>
+      <c r="D438" s="24"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="25"/>
+      <c r="D439" s="24"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="25"/>
+      <c r="D440" s="24"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="25"/>
+      <c r="D441" s="24"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="25"/>
+      <c r="D442" s="24"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="25"/>
+      <c r="D443" s="24"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="25"/>
+      <c r="D444" s="24"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="25"/>
+      <c r="D445" s="24"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="25"/>
+      <c r="D446" s="24"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="25"/>
+      <c r="D447" s="24"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="25"/>
+      <c r="D448" s="24"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="25"/>
+      <c r="D449" s="24"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="25"/>
+      <c r="D450" s="24"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="25"/>
+      <c r="D451" s="24"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
     <row r="452" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="25"/>
+      <c r="D452" s="24"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="25"/>
+      <c r="D453" s="24"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="25"/>
+      <c r="D454" s="24"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="25"/>
+      <c r="D455" s="24"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
     <row r="456" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="25"/>
+      <c r="D456" s="24"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="25"/>
+      <c r="D457" s="24"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="25"/>
+      <c r="D458" s="24"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="25"/>
+      <c r="D459" s="24"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="25"/>
+      <c r="D460" s="24"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
     <row r="461" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="25"/>
+      <c r="D461" s="24"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="25"/>
+      <c r="D462" s="24"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="25"/>
+      <c r="D463" s="24"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="25"/>
+      <c r="D464" s="24"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="25"/>
+      <c r="D465" s="24"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
     <row r="466" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="25"/>
+      <c r="D466" s="24"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="25"/>
+      <c r="D467" s="24"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
     <row r="468" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="25"/>
+      <c r="D468" s="24"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
     <row r="469" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="25"/>
+      <c r="D469" s="24"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="25"/>
+      <c r="D470" s="24"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="25"/>
+      <c r="D471" s="24"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="25"/>
+      <c r="D472" s="24"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="25"/>
+      <c r="D473" s="24"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
     <row r="474" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="25"/>
+      <c r="D474" s="24"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="25"/>
+      <c r="D475" s="24"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="25"/>
+      <c r="D476" s="24"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
     <row r="477" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="25"/>
+      <c r="D477" s="24"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="25"/>
+      <c r="D478" s="24"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="25"/>
+      <c r="D479" s="24"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="25"/>
+      <c r="D480" s="24"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="25"/>
+      <c r="D481" s="24"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="25"/>
+      <c r="D482" s="24"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="25"/>
+      <c r="D483" s="24"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="25"/>
+      <c r="D484" s="24"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="25"/>
+      <c r="D485" s="24"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="25"/>
+      <c r="D486" s="24"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
     <row r="487" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="25"/>
+      <c r="D487" s="24"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="25"/>
+      <c r="D488" s="24"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="25"/>
+      <c r="D489" s="24"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="25"/>
+      <c r="D490" s="24"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
     <row r="491" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="25"/>
+      <c r="D491" s="24"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="25"/>
+      <c r="D492" s="24"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
     <row r="493" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="25"/>
+      <c r="D493" s="24"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="25"/>
+      <c r="D494" s="24"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
     <row r="495" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="25"/>
+      <c r="D495" s="24"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
     <row r="496" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="25"/>
+      <c r="D496" s="24"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="25"/>
+      <c r="D497" s="24"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
     <row r="498" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="25"/>
+      <c r="D498" s="24"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
     <row r="499" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="25"/>
+      <c r="D499" s="24"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="25"/>
+      <c r="D500" s="24"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
     <row r="501" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="25"/>
+      <c r="D501" s="24"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="25"/>
+      <c r="D502" s="24"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
     </row>
     <row r="503" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="25"/>
+      <c r="D503" s="24"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="25"/>
+      <c r="D504" s="24"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="25"/>
+      <c r="D505" s="24"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
     <row r="506" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="25"/>
+      <c r="D506" s="24"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
     <row r="507" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="25"/>
+      <c r="D507" s="24"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
     <row r="508" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="25"/>
+      <c r="D508" s="24"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="25"/>
+      <c r="D509" s="24"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="25"/>
+      <c r="D510" s="24"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
     <row r="511" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="25"/>
+      <c r="D511" s="24"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="25"/>
+      <c r="D512" s="24"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
     <row r="513" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="25"/>
+      <c r="D513" s="24"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
     <row r="514" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="25"/>
+      <c r="D514" s="24"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="25"/>
+      <c r="D515" s="24"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="25"/>
+      <c r="D516" s="24"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="25"/>
+      <c r="D517" s="24"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="25"/>
+      <c r="D518" s="24"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
     </row>
     <row r="519" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="25"/>
+      <c r="D519" s="24"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="25"/>
+      <c r="D520" s="24"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
     <row r="521" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="25"/>
+      <c r="D521" s="24"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="25"/>
+      <c r="D522" s="24"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
     <row r="523" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="25"/>
+      <c r="D523" s="24"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
     <row r="524" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="25"/>
+      <c r="D524" s="24"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="25"/>
+      <c r="D525" s="24"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
     <row r="526" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="25"/>
+      <c r="D526" s="24"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
     <row r="527" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="25"/>
+      <c r="D527" s="24"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="25"/>
+      <c r="D528" s="24"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
     <row r="529" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="25"/>
+      <c r="D529" s="24"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
     <row r="530" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="25"/>
+      <c r="D530" s="24"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
     <row r="531" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="25"/>
+      <c r="D531" s="24"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
     <row r="532" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="25"/>
+      <c r="D532" s="24"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
     <row r="533" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="25"/>
+      <c r="D533" s="24"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
     <row r="534" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="25"/>
+      <c r="D534" s="24"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
     </row>
     <row r="535" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="25"/>
+      <c r="D535" s="24"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
     </row>
     <row r="536" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="25"/>
+      <c r="D536" s="24"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
     <row r="537" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="25"/>
+      <c r="D537" s="24"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
     <row r="538" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="25"/>
+      <c r="D538" s="24"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
     <row r="539" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="25"/>
+      <c r="D539" s="24"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
     <row r="540" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="25"/>
+      <c r="D540" s="24"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
     <row r="541" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="25"/>
+      <c r="D541" s="24"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
     <row r="542" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="25"/>
+      <c r="D542" s="24"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="25"/>
+      <c r="D543" s="24"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
     <row r="544" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="25"/>
+      <c r="D544" s="24"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
     <row r="545" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="25"/>
+      <c r="D545" s="24"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="25"/>
+      <c r="D546" s="24"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
     </row>
     <row r="547" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="25"/>
+      <c r="D547" s="24"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
     <row r="548" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="25"/>
+      <c r="D548" s="24"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
     <row r="549" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="25"/>
+      <c r="D549" s="24"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="25"/>
+      <c r="D550" s="24"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
     </row>
     <row r="551" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="25"/>
+      <c r="D551" s="24"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
     </row>
     <row r="552" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="25"/>
+      <c r="D552" s="24"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
     <row r="553" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="25"/>
+      <c r="D553" s="24"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
     <row r="554" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="25"/>
+      <c r="D554" s="24"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="25"/>
+      <c r="D555" s="24"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
     <row r="556" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="25"/>
+      <c r="D556" s="24"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
     <row r="557" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="25"/>
+      <c r="D557" s="24"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
     <row r="558" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="25"/>
+      <c r="D558" s="24"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
     <row r="559" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="25"/>
+      <c r="D559" s="24"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="25"/>
+      <c r="D560" s="24"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
     <row r="561" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="25"/>
+      <c r="D561" s="24"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="25"/>
+      <c r="D562" s="24"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
     <row r="563" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="25"/>
+      <c r="D563" s="24"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
     <row r="564" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="25"/>
+      <c r="D564" s="24"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
     <row r="565" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="25"/>
+      <c r="D565" s="24"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
     <row r="566" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="25"/>
+      <c r="D566" s="24"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
     <row r="567" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="25"/>
+      <c r="D567" s="24"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
     </row>
     <row r="568" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="25"/>
+      <c r="D568" s="24"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
     </row>
     <row r="569" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="25"/>
+      <c r="D569" s="24"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
     <row r="570" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="25"/>
+      <c r="D570" s="24"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
     <row r="571" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="25"/>
+      <c r="D571" s="24"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="25"/>
+      <c r="D572" s="24"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
     <row r="573" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="25"/>
+      <c r="D573" s="24"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="25"/>
+      <c r="D574" s="24"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
     <row r="575" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="25"/>
+      <c r="D575" s="24"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="25"/>
+      <c r="D576" s="24"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
     <row r="577" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="25"/>
+      <c r="D577" s="24"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
     <row r="578" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="25"/>
+      <c r="D578" s="24"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
     <row r="579" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="25"/>
+      <c r="D579" s="24"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
     <row r="580" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="25"/>
+      <c r="D580" s="24"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
     <row r="581" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="25"/>
+      <c r="D581" s="24"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
     <row r="582" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="25"/>
+      <c r="D582" s="24"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
     <row r="583" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="25"/>
+      <c r="D583" s="24"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
     </row>
     <row r="584" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="25"/>
+      <c r="D584" s="24"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
     <row r="585" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="25"/>
+      <c r="D585" s="24"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
     <row r="586" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="25"/>
+      <c r="D586" s="24"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="25"/>
+      <c r="D587" s="24"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
     <row r="588" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="25"/>
+      <c r="D588" s="24"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
     <row r="589" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="25"/>
+      <c r="D589" s="24"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
     <row r="590" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="25"/>
+      <c r="D590" s="24"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
     <row r="591" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="25"/>
+      <c r="D591" s="24"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
     <row r="592" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="25"/>
+      <c r="D592" s="24"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
     <row r="593" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="25"/>
+      <c r="D593" s="24"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
     <row r="594" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="25"/>
+      <c r="D594" s="24"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
     <row r="595" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="25"/>
+      <c r="D595" s="24"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
     <row r="596" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="25"/>
+      <c r="D596" s="24"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
     <row r="597" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="25"/>
+      <c r="D597" s="24"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
     <row r="598" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="25"/>
+      <c r="D598" s="24"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
     </row>
     <row r="599" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="25"/>
+      <c r="D599" s="24"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
     </row>
     <row r="600" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="25"/>
+      <c r="D600" s="24"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
     </row>
     <row r="601" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="25"/>
+      <c r="D601" s="24"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="25"/>
+      <c r="D602" s="24"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
     <row r="603" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="25"/>
+      <c r="D603" s="24"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
     <row r="604" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="25"/>
+      <c r="D604" s="24"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
     <row r="605" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="25"/>
+      <c r="D605" s="24"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
     <row r="606" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="25"/>
+      <c r="D606" s="24"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
     </row>
     <row r="607" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="25"/>
+      <c r="D607" s="24"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="25"/>
+      <c r="D608" s="24"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
     <row r="609" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="25"/>
+      <c r="D609" s="24"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
     <row r="610" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="25"/>
+      <c r="D610" s="24"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
     <row r="611" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="25"/>
+      <c r="D611" s="24"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
     <row r="612" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="25"/>
+      <c r="D612" s="24"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
     <row r="613" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="25"/>
+      <c r="D613" s="24"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
     <row r="614" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="25"/>
+      <c r="D614" s="24"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
     </row>
     <row r="615" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="25"/>
+      <c r="D615" s="24"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
     </row>
     <row r="616" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="25"/>
+      <c r="D616" s="24"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
     </row>
     <row r="617" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="25"/>
+      <c r="D617" s="24"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
     <row r="618" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="25"/>
+      <c r="D618" s="24"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="25"/>
+      <c r="D619" s="24"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
     <row r="620" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="25"/>
+      <c r="D620" s="24"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
     <row r="621" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="25"/>
+      <c r="D621" s="24"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
     <row r="622" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="25"/>
+      <c r="D622" s="24"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="25"/>
+      <c r="D623" s="24"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
     <row r="624" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="25"/>
+      <c r="D624" s="24"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
     </row>
     <row r="625" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="25"/>
+      <c r="D625" s="24"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
     <row r="626" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="25"/>
+      <c r="D626" s="24"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
     <row r="627" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="25"/>
+      <c r="D627" s="24"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
     <row r="628" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="25"/>
+      <c r="D628" s="24"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
     <row r="629" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="25"/>
+      <c r="D629" s="24"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
     <row r="630" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="25"/>
+      <c r="D630" s="24"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
     </row>
     <row r="631" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="25"/>
+      <c r="D631" s="24"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
     </row>
     <row r="632" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="25"/>
+      <c r="D632" s="24"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
     </row>
     <row r="633" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="25"/>
+      <c r="D633" s="24"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
     <row r="634" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="25"/>
+      <c r="D634" s="24"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
     <row r="635" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="25"/>
+      <c r="D635" s="24"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
     <row r="636" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="25"/>
+      <c r="D636" s="24"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
     <row r="637" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="25"/>
+      <c r="D637" s="24"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
     <row r="638" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="25"/>
+      <c r="D638" s="24"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
     </row>
     <row r="639" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="25"/>
+      <c r="D639" s="24"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
     <row r="640" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="25"/>
+      <c r="D640" s="24"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
     <row r="641" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="25"/>
+      <c r="D641" s="24"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
     <row r="642" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="25"/>
+      <c r="D642" s="24"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
     </row>
     <row r="643" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="25"/>
+      <c r="D643" s="24"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
     <row r="644" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="25"/>
+      <c r="D644" s="24"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="25"/>
+      <c r="D645" s="24"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
     </row>
     <row r="646" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="25"/>
+      <c r="D646" s="24"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
     </row>
     <row r="647" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="25"/>
+      <c r="D647" s="24"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
     </row>
     <row r="648" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="25"/>
+      <c r="D648" s="24"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
     <row r="649" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="25"/>
+      <c r="D649" s="24"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
     <row r="650" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="25"/>
+      <c r="D650" s="24"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
     </row>
     <row r="651" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="25"/>
+      <c r="D651" s="24"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
     <row r="652" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="25"/>
+      <c r="D652" s="24"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="25"/>
+      <c r="D653" s="24"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
     <row r="654" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="25"/>
+      <c r="D654" s="24"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
     </row>
     <row r="655" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="25"/>
+      <c r="D655" s="24"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
     </row>
     <row r="656" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="25"/>
+      <c r="D656" s="24"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
     </row>
     <row r="657" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="25"/>
+      <c r="D657" s="24"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
     <row r="658" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="25"/>
+      <c r="D658" s="24"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="25"/>
+      <c r="D659" s="24"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
     </row>
     <row r="660" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="25"/>
+      <c r="D660" s="24"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
     </row>
     <row r="661" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="25"/>
+      <c r="D661" s="24"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
     <row r="662" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="25"/>
+      <c r="D662" s="24"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
     </row>
     <row r="663" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="25"/>
+      <c r="D663" s="24"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
     </row>
     <row r="664" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="25"/>
+      <c r="D664" s="24"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
     </row>
     <row r="665" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="25"/>
+      <c r="D665" s="24"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
     <row r="666" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="25"/>
+      <c r="D666" s="24"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
     </row>
     <row r="667" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="25"/>
+      <c r="D667" s="24"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="25"/>
+      <c r="D668" s="24"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
     </row>
     <row r="669" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="25"/>
+      <c r="D669" s="24"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
     </row>
     <row r="670" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="25"/>
+      <c r="D670" s="24"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
     </row>
     <row r="671" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="25"/>
+      <c r="D671" s="24"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
     </row>
     <row r="672" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="25"/>
+      <c r="D672" s="24"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
     <row r="673" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="25"/>
+      <c r="D673" s="24"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
     </row>
     <row r="674" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="25"/>
+      <c r="D674" s="24"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
     </row>
     <row r="675" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="25"/>
+      <c r="D675" s="24"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
     </row>
     <row r="676" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="25"/>
+      <c r="D676" s="24"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
     </row>
     <row r="677" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="25"/>
+      <c r="D677" s="24"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
     </row>
     <row r="678" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="25"/>
+      <c r="D678" s="24"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
     </row>
     <row r="679" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="25"/>
+      <c r="D679" s="24"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
     </row>
     <row r="680" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="25"/>
+      <c r="D680" s="24"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
     </row>
     <row r="681" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="25"/>
+      <c r="D681" s="24"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
     <row r="682" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="25"/>
+      <c r="D682" s="24"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
     </row>
     <row r="683" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="25"/>
+      <c r="D683" s="24"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="25"/>
+      <c r="D684" s="24"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
     </row>
     <row r="685" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D685" s="25"/>
+      <c r="D685" s="24"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
     </row>
     <row r="686" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D686" s="25"/>
+      <c r="D686" s="24"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
     <row r="687" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D687" s="25"/>
+      <c r="D687" s="24"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
     <row r="688" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D688" s="25"/>
+      <c r="D688" s="24"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
     <row r="689" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D689" s="25"/>
+      <c r="D689" s="24"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
     </row>
     <row r="690" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D690" s="25"/>
+      <c r="D690" s="24"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
     </row>
     <row r="691" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D691" s="25"/>
+      <c r="D691" s="24"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
     </row>
     <row r="692" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D692" s="25"/>
+      <c r="D692" s="24"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
     </row>
     <row r="693" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D693" s="25"/>
+      <c r="D693" s="24"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
     </row>
     <row r="694" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D694" s="25"/>
+      <c r="D694" s="24"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
     </row>
     <row r="695" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D695" s="25"/>
+      <c r="D695" s="24"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
     </row>
     <row r="696" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D696" s="25"/>
+      <c r="D696" s="24"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
     </row>
     <row r="697" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D697" s="25"/>
+      <c r="D697" s="24"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
     </row>
     <row r="698" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D698" s="25"/>
+      <c r="D698" s="24"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
     </row>
     <row r="699" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D699" s="25"/>
+      <c r="D699" s="24"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
     </row>
     <row r="700" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D700" s="25"/>
+      <c r="D700" s="24"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D701" s="25"/>
+      <c r="D701" s="24"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
     <row r="702" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D702" s="25"/>
+      <c r="D702" s="24"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
     </row>
     <row r="703" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D703" s="25"/>
+      <c r="D703" s="24"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
     <row r="704" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D704" s="25"/>
+      <c r="D704" s="24"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
     </row>
     <row r="705" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D705" s="25"/>
+      <c r="D705" s="24"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
     </row>
     <row r="706" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D706" s="25"/>
+      <c r="D706" s="24"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
     </row>
     <row r="707" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D707" s="25"/>
+      <c r="D707" s="24"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
     </row>
     <row r="708" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D708" s="25"/>
+      <c r="D708" s="24"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
     </row>
     <row r="709" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D709" s="25"/>
+      <c r="D709" s="24"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
     </row>
     <row r="710" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D710" s="25"/>
+      <c r="D710" s="24"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
     </row>
     <row r="711" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D711" s="25"/>
+      <c r="D711" s="24"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
     </row>
     <row r="712" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D712" s="25"/>
+      <c r="D712" s="24"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
     </row>
     <row r="713" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D713" s="25"/>
+      <c r="D713" s="24"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
     </row>
     <row r="714" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D714" s="25"/>
+      <c r="D714" s="24"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
     </row>
     <row r="715" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D715" s="25"/>
+      <c r="D715" s="24"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
     </row>
     <row r="716" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D716" s="25"/>
+      <c r="D716" s="24"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
     </row>
     <row r="717" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D717" s="25"/>
+      <c r="D717" s="24"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
     </row>
     <row r="718" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D718" s="25"/>
+      <c r="D718" s="24"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
     <row r="719" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D719" s="25"/>
+      <c r="D719" s="24"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D720" s="25"/>
+      <c r="D720" s="24"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D721" s="25"/>
+      <c r="D721" s="24"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
     </row>
     <row r="722" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D722" s="25"/>
+      <c r="D722" s="24"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
     </row>
     <row r="723" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D723" s="25"/>
+      <c r="D723" s="24"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
     </row>
     <row r="724" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D724" s="25"/>
+      <c r="D724" s="24"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
     </row>
     <row r="725" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D725" s="25"/>
+      <c r="D725" s="24"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
     </row>
     <row r="726" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D726" s="25"/>
+      <c r="D726" s="24"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
     </row>
     <row r="727" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D727" s="25"/>
+      <c r="D727" s="24"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
     </row>
     <row r="728" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D728" s="25"/>
+      <c r="D728" s="24"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
     </row>
     <row r="729" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D729" s="25"/>
+      <c r="D729" s="24"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
     </row>
     <row r="730" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D730" s="25"/>
+      <c r="D730" s="24"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
     </row>
     <row r="731" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D731" s="25"/>
+      <c r="D731" s="24"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
     </row>
     <row r="732" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D732" s="25"/>
+      <c r="D732" s="24"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
     </row>
     <row r="733" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D733" s="25"/>
+      <c r="D733" s="24"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
     <row r="734" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D734" s="25"/>
+      <c r="D734" s="24"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
     </row>
     <row r="735" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D735" s="25"/>
+      <c r="D735" s="24"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D736" s="25"/>
+      <c r="D736" s="24"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
     </row>
     <row r="737" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D737" s="25"/>
+      <c r="D737" s="24"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
     </row>
     <row r="738" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D738" s="25"/>
+      <c r="D738" s="24"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
     </row>
     <row r="739" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D739" s="25"/>
+      <c r="D739" s="24"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
     <row r="740" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D740" s="25"/>
+      <c r="D740" s="24"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
     <row r="741" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D741" s="25"/>
+      <c r="D741" s="24"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
     <row r="742" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D742" s="25"/>
+      <c r="D742" s="24"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
     <row r="743" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D743" s="25"/>
+      <c r="D743" s="24"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
     <row r="744" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D744" s="25"/>
+      <c r="D744" s="24"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
     <row r="745" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D745" s="25"/>
+      <c r="D745" s="24"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
     </row>
     <row r="746" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D746" s="25"/>
+      <c r="D746" s="24"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
     </row>
     <row r="747" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D747" s="25"/>
+      <c r="D747" s="24"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
     </row>
     <row r="748" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D748" s="25"/>
+      <c r="D748" s="24"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
     </row>
     <row r="749" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D749" s="25"/>
+      <c r="D749" s="24"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
     </row>
     <row r="750" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D750" s="25"/>
+      <c r="D750" s="24"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
     </row>
     <row r="751" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D751" s="25"/>
+      <c r="D751" s="24"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
     </row>
     <row r="752" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D752" s="25"/>
+      <c r="D752" s="24"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
     </row>
     <row r="753" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D753" s="25"/>
+      <c r="D753" s="24"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
     </row>
     <row r="754" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D754" s="25"/>
+      <c r="D754" s="24"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
     </row>
     <row r="755" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D755" s="25"/>
+      <c r="D755" s="24"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
     </row>
     <row r="756" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D756" s="25"/>
+      <c r="D756" s="24"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
     <row r="757" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D757" s="25"/>
+      <c r="D757" s="24"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
     </row>
     <row r="758" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D758" s="25"/>
+      <c r="D758" s="24"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
     </row>
     <row r="759" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D759" s="25"/>
+      <c r="D759" s="24"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
     </row>
     <row r="760" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D760" s="25"/>
+      <c r="D760" s="24"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
     </row>
     <row r="761" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D761" s="25"/>
+      <c r="D761" s="24"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
     </row>
     <row r="762" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D762" s="25"/>
+      <c r="D762" s="24"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
     </row>
     <row r="763" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D763" s="25"/>
+      <c r="D763" s="24"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
     </row>
     <row r="764" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D764" s="25"/>
+      <c r="D764" s="24"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
     </row>
     <row r="765" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D765" s="25"/>
+      <c r="D765" s="24"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
     </row>
     <row r="766" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D766" s="25"/>
+      <c r="D766" s="24"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
     </row>
     <row r="767" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D767" s="25"/>
+      <c r="D767" s="24"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
     </row>
     <row r="768" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D768" s="25"/>
+      <c r="D768" s="24"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
     </row>
     <row r="769" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D769" s="25"/>
+      <c r="D769" s="24"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D770" s="25"/>
+      <c r="D770" s="24"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D771" s="25"/>
+      <c r="D771" s="24"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
     </row>
     <row r="772" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D772" s="25"/>
+      <c r="D772" s="24"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
     </row>
     <row r="773" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D773" s="25"/>
+      <c r="D773" s="24"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
     <row r="774" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D774" s="25"/>
+      <c r="D774" s="24"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
     </row>
     <row r="775" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D775" s="25"/>
+      <c r="D775" s="24"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D776" s="25"/>
+      <c r="D776" s="24"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
     </row>
     <row r="777" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D777" s="25"/>
+      <c r="D777" s="24"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
     </row>
     <row r="778" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D778" s="25"/>
+      <c r="D778" s="24"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
     </row>
     <row r="779" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D779" s="25"/>
+      <c r="D779" s="24"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
     </row>
     <row r="780" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D780" s="25"/>
+      <c r="D780" s="24"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
     </row>
     <row r="781" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D781" s="25"/>
+      <c r="D781" s="24"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
     </row>
     <row r="782" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D782" s="25"/>
+      <c r="D782" s="24"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
     </row>
     <row r="783" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D783" s="25"/>
+      <c r="D783" s="24"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D784" s="25"/>
+      <c r="D784" s="24"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
     </row>
     <row r="785" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D785" s="25"/>
+      <c r="D785" s="24"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
     </row>
     <row r="786" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D786" s="25"/>
+      <c r="D786" s="24"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
     <row r="787" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D787" s="25"/>
+      <c r="D787" s="24"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D788" s="25"/>
+      <c r="D788" s="24"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D789" s="25"/>
+      <c r="D789" s="24"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
     </row>
     <row r="790" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D790" s="25"/>
+      <c r="D790" s="24"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
     </row>
     <row r="791" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D791" s="25"/>
+      <c r="D791" s="24"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
     </row>
     <row r="792" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D792" s="25"/>
+      <c r="D792" s="24"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
     </row>
     <row r="793" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D793" s="25"/>
+      <c r="D793" s="24"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
     </row>
     <row r="794" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D794" s="25"/>
+      <c r="D794" s="24"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
     </row>
     <row r="795" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D795" s="25"/>
+      <c r="D795" s="24"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
     </row>
     <row r="796" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D796" s="25"/>
+      <c r="D796" s="24"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
     </row>
     <row r="797" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D797" s="25"/>
+      <c r="D797" s="24"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
     </row>
     <row r="798" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D798" s="25"/>
+      <c r="D798" s="24"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
     </row>
     <row r="799" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D799" s="25"/>
+      <c r="D799" s="24"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
     <row r="800" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D800" s="25"/>
+      <c r="D800" s="24"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D801" s="25"/>
+      <c r="D801" s="24"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
     </row>
     <row r="802" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D802" s="25"/>
+      <c r="D802" s="24"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
     </row>
     <row r="803" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D803" s="25"/>
+      <c r="D803" s="24"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
     </row>
     <row r="804" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D804" s="25"/>
+      <c r="D804" s="24"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
     </row>
     <row r="805" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D805" s="25"/>
+      <c r="D805" s="24"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
     </row>
     <row r="806" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D806" s="25"/>
+      <c r="D806" s="24"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
     </row>
     <row r="807" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D807" s="25"/>
+      <c r="D807" s="24"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D808" s="25"/>
+      <c r="D808" s="24"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
     </row>
     <row r="809" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D809" s="25"/>
+      <c r="D809" s="24"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
     </row>
     <row r="810" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D810" s="25"/>
+      <c r="D810" s="24"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
     </row>
     <row r="811" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D811" s="25"/>
+      <c r="D811" s="24"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
     </row>
     <row r="812" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D812" s="25"/>
+      <c r="D812" s="24"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
     </row>
     <row r="813" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D813" s="25"/>
+      <c r="D813" s="24"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
     </row>
     <row r="814" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D814" s="25"/>
+      <c r="D814" s="24"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
     </row>
     <row r="815" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D815" s="25"/>
+      <c r="D815" s="24"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
     </row>
     <row r="816" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D816" s="25"/>
+      <c r="D816" s="24"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
     </row>
     <row r="817" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D817" s="25"/>
+      <c r="D817" s="24"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
     </row>
     <row r="818" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D818" s="25"/>
+      <c r="D818" s="24"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
     </row>
     <row r="819" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D819" s="25"/>
+      <c r="D819" s="24"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
     </row>
     <row r="820" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D820" s="25"/>
+      <c r="D820" s="24"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
     </row>
     <row r="821" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D821" s="25"/>
+      <c r="D821" s="24"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
     </row>
     <row r="822" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D822" s="25"/>
+      <c r="D822" s="24"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
     <row r="823" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D823" s="25"/>
+      <c r="D823" s="24"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
     <row r="824" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D824" s="25"/>
+      <c r="D824" s="24"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
     </row>
     <row r="825" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D825" s="25"/>
+      <c r="D825" s="24"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D826" s="25"/>
+      <c r="D826" s="24"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
     </row>
     <row r="827" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D827" s="25"/>
+      <c r="D827" s="24"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
     </row>
     <row r="828" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D828" s="25"/>
+      <c r="D828" s="24"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
     </row>
     <row r="829" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D829" s="25"/>
+      <c r="D829" s="24"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
     </row>
     <row r="830" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="25"/>
+      <c r="D830" s="24"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D831" s="25"/>
+      <c r="D831" s="24"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
     </row>
     <row r="832" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D832" s="25"/>
+      <c r="D832" s="24"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
     </row>
     <row r="833" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D833" s="25"/>
+      <c r="D833" s="24"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
     </row>
     <row r="834" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D834" s="25"/>
+      <c r="D834" s="24"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
     </row>
     <row r="835" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D835" s="25"/>
+      <c r="D835" s="24"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
     </row>
     <row r="836" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D836" s="25"/>
+      <c r="D836" s="24"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
     </row>
     <row r="837" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D837" s="25"/>
+      <c r="D837" s="24"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
     </row>
     <row r="838" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D838" s="25"/>
+      <c r="D838" s="24"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
     <row r="839" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D839" s="25"/>
+      <c r="D839" s="24"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
     </row>
     <row r="840" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D840" s="25"/>
+      <c r="D840" s="24"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
     </row>
     <row r="841" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D841" s="25"/>
+      <c r="D841" s="24"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
     </row>
     <row r="842" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D842" s="25"/>
+      <c r="D842" s="24"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
     </row>
     <row r="843" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D843" s="25"/>
+      <c r="D843" s="24"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
     </row>
     <row r="844" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D844" s="25"/>
+      <c r="D844" s="24"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
     </row>
     <row r="845" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D845" s="25"/>
+      <c r="D845" s="24"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
     </row>
     <row r="846" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D846" s="25"/>
+      <c r="D846" s="24"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
     </row>
     <row r="847" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D847" s="25"/>
+      <c r="D847" s="24"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
     </row>
     <row r="848" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D848" s="25"/>
+      <c r="D848" s="24"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
     </row>
     <row r="849" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D849" s="25"/>
+      <c r="D849" s="24"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D850" s="25"/>
+      <c r="D850" s="24"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
     </row>
     <row r="851" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D851" s="25"/>
+      <c r="D851" s="24"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
     </row>
     <row r="852" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D852" s="25"/>
+      <c r="D852" s="24"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
     </row>
     <row r="853" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D853" s="25"/>
+      <c r="D853" s="24"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
     </row>
     <row r="854" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D854" s="25"/>
+      <c r="D854" s="24"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
     </row>
     <row r="855" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D855" s="25"/>
+      <c r="D855" s="24"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
     </row>
     <row r="856" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D856" s="25"/>
+      <c r="D856" s="24"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
     </row>
     <row r="857" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D857" s="25"/>
+      <c r="D857" s="24"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
     </row>
     <row r="858" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D858" s="25"/>
+      <c r="D858" s="24"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
     </row>
     <row r="859" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D859" s="25"/>
+      <c r="D859" s="24"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
     </row>
     <row r="860" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D860" s="25"/>
+      <c r="D860" s="24"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
     <row r="861" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D861" s="25"/>
+      <c r="D861" s="24"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
     </row>
     <row r="862" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D862" s="25"/>
+      <c r="D862" s="24"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
     </row>
     <row r="863" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D863" s="25"/>
+      <c r="D863" s="24"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D864" s="25"/>
+      <c r="D864" s="24"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
     </row>
     <row r="865" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D865" s="25"/>
+      <c r="D865" s="24"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
     </row>
     <row r="866" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D866" s="25"/>
+      <c r="D866" s="24"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
     </row>
     <row r="867" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D867" s="25"/>
+      <c r="D867" s="24"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
     </row>
     <row r="868" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D868" s="25"/>
+      <c r="D868" s="24"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
     </row>
     <row r="869" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D869" s="25"/>
+      <c r="D869" s="24"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
     </row>
     <row r="870" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D870" s="25"/>
+      <c r="D870" s="24"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
     </row>
     <row r="871" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D871" s="25"/>
+      <c r="D871" s="24"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D872" s="25"/>
+      <c r="D872" s="24"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
     </row>
     <row r="873" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D873" s="25"/>
+      <c r="D873" s="24"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
     </row>
     <row r="874" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D874" s="25"/>
+      <c r="D874" s="24"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
     </row>
     <row r="875" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D875" s="25"/>
+      <c r="D875" s="24"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
     </row>
     <row r="876" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D876" s="25"/>
+      <c r="D876" s="24"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
     </row>
     <row r="877" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D877" s="25"/>
+      <c r="D877" s="24"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
     </row>
     <row r="878" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D878" s="25"/>
+      <c r="D878" s="24"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
     </row>
     <row r="879" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D879" s="25"/>
+      <c r="D879" s="24"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
     </row>
     <row r="880" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D880" s="25"/>
+      <c r="D880" s="24"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
     </row>
     <row r="881" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D881" s="25"/>
+      <c r="D881" s="24"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
     </row>
     <row r="882" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D882" s="25"/>
+      <c r="D882" s="24"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
     </row>
     <row r="883" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D883" s="25"/>
+      <c r="D883" s="24"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
     </row>
     <row r="884" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D884" s="25"/>
+      <c r="D884" s="24"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
     </row>
     <row r="885" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D885" s="25"/>
+      <c r="D885" s="24"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
     </row>
     <row r="886" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D886" s="25"/>
+      <c r="D886" s="24"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
     </row>
     <row r="887" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D887" s="25"/>
+      <c r="D887" s="24"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
     </row>
     <row r="888" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D888" s="25"/>
+      <c r="D888" s="24"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
     </row>
     <row r="889" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D889" s="25"/>
+      <c r="D889" s="24"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
     </row>
     <row r="890" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D890" s="25"/>
+      <c r="D890" s="24"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
     </row>
     <row r="891" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D891" s="25"/>
+      <c r="D891" s="24"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
     </row>
     <row r="892" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D892" s="25"/>
+      <c r="D892" s="24"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
     </row>
     <row r="893" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D893" s="25"/>
+      <c r="D893" s="24"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
     </row>
     <row r="894" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D894" s="25"/>
+      <c r="D894" s="24"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
     </row>
     <row r="895" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D895" s="25"/>
+      <c r="D895" s="24"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
     </row>
     <row r="896" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D896" s="25"/>
+      <c r="D896" s="24"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
     </row>
     <row r="897" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D897" s="25"/>
+      <c r="D897" s="24"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
     </row>
     <row r="898" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D898" s="25"/>
+      <c r="D898" s="24"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
     </row>
     <row r="899" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D899" s="25"/>
+      <c r="D899" s="24"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
     </row>
     <row r="900" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D900" s="25"/>
+      <c r="D900" s="24"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
     </row>
     <row r="901" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D901" s="25"/>
+      <c r="D901" s="24"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
     </row>
     <row r="902" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D902" s="25"/>
+      <c r="D902" s="24"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
     </row>
     <row r="903" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D903" s="25"/>
+      <c r="D903" s="24"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
     </row>
     <row r="904" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D904" s="25"/>
+      <c r="D904" s="24"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
     </row>
     <row r="905" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D905" s="25"/>
+      <c r="D905" s="24"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
     </row>
     <row r="906" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D906" s="25"/>
+      <c r="D906" s="24"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
     </row>
     <row r="907" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D907" s="25"/>
+      <c r="D907" s="24"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
     </row>
     <row r="908" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D908" s="25"/>
+      <c r="D908" s="24"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
     </row>
     <row r="909" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D909" s="25"/>
+      <c r="D909" s="24"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D910" s="25"/>
+      <c r="D910" s="24"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
     </row>
     <row r="911" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D911" s="25"/>
+      <c r="D911" s="24"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
     </row>
     <row r="912" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D912" s="25"/>
+      <c r="D912" s="24"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
     </row>
     <row r="913" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D913" s="25"/>
+      <c r="D913" s="24"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
     </row>
     <row r="914" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D914" s="25"/>
+      <c r="D914" s="24"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
     </row>
     <row r="915" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D915" s="25"/>
+      <c r="D915" s="24"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
     </row>
     <row r="916" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D916" s="25"/>
+      <c r="D916" s="24"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
     </row>
     <row r="917" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D917" s="25"/>
+      <c r="D917" s="24"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
     </row>
     <row r="918" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D918" s="25"/>
+      <c r="D918" s="24"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
     </row>
     <row r="919" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D919" s="25"/>
+      <c r="D919" s="24"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
     </row>
     <row r="920" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D920" s="25"/>
+      <c r="D920" s="24"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
     </row>
     <row r="921" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D921" s="25"/>
+      <c r="D921" s="24"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
     </row>
     <row r="922" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D922" s="25"/>
+      <c r="D922" s="24"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
     </row>
     <row r="923" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D923" s="25"/>
+      <c r="D923" s="24"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D924" s="25"/>
+      <c r="D924" s="24"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
     </row>
     <row r="925" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D925" s="25"/>
+      <c r="D925" s="24"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
     </row>
     <row r="926" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D926" s="25"/>
+      <c r="D926" s="24"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
     </row>
     <row r="927" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D927" s="25"/>
+      <c r="D927" s="24"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
     <row r="928" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D928" s="25"/>
+      <c r="D928" s="24"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
     </row>
     <row r="929" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D929" s="25"/>
+      <c r="D929" s="24"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
     </row>
     <row r="930" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D930" s="25"/>
+      <c r="D930" s="24"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
     </row>
     <row r="931" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D931" s="25"/>
+      <c r="D931" s="24"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
     </row>
     <row r="932" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D932" s="25"/>
+      <c r="D932" s="24"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
     </row>
     <row r="933" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D933" s="25"/>
+      <c r="D933" s="24"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
     </row>
     <row r="934" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D934" s="25"/>
+      <c r="D934" s="24"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
     </row>
     <row r="935" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D935" s="25"/>
+      <c r="D935" s="24"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
     </row>
     <row r="936" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D936" s="25"/>
+      <c r="D936" s="24"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
     </row>
     <row r="937" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D937" s="25"/>
+      <c r="D937" s="24"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
     </row>
     <row r="938" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D938" s="25"/>
+      <c r="D938" s="24"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D939" s="25"/>
+      <c r="D939" s="24"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
     </row>
     <row r="940" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D940" s="25"/>
+      <c r="D940" s="24"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
     </row>
     <row r="941" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D941" s="25"/>
+      <c r="D941" s="24"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
     </row>
     <row r="942" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D942" s="25"/>
+      <c r="D942" s="24"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
     </row>
     <row r="943" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D943" s="25"/>
+      <c r="D943" s="24"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
     </row>
     <row r="944" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D944" s="25"/>
+      <c r="D944" s="24"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
     </row>
     <row r="945" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D945" s="25"/>
+      <c r="D945" s="24"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
     </row>
     <row r="946" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D946" s="25"/>
+      <c r="D946" s="24"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
     </row>
     <row r="947" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D947" s="25"/>
+      <c r="D947" s="24"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D948" s="25"/>
+      <c r="D948" s="24"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
     <row r="949" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D949" s="25"/>
+      <c r="D949" s="24"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
     <row r="950" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D950" s="25"/>
+      <c r="D950" s="24"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
     <row r="951" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D951" s="25"/>
+      <c r="D951" s="24"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
     </row>
     <row r="952" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D952" s="25"/>
+      <c r="D952" s="24"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
     </row>
     <row r="953" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D953" s="25"/>
+      <c r="D953" s="24"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
     <row r="954" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D954" s="25"/>
+      <c r="D954" s="24"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
     </row>
     <row r="955" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D955" s="25"/>
+      <c r="D955" s="24"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
     </row>
     <row r="956" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D956" s="25"/>
+      <c r="D956" s="24"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
     </row>
     <row r="957" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D957" s="25"/>
+      <c r="D957" s="24"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
     </row>
     <row r="958" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D958" s="25"/>
+      <c r="D958" s="24"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
     </row>
     <row r="959" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D959" s="25"/>
+      <c r="D959" s="24"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
     </row>
     <row r="960" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D960" s="25"/>
+      <c r="D960" s="24"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D961" s="25"/>
+      <c r="D961" s="24"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
     </row>
     <row r="962" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D962" s="25"/>
+      <c r="D962" s="24"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
     <row r="963" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D963" s="25"/>
+      <c r="D963" s="24"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
     </row>
     <row r="964" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D964" s="25"/>
+      <c r="D964" s="24"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
     </row>
     <row r="965" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D965" s="25"/>
+      <c r="D965" s="24"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
     </row>
     <row r="966" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D966" s="25"/>
+      <c r="D966" s="24"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
     </row>
     <row r="967" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D967" s="25"/>
+      <c r="D967" s="24"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
     </row>
     <row r="968" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D968" s="25"/>
+      <c r="D968" s="24"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D969" s="25"/>
+      <c r="D969" s="24"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
     <row r="970" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D970" s="25"/>
+      <c r="D970" s="24"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
     <row r="971" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D971" s="25"/>
+      <c r="D971" s="24"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
     <row r="972" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D972" s="25"/>
+      <c r="D972" s="24"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
     <row r="973" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D973" s="25"/>
+      <c r="D973" s="24"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
     <row r="974" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D974" s="25"/>
+      <c r="D974" s="24"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
     </row>
     <row r="975" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D975" s="25"/>
+      <c r="D975" s="24"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
     </row>
     <row r="976" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D976" s="25"/>
+      <c r="D976" s="24"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
     <row r="977" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D977" s="25"/>
+      <c r="D977" s="24"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
     </row>
     <row r="978" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D978" s="25"/>
+      <c r="D978" s="24"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
     </row>
     <row r="979" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D979" s="25"/>
+      <c r="D979" s="24"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
     </row>
     <row r="980" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D980" s="25"/>
+      <c r="D980" s="24"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
     </row>
     <row r="981" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D981" s="25"/>
+      <c r="D981" s="24"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
     </row>
     <row r="982" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D982" s="25"/>
+      <c r="D982" s="24"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
     </row>
     <row r="983" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D983" s="25"/>
+      <c r="D983" s="24"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
     </row>
     <row r="984" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D984" s="25"/>
+      <c r="D984" s="24"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
     </row>
     <row r="985" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D985" s="25"/>
+      <c r="D985" s="24"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
     </row>
     <row r="986" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D986" s="25"/>
+      <c r="D986" s="24"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
     </row>
     <row r="987" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D987" s="25"/>
+      <c r="D987" s="24"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
     </row>
     <row r="988" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D988" s="25"/>
+      <c r="D988" s="24"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
     </row>
     <row r="989" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D989" s="25"/>
+      <c r="D989" s="24"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
     </row>
     <row r="990" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D990" s="25"/>
+      <c r="D990" s="24"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
     <row r="991" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D991" s="25"/>
+      <c r="D991" s="24"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
     <row r="992" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D992" s="25"/>
+      <c r="D992" s="24"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
     </row>
     <row r="993" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D993" s="25"/>
+      <c r="D993" s="24"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D994" s="25"/>
+      <c r="D994" s="24"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
     </row>
     <row r="995" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D995" s="25"/>
+      <c r="D995" s="24"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
     </row>
     <row r="996" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D996" s="25"/>
+      <c r="D996" s="24"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
     <row r="997" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D997" s="25"/>
+      <c r="D997" s="24"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
     </row>
     <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="25"/>
+      <c r="D998" s="24"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
     </row>
     <row r="999" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D999" s="25"/>
+      <c r="D999" s="24"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="25"/>
+      <c r="D1000" s="24"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
     <row r="1001" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1001" s="25"/>
+      <c r="D1001" s="24"/>
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
     <row r="1002" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1002" s="25"/>
+      <c r="D1002" s="24"/>
       <c r="E1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
     <row r="1003" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1003" s="25"/>
+      <c r="D1003" s="24"/>
       <c r="E1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
     <row r="1004" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1004" s="25"/>
+      <c r="D1004" s="24"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="25"/>
+      <c r="D1005" s="24"/>
       <c r="E1005" s="2"/>
       <c r="F1005" s="2"/>
     </row>
     <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1006" s="25"/>
+      <c r="D1006" s="24"/>
       <c r="E1006" s="2"/>
       <c r="F1006" s="2"/>
-    </row>
-    <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1007" s="25"/>
-      <c r="E1007" s="2"/>
-      <c r="F1007" s="2"/>
-    </row>
-    <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1008" s="25"/>
-      <c r="E1008" s="2"/>
-      <c r="F1008" s="2"/>
-    </row>
-    <row r="1009" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1009" s="25"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55507348-2815-44E3-919E-75195F4C9CA3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAA907-1322-4144-A03B-FB60DE0D5A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan test modele" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -305,42 +305,6 @@
     <t>controleFormulaire</t>
   </si>
   <si>
-    <t>controler les erreurs et format du formulaire</t>
-  </si>
-  <si>
-    <t>confirmation js</t>
-  </si>
-  <si>
-    <t>generationIdentfiantCommande</t>
-  </si>
-  <si>
-    <t>Generer le renvoie d'une identifiant de commande</t>
-  </si>
-  <si>
-    <t>envoieDonneesApi</t>
-  </si>
-  <si>
-    <t>envoyer les donnes a l'api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-clickValidationFormulaire</t>
-  </si>
-  <si>
-    <t>envoyer le formulaire au serveur: 
-SI produit dans le tableau panier &gt; 1 ET
-SI controleFormulaire OK
-ALORS envoieDonneesApi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-stringTableauPanier</t>
-  </si>
-  <si>
-    <t>Convertir les donnes du array en string
-A REECRIRE</t>
-  </si>
-  <si>
     <t>listeProduitsAccueil</t>
   </si>
   <si>
@@ -361,9 +325,6 @@
   </si>
   <si>
     <t>menuPresonnalisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">la fonction récupère les données en paramètre et créer pour chaque index l'onglet du menu déroulant </t>
   </si>
   <si>
     <t>si le tableau de données n'a pas de données ou n'existe alors renvoie une erreur et désactive le bouton</t>
@@ -397,11 +358,6 @@
     <t>Si l'URL n'est pas la bonne ou n'est pas correcte</t>
   </si>
   <si>
-    <t>Recupere l'ID de la page,
-SI l'ID n'existe pas, alors lancer la promesse de requete avec l'URL en parametre. LORSQUE la promesse est OK alors execute le code correspondant
-SINON ajouter l'ID de la page a l'URL,LORSQUE la promesse est OK alors execute le code correspondant</t>
-  </si>
-  <si>
     <t>Créer les blocs articles html pour la page accueil qui recevront le contenur des données</t>
   </si>
   <si>
@@ -412,9 +368,6 @@
   </si>
   <si>
     <t>POUR CHAQUE index present dans le tableau de données, AJOUTER le contenu en parametres a la fonction creationBlocHTMLProduit</t>
-  </si>
-  <si>
-    <t>La fonction doit créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
   </si>
   <si>
     <t>ListeProduitsPanier</t>
@@ -481,6 +434,77 @@
   </si>
   <si>
     <t>le cache ne se vident pas</t>
+  </si>
+  <si>
+    <t>checkValid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saisir différents types de données sous différents mode d'affichage </t>
+  </si>
+  <si>
+    <t>Le champs ne change pas d'affichage</t>
+  </si>
+  <si>
+    <t>checkInvalid</t>
+  </si>
+  <si>
+    <t>Ecouter la valeur du champs saisie. 
+SI le champs est vide alors renvoie une réponse false et la fonction checkInvalid
+SI le champs est saisie alors renvoie une réponse true et la fonction checkValid</t>
+  </si>
+  <si>
+    <t>Console.log afin de vérifier que la réponse change bien entre les différentes saisie</t>
+  </si>
+  <si>
+    <t>Si le champs est saisie une deuxieme fois par l'utilisateur
+Si le changement est vide dés le départ, c'est l'attribut "required"qui prend le relais</t>
+  </si>
+  <si>
+    <t>controleFormulaireEmail</t>
+  </si>
+  <si>
+    <t>Ecouter la valeur du champs email
+SI le champs n'a pas le caractère @ alors renvoie une réponse false et la fonction checkInvalid
+SI le champs est saisie avec le caractère @ alors renvoie une réponse true et la fonction checkValid</t>
+  </si>
+  <si>
+    <t>Faire une saisie avec puis sans @ et console.log pour vérifier la réponse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+objetContactEnvoie</t>
+  </si>
+  <si>
+    <t>renvoyer un certain type d'affichage si les donnees saisies sont correctes</t>
+  </si>
+  <si>
+    <t>renvoyer un certain type d'affichage si les donnees saisies sont incorrectes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupérer les données en paramètre et créer pour chaque index l'onglet du menu déroulant </t>
+  </si>
+  <si>
+    <t>Créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
+  </si>
+  <si>
+    <t>Recuperer l'ID de la page,
+SI l'ID n'existe pas, alors lancer la promesse de requete avec l'URL en parametre. LORSQUE la promesse est OK alors execute le code correspondant
+SINON ajouter l'ID de la page a l'URL,LORSQUE la promesse est OK alors execute le code correspondant</t>
+  </si>
+  <si>
+    <t>Convertir les paramètres de la fonction en un nouvelle objet new contact.</t>
+  </si>
+  <si>
+    <t>Passer les donnees en parametre de la fonction et console.log(mycontact) pour vérifier que l'objet contact est correctement creer</t>
+  </si>
+  <si>
+    <t>recuperationDonneesContact</t>
+  </si>
+  <si>
+    <t>Recuperer les reponses des fontions controleFormulaire et controleFormulaireEmail
+Ecouter le bouton "submit" au click
+Si la réponse est true alors récuperer la valeur de chaque champs et les envoyer comme paramètre de la fonction objetContactEnvoie
+Sinon ne pas envoyer le formulaire</t>
   </si>
 </sst>
 </file>
@@ -674,9 +698,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,14 +711,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,11 +941,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1006"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -929,7 +953,7 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" style="23" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
@@ -944,7 +968,7 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -975,19 +999,19 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>93</v>
+      <c r="A2" s="18" t="s">
+        <v>83</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>107</v>
+      <c r="D2" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -996,13 +1020,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>108</v>
+        <v>82</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6"/>
     </row>
@@ -1012,13 +1036,13 @@
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F4" s="12"/>
     </row>
@@ -1026,15 +1050,15 @@
       <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>109</v>
+        <v>81</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12"/>
     </row>
@@ -1044,13 +1068,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -1060,14 +1084,14 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>112</v>
+        <v>88</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1076,14 +1100,14 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>97</v>
+        <v>86</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>132</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1092,16 +1116,16 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1110,10 +1134,10 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>119</v>
+        <v>105</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>106</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1124,13 +1148,13 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>120</v>
+        <v>100</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -1140,16 +1164,16 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>115</v>
+        <v>101</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>102</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1158,13 +1182,13 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F13" s="12"/>
     </row>
@@ -1174,16 +1198,16 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>127</v>
+        <v>110</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1192,5063 +1216,5111 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>128</v>
+        <v>113</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="E16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="D18" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+        <v>126</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>81</v>
+      <c r="A20" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="12"/>
+      <c r="C20" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="F20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>138</v>
+      </c>
       <c r="E21" s="4"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="12"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="22"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="21"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
+    <row r="24" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D26" s="21"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="22"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="22"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="22"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="22"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="22"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="22"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="22"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="22"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="22"/>
+      <c r="D39" s="21"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="22"/>
+      <c r="D40" s="21"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="22"/>
+      <c r="D41" s="21"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="22"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="24"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="24"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D45" s="24"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="24"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="24"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="24"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="24"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="24"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="24"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="24"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D53" s="24"/>
+    <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D53" s="22"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D54" s="24"/>
+    <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="22"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D55" s="24"/>
+    <row r="55" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D55" s="22"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="24"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="24"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="24"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="24"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="24"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="24"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="24"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="24"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="24"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D65" s="24"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D66" s="24"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="24"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D68" s="24"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D69" s="24"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="24"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="24"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="24"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="24"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="24"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D75" s="24"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="24"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="24"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="24"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D79" s="24"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D80" s="24"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D81" s="24"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D82" s="24"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D83" s="24"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D84" s="24"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D85" s="24"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D86" s="24"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D87" s="24"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D88" s="24"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D89" s="24"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D90" s="24"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D91" s="24"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D92" s="24"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D93" s="24"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D94" s="24"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D95" s="24"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D96" s="24"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D97" s="24"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D98" s="24"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D99" s="24"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D100" s="24"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D101" s="24"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D102" s="24"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D103" s="24"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D104" s="24"/>
+      <c r="D104" s="22"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D105" s="24"/>
+      <c r="D105" s="22"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D106" s="24"/>
+      <c r="D106" s="22"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D107" s="24"/>
+      <c r="D107" s="22"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D108" s="24"/>
+      <c r="D108" s="22"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D109" s="24"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D110" s="24"/>
+      <c r="D110" s="22"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D111" s="24"/>
+      <c r="D111" s="22"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D112" s="24"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D113" s="24"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D114" s="24"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="24"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D116" s="24"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D117" s="24"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D118" s="24"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D119" s="24"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D120" s="24"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D121" s="24"/>
+      <c r="D121" s="22"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D122" s="24"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D123" s="24"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D124" s="24"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D125" s="24"/>
+      <c r="D125" s="22"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D126" s="24"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D127" s="24"/>
+      <c r="D127" s="22"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D128" s="24"/>
+      <c r="D128" s="22"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D129" s="24"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D130" s="24"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D131" s="24"/>
+      <c r="D131" s="22"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D132" s="24"/>
+      <c r="D132" s="22"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D133" s="24"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D134" s="24"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D135" s="24"/>
+      <c r="D135" s="22"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D136" s="24"/>
+      <c r="D136" s="22"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D137" s="24"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D138" s="24"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D139" s="24"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D140" s="24"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D141" s="24"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D142" s="24"/>
+      <c r="D142" s="22"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D143" s="24"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D144" s="24"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D145" s="24"/>
+      <c r="D145" s="22"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D146" s="24"/>
+      <c r="D146" s="22"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D147" s="24"/>
+      <c r="D147" s="22"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D148" s="24"/>
+      <c r="D148" s="22"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D149" s="24"/>
+      <c r="D149" s="22"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D150" s="24"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D151" s="24"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D152" s="24"/>
+      <c r="D152" s="22"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D153" s="24"/>
+      <c r="D153" s="22"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D154" s="24"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D155" s="24"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="24"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D157" s="24"/>
+      <c r="D157" s="22"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="24"/>
+      <c r="D158" s="22"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D159" s="24"/>
+      <c r="D159" s="22"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D160" s="24"/>
+      <c r="D160" s="22"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D161" s="24"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D162" s="24"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D163" s="24"/>
+      <c r="D163" s="22"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="24"/>
+      <c r="D164" s="22"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="24"/>
+      <c r="D165" s="22"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="24"/>
+      <c r="D166" s="22"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="24"/>
+      <c r="D167" s="22"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="24"/>
+      <c r="D168" s="22"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="24"/>
+      <c r="D169" s="22"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="24"/>
+      <c r="D170" s="22"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D171" s="24"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D172" s="24"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D173" s="24"/>
+      <c r="D173" s="22"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D174" s="24"/>
+      <c r="D174" s="22"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D175" s="24"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D176" s="24"/>
+      <c r="D176" s="22"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D177" s="24"/>
+      <c r="D177" s="22"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D178" s="24"/>
+      <c r="D178" s="22"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D179" s="24"/>
+      <c r="D179" s="22"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D180" s="24"/>
+      <c r="D180" s="22"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D181" s="24"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D182" s="24"/>
+      <c r="D182" s="22"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D183" s="24"/>
+      <c r="D183" s="22"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D184" s="24"/>
+      <c r="D184" s="22"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D185" s="24"/>
+      <c r="D185" s="22"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D186" s="24"/>
+      <c r="D186" s="22"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D187" s="24"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D188" s="24"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D189" s="24"/>
+      <c r="D189" s="22"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D190" s="24"/>
+      <c r="D190" s="22"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D191" s="24"/>
+      <c r="D191" s="22"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D192" s="24"/>
+      <c r="D192" s="22"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D193" s="24"/>
+      <c r="D193" s="22"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D194" s="24"/>
+      <c r="D194" s="22"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D195" s="24"/>
+      <c r="D195" s="22"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D196" s="24"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D197" s="24"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D198" s="24"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D199" s="24"/>
+      <c r="D199" s="22"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D200" s="24"/>
+      <c r="D200" s="22"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D201" s="24"/>
+      <c r="D201" s="22"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D202" s="24"/>
+      <c r="D202" s="22"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D203" s="24"/>
+      <c r="D203" s="22"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D204" s="24"/>
+      <c r="D204" s="22"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D205" s="24"/>
+      <c r="D205" s="22"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D206" s="24"/>
+      <c r="D206" s="22"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D207" s="24"/>
+      <c r="D207" s="22"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D208" s="24"/>
+      <c r="D208" s="22"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D209" s="24"/>
+      <c r="D209" s="22"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D210" s="24"/>
+      <c r="D210" s="22"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D211" s="24"/>
+      <c r="D211" s="22"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D212" s="24"/>
+      <c r="D212" s="22"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D213" s="24"/>
+      <c r="D213" s="22"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D214" s="24"/>
+      <c r="D214" s="22"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D215" s="24"/>
+      <c r="D215" s="22"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D216" s="24"/>
+      <c r="D216" s="22"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D217" s="24"/>
+      <c r="D217" s="22"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D218" s="24"/>
+      <c r="D218" s="22"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D219" s="24"/>
+      <c r="D219" s="22"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D220" s="24"/>
+      <c r="D220" s="22"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D221" s="24"/>
+      <c r="D221" s="22"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D222" s="24"/>
+      <c r="D222" s="22"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D223" s="24"/>
+      <c r="D223" s="22"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D224" s="24"/>
+      <c r="D224" s="22"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D225" s="24"/>
+      <c r="D225" s="22"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D226" s="24"/>
+      <c r="D226" s="22"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D227" s="24"/>
+      <c r="D227" s="22"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D228" s="24"/>
+      <c r="D228" s="22"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D229" s="24"/>
+      <c r="D229" s="22"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D230" s="24"/>
+      <c r="D230" s="22"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D231" s="24"/>
+      <c r="D231" s="22"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D232" s="24"/>
+      <c r="D232" s="22"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D233" s="24"/>
+      <c r="D233" s="22"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D234" s="24"/>
+      <c r="D234" s="22"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D235" s="24"/>
+      <c r="D235" s="22"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D236" s="24"/>
+      <c r="D236" s="22"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D237" s="24"/>
+      <c r="D237" s="22"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D238" s="24"/>
+      <c r="D238" s="22"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D239" s="24"/>
+      <c r="D239" s="22"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D240" s="24"/>
+      <c r="D240" s="22"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D241" s="24"/>
+      <c r="D241" s="22"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D242" s="24"/>
+      <c r="D242" s="22"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D243" s="24"/>
+      <c r="D243" s="22"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D244" s="24"/>
+      <c r="D244" s="22"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D245" s="24"/>
+      <c r="D245" s="22"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D246" s="24"/>
+      <c r="D246" s="22"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D247" s="24"/>
+      <c r="D247" s="22"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D248" s="24"/>
+      <c r="D248" s="22"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D249" s="24"/>
+      <c r="D249" s="22"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D250" s="24"/>
+      <c r="D250" s="22"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D251" s="24"/>
+      <c r="D251" s="22"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D252" s="24"/>
+      <c r="D252" s="22"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D253" s="24"/>
+      <c r="D253" s="22"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D254" s="24"/>
+      <c r="D254" s="22"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D255" s="24"/>
+      <c r="D255" s="22"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D256" s="24"/>
+      <c r="D256" s="22"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D257" s="24"/>
+      <c r="D257" s="22"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D258" s="24"/>
+      <c r="D258" s="22"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D259" s="24"/>
+      <c r="D259" s="22"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D260" s="24"/>
+      <c r="D260" s="22"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D261" s="24"/>
+      <c r="D261" s="22"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D262" s="24"/>
+      <c r="D262" s="22"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D263" s="24"/>
+      <c r="D263" s="22"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D264" s="24"/>
+      <c r="D264" s="22"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D265" s="24"/>
+      <c r="D265" s="22"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D266" s="24"/>
+      <c r="D266" s="22"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D267" s="24"/>
+      <c r="D267" s="22"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D268" s="24"/>
+      <c r="D268" s="22"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D269" s="24"/>
+      <c r="D269" s="22"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D270" s="24"/>
+      <c r="D270" s="22"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D271" s="24"/>
+      <c r="D271" s="22"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D272" s="24"/>
+      <c r="D272" s="22"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D273" s="24"/>
+      <c r="D273" s="22"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D274" s="24"/>
+      <c r="D274" s="22"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D275" s="24"/>
+      <c r="D275" s="22"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D276" s="24"/>
+      <c r="D276" s="22"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D277" s="24"/>
+      <c r="D277" s="22"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D278" s="24"/>
+      <c r="D278" s="22"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D279" s="24"/>
+      <c r="D279" s="22"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D280" s="24"/>
+      <c r="D280" s="22"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D281" s="24"/>
+      <c r="D281" s="22"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="24"/>
+      <c r="D282" s="22"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="24"/>
+      <c r="D283" s="22"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="24"/>
+      <c r="D284" s="22"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="24"/>
+      <c r="D285" s="22"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="24"/>
+      <c r="D286" s="22"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="24"/>
+      <c r="D287" s="22"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="24"/>
+      <c r="D288" s="22"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="24"/>
+      <c r="D289" s="22"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="24"/>
+      <c r="D290" s="22"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="24"/>
+      <c r="D291" s="22"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="24"/>
+      <c r="D292" s="22"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="24"/>
+      <c r="D293" s="22"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="24"/>
+      <c r="D294" s="22"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="24"/>
+      <c r="D295" s="22"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="24"/>
+      <c r="D296" s="22"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="24"/>
+      <c r="D297" s="22"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="24"/>
+      <c r="D298" s="22"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="24"/>
+      <c r="D299" s="22"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="24"/>
+      <c r="D300" s="22"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="24"/>
+      <c r="D301" s="22"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="24"/>
+      <c r="D302" s="22"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="24"/>
+      <c r="D303" s="22"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="24"/>
+      <c r="D304" s="22"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="24"/>
+      <c r="D305" s="22"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="24"/>
+      <c r="D306" s="22"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="24"/>
+      <c r="D307" s="22"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="24"/>
+      <c r="D308" s="22"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="24"/>
+      <c r="D309" s="22"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="24"/>
+      <c r="D310" s="22"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="24"/>
+      <c r="D311" s="22"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="24"/>
+      <c r="D312" s="22"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="24"/>
+      <c r="D313" s="22"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="24"/>
+      <c r="D314" s="22"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="24"/>
+      <c r="D315" s="22"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="24"/>
+      <c r="D316" s="22"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="24"/>
+      <c r="D317" s="22"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="24"/>
+      <c r="D318" s="22"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="24"/>
+      <c r="D319" s="22"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="24"/>
+      <c r="D320" s="22"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="24"/>
+      <c r="D321" s="22"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="24"/>
+      <c r="D322" s="22"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="24"/>
+      <c r="D323" s="22"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="24"/>
+      <c r="D324" s="22"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="24"/>
+      <c r="D325" s="22"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="24"/>
+      <c r="D326" s="22"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="24"/>
+      <c r="D327" s="22"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="24"/>
+      <c r="D328" s="22"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="24"/>
+      <c r="D329" s="22"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="24"/>
+      <c r="D330" s="22"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="24"/>
+      <c r="D331" s="22"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="24"/>
+      <c r="D332" s="22"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="24"/>
+      <c r="D333" s="22"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="24"/>
+      <c r="D334" s="22"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="24"/>
+      <c r="D335" s="22"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="24"/>
+      <c r="D336" s="22"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="24"/>
+      <c r="D337" s="22"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="24"/>
+      <c r="D338" s="22"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="24"/>
+      <c r="D339" s="22"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="24"/>
+      <c r="D340" s="22"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="24"/>
+      <c r="D341" s="22"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="24"/>
+      <c r="D342" s="22"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="24"/>
+      <c r="D343" s="22"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="24"/>
+      <c r="D344" s="22"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="24"/>
+      <c r="D345" s="22"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="24"/>
+      <c r="D346" s="22"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="24"/>
+      <c r="D347" s="22"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="24"/>
+      <c r="D348" s="22"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="24"/>
+      <c r="D349" s="22"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="24"/>
+      <c r="D350" s="22"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="24"/>
+      <c r="D351" s="22"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="24"/>
+      <c r="D352" s="22"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="24"/>
+      <c r="D353" s="22"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="24"/>
+      <c r="D354" s="22"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="24"/>
+      <c r="D355" s="22"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="24"/>
+      <c r="D356" s="22"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="24"/>
+      <c r="D357" s="22"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="24"/>
+      <c r="D358" s="22"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="24"/>
+      <c r="D359" s="22"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="24"/>
+      <c r="D360" s="22"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="24"/>
+      <c r="D361" s="22"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="24"/>
+      <c r="D362" s="22"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="24"/>
+      <c r="D363" s="22"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="24"/>
+      <c r="D364" s="22"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="24"/>
+      <c r="D365" s="22"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="24"/>
+      <c r="D366" s="22"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="24"/>
+      <c r="D367" s="22"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="24"/>
+      <c r="D368" s="22"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="24"/>
+      <c r="D369" s="22"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="24"/>
+      <c r="D370" s="22"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="24"/>
+      <c r="D371" s="22"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="24"/>
+      <c r="D372" s="22"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="24"/>
+      <c r="D373" s="22"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="24"/>
+      <c r="D374" s="22"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="24"/>
+      <c r="D375" s="22"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="24"/>
+      <c r="D376" s="22"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="24"/>
+      <c r="D377" s="22"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="24"/>
+      <c r="D378" s="22"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="24"/>
+      <c r="D379" s="22"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="24"/>
+      <c r="D380" s="22"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="24"/>
+      <c r="D381" s="22"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="24"/>
+      <c r="D382" s="22"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="24"/>
+      <c r="D383" s="22"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="24"/>
+      <c r="D384" s="22"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="24"/>
+      <c r="D385" s="22"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="24"/>
+      <c r="D386" s="22"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="24"/>
+      <c r="D387" s="22"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="24"/>
+      <c r="D388" s="22"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="24"/>
+      <c r="D389" s="22"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="24"/>
+      <c r="D390" s="22"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="24"/>
+      <c r="D391" s="22"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="24"/>
+      <c r="D392" s="22"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="24"/>
+      <c r="D393" s="22"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="24"/>
+      <c r="D394" s="22"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="24"/>
+      <c r="D395" s="22"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="24"/>
+      <c r="D396" s="22"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="24"/>
+      <c r="D397" s="22"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="24"/>
+      <c r="D398" s="22"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="24"/>
+      <c r="D399" s="22"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="24"/>
+      <c r="D400" s="22"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="24"/>
+      <c r="D401" s="22"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="24"/>
+      <c r="D402" s="22"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="24"/>
+      <c r="D403" s="22"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="24"/>
+      <c r="D404" s="22"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="24"/>
+      <c r="D405" s="22"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="24"/>
+      <c r="D406" s="22"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="24"/>
+      <c r="D407" s="22"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="24"/>
+      <c r="D408" s="22"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="24"/>
+      <c r="D409" s="22"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="24"/>
+      <c r="D410" s="22"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="24"/>
+      <c r="D411" s="22"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="24"/>
+      <c r="D412" s="22"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="24"/>
+      <c r="D413" s="22"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="24"/>
+      <c r="D414" s="22"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="24"/>
+      <c r="D415" s="22"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="24"/>
+      <c r="D416" s="22"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="24"/>
+      <c r="D417" s="22"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="24"/>
+      <c r="D418" s="22"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="24"/>
+      <c r="D419" s="22"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="24"/>
+      <c r="D420" s="22"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="24"/>
+      <c r="D421" s="22"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="24"/>
+      <c r="D422" s="22"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="24"/>
+      <c r="D423" s="22"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="24"/>
+      <c r="D424" s="22"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="24"/>
+      <c r="D425" s="22"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="24"/>
+      <c r="D426" s="22"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="24"/>
+      <c r="D427" s="22"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="24"/>
+      <c r="D428" s="22"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="24"/>
+      <c r="D429" s="22"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="24"/>
+      <c r="D430" s="22"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="24"/>
+      <c r="D431" s="22"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="24"/>
+      <c r="D432" s="22"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="24"/>
+      <c r="D433" s="22"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="24"/>
+      <c r="D434" s="22"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="24"/>
+      <c r="D435" s="22"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="24"/>
+      <c r="D436" s="22"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="24"/>
+      <c r="D437" s="22"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="24"/>
+      <c r="D438" s="22"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="24"/>
+      <c r="D439" s="22"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="24"/>
+      <c r="D440" s="22"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="24"/>
+      <c r="D441" s="22"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="24"/>
+      <c r="D442" s="22"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="24"/>
+      <c r="D443" s="22"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="24"/>
+      <c r="D444" s="22"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="24"/>
+      <c r="D445" s="22"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="24"/>
+      <c r="D446" s="22"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="24"/>
+      <c r="D447" s="22"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="24"/>
+      <c r="D448" s="22"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="24"/>
+      <c r="D449" s="22"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="24"/>
+      <c r="D450" s="22"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="24"/>
+      <c r="D451" s="22"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
     <row r="452" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="24"/>
+      <c r="D452" s="22"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="24"/>
+      <c r="D453" s="22"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="24"/>
+      <c r="D454" s="22"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="24"/>
+      <c r="D455" s="22"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
     <row r="456" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="24"/>
+      <c r="D456" s="22"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="24"/>
+      <c r="D457" s="22"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="24"/>
+      <c r="D458" s="22"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="24"/>
+      <c r="D459" s="22"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="24"/>
+      <c r="D460" s="22"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
     <row r="461" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="24"/>
+      <c r="D461" s="22"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="24"/>
+      <c r="D462" s="22"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="24"/>
+      <c r="D463" s="22"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="24"/>
+      <c r="D464" s="22"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="24"/>
+      <c r="D465" s="22"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
     <row r="466" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="24"/>
+      <c r="D466" s="22"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="24"/>
+      <c r="D467" s="22"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
     <row r="468" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="24"/>
+      <c r="D468" s="22"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
     <row r="469" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="24"/>
+      <c r="D469" s="22"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="24"/>
+      <c r="D470" s="22"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="24"/>
+      <c r="D471" s="22"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="24"/>
+      <c r="D472" s="22"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="24"/>
+      <c r="D473" s="22"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
     <row r="474" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="24"/>
+      <c r="D474" s="22"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="24"/>
+      <c r="D475" s="22"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="24"/>
+      <c r="D476" s="22"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
     <row r="477" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="24"/>
+      <c r="D477" s="22"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="24"/>
+      <c r="D478" s="22"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="24"/>
+      <c r="D479" s="22"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="24"/>
+      <c r="D480" s="22"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="24"/>
+      <c r="D481" s="22"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="24"/>
+      <c r="D482" s="22"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="24"/>
+      <c r="D483" s="22"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="24"/>
+      <c r="D484" s="22"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="24"/>
+      <c r="D485" s="22"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="24"/>
+      <c r="D486" s="22"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
     <row r="487" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="24"/>
+      <c r="D487" s="22"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="24"/>
+      <c r="D488" s="22"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="24"/>
+      <c r="D489" s="22"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="24"/>
+      <c r="D490" s="22"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
     <row r="491" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="24"/>
+      <c r="D491" s="22"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="24"/>
+      <c r="D492" s="22"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
     <row r="493" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="24"/>
+      <c r="D493" s="22"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="24"/>
+      <c r="D494" s="22"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
     <row r="495" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="24"/>
+      <c r="D495" s="22"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
     <row r="496" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="24"/>
+      <c r="D496" s="22"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="24"/>
+      <c r="D497" s="22"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
     <row r="498" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="24"/>
+      <c r="D498" s="22"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
     <row r="499" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="24"/>
+      <c r="D499" s="22"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="24"/>
+      <c r="D500" s="22"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
     <row r="501" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="24"/>
+      <c r="D501" s="22"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="24"/>
+      <c r="D502" s="22"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
     </row>
     <row r="503" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="24"/>
+      <c r="D503" s="22"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="24"/>
+      <c r="D504" s="22"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="24"/>
+      <c r="D505" s="22"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
     <row r="506" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="24"/>
+      <c r="D506" s="22"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
     <row r="507" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="24"/>
+      <c r="D507" s="22"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
     <row r="508" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="24"/>
+      <c r="D508" s="22"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="24"/>
+      <c r="D509" s="22"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="24"/>
+      <c r="D510" s="22"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
     <row r="511" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="24"/>
+      <c r="D511" s="22"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="24"/>
+      <c r="D512" s="22"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
     <row r="513" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="24"/>
+      <c r="D513" s="22"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
     <row r="514" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="24"/>
+      <c r="D514" s="22"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="24"/>
+      <c r="D515" s="22"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="24"/>
+      <c r="D516" s="22"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="24"/>
+      <c r="D517" s="22"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="24"/>
+      <c r="D518" s="22"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
     </row>
     <row r="519" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="24"/>
+      <c r="D519" s="22"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="24"/>
+      <c r="D520" s="22"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
     <row r="521" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="24"/>
+      <c r="D521" s="22"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="24"/>
+      <c r="D522" s="22"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
     <row r="523" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="24"/>
+      <c r="D523" s="22"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
     <row r="524" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="24"/>
+      <c r="D524" s="22"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="24"/>
+      <c r="D525" s="22"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
     <row r="526" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="24"/>
+      <c r="D526" s="22"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
     <row r="527" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="24"/>
+      <c r="D527" s="22"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="24"/>
+      <c r="D528" s="22"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
     <row r="529" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="24"/>
+      <c r="D529" s="22"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
     <row r="530" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="24"/>
+      <c r="D530" s="22"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
     <row r="531" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="24"/>
+      <c r="D531" s="22"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
     <row r="532" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="24"/>
+      <c r="D532" s="22"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
     <row r="533" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="24"/>
+      <c r="D533" s="22"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
     <row r="534" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="24"/>
+      <c r="D534" s="22"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
     </row>
     <row r="535" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="24"/>
+      <c r="D535" s="22"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
     </row>
     <row r="536" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="24"/>
+      <c r="D536" s="22"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
     <row r="537" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="24"/>
+      <c r="D537" s="22"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
     <row r="538" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="24"/>
+      <c r="D538" s="22"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
     <row r="539" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="24"/>
+      <c r="D539" s="22"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
     <row r="540" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="24"/>
+      <c r="D540" s="22"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
     <row r="541" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="24"/>
+      <c r="D541" s="22"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
     <row r="542" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="24"/>
+      <c r="D542" s="22"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="24"/>
+      <c r="D543" s="22"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
     <row r="544" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="24"/>
+      <c r="D544" s="22"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
     <row r="545" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="24"/>
+      <c r="D545" s="22"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="24"/>
+      <c r="D546" s="22"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
     </row>
     <row r="547" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="24"/>
+      <c r="D547" s="22"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
     <row r="548" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="24"/>
+      <c r="D548" s="22"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
     <row r="549" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="24"/>
+      <c r="D549" s="22"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="24"/>
+      <c r="D550" s="22"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
     </row>
     <row r="551" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="24"/>
+      <c r="D551" s="22"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
     </row>
     <row r="552" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="24"/>
+      <c r="D552" s="22"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
     <row r="553" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="24"/>
+      <c r="D553" s="22"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
     <row r="554" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="24"/>
+      <c r="D554" s="22"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="24"/>
+      <c r="D555" s="22"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
     <row r="556" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="24"/>
+      <c r="D556" s="22"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
     <row r="557" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="24"/>
+      <c r="D557" s="22"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
     <row r="558" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="24"/>
+      <c r="D558" s="22"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
     <row r="559" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="24"/>
+      <c r="D559" s="22"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="24"/>
+      <c r="D560" s="22"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
     <row r="561" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="24"/>
+      <c r="D561" s="22"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="24"/>
+      <c r="D562" s="22"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
     <row r="563" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="24"/>
+      <c r="D563" s="22"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
     <row r="564" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="24"/>
+      <c r="D564" s="22"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
     <row r="565" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="24"/>
+      <c r="D565" s="22"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
     <row r="566" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="24"/>
+      <c r="D566" s="22"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
     <row r="567" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="24"/>
+      <c r="D567" s="22"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
     </row>
     <row r="568" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="24"/>
+      <c r="D568" s="22"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
     </row>
     <row r="569" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="24"/>
+      <c r="D569" s="22"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
     <row r="570" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="24"/>
+      <c r="D570" s="22"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
     <row r="571" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="24"/>
+      <c r="D571" s="22"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="24"/>
+      <c r="D572" s="22"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
     <row r="573" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="24"/>
+      <c r="D573" s="22"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="24"/>
+      <c r="D574" s="22"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
     <row r="575" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="24"/>
+      <c r="D575" s="22"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="24"/>
+      <c r="D576" s="22"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
     <row r="577" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="24"/>
+      <c r="D577" s="22"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
     <row r="578" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="24"/>
+      <c r="D578" s="22"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
     <row r="579" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="24"/>
+      <c r="D579" s="22"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
     <row r="580" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="24"/>
+      <c r="D580" s="22"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
     <row r="581" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="24"/>
+      <c r="D581" s="22"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
     <row r="582" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="24"/>
+      <c r="D582" s="22"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
     <row r="583" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="24"/>
+      <c r="D583" s="22"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
     </row>
     <row r="584" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="24"/>
+      <c r="D584" s="22"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
     <row r="585" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="24"/>
+      <c r="D585" s="22"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
     <row r="586" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="24"/>
+      <c r="D586" s="22"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="24"/>
+      <c r="D587" s="22"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
     <row r="588" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="24"/>
+      <c r="D588" s="22"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
     <row r="589" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="24"/>
+      <c r="D589" s="22"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
     <row r="590" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="24"/>
+      <c r="D590" s="22"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
     <row r="591" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="24"/>
+      <c r="D591" s="22"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
     <row r="592" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="24"/>
+      <c r="D592" s="22"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
     <row r="593" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="24"/>
+      <c r="D593" s="22"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
     <row r="594" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="24"/>
+      <c r="D594" s="22"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
     <row r="595" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="24"/>
+      <c r="D595" s="22"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
     <row r="596" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="24"/>
+      <c r="D596" s="22"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
     <row r="597" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="24"/>
+      <c r="D597" s="22"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
     <row r="598" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="24"/>
+      <c r="D598" s="22"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
     </row>
     <row r="599" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="24"/>
+      <c r="D599" s="22"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
     </row>
     <row r="600" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="24"/>
+      <c r="D600" s="22"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
     </row>
     <row r="601" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="24"/>
+      <c r="D601" s="22"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="24"/>
+      <c r="D602" s="22"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
     <row r="603" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="24"/>
+      <c r="D603" s="22"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
     <row r="604" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="24"/>
+      <c r="D604" s="22"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
     <row r="605" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="24"/>
+      <c r="D605" s="22"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
     <row r="606" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="24"/>
+      <c r="D606" s="22"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
     </row>
     <row r="607" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="24"/>
+      <c r="D607" s="22"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="24"/>
+      <c r="D608" s="22"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
     <row r="609" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="24"/>
+      <c r="D609" s="22"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
     <row r="610" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="24"/>
+      <c r="D610" s="22"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
     <row r="611" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="24"/>
+      <c r="D611" s="22"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
     <row r="612" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="24"/>
+      <c r="D612" s="22"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
     <row r="613" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="24"/>
+      <c r="D613" s="22"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
     <row r="614" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="24"/>
+      <c r="D614" s="22"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
     </row>
     <row r="615" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="24"/>
+      <c r="D615" s="22"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
     </row>
     <row r="616" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="24"/>
+      <c r="D616" s="22"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
     </row>
     <row r="617" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="24"/>
+      <c r="D617" s="22"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
     <row r="618" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="24"/>
+      <c r="D618" s="22"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="24"/>
+      <c r="D619" s="22"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
     <row r="620" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="24"/>
+      <c r="D620" s="22"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
     <row r="621" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="24"/>
+      <c r="D621" s="22"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
     <row r="622" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="24"/>
+      <c r="D622" s="22"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="24"/>
+      <c r="D623" s="22"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
     <row r="624" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="24"/>
+      <c r="D624" s="22"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
     </row>
     <row r="625" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="24"/>
+      <c r="D625" s="22"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
     <row r="626" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="24"/>
+      <c r="D626" s="22"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
     <row r="627" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="24"/>
+      <c r="D627" s="22"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
     <row r="628" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="24"/>
+      <c r="D628" s="22"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
     <row r="629" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="24"/>
+      <c r="D629" s="22"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
     <row r="630" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="24"/>
+      <c r="D630" s="22"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
     </row>
     <row r="631" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="24"/>
+      <c r="D631" s="22"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
     </row>
     <row r="632" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="24"/>
+      <c r="D632" s="22"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
     </row>
     <row r="633" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="24"/>
+      <c r="D633" s="22"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
     <row r="634" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="24"/>
+      <c r="D634" s="22"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
     <row r="635" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="24"/>
+      <c r="D635" s="22"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
     <row r="636" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="24"/>
+      <c r="D636" s="22"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
     <row r="637" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="24"/>
+      <c r="D637" s="22"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
     <row r="638" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="24"/>
+      <c r="D638" s="22"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
     </row>
     <row r="639" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="24"/>
+      <c r="D639" s="22"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
     <row r="640" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="24"/>
+      <c r="D640" s="22"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
     <row r="641" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="24"/>
+      <c r="D641" s="22"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
     <row r="642" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="24"/>
+      <c r="D642" s="22"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
     </row>
     <row r="643" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="24"/>
+      <c r="D643" s="22"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
     <row r="644" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="24"/>
+      <c r="D644" s="22"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="24"/>
+      <c r="D645" s="22"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
     </row>
     <row r="646" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="24"/>
+      <c r="D646" s="22"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
     </row>
     <row r="647" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="24"/>
+      <c r="D647" s="22"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
     </row>
     <row r="648" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="24"/>
+      <c r="D648" s="22"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
     <row r="649" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="24"/>
+      <c r="D649" s="22"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
     <row r="650" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="24"/>
+      <c r="D650" s="22"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
     </row>
     <row r="651" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="24"/>
+      <c r="D651" s="22"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
     <row r="652" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="24"/>
+      <c r="D652" s="22"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="24"/>
+      <c r="D653" s="22"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
     <row r="654" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="24"/>
+      <c r="D654" s="22"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
     </row>
     <row r="655" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="24"/>
+      <c r="D655" s="22"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
     </row>
     <row r="656" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="24"/>
+      <c r="D656" s="22"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
     </row>
     <row r="657" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="24"/>
+      <c r="D657" s="22"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
     <row r="658" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="24"/>
+      <c r="D658" s="22"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="24"/>
+      <c r="D659" s="22"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
     </row>
     <row r="660" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="24"/>
+      <c r="D660" s="22"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
     </row>
     <row r="661" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="24"/>
+      <c r="D661" s="22"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
     <row r="662" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="24"/>
+      <c r="D662" s="22"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
     </row>
     <row r="663" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="24"/>
+      <c r="D663" s="22"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
     </row>
     <row r="664" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="24"/>
+      <c r="D664" s="22"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
     </row>
     <row r="665" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="24"/>
+      <c r="D665" s="22"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
     <row r="666" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="24"/>
+      <c r="D666" s="22"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
     </row>
     <row r="667" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="24"/>
+      <c r="D667" s="22"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="24"/>
+      <c r="D668" s="22"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
     </row>
     <row r="669" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="24"/>
+      <c r="D669" s="22"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
     </row>
     <row r="670" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="24"/>
+      <c r="D670" s="22"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
     </row>
     <row r="671" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="24"/>
+      <c r="D671" s="22"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
     </row>
     <row r="672" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="24"/>
+      <c r="D672" s="22"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
     <row r="673" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="24"/>
+      <c r="D673" s="22"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
     </row>
     <row r="674" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="24"/>
+      <c r="D674" s="22"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
     </row>
     <row r="675" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="24"/>
+      <c r="D675" s="22"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
     </row>
     <row r="676" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="24"/>
+      <c r="D676" s="22"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
     </row>
     <row r="677" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="24"/>
+      <c r="D677" s="22"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
     </row>
     <row r="678" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="24"/>
+      <c r="D678" s="22"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
     </row>
     <row r="679" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="24"/>
+      <c r="D679" s="22"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
     </row>
     <row r="680" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="24"/>
+      <c r="D680" s="22"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
     </row>
     <row r="681" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="24"/>
+      <c r="D681" s="22"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
     <row r="682" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="24"/>
+      <c r="D682" s="22"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
     </row>
     <row r="683" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="24"/>
+      <c r="D683" s="22"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="24"/>
+      <c r="D684" s="22"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
     </row>
     <row r="685" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D685" s="24"/>
+      <c r="D685" s="22"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
     </row>
     <row r="686" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D686" s="24"/>
+      <c r="D686" s="22"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
     <row r="687" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D687" s="24"/>
+      <c r="D687" s="22"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
     <row r="688" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D688" s="24"/>
+      <c r="D688" s="22"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
     <row r="689" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D689" s="24"/>
+      <c r="D689" s="22"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
     </row>
     <row r="690" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D690" s="24"/>
+      <c r="D690" s="22"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
     </row>
     <row r="691" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D691" s="24"/>
+      <c r="D691" s="22"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
     </row>
     <row r="692" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D692" s="24"/>
+      <c r="D692" s="22"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
     </row>
     <row r="693" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D693" s="24"/>
+      <c r="D693" s="22"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
     </row>
     <row r="694" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D694" s="24"/>
+      <c r="D694" s="22"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
     </row>
     <row r="695" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D695" s="24"/>
+      <c r="D695" s="22"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
     </row>
     <row r="696" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D696" s="24"/>
+      <c r="D696" s="22"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
     </row>
     <row r="697" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D697" s="24"/>
+      <c r="D697" s="22"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
     </row>
     <row r="698" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D698" s="24"/>
+      <c r="D698" s="22"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
     </row>
     <row r="699" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D699" s="24"/>
+      <c r="D699" s="22"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
     </row>
     <row r="700" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D700" s="24"/>
+      <c r="D700" s="22"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D701" s="24"/>
+      <c r="D701" s="22"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
     <row r="702" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D702" s="24"/>
+      <c r="D702" s="22"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
     </row>
     <row r="703" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D703" s="24"/>
+      <c r="D703" s="22"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
     <row r="704" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D704" s="24"/>
+      <c r="D704" s="22"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
     </row>
     <row r="705" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D705" s="24"/>
+      <c r="D705" s="22"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
     </row>
     <row r="706" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D706" s="24"/>
+      <c r="D706" s="22"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
     </row>
     <row r="707" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D707" s="24"/>
+      <c r="D707" s="22"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
     </row>
     <row r="708" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D708" s="24"/>
+      <c r="D708" s="22"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
     </row>
     <row r="709" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D709" s="24"/>
+      <c r="D709" s="22"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
     </row>
     <row r="710" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D710" s="24"/>
+      <c r="D710" s="22"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
     </row>
     <row r="711" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D711" s="24"/>
+      <c r="D711" s="22"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
     </row>
     <row r="712" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D712" s="24"/>
+      <c r="D712" s="22"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
     </row>
     <row r="713" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D713" s="24"/>
+      <c r="D713" s="22"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
     </row>
     <row r="714" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D714" s="24"/>
+      <c r="D714" s="22"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
     </row>
     <row r="715" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D715" s="24"/>
+      <c r="D715" s="22"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
     </row>
     <row r="716" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D716" s="24"/>
+      <c r="D716" s="22"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
     </row>
     <row r="717" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D717" s="24"/>
+      <c r="D717" s="22"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
     </row>
     <row r="718" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D718" s="24"/>
+      <c r="D718" s="22"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
     <row r="719" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D719" s="24"/>
+      <c r="D719" s="22"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D720" s="24"/>
+      <c r="D720" s="22"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D721" s="24"/>
+      <c r="D721" s="22"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
     </row>
     <row r="722" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D722" s="24"/>
+      <c r="D722" s="22"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
     </row>
     <row r="723" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D723" s="24"/>
+      <c r="D723" s="22"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
     </row>
     <row r="724" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D724" s="24"/>
+      <c r="D724" s="22"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
     </row>
     <row r="725" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D725" s="24"/>
+      <c r="D725" s="22"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
     </row>
     <row r="726" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D726" s="24"/>
+      <c r="D726" s="22"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
     </row>
     <row r="727" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D727" s="24"/>
+      <c r="D727" s="22"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
     </row>
     <row r="728" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D728" s="24"/>
+      <c r="D728" s="22"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
     </row>
     <row r="729" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D729" s="24"/>
+      <c r="D729" s="22"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
     </row>
     <row r="730" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D730" s="24"/>
+      <c r="D730" s="22"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
     </row>
     <row r="731" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D731" s="24"/>
+      <c r="D731" s="22"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
     </row>
     <row r="732" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D732" s="24"/>
+      <c r="D732" s="22"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
     </row>
     <row r="733" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D733" s="24"/>
+      <c r="D733" s="22"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
     <row r="734" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D734" s="24"/>
+      <c r="D734" s="22"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
     </row>
     <row r="735" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D735" s="24"/>
+      <c r="D735" s="22"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D736" s="24"/>
+      <c r="D736" s="22"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
     </row>
     <row r="737" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D737" s="24"/>
+      <c r="D737" s="22"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
     </row>
     <row r="738" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D738" s="24"/>
+      <c r="D738" s="22"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
     </row>
     <row r="739" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D739" s="24"/>
+      <c r="D739" s="22"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
     <row r="740" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D740" s="24"/>
+      <c r="D740" s="22"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
     <row r="741" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D741" s="24"/>
+      <c r="D741" s="22"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
     <row r="742" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D742" s="24"/>
+      <c r="D742" s="22"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
     <row r="743" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D743" s="24"/>
+      <c r="D743" s="22"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
     <row r="744" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D744" s="24"/>
+      <c r="D744" s="22"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
     <row r="745" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D745" s="24"/>
+      <c r="D745" s="22"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
     </row>
     <row r="746" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D746" s="24"/>
+      <c r="D746" s="22"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
     </row>
     <row r="747" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D747" s="24"/>
+      <c r="D747" s="22"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
     </row>
     <row r="748" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D748" s="24"/>
+      <c r="D748" s="22"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
     </row>
     <row r="749" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D749" s="24"/>
+      <c r="D749" s="22"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
     </row>
     <row r="750" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D750" s="24"/>
+      <c r="D750" s="22"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
     </row>
     <row r="751" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D751" s="24"/>
+      <c r="D751" s="22"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
     </row>
     <row r="752" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D752" s="24"/>
+      <c r="D752" s="22"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
     </row>
     <row r="753" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D753" s="24"/>
+      <c r="D753" s="22"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
     </row>
     <row r="754" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D754" s="24"/>
+      <c r="D754" s="22"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
     </row>
     <row r="755" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D755" s="24"/>
+      <c r="D755" s="22"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
     </row>
     <row r="756" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D756" s="24"/>
+      <c r="D756" s="22"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
     <row r="757" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D757" s="24"/>
+      <c r="D757" s="22"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
     </row>
     <row r="758" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D758" s="24"/>
+      <c r="D758" s="22"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
     </row>
     <row r="759" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D759" s="24"/>
+      <c r="D759" s="22"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
     </row>
     <row r="760" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D760" s="24"/>
+      <c r="D760" s="22"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
     </row>
     <row r="761" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D761" s="24"/>
+      <c r="D761" s="22"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
     </row>
     <row r="762" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D762" s="24"/>
+      <c r="D762" s="22"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
     </row>
     <row r="763" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D763" s="24"/>
+      <c r="D763" s="22"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
     </row>
     <row r="764" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D764" s="24"/>
+      <c r="D764" s="22"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
     </row>
     <row r="765" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D765" s="24"/>
+      <c r="D765" s="22"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
     </row>
     <row r="766" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D766" s="24"/>
+      <c r="D766" s="22"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
     </row>
     <row r="767" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D767" s="24"/>
+      <c r="D767" s="22"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
     </row>
     <row r="768" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D768" s="24"/>
+      <c r="D768" s="22"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
     </row>
     <row r="769" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D769" s="24"/>
+      <c r="D769" s="22"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D770" s="24"/>
+      <c r="D770" s="22"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D771" s="24"/>
+      <c r="D771" s="22"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
     </row>
     <row r="772" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D772" s="24"/>
+      <c r="D772" s="22"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
     </row>
     <row r="773" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D773" s="24"/>
+      <c r="D773" s="22"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
     <row r="774" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D774" s="24"/>
+      <c r="D774" s="22"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
     </row>
     <row r="775" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D775" s="24"/>
+      <c r="D775" s="22"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D776" s="24"/>
+      <c r="D776" s="22"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
     </row>
     <row r="777" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D777" s="24"/>
+      <c r="D777" s="22"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
     </row>
     <row r="778" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D778" s="24"/>
+      <c r="D778" s="22"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
     </row>
     <row r="779" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D779" s="24"/>
+      <c r="D779" s="22"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
     </row>
     <row r="780" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D780" s="24"/>
+      <c r="D780" s="22"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
     </row>
     <row r="781" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D781" s="24"/>
+      <c r="D781" s="22"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
     </row>
     <row r="782" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D782" s="24"/>
+      <c r="D782" s="22"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
     </row>
     <row r="783" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D783" s="24"/>
+      <c r="D783" s="22"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D784" s="24"/>
+      <c r="D784" s="22"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
     </row>
     <row r="785" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D785" s="24"/>
+      <c r="D785" s="22"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
     </row>
     <row r="786" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D786" s="24"/>
+      <c r="D786" s="22"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
     <row r="787" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D787" s="24"/>
+      <c r="D787" s="22"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D788" s="24"/>
+      <c r="D788" s="22"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D789" s="24"/>
+      <c r="D789" s="22"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
     </row>
     <row r="790" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D790" s="24"/>
+      <c r="D790" s="22"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
     </row>
     <row r="791" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D791" s="24"/>
+      <c r="D791" s="22"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
     </row>
     <row r="792" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D792" s="24"/>
+      <c r="D792" s="22"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
     </row>
     <row r="793" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D793" s="24"/>
+      <c r="D793" s="22"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
     </row>
     <row r="794" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D794" s="24"/>
+      <c r="D794" s="22"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
     </row>
     <row r="795" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D795" s="24"/>
+      <c r="D795" s="22"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
     </row>
     <row r="796" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D796" s="24"/>
+      <c r="D796" s="22"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
     </row>
     <row r="797" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D797" s="24"/>
+      <c r="D797" s="22"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
     </row>
     <row r="798" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D798" s="24"/>
+      <c r="D798" s="22"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
     </row>
     <row r="799" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D799" s="24"/>
+      <c r="D799" s="22"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
     <row r="800" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D800" s="24"/>
+      <c r="D800" s="22"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D801" s="24"/>
+      <c r="D801" s="22"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
     </row>
     <row r="802" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D802" s="24"/>
+      <c r="D802" s="22"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
     </row>
     <row r="803" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D803" s="24"/>
+      <c r="D803" s="22"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
     </row>
     <row r="804" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D804" s="24"/>
+      <c r="D804" s="22"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
     </row>
     <row r="805" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D805" s="24"/>
+      <c r="D805" s="22"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
     </row>
     <row r="806" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D806" s="24"/>
+      <c r="D806" s="22"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
     </row>
     <row r="807" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D807" s="24"/>
+      <c r="D807" s="22"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D808" s="24"/>
+      <c r="D808" s="22"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
     </row>
     <row r="809" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D809" s="24"/>
+      <c r="D809" s="22"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
     </row>
     <row r="810" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D810" s="24"/>
+      <c r="D810" s="22"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
     </row>
     <row r="811" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D811" s="24"/>
+      <c r="D811" s="22"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
     </row>
     <row r="812" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D812" s="24"/>
+      <c r="D812" s="22"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
     </row>
     <row r="813" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D813" s="24"/>
+      <c r="D813" s="22"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
     </row>
     <row r="814" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D814" s="24"/>
+      <c r="D814" s="22"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
     </row>
     <row r="815" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D815" s="24"/>
+      <c r="D815" s="22"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
     </row>
     <row r="816" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D816" s="24"/>
+      <c r="D816" s="22"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
     </row>
     <row r="817" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D817" s="24"/>
+      <c r="D817" s="22"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
     </row>
     <row r="818" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D818" s="24"/>
+      <c r="D818" s="22"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
     </row>
     <row r="819" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D819" s="24"/>
+      <c r="D819" s="22"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
     </row>
     <row r="820" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D820" s="24"/>
+      <c r="D820" s="22"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
     </row>
     <row r="821" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D821" s="24"/>
+      <c r="D821" s="22"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
     </row>
     <row r="822" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D822" s="24"/>
+      <c r="D822" s="22"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
     <row r="823" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D823" s="24"/>
+      <c r="D823" s="22"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
     <row r="824" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D824" s="24"/>
+      <c r="D824" s="22"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
     </row>
     <row r="825" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D825" s="24"/>
+      <c r="D825" s="22"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D826" s="24"/>
+      <c r="D826" s="22"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
     </row>
     <row r="827" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D827" s="24"/>
+      <c r="D827" s="22"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
     </row>
     <row r="828" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D828" s="24"/>
+      <c r="D828" s="22"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
     </row>
     <row r="829" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D829" s="24"/>
+      <c r="D829" s="22"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
     </row>
     <row r="830" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="24"/>
+      <c r="D830" s="22"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D831" s="24"/>
+      <c r="D831" s="22"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
     </row>
     <row r="832" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D832" s="24"/>
+      <c r="D832" s="22"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
     </row>
     <row r="833" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D833" s="24"/>
+      <c r="D833" s="22"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
     </row>
     <row r="834" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D834" s="24"/>
+      <c r="D834" s="22"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
     </row>
     <row r="835" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D835" s="24"/>
+      <c r="D835" s="22"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
     </row>
     <row r="836" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D836" s="24"/>
+      <c r="D836" s="22"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
     </row>
     <row r="837" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D837" s="24"/>
+      <c r="D837" s="22"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
     </row>
     <row r="838" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D838" s="24"/>
+      <c r="D838" s="22"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
     <row r="839" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D839" s="24"/>
+      <c r="D839" s="22"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
     </row>
     <row r="840" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D840" s="24"/>
+      <c r="D840" s="22"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
     </row>
     <row r="841" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D841" s="24"/>
+      <c r="D841" s="22"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
     </row>
     <row r="842" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D842" s="24"/>
+      <c r="D842" s="22"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
     </row>
     <row r="843" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D843" s="24"/>
+      <c r="D843" s="22"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
     </row>
     <row r="844" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D844" s="24"/>
+      <c r="D844" s="22"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
     </row>
     <row r="845" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D845" s="24"/>
+      <c r="D845" s="22"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
     </row>
     <row r="846" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D846" s="24"/>
+      <c r="D846" s="22"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
     </row>
     <row r="847" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D847" s="24"/>
+      <c r="D847" s="22"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
     </row>
     <row r="848" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D848" s="24"/>
+      <c r="D848" s="22"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
     </row>
     <row r="849" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D849" s="24"/>
+      <c r="D849" s="22"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D850" s="24"/>
+      <c r="D850" s="22"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
     </row>
     <row r="851" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D851" s="24"/>
+      <c r="D851" s="22"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
     </row>
     <row r="852" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D852" s="24"/>
+      <c r="D852" s="22"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
     </row>
     <row r="853" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D853" s="24"/>
+      <c r="D853" s="22"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
     </row>
     <row r="854" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D854" s="24"/>
+      <c r="D854" s="22"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
     </row>
     <row r="855" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D855" s="24"/>
+      <c r="D855" s="22"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
     </row>
     <row r="856" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D856" s="24"/>
+      <c r="D856" s="22"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
     </row>
     <row r="857" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D857" s="24"/>
+      <c r="D857" s="22"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
     </row>
     <row r="858" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D858" s="24"/>
+      <c r="D858" s="22"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
     </row>
     <row r="859" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D859" s="24"/>
+      <c r="D859" s="22"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
     </row>
     <row r="860" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D860" s="24"/>
+      <c r="D860" s="22"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
     <row r="861" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D861" s="24"/>
+      <c r="D861" s="22"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
     </row>
     <row r="862" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D862" s="24"/>
+      <c r="D862" s="22"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
     </row>
     <row r="863" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D863" s="24"/>
+      <c r="D863" s="22"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D864" s="24"/>
+      <c r="D864" s="22"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
     </row>
     <row r="865" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D865" s="24"/>
+      <c r="D865" s="22"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
     </row>
     <row r="866" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D866" s="24"/>
+      <c r="D866" s="22"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
     </row>
     <row r="867" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D867" s="24"/>
+      <c r="D867" s="22"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
     </row>
     <row r="868" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D868" s="24"/>
+      <c r="D868" s="22"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
     </row>
     <row r="869" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D869" s="24"/>
+      <c r="D869" s="22"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
     </row>
     <row r="870" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D870" s="24"/>
+      <c r="D870" s="22"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
     </row>
     <row r="871" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D871" s="24"/>
+      <c r="D871" s="22"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D872" s="24"/>
+      <c r="D872" s="22"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
     </row>
     <row r="873" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D873" s="24"/>
+      <c r="D873" s="22"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
     </row>
     <row r="874" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D874" s="24"/>
+      <c r="D874" s="22"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
     </row>
     <row r="875" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D875" s="24"/>
+      <c r="D875" s="22"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
     </row>
     <row r="876" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D876" s="24"/>
+      <c r="D876" s="22"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
     </row>
     <row r="877" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D877" s="24"/>
+      <c r="D877" s="22"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
     </row>
     <row r="878" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D878" s="24"/>
+      <c r="D878" s="22"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
     </row>
     <row r="879" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D879" s="24"/>
+      <c r="D879" s="22"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
     </row>
     <row r="880" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D880" s="24"/>
+      <c r="D880" s="22"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
     </row>
     <row r="881" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D881" s="24"/>
+      <c r="D881" s="22"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
     </row>
     <row r="882" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D882" s="24"/>
+      <c r="D882" s="22"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
     </row>
     <row r="883" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D883" s="24"/>
+      <c r="D883" s="22"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
     </row>
     <row r="884" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D884" s="24"/>
+      <c r="D884" s="22"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
     </row>
     <row r="885" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D885" s="24"/>
+      <c r="D885" s="22"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
     </row>
     <row r="886" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D886" s="24"/>
+      <c r="D886" s="22"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
     </row>
     <row r="887" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D887" s="24"/>
+      <c r="D887" s="22"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
     </row>
     <row r="888" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D888" s="24"/>
+      <c r="D888" s="22"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
     </row>
     <row r="889" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D889" s="24"/>
+      <c r="D889" s="22"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
     </row>
     <row r="890" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D890" s="24"/>
+      <c r="D890" s="22"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
     </row>
     <row r="891" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D891" s="24"/>
+      <c r="D891" s="22"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
     </row>
     <row r="892" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D892" s="24"/>
+      <c r="D892" s="22"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
     </row>
     <row r="893" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D893" s="24"/>
+      <c r="D893" s="22"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
     </row>
     <row r="894" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D894" s="24"/>
+      <c r="D894" s="22"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
     </row>
     <row r="895" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D895" s="24"/>
+      <c r="D895" s="22"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
     </row>
     <row r="896" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D896" s="24"/>
+      <c r="D896" s="22"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
     </row>
     <row r="897" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D897" s="24"/>
+      <c r="D897" s="22"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
     </row>
     <row r="898" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D898" s="24"/>
+      <c r="D898" s="22"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
     </row>
     <row r="899" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D899" s="24"/>
+      <c r="D899" s="22"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
     </row>
     <row r="900" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D900" s="24"/>
+      <c r="D900" s="22"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
     </row>
     <row r="901" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D901" s="24"/>
+      <c r="D901" s="22"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
     </row>
     <row r="902" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D902" s="24"/>
+      <c r="D902" s="22"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
     </row>
     <row r="903" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D903" s="24"/>
+      <c r="D903" s="22"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
     </row>
     <row r="904" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D904" s="24"/>
+      <c r="D904" s="22"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
     </row>
     <row r="905" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D905" s="24"/>
+      <c r="D905" s="22"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
     </row>
     <row r="906" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D906" s="24"/>
+      <c r="D906" s="22"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
     </row>
     <row r="907" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D907" s="24"/>
+      <c r="D907" s="22"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
     </row>
     <row r="908" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D908" s="24"/>
+      <c r="D908" s="22"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
     </row>
     <row r="909" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D909" s="24"/>
+      <c r="D909" s="22"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D910" s="24"/>
+      <c r="D910" s="22"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
     </row>
     <row r="911" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D911" s="24"/>
+      <c r="D911" s="22"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
     </row>
     <row r="912" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D912" s="24"/>
+      <c r="D912" s="22"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
     </row>
     <row r="913" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D913" s="24"/>
+      <c r="D913" s="22"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
     </row>
     <row r="914" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D914" s="24"/>
+      <c r="D914" s="22"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
     </row>
     <row r="915" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D915" s="24"/>
+      <c r="D915" s="22"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
     </row>
     <row r="916" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D916" s="24"/>
+      <c r="D916" s="22"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
     </row>
     <row r="917" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D917" s="24"/>
+      <c r="D917" s="22"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
     </row>
     <row r="918" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D918" s="24"/>
+      <c r="D918" s="22"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
     </row>
     <row r="919" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D919" s="24"/>
+      <c r="D919" s="22"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
     </row>
     <row r="920" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D920" s="24"/>
+      <c r="D920" s="22"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
     </row>
     <row r="921" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D921" s="24"/>
+      <c r="D921" s="22"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
     </row>
     <row r="922" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D922" s="24"/>
+      <c r="D922" s="22"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
     </row>
     <row r="923" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D923" s="24"/>
+      <c r="D923" s="22"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D924" s="24"/>
+      <c r="D924" s="22"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
     </row>
     <row r="925" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D925" s="24"/>
+      <c r="D925" s="22"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
     </row>
     <row r="926" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D926" s="24"/>
+      <c r="D926" s="22"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
     </row>
     <row r="927" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D927" s="24"/>
+      <c r="D927" s="22"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
     <row r="928" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D928" s="24"/>
+      <c r="D928" s="22"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
     </row>
     <row r="929" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D929" s="24"/>
+      <c r="D929" s="22"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
     </row>
     <row r="930" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D930" s="24"/>
+      <c r="D930" s="22"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
     </row>
     <row r="931" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D931" s="24"/>
+      <c r="D931" s="22"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
     </row>
     <row r="932" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D932" s="24"/>
+      <c r="D932" s="22"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
     </row>
     <row r="933" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D933" s="24"/>
+      <c r="D933" s="22"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
     </row>
     <row r="934" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D934" s="24"/>
+      <c r="D934" s="22"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
     </row>
     <row r="935" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D935" s="24"/>
+      <c r="D935" s="22"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
     </row>
     <row r="936" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D936" s="24"/>
+      <c r="D936" s="22"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
     </row>
     <row r="937" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D937" s="24"/>
+      <c r="D937" s="22"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
     </row>
     <row r="938" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D938" s="24"/>
+      <c r="D938" s="22"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D939" s="24"/>
+      <c r="D939" s="22"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
     </row>
     <row r="940" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D940" s="24"/>
+      <c r="D940" s="22"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
     </row>
     <row r="941" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D941" s="24"/>
+      <c r="D941" s="22"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
     </row>
     <row r="942" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D942" s="24"/>
+      <c r="D942" s="22"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
     </row>
     <row r="943" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D943" s="24"/>
+      <c r="D943" s="22"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
     </row>
     <row r="944" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D944" s="24"/>
+      <c r="D944" s="22"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
     </row>
     <row r="945" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D945" s="24"/>
+      <c r="D945" s="22"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
     </row>
     <row r="946" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D946" s="24"/>
+      <c r="D946" s="22"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
     </row>
     <row r="947" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D947" s="24"/>
+      <c r="D947" s="22"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D948" s="24"/>
+      <c r="D948" s="22"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
     <row r="949" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D949" s="24"/>
+      <c r="D949" s="22"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
     <row r="950" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D950" s="24"/>
+      <c r="D950" s="22"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
     <row r="951" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D951" s="24"/>
+      <c r="D951" s="22"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
     </row>
     <row r="952" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D952" s="24"/>
+      <c r="D952" s="22"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
     </row>
     <row r="953" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D953" s="24"/>
+      <c r="D953" s="22"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
     <row r="954" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D954" s="24"/>
+      <c r="D954" s="22"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
     </row>
     <row r="955" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D955" s="24"/>
+      <c r="D955" s="22"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
     </row>
     <row r="956" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D956" s="24"/>
+      <c r="D956" s="22"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
     </row>
     <row r="957" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D957" s="24"/>
+      <c r="D957" s="22"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
     </row>
     <row r="958" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D958" s="24"/>
+      <c r="D958" s="22"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
     </row>
     <row r="959" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D959" s="24"/>
+      <c r="D959" s="22"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
     </row>
     <row r="960" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D960" s="24"/>
+      <c r="D960" s="22"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D961" s="24"/>
+      <c r="D961" s="22"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
     </row>
     <row r="962" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D962" s="24"/>
+      <c r="D962" s="22"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
     <row r="963" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D963" s="24"/>
+      <c r="D963" s="22"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
     </row>
     <row r="964" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D964" s="24"/>
+      <c r="D964" s="22"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
     </row>
     <row r="965" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D965" s="24"/>
+      <c r="D965" s="22"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
     </row>
     <row r="966" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D966" s="24"/>
+      <c r="D966" s="22"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
     </row>
     <row r="967" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D967" s="24"/>
+      <c r="D967" s="22"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
     </row>
     <row r="968" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D968" s="24"/>
+      <c r="D968" s="22"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D969" s="24"/>
+      <c r="D969" s="22"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
     <row r="970" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D970" s="24"/>
+      <c r="D970" s="22"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
     <row r="971" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D971" s="24"/>
+      <c r="D971" s="22"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
     <row r="972" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D972" s="24"/>
+      <c r="D972" s="22"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
     <row r="973" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D973" s="24"/>
+      <c r="D973" s="22"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
     <row r="974" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D974" s="24"/>
+      <c r="D974" s="22"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
     </row>
     <row r="975" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D975" s="24"/>
+      <c r="D975" s="22"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
     </row>
     <row r="976" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D976" s="24"/>
+      <c r="D976" s="22"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
     <row r="977" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D977" s="24"/>
+      <c r="D977" s="22"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
     </row>
     <row r="978" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D978" s="24"/>
+      <c r="D978" s="22"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
     </row>
     <row r="979" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D979" s="24"/>
+      <c r="D979" s="22"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
     </row>
     <row r="980" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D980" s="24"/>
+      <c r="D980" s="22"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
     </row>
     <row r="981" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D981" s="24"/>
+      <c r="D981" s="22"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
     </row>
     <row r="982" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D982" s="24"/>
+      <c r="D982" s="22"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
     </row>
     <row r="983" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D983" s="24"/>
+      <c r="D983" s="22"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
     </row>
     <row r="984" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D984" s="24"/>
+      <c r="D984" s="22"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
     </row>
     <row r="985" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D985" s="24"/>
+      <c r="D985" s="22"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
     </row>
     <row r="986" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D986" s="24"/>
+      <c r="D986" s="22"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
     </row>
     <row r="987" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D987" s="24"/>
+      <c r="D987" s="22"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
     </row>
     <row r="988" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D988" s="24"/>
+      <c r="D988" s="22"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
     </row>
     <row r="989" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D989" s="24"/>
+      <c r="D989" s="22"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
     </row>
     <row r="990" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D990" s="24"/>
+      <c r="D990" s="22"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
     <row r="991" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D991" s="24"/>
+      <c r="D991" s="22"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
     <row r="992" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D992" s="24"/>
+      <c r="D992" s="22"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
     </row>
     <row r="993" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D993" s="24"/>
+      <c r="D993" s="22"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D994" s="24"/>
+      <c r="D994" s="22"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
     </row>
     <row r="995" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D995" s="24"/>
+      <c r="D995" s="22"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
     </row>
     <row r="996" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D996" s="24"/>
+      <c r="D996" s="22"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
     <row r="997" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D997" s="24"/>
+      <c r="D997" s="22"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
     </row>
     <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="24"/>
+      <c r="D998" s="22"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
     </row>
     <row r="999" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D999" s="24"/>
+      <c r="D999" s="22"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="24"/>
+      <c r="D1000" s="22"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
     <row r="1001" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1001" s="24"/>
+      <c r="D1001" s="22"/>
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
     <row r="1002" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1002" s="24"/>
+      <c r="D1002" s="22"/>
       <c r="E1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
     <row r="1003" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1003" s="24"/>
+      <c r="D1003" s="22"/>
       <c r="E1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
     <row r="1004" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1004" s="24"/>
+      <c r="D1004" s="22"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="24"/>
+      <c r="D1005" s="22"/>
       <c r="E1005" s="2"/>
       <c r="F1005" s="2"/>
     </row>
     <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1006" s="24"/>
+      <c r="D1006" s="22"/>
       <c r="E1006" s="2"/>
       <c r="F1006" s="2"/>
+    </row>
+    <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1007" s="22"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1008" s="22"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D1009" s="22"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4DAA907-1322-4144-A03B-FB60DE0D5A7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324B9B2-ABA4-4822-B0CE-CE6B6EA8DBBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -505,6 +505,19 @@
 Ecouter le bouton "submit" au click
 Si la réponse est true alors récuperer la valeur de chaque champs et les envoyer comme paramètre de la fonction objetContactEnvoie
 Sinon ne pas envoyer le formulaire</t>
+  </si>
+  <si>
+    <t>envoieDonneesAPI</t>
+  </si>
+  <si>
+    <t>Simuler les différentes possibilités de validation :
+Si le panier et le formulaire sont vides
+Si seul le panier est vide
+Si seul le formulaire est vide
+Si les 2 sont correctement remplis</t>
+  </si>
+  <si>
+    <t>le panier ne correspond pas a la mise en cache</t>
   </si>
 </sst>
 </file>
@@ -943,9 +956,9 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,7 +967,7 @@
     <col min="2" max="2" width="27.140625" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" customWidth="1"/>
     <col min="4" max="4" width="50.5703125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1169,9 @@
       <c r="E11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -1330,13 +1345,19 @@
       <c r="E21" s="4"/>
       <c r="F21" s="12"/>
     </row>
-    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324B9B2-ABA4-4822-B0CE-CE6B6EA8DBBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA421F57-3C98-49D9-B3D4-689686802078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -318,9 +318,6 @@
 porduit js</t>
   </si>
   <si>
-    <t>Devtool: inspect l'élément parent pour vérifier comment le bloc HTML est indenté</t>
-  </si>
-  <si>
     <t>Faire le test avec différents donnees dans le tableau et vérifier si chaque données correspondent bien aux éléments incrémentés dans le HTML</t>
   </si>
   <si>
@@ -498,26 +495,53 @@
     <t>Passer les donnees en parametre de la fonction et console.log(mycontact) pour vérifier que l'objet contact est correctement creer</t>
   </si>
   <si>
-    <t>recuperationDonneesContact</t>
-  </si>
-  <si>
-    <t>Recuperer les reponses des fontions controleFormulaire et controleFormulaireEmail
+    <t>envoieDonneesAPI</t>
+  </si>
+  <si>
+    <t>Recuperer les reponses les fonctions controleFormulaire et controleFormulaireEmail
 Ecouter le bouton "submit" au click
 Si la réponse est true alors récuperer la valeur de chaque champs et les envoyer comme paramètre de la fonction objetContactEnvoie
 Sinon ne pas envoyer le formulaire</t>
-  </si>
-  <si>
-    <t>envoieDonneesAPI</t>
   </si>
   <si>
     <t>Simuler les différentes possibilités de validation :
 Si le panier et le formulaire sont vides
 Si seul le panier est vide
 Si seul le formulaire est vide
+Si un seul champs du formulaire est rempli
 Si les 2 sont correctement remplis</t>
   </si>
   <si>
-    <t>le panier ne correspond pas a la mise en cache</t>
+    <t>le panier ne correspond pas a la mise en cache
+la recuperation de la valeur du champs est erronée</t>
+  </si>
+  <si>
+    <t>Envoyer en POST les données converti en objet json.
+Renvoie une promesse si la réponse est ok 
+Sinon envoie une alerte erreur</t>
+  </si>
+  <si>
+    <t>recuperationDonneesEtContact</t>
+  </si>
+  <si>
+    <t>Saisir une URL: 
+-Correcte, console.log pour vérifier la réponse
+-Incorrecte: voir si l'alert windows est bien retourné</t>
+  </si>
+  <si>
+    <t>Inspecter l'élément parent pour vérifier comment le bloc HTML est correctement ajouter</t>
+  </si>
+  <si>
+    <t>Cliquer sur chaque produit et ouvrir le menu déroulant pour vérifier que la personnalisation correspond au produit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">le bloc ne se créée pas </t>
+  </si>
+  <si>
+    <t>Ne retourne pas la nombre de quantités totales</t>
+  </si>
+  <si>
+    <t>Le contenu du produit ne s'affiche pas</t>
   </si>
 </sst>
 </file>
@@ -957,8 +981,8 @@
   <dimension ref="A1:Z1009"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1020,11 +1044,13 @@
         <v>74</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>142</v>
+      </c>
       <c r="F2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,12 +1062,14 @@
         <v>82</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -1052,12 +1080,14 @@
         <v>80</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
@@ -1068,12 +1098,14 @@
         <v>81</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
@@ -1081,15 +1113,17 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
@@ -1097,14 +1131,16 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>132</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="F7" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1113,14 +1149,16 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1129,16 +1167,16 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1147,13 +1185,17 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
@@ -1161,16 +1203,16 @@
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,16 +1221,16 @@
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="E12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1197,15 +1239,17 @@
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="12"/>
+      <c r="E13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
@@ -1213,16 +1257,16 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1231,16 +1275,16 @@
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1249,16 +1293,16 @@
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1267,16 +1311,16 @@
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1288,13 +1332,13 @@
         <v>79</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1303,16 +1347,16 @@
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1321,13 +1365,13 @@
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="21" t="s">
         <v>135</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F20" s="12"/>
     </row>
@@ -1337,27 +1381,31 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="11"/>
       <c r="C22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="E22" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA421F57-3C98-49D9-B3D4-689686802078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3CA11-DA11-40E0-91A4-132ED50D4369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,9 +980,9 @@
   </sheetPr>
   <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Projet/Template+de+Plan+de+tests.xlsx
+++ b/Projet/Template+de+Plan+de+tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ggira\Desktop\site\lab\Orinoco\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF3CA11-DA11-40E0-91A4-132ED50D4369}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D70B3-3BB2-4670-B275-6F1A9FE716E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="166">
   <si>
     <t>Fichier JS</t>
   </si>
@@ -289,12 +289,6 @@
     <t>recuperationDonneesApi</t>
   </si>
   <si>
-    <t>accueil js</t>
-  </si>
-  <si>
-    <t>produit js</t>
-  </si>
-  <si>
     <t>panier js</t>
   </si>
   <si>
@@ -314,19 +308,9 @@
     <t>creationBlocHTMLAccueil</t>
   </si>
   <si>
-    <t>accueil js
-porduit js</t>
-  </si>
-  <si>
-    <t>Faire le test avec différents donnees dans le tableau et vérifier si chaque données correspondent bien aux éléments incrémentés dans le HTML</t>
-  </si>
-  <si>
     <t>menuPresonnalisation</t>
   </si>
   <si>
-    <t>si le tableau de données n'a pas de données ou n'existe alors renvoie une erreur et désactive le bouton</t>
-  </si>
-  <si>
     <t>nouvelOngletPersonnalisation</t>
   </si>
   <si>
@@ -336,37 +320,9 @@
     <t>clickBoutonPanier</t>
   </si>
   <si>
-    <t>Au click du bouton Panier,
-POUR chaque element du cache navigateur,
-SI l'ID du produit est deja present dans le cache, ALORS ajouter +1 a sa valeur a chaque clique
-SI ID non présent, ALORS je l'ajoute au cache avec comme valeur 1</t>
-  </si>
-  <si>
-    <t>Console.log(local.storage) pour controler comment le cache s'incrémente au clique du produit. Faire le test lorsque le cache est vide. Puis lorsque l'ID est deja présent.
-Changer et revenir sur les memes pages pour verifier comment le compteur s'incremente</t>
-  </si>
-  <si>
     <t>La fonction renvoie une autre valeur que "true"ou undefined</t>
   </si>
   <si>
-    <t>Si le tableau de données de personnalisation est vide ou n'existe pas</t>
-  </si>
-  <si>
-    <t>Si l'URL n'est pas la bonne ou n'est pas correcte</t>
-  </si>
-  <si>
-    <t>Créer les blocs articles html pour la page accueil qui recevront le contenur des données</t>
-  </si>
-  <si>
-    <t>Créer les blocs articles html pour la page produit qui recevront le contenur des données</t>
-  </si>
-  <si>
-    <t>POUR CHAQUE index present dans le tableau de données, AJOUTER le contenu en parametres a la fonction creationBlocHTMLAccueil</t>
-  </si>
-  <si>
-    <t>POUR CHAQUE index present dans le tableau de données, AJOUTER le contenu en parametres a la fonction creationBlocHTMLProduit</t>
-  </si>
-  <si>
     <t>ListeProduitsPanier</t>
   </si>
   <si>
@@ -376,27 +332,7 @@
     <t>Inserer un contenu HTML informant que le panier est vide si aucun produit n'est present dans le cache</t>
   </si>
   <si>
-    <t>Vider le cache et voir si la balise HTML ainsi que le message s'affiche correctement</t>
-  </si>
-  <si>
-    <t>Si il y a un produit en cache a 0 quantité</t>
-  </si>
-  <si>
     <t>creationBlocHtmlPanier</t>
-  </si>
-  <si>
-    <t>Créer les blocs articles html pour la page panier qui recevront le contenur des données</t>
-  </si>
-  <si>
-    <t>Extraire les donnees du cache: ID et valeur, dans un array
-Si cache vide, alors renvoie la fonction PanierVide
-Comparer les ID presentes à chaque ID de l'API,
-Si correspond alors charger les donnees dans les parametres de la fonction creationBlocHtmlPanier</t>
-  </si>
-  <si>
-    <t>Ajout des differents produits dans le panier
-Puis faire varier leur valeur
-Vider le cache</t>
   </si>
   <si>
     <t>nombreProduitsPanier</t>
@@ -412,24 +348,12 @@
     <t>Creer un compteur pour recuperer la valeur de chaque objet du cache</t>
   </si>
   <si>
-    <t xml:space="preserve">
-boutonChangeQuantite</t>
-  </si>
-  <si>
     <t>vider le cache du navigateur et recharge la page panier pour supprimer tout le panier</t>
   </si>
   <si>
-    <t>Ajouter les boutons d'options + et - pour faire varier les quantités du produit dans le panier
-Au click de -, retire 1 de la valeur de l'id correspondante dans le cache
-Au click de +, ajoute 1 de la valeur de l'id correspondante dans le cache</t>
-  </si>
-  <si>
     <t>console.log(localstorage) et faire varier au click le nombre de produits dans le panier. Vérifier que le valeur dans le local storage varient bien également et correspondent aux résultats</t>
   </si>
   <si>
-    <t>Si les valeurs passent en négatives</t>
-  </si>
-  <si>
     <t>le cache ne se vident pas</t>
   </si>
   <si>
@@ -439,69 +363,16 @@
     <t xml:space="preserve">Saisir différents types de données sous différents mode d'affichage </t>
   </si>
   <si>
-    <t>Le champs ne change pas d'affichage</t>
-  </si>
-  <si>
     <t>checkInvalid</t>
   </si>
   <si>
-    <t>Ecouter la valeur du champs saisie. 
-SI le champs est vide alors renvoie une réponse false et la fonction checkInvalid
-SI le champs est saisie alors renvoie une réponse true et la fonction checkValid</t>
-  </si>
-  <si>
     <t>Console.log afin de vérifier que la réponse change bien entre les différentes saisie</t>
   </si>
   <si>
-    <t>Si le champs est saisie une deuxieme fois par l'utilisateur
-Si le changement est vide dés le départ, c'est l'attribut "required"qui prend le relais</t>
-  </si>
-  <si>
     <t>controleFormulaireEmail</t>
   </si>
   <si>
-    <t>Ecouter la valeur du champs email
-SI le champs n'a pas le caractère @ alors renvoie une réponse false et la fonction checkInvalid
-SI le champs est saisie avec le caractère @ alors renvoie une réponse true et la fonction checkValid</t>
-  </si>
-  <si>
-    <t>Faire une saisie avec puis sans @ et console.log pour vérifier la réponse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-objetContactEnvoie</t>
-  </si>
-  <si>
-    <t>renvoyer un certain type d'affichage si les donnees saisies sont correctes</t>
-  </si>
-  <si>
-    <t>renvoyer un certain type d'affichage si les donnees saisies sont incorrectes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Récupérer les données en paramètre et créer pour chaque index l'onglet du menu déroulant </t>
-  </si>
-  <si>
-    <t>Créer un nouvel onglet HTML du menu déroulant de personnalisation</t>
-  </si>
-  <si>
-    <t>Recuperer l'ID de la page,
-SI l'ID n'existe pas, alors lancer la promesse de requete avec l'URL en parametre. LORSQUE la promesse est OK alors execute le code correspondant
-SINON ajouter l'ID de la page a l'URL,LORSQUE la promesse est OK alors execute le code correspondant</t>
-  </si>
-  <si>
-    <t>Convertir les paramètres de la fonction en un nouvelle objet new contact.</t>
-  </si>
-  <si>
-    <t>Passer les donnees en parametre de la fonction et console.log(mycontact) pour vérifier que l'objet contact est correctement creer</t>
-  </si>
-  <si>
     <t>envoieDonneesAPI</t>
-  </si>
-  <si>
-    <t>Recuperer les reponses les fonctions controleFormulaire et controleFormulaireEmail
-Ecouter le bouton "submit" au click
-Si la réponse est true alors récuperer la valeur de chaque champs et les envoyer comme paramètre de la fonction objetContactEnvoie
-Sinon ne pas envoyer le formulaire</t>
   </si>
   <si>
     <t>Simuler les différentes possibilités de validation :
@@ -512,43 +383,234 @@
 Si les 2 sont correctement remplis</t>
   </si>
   <si>
-    <t>le panier ne correspond pas a la mise en cache
-la recuperation de la valeur du champs est erronée</t>
-  </si>
-  <si>
-    <t>Envoyer en POST les données converti en objet json.
-Renvoie une promesse si la réponse est ok 
-Sinon envoie une alerte erreur</t>
-  </si>
-  <si>
     <t>recuperationDonneesEtContact</t>
   </si>
   <si>
-    <t>Saisir une URL: 
+    <t>Cliquer sur chaque produit et ouvrir le menu déroulant pour vérifier que la personnalisation correspond au produit</t>
+  </si>
+  <si>
+    <t>Ne retourne pas la nombre de quantités totales</t>
+  </si>
+  <si>
+    <t>Le contenu du produit ne s'affiche pas</t>
+  </si>
+  <si>
+    <t>Affichage produit js</t>
+  </si>
+  <si>
+    <t>De 3 à 41</t>
+  </si>
+  <si>
+    <t>De 44 à 50</t>
+  </si>
+  <si>
+    <t>De 52 à 89</t>
+  </si>
+  <si>
+    <t>De 93 à 97</t>
+  </si>
+  <si>
+    <t>De 101 à 120</t>
+  </si>
+  <si>
+    <t>De 122 à 140</t>
+  </si>
+  <si>
+    <t>De 144 à 176</t>
+  </si>
+  <si>
+    <t>Affichage produit js
+panier js</t>
+  </si>
+  <si>
+    <t>De 47 à 86</t>
+  </si>
+  <si>
+    <t>De 3 à 87</t>
+  </si>
+  <si>
+    <t>De 94 à 110</t>
+  </si>
+  <si>
+    <t>De 180 à 200
+De 114 à 137</t>
+  </si>
+  <si>
+    <t>De 141 à 148</t>
+  </si>
+  <si>
+    <t>De 154 à 187</t>
+  </si>
+  <si>
+    <t>De 193 à 198</t>
+  </si>
+  <si>
+    <t>De 200 à 205</t>
+  </si>
+  <si>
+    <t>De 209 à 229</t>
+  </si>
+  <si>
+    <t>De 233 à 253</t>
+  </si>
+  <si>
+    <t>De 204 à 254
+De 343 à 363</t>
+  </si>
+  <si>
+    <t>De 257 à 276</t>
+  </si>
+  <si>
+    <t>De 281 à 328</t>
+  </si>
+  <si>
+    <t>Recuperer l'ID de la page,
+SI l'ID n'existe pas, alors lancer la promesse de requete avec l'URL en parametre. LORSQUE la promesse est OK alors executer le code correspondant
+SINON, l'ID existe, ajouter l'ID de la page a l'URL,LORSQUE la promesse est OK alors executer le code correspondant</t>
+  </si>
+  <si>
+    <t>Saisir différentes URL, la bonne et en supprimant des caractères: 
 -Correcte, console.log pour vérifier la réponse
 -Incorrecte: voir si l'alert windows est bien retourné</t>
   </si>
   <si>
-    <t>Inspecter l'élément parent pour vérifier comment le bloc HTML est correctement ajouter</t>
-  </si>
-  <si>
-    <t>Cliquer sur chaque produit et ouvrir le menu déroulant pour vérifier que la personnalisation correspond au produit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">le bloc ne se créée pas </t>
-  </si>
-  <si>
-    <t>Ne retourne pas la nombre de quantités totales</t>
-  </si>
-  <si>
-    <t>Le contenu du produit ne s'affiche pas</t>
+    <t>La fonction ne trouve pas le serveur</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page accueil qui recevront le contenue des données</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page produit qui recevront le contenue des données</t>
+  </si>
+  <si>
+    <t>Créer les blocs articles html pour la page panier qui recevront le contenue des données</t>
+  </si>
+  <si>
+    <t>les éléments HTML n'apparaissent pas dans l'inspecteur</t>
+  </si>
+  <si>
+    <t>Pour chaque index present dans les données API, 
+Incrémenter son contenu en parametres a la fonction creationBlocHTMLAccueil</t>
+  </si>
+  <si>
+    <t>Faire le test avec différents donnees dans le tableau et vérifier si chaque données (via consol.log) correspondent bien aux éléments incrémentés dans le HTML</t>
+  </si>
+  <si>
+    <t>Pour chaque index present dans le tableau de données, Incrémenter le contenu en parametres a la fonction creationBlocHTMLProduit</t>
+  </si>
+  <si>
+    <t>Créer un nouvel onglet HTML dans le menu déroulant de personnalisation</t>
+  </si>
+  <si>
+    <t>Inspecter l'élément parent, dans le navigateur, pour vérifier comment les élément sont ajoutés dans le HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Récupérer les données API en paramètre et créer pour chaque index les items du menu déroulant </t>
+  </si>
+  <si>
+    <t>si le tableau de données n'a pas de données ou n'existe pas, alors renvoie une erreur et désactive le bouton</t>
+  </si>
+  <si>
+    <t>Au click du bouton Panier,
+POUR chaque element du localstorage navigateur,
+SI l'ID du produit est deja present dans le cache, Alors ajouter +1 a sa valeur,
+SI ID n'est pas présent, Alors ajouter cette ID avec comme valeur 1</t>
+  </si>
+  <si>
+    <t>Console.log(local.storage) pour controler comment le cache s'incrémente au clique du produit. Faire le test lorsque le cache est vide. Puis lorsque l'ID est deja présent.
+Controler le comportement console.log(local.storage), sur les différentes pages du site et a différent moment de click</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+boutonChangeQuantite
+boutonMoins
+boutonPlus</t>
+  </si>
+  <si>
+    <t>Ajouter les boutons d'options + et - pour faire varier les quantités du produit dans le localstorage et donc dans le panier finale
+Au click de boutonMoins, retire 1 de la valeur de l'id correspondante dans le localstorage
+Au click de boutonPlus, ajoute 1 de la valeur de l'id correspondante dans le localstorage</t>
+  </si>
+  <si>
+    <t>Si les valeurs passent en négatives ou passent à 0</t>
+  </si>
+  <si>
+    <t>Extraire les donnees du localstorage: ID et valeur, dans un array
+Si localstorage vide, alors renvoie la fonction PanierVide
+Si localstorage rempli, comparer les ID presentes à chaque ID de l'API,
+Si correspondance alors charger les donnees dans les parametres de la fonction creationBlocHtmlPanier, faire le calcul du montant totale</t>
+  </si>
+  <si>
+    <t>Ajout des differents produits dans le panier
+Puis faire varier leurs quantités et leur valeur
+Vider le cache et voir le résultat</t>
+  </si>
+  <si>
+    <t>Le localstorage ne répond pas ou contient d'autres types d'éléments</t>
+  </si>
+  <si>
+    <t>Vider le cache et voir si la balise HTML ainsi que le message s'affiche correctement
+Au clic menu "Panier", vérifier que le message s'affiche</t>
+  </si>
+  <si>
+    <t>Si il y a un produit en cache a 0, alors suppression</t>
+  </si>
+  <si>
+    <t>renvoyer un certain type d'affichage si les donnees du formulaire saisies sont correctes</t>
+  </si>
+  <si>
+    <t>renvoyer un certain type d'affichage si les donnees du formulaire saisies sont incorrectes</t>
+  </si>
+  <si>
+    <t>Le champs ne change pas d'affichage coté navigateur</t>
+  </si>
+  <si>
+    <t>Si le champs est saisie une deuxieme fois par l'utilisateur
+Si le changement est vide dés le départ
+Si l'utilisateur introduit de mauvais caractère</t>
+  </si>
+  <si>
+    <t>Ecouter la valeur du champs email à la saisie
+SI le champs n'a pas le caractère @ alors renvoie une réponse false et la fonction checkInvalid
+SI le champs est saisie avec le caractère @ alors renvoie une réponse true et la fonction checkValid</t>
+  </si>
+  <si>
+    <t>Ecouter la valeur du champs à la saisie
+SI le champs est vide alors renvoie une réponse false et sa fonction checkInvalid
+SI le champs est saisie alors renvoie une réponse true et sa fonction checkValid</t>
+  </si>
+  <si>
+    <t>Faire une saisie avec puis sans @ et console.log pour vérifier la réponse true ou false</t>
+  </si>
+  <si>
+    <t>Lignes de code 
+testées</t>
+  </si>
+  <si>
+    <t>La fonction n'a pas de réponse
+La fonction ne retourne pas de message</t>
+  </si>
+  <si>
+    <t>Envoyer une requete sous forme de promesse en POST,  convertir les données en objet JSON.
+Renvoie une promesse, si la réponse est ok, ourvir la page de confirmation  
+Sinon envoie une alerte erreur</t>
+  </si>
+  <si>
+    <t>Recuperer la réponse (validationForm true ou false) des fonctions controleFormulaire et controleFormulaireEmail
+Ecouter le bouton "submit" au click
+Si la réponse est true ET que le cache n'est pas vide, alors récuperer la valeur de chaque champs et les insérer dans l'objet contact, envoyer l'objet en parametre de la fonction envoieDonneesAPI
+Si le localstorage est vide, de toute facon renvoyer une alerte que le panier est vide
+Si la réponse est fausse, retourner un message d'erreur au niveau du formulaire</t>
+  </si>
+  <si>
+    <t>La fonction ne retourne pas d'erreur ou n'envoie pas les données</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -588,6 +650,10 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -695,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -735,12 +801,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -754,11 +816,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,19 +1037,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1009"/>
+  <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="50.5703125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="52.5703125" style="21" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.7109375" customWidth="1"/>
   </cols>
@@ -999,13 +1058,13 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>1</v>
+      <c r="B1" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="9" t="s">
@@ -1036,5362 +1095,5391 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="21" t="s">
+      <c r="E8" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="F9" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="C10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>143</v>
+        <v>89</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>141</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>107</v>
+        <v>75</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="C12" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>150</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>119</v>
+      </c>
       <c r="C13" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>111</v>
+        <v>87</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="A14" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>120</v>
+      </c>
       <c r="C14" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>115</v>
+        <v>75</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="C16" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>119</v>
+        <v>97</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="C17" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>123</v>
+      <c r="D18" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>124</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="11"/>
+        <v>75</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>126</v>
+      </c>
       <c r="C19" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="153.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>138</v>
+        <v>75</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="14"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="11"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="21"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="21"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="21"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="21"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="21"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="21"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="21"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="21"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="21"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
     <row r="37" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
     <row r="38" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="21"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="21"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="21"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
     </row>
     <row r="42" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="21"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="21"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="21"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
     </row>
     <row r="46" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D46" s="22"/>
+      <c r="D46" s="20"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D47" s="22"/>
+      <c r="D47" s="20"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D48" s="22"/>
+      <c r="D48" s="20"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D49" s="22"/>
+      <c r="D49" s="20"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D50" s="22"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
     <row r="51" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D51" s="22"/>
+      <c r="D51" s="20"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D52" s="22"/>
+      <c r="D52" s="20"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="22"/>
+      <c r="D53" s="20"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="22"/>
+      <c r="D54" s="20"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="4:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="22"/>
+    <row r="55" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D55" s="20"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D56" s="22"/>
+      <c r="D56" s="20"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D57" s="22"/>
+      <c r="D57" s="20"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D58" s="22"/>
+      <c r="D58" s="20"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D59" s="22"/>
+      <c r="D59" s="20"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D60" s="22"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D61" s="22"/>
+      <c r="D61" s="20"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D62" s="22"/>
+      <c r="D62" s="20"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D63" s="22"/>
+      <c r="D63" s="20"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D64" s="22"/>
+      <c r="D64" s="20"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D65" s="22"/>
+      <c r="D65" s="20"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D66" s="22"/>
+      <c r="D66" s="20"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D67" s="22"/>
+      <c r="D67" s="20"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D68" s="22"/>
+      <c r="D68" s="20"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D69" s="22"/>
+      <c r="D69" s="20"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D70" s="22"/>
+      <c r="D70" s="20"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D71" s="22"/>
+      <c r="D71" s="20"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D72" s="22"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D73" s="22"/>
+      <c r="D73" s="20"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D74" s="22"/>
+      <c r="D74" s="20"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D75" s="22"/>
+      <c r="D75" s="20"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D76" s="22"/>
+      <c r="D76" s="20"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D77" s="22"/>
+      <c r="D77" s="20"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D78" s="22"/>
+      <c r="D78" s="20"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D79" s="22"/>
+      <c r="D79" s="20"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D80" s="22"/>
+      <c r="D80" s="20"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D81" s="22"/>
+      <c r="D81" s="20"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D82" s="22"/>
+      <c r="D82" s="20"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D83" s="22"/>
+      <c r="D83" s="20"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D84" s="22"/>
+      <c r="D84" s="20"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D85" s="22"/>
+      <c r="D85" s="20"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D86" s="22"/>
+      <c r="D86" s="20"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D87" s="22"/>
+      <c r="D87" s="20"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D88" s="22"/>
+      <c r="D88" s="20"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D89" s="22"/>
+      <c r="D89" s="20"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D90" s="22"/>
+      <c r="D90" s="20"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D91" s="22"/>
+      <c r="D91" s="20"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D92" s="22"/>
+      <c r="D92" s="20"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D93" s="22"/>
+      <c r="D93" s="20"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D94" s="22"/>
+      <c r="D94" s="20"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D95" s="22"/>
+      <c r="D95" s="20"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D96" s="22"/>
+      <c r="D96" s="20"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D97" s="22"/>
+      <c r="D97" s="20"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D98" s="22"/>
+      <c r="D98" s="20"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D99" s="22"/>
+      <c r="D99" s="20"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D100" s="22"/>
+      <c r="D100" s="20"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D101" s="22"/>
+      <c r="D101" s="20"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D102" s="22"/>
+      <c r="D102" s="20"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D103" s="22"/>
+      <c r="D103" s="20"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D104" s="22"/>
+      <c r="D104" s="20"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D105" s="22"/>
+      <c r="D105" s="20"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D106" s="22"/>
+      <c r="D106" s="20"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D107" s="22"/>
+      <c r="D107" s="20"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D108" s="22"/>
+      <c r="D108" s="20"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D109" s="22"/>
+      <c r="D109" s="20"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D110" s="22"/>
+      <c r="D110" s="20"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D111" s="22"/>
+      <c r="D111" s="20"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D112" s="22"/>
+      <c r="D112" s="20"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D113" s="22"/>
+      <c r="D113" s="20"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D114" s="22"/>
+      <c r="D114" s="20"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="22"/>
+      <c r="D115" s="20"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D116" s="22"/>
+      <c r="D116" s="20"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
     <row r="117" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D117" s="22"/>
+      <c r="D117" s="20"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D118" s="22"/>
+      <c r="D118" s="20"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D119" s="22"/>
+      <c r="D119" s="20"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D120" s="22"/>
+      <c r="D120" s="20"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D121" s="22"/>
+      <c r="D121" s="20"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D122" s="22"/>
+      <c r="D122" s="20"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D123" s="22"/>
+      <c r="D123" s="20"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D124" s="22"/>
+      <c r="D124" s="20"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D125" s="22"/>
+      <c r="D125" s="20"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
     </row>
     <row r="126" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D126" s="22"/>
+      <c r="D126" s="20"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
     </row>
     <row r="127" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D127" s="22"/>
+      <c r="D127" s="20"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
     </row>
     <row r="128" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D128" s="22"/>
+      <c r="D128" s="20"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
     </row>
     <row r="129" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D129" s="22"/>
+      <c r="D129" s="20"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
     </row>
     <row r="130" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D130" s="22"/>
+      <c r="D130" s="20"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
     </row>
     <row r="131" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D131" s="22"/>
+      <c r="D131" s="20"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
     </row>
     <row r="132" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D132" s="22"/>
+      <c r="D132" s="20"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
     </row>
     <row r="133" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D133" s="22"/>
+      <c r="D133" s="20"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
     </row>
     <row r="134" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D134" s="22"/>
+      <c r="D134" s="20"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
     </row>
     <row r="135" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D135" s="22"/>
+      <c r="D135" s="20"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
     </row>
     <row r="136" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D136" s="22"/>
+      <c r="D136" s="20"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
     </row>
     <row r="137" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D137" s="22"/>
+      <c r="D137" s="20"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
     </row>
     <row r="138" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D138" s="22"/>
+      <c r="D138" s="20"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
     </row>
     <row r="139" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D139" s="22"/>
+      <c r="D139" s="20"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
     </row>
     <row r="140" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D140" s="22"/>
+      <c r="D140" s="20"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
     </row>
     <row r="141" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D141" s="22"/>
+      <c r="D141" s="20"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
     </row>
     <row r="142" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D142" s="22"/>
+      <c r="D142" s="20"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
     </row>
     <row r="143" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D143" s="22"/>
+      <c r="D143" s="20"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
     </row>
     <row r="144" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D144" s="22"/>
+      <c r="D144" s="20"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
     </row>
     <row r="145" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D145" s="22"/>
+      <c r="D145" s="20"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
     </row>
     <row r="146" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D146" s="22"/>
+      <c r="D146" s="20"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
     </row>
     <row r="147" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D147" s="22"/>
+      <c r="D147" s="20"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
     </row>
     <row r="148" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D148" s="22"/>
+      <c r="D148" s="20"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
     </row>
     <row r="149" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D149" s="22"/>
+      <c r="D149" s="20"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
     </row>
     <row r="150" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D150" s="22"/>
+      <c r="D150" s="20"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
     </row>
     <row r="151" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D151" s="22"/>
+      <c r="D151" s="20"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
     </row>
     <row r="152" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D152" s="22"/>
+      <c r="D152" s="20"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
     </row>
     <row r="153" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D153" s="22"/>
+      <c r="D153" s="20"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
     </row>
     <row r="154" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D154" s="22"/>
+      <c r="D154" s="20"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
     </row>
     <row r="155" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D155" s="22"/>
+      <c r="D155" s="20"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
     </row>
     <row r="156" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D156" s="22"/>
+      <c r="D156" s="20"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
     </row>
     <row r="157" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D157" s="22"/>
+      <c r="D157" s="20"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
     </row>
     <row r="158" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D158" s="22"/>
+      <c r="D158" s="20"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
     </row>
     <row r="159" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D159" s="22"/>
+      <c r="D159" s="20"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
     </row>
     <row r="160" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D160" s="22"/>
+      <c r="D160" s="20"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
     </row>
     <row r="161" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D161" s="22"/>
+      <c r="D161" s="20"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
     </row>
     <row r="162" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D162" s="22"/>
+      <c r="D162" s="20"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
     </row>
     <row r="163" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D163" s="22"/>
+      <c r="D163" s="20"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
     </row>
     <row r="164" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D164" s="22"/>
+      <c r="D164" s="20"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
     </row>
     <row r="165" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D165" s="22"/>
+      <c r="D165" s="20"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
     </row>
     <row r="166" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D166" s="22"/>
+      <c r="D166" s="20"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
     </row>
     <row r="167" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D167" s="22"/>
+      <c r="D167" s="20"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
     </row>
     <row r="168" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D168" s="22"/>
+      <c r="D168" s="20"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
     </row>
     <row r="169" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D169" s="22"/>
+      <c r="D169" s="20"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
     </row>
     <row r="170" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D170" s="22"/>
+      <c r="D170" s="20"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
     </row>
     <row r="171" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D171" s="22"/>
+      <c r="D171" s="20"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
     </row>
     <row r="172" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D172" s="22"/>
+      <c r="D172" s="20"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
     </row>
     <row r="173" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D173" s="22"/>
+      <c r="D173" s="20"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
     </row>
     <row r="174" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D174" s="22"/>
+      <c r="D174" s="20"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
     </row>
     <row r="175" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D175" s="22"/>
+      <c r="D175" s="20"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
     </row>
     <row r="176" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D176" s="22"/>
+      <c r="D176" s="20"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
     </row>
     <row r="177" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D177" s="22"/>
+      <c r="D177" s="20"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
     </row>
     <row r="178" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D178" s="22"/>
+      <c r="D178" s="20"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
     </row>
     <row r="179" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D179" s="22"/>
+      <c r="D179" s="20"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
     </row>
     <row r="180" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D180" s="22"/>
+      <c r="D180" s="20"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
     </row>
     <row r="181" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D181" s="22"/>
+      <c r="D181" s="20"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
     </row>
     <row r="182" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D182" s="22"/>
+      <c r="D182" s="20"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
     </row>
     <row r="183" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D183" s="22"/>
+      <c r="D183" s="20"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
     </row>
     <row r="184" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D184" s="22"/>
+      <c r="D184" s="20"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
     </row>
     <row r="185" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D185" s="22"/>
+      <c r="D185" s="20"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
     </row>
     <row r="186" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D186" s="22"/>
+      <c r="D186" s="20"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
     </row>
     <row r="187" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D187" s="22"/>
+      <c r="D187" s="20"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
     </row>
     <row r="188" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D188" s="22"/>
+      <c r="D188" s="20"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
     </row>
     <row r="189" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D189" s="22"/>
+      <c r="D189" s="20"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
     </row>
     <row r="190" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D190" s="22"/>
+      <c r="D190" s="20"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
     </row>
     <row r="191" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D191" s="22"/>
+      <c r="D191" s="20"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
     </row>
     <row r="192" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D192" s="22"/>
+      <c r="D192" s="20"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
     </row>
     <row r="193" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D193" s="22"/>
+      <c r="D193" s="20"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
     </row>
     <row r="194" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D194" s="22"/>
+      <c r="D194" s="20"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
     </row>
     <row r="195" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D195" s="22"/>
+      <c r="D195" s="20"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
     </row>
     <row r="196" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D196" s="22"/>
+      <c r="D196" s="20"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
     </row>
     <row r="197" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D197" s="22"/>
+      <c r="D197" s="20"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
     </row>
     <row r="198" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D198" s="22"/>
+      <c r="D198" s="20"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
     </row>
     <row r="199" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D199" s="22"/>
+      <c r="D199" s="20"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
     </row>
     <row r="200" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D200" s="22"/>
+      <c r="D200" s="20"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
     </row>
     <row r="201" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D201" s="22"/>
+      <c r="D201" s="20"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
     </row>
     <row r="202" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D202" s="22"/>
+      <c r="D202" s="20"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
     </row>
     <row r="203" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D203" s="22"/>
+      <c r="D203" s="20"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
     </row>
     <row r="204" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D204" s="22"/>
+      <c r="D204" s="20"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
     </row>
     <row r="205" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D205" s="22"/>
+      <c r="D205" s="20"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
     </row>
     <row r="206" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D206" s="22"/>
+      <c r="D206" s="20"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
     </row>
     <row r="207" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D207" s="22"/>
+      <c r="D207" s="20"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
     </row>
     <row r="208" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D208" s="22"/>
+      <c r="D208" s="20"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
     </row>
     <row r="209" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D209" s="22"/>
+      <c r="D209" s="20"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
     </row>
     <row r="210" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D210" s="22"/>
+      <c r="D210" s="20"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
     </row>
     <row r="211" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D211" s="22"/>
+      <c r="D211" s="20"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
     </row>
     <row r="212" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D212" s="22"/>
+      <c r="D212" s="20"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
     </row>
     <row r="213" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D213" s="22"/>
+      <c r="D213" s="20"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
     </row>
     <row r="214" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D214" s="22"/>
+      <c r="D214" s="20"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
     </row>
     <row r="215" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D215" s="22"/>
+      <c r="D215" s="20"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
     </row>
     <row r="216" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D216" s="22"/>
+      <c r="D216" s="20"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
     </row>
     <row r="217" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D217" s="22"/>
+      <c r="D217" s="20"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
     </row>
     <row r="218" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D218" s="22"/>
+      <c r="D218" s="20"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
     </row>
     <row r="219" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D219" s="22"/>
+      <c r="D219" s="20"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
     </row>
     <row r="220" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D220" s="22"/>
+      <c r="D220" s="20"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
     </row>
     <row r="221" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D221" s="22"/>
+      <c r="D221" s="20"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
     </row>
     <row r="222" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D222" s="22"/>
+      <c r="D222" s="20"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
     </row>
     <row r="223" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D223" s="22"/>
+      <c r="D223" s="20"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
     </row>
     <row r="224" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D224" s="22"/>
+      <c r="D224" s="20"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
     </row>
     <row r="225" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D225" s="22"/>
+      <c r="D225" s="20"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
     </row>
     <row r="226" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D226" s="22"/>
+      <c r="D226" s="20"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
     </row>
     <row r="227" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D227" s="22"/>
+      <c r="D227" s="20"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
     </row>
     <row r="228" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D228" s="22"/>
+      <c r="D228" s="20"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
     </row>
     <row r="229" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D229" s="22"/>
+      <c r="D229" s="20"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
     </row>
     <row r="230" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D230" s="22"/>
+      <c r="D230" s="20"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
     </row>
     <row r="231" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D231" s="22"/>
+      <c r="D231" s="20"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
     </row>
     <row r="232" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D232" s="22"/>
+      <c r="D232" s="20"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
     </row>
     <row r="233" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D233" s="22"/>
+      <c r="D233" s="20"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
     </row>
     <row r="234" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D234" s="22"/>
+      <c r="D234" s="20"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
     </row>
     <row r="235" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D235" s="22"/>
+      <c r="D235" s="20"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
     </row>
     <row r="236" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D236" s="22"/>
+      <c r="D236" s="20"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
     </row>
     <row r="237" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D237" s="22"/>
+      <c r="D237" s="20"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
     </row>
     <row r="238" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D238" s="22"/>
+      <c r="D238" s="20"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
     </row>
     <row r="239" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D239" s="22"/>
+      <c r="D239" s="20"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
     </row>
     <row r="240" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D240" s="22"/>
+      <c r="D240" s="20"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
     </row>
     <row r="241" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D241" s="22"/>
+      <c r="D241" s="20"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
     </row>
     <row r="242" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D242" s="22"/>
+      <c r="D242" s="20"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
     </row>
     <row r="243" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D243" s="22"/>
+      <c r="D243" s="20"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
     </row>
     <row r="244" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D244" s="22"/>
+      <c r="D244" s="20"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
     </row>
     <row r="245" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D245" s="22"/>
+      <c r="D245" s="20"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
     </row>
     <row r="246" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D246" s="22"/>
+      <c r="D246" s="20"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
     </row>
     <row r="247" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D247" s="22"/>
+      <c r="D247" s="20"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
     </row>
     <row r="248" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D248" s="22"/>
+      <c r="D248" s="20"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
     </row>
     <row r="249" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D249" s="22"/>
+      <c r="D249" s="20"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
     </row>
     <row r="250" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D250" s="22"/>
+      <c r="D250" s="20"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
     </row>
     <row r="251" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D251" s="22"/>
+      <c r="D251" s="20"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
     </row>
     <row r="252" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D252" s="22"/>
+      <c r="D252" s="20"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
     </row>
     <row r="253" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D253" s="22"/>
+      <c r="D253" s="20"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
     </row>
     <row r="254" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D254" s="22"/>
+      <c r="D254" s="20"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
     </row>
     <row r="255" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D255" s="22"/>
+      <c r="D255" s="20"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
     </row>
     <row r="256" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D256" s="22"/>
+      <c r="D256" s="20"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
     </row>
     <row r="257" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D257" s="22"/>
+      <c r="D257" s="20"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
     </row>
     <row r="258" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D258" s="22"/>
+      <c r="D258" s="20"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
     </row>
     <row r="259" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D259" s="22"/>
+      <c r="D259" s="20"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
     </row>
     <row r="260" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D260" s="22"/>
+      <c r="D260" s="20"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
     </row>
     <row r="261" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D261" s="22"/>
+      <c r="D261" s="20"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
     </row>
     <row r="262" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D262" s="22"/>
+      <c r="D262" s="20"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
     </row>
     <row r="263" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D263" s="22"/>
+      <c r="D263" s="20"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
     </row>
     <row r="264" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D264" s="22"/>
+      <c r="D264" s="20"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
     </row>
     <row r="265" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D265" s="22"/>
+      <c r="D265" s="20"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
     </row>
     <row r="266" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D266" s="22"/>
+      <c r="D266" s="20"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
     </row>
     <row r="267" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D267" s="22"/>
+      <c r="D267" s="20"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
     </row>
     <row r="268" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D268" s="22"/>
+      <c r="D268" s="20"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
     </row>
     <row r="269" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D269" s="22"/>
+      <c r="D269" s="20"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
     </row>
     <row r="270" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D270" s="22"/>
+      <c r="D270" s="20"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
     </row>
     <row r="271" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D271" s="22"/>
+      <c r="D271" s="20"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
     </row>
     <row r="272" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D272" s="22"/>
+      <c r="D272" s="20"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
     </row>
     <row r="273" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D273" s="22"/>
+      <c r="D273" s="20"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
     </row>
     <row r="274" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D274" s="22"/>
+      <c r="D274" s="20"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
     </row>
     <row r="275" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D275" s="22"/>
+      <c r="D275" s="20"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
     </row>
     <row r="276" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D276" s="22"/>
+      <c r="D276" s="20"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
     </row>
     <row r="277" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D277" s="22"/>
+      <c r="D277" s="20"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
     </row>
     <row r="278" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D278" s="22"/>
+      <c r="D278" s="20"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
     </row>
     <row r="279" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D279" s="22"/>
+      <c r="D279" s="20"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
     </row>
     <row r="280" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D280" s="22"/>
+      <c r="D280" s="20"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
     </row>
     <row r="281" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D281" s="22"/>
+      <c r="D281" s="20"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
     </row>
     <row r="282" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D282" s="22"/>
+      <c r="D282" s="20"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
     </row>
     <row r="283" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D283" s="22"/>
+      <c r="D283" s="20"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
     </row>
     <row r="284" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D284" s="22"/>
+      <c r="D284" s="20"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
     </row>
     <row r="285" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D285" s="22"/>
+      <c r="D285" s="20"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
     </row>
     <row r="286" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D286" s="22"/>
+      <c r="D286" s="20"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
     </row>
     <row r="287" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D287" s="22"/>
+      <c r="D287" s="20"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
     <row r="288" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D288" s="22"/>
+      <c r="D288" s="20"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
     <row r="289" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D289" s="22"/>
+      <c r="D289" s="20"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
     <row r="290" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D290" s="22"/>
+      <c r="D290" s="20"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
     <row r="291" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D291" s="22"/>
+      <c r="D291" s="20"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
     <row r="292" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D292" s="22"/>
+      <c r="D292" s="20"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
     <row r="293" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D293" s="22"/>
+      <c r="D293" s="20"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
     <row r="294" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D294" s="22"/>
+      <c r="D294" s="20"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
     <row r="295" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D295" s="22"/>
+      <c r="D295" s="20"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
     <row r="296" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D296" s="22"/>
+      <c r="D296" s="20"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
     <row r="297" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D297" s="22"/>
+      <c r="D297" s="20"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
     <row r="298" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D298" s="22"/>
+      <c r="D298" s="20"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
     <row r="299" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D299" s="22"/>
+      <c r="D299" s="20"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
     <row r="300" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D300" s="22"/>
+      <c r="D300" s="20"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
     <row r="301" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D301" s="22"/>
+      <c r="D301" s="20"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
     <row r="302" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D302" s="22"/>
+      <c r="D302" s="20"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
     <row r="303" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D303" s="22"/>
+      <c r="D303" s="20"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
     <row r="304" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D304" s="22"/>
+      <c r="D304" s="20"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
     <row r="305" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D305" s="22"/>
+      <c r="D305" s="20"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
     <row r="306" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D306" s="22"/>
+      <c r="D306" s="20"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
     <row r="307" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D307" s="22"/>
+      <c r="D307" s="20"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
     <row r="308" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D308" s="22"/>
+      <c r="D308" s="20"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
     <row r="309" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D309" s="22"/>
+      <c r="D309" s="20"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
     <row r="310" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D310" s="22"/>
+      <c r="D310" s="20"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
     <row r="311" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D311" s="22"/>
+      <c r="D311" s="20"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
     <row r="312" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D312" s="22"/>
+      <c r="D312" s="20"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
     <row r="313" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D313" s="22"/>
+      <c r="D313" s="20"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
     <row r="314" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D314" s="22"/>
+      <c r="D314" s="20"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
     <row r="315" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D315" s="22"/>
+      <c r="D315" s="20"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
     <row r="316" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D316" s="22"/>
+      <c r="D316" s="20"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
     <row r="317" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D317" s="22"/>
+      <c r="D317" s="20"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
     <row r="318" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D318" s="22"/>
+      <c r="D318" s="20"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
     <row r="319" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D319" s="22"/>
+      <c r="D319" s="20"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
     <row r="320" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D320" s="22"/>
+      <c r="D320" s="20"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
     <row r="321" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D321" s="22"/>
+      <c r="D321" s="20"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
     <row r="322" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D322" s="22"/>
+      <c r="D322" s="20"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
     <row r="323" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D323" s="22"/>
+      <c r="D323" s="20"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
     <row r="324" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D324" s="22"/>
+      <c r="D324" s="20"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
     <row r="325" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D325" s="22"/>
+      <c r="D325" s="20"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
     <row r="326" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D326" s="22"/>
+      <c r="D326" s="20"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
     <row r="327" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D327" s="22"/>
+      <c r="D327" s="20"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
     <row r="328" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D328" s="22"/>
+      <c r="D328" s="20"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
     <row r="329" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D329" s="22"/>
+      <c r="D329" s="20"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
     <row r="330" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D330" s="22"/>
+      <c r="D330" s="20"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
     <row r="331" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D331" s="22"/>
+      <c r="D331" s="20"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
     <row r="332" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D332" s="22"/>
+      <c r="D332" s="20"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
     <row r="333" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D333" s="22"/>
+      <c r="D333" s="20"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
     <row r="334" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D334" s="22"/>
+      <c r="D334" s="20"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
     <row r="335" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D335" s="22"/>
+      <c r="D335" s="20"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
     <row r="336" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D336" s="22"/>
+      <c r="D336" s="20"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
     <row r="337" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D337" s="22"/>
+      <c r="D337" s="20"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
     <row r="338" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D338" s="22"/>
+      <c r="D338" s="20"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
     <row r="339" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D339" s="22"/>
+      <c r="D339" s="20"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
     <row r="340" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D340" s="22"/>
+      <c r="D340" s="20"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
     <row r="341" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D341" s="22"/>
+      <c r="D341" s="20"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
     <row r="342" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D342" s="22"/>
+      <c r="D342" s="20"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
     <row r="343" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D343" s="22"/>
+      <c r="D343" s="20"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
     <row r="344" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D344" s="22"/>
+      <c r="D344" s="20"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
     <row r="345" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D345" s="22"/>
+      <c r="D345" s="20"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
     <row r="346" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D346" s="22"/>
+      <c r="D346" s="20"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
     <row r="347" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D347" s="22"/>
+      <c r="D347" s="20"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
     <row r="348" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D348" s="22"/>
+      <c r="D348" s="20"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
     <row r="349" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D349" s="22"/>
+      <c r="D349" s="20"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
     <row r="350" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D350" s="22"/>
+      <c r="D350" s="20"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
     </row>
     <row r="351" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D351" s="22"/>
+      <c r="D351" s="20"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
     </row>
     <row r="352" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D352" s="22"/>
+      <c r="D352" s="20"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
     </row>
     <row r="353" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D353" s="22"/>
+      <c r="D353" s="20"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
     </row>
     <row r="354" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D354" s="22"/>
+      <c r="D354" s="20"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
     </row>
     <row r="355" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D355" s="22"/>
+      <c r="D355" s="20"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
     </row>
     <row r="356" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D356" s="22"/>
+      <c r="D356" s="20"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
     </row>
     <row r="357" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D357" s="22"/>
+      <c r="D357" s="20"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
     </row>
     <row r="358" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D358" s="22"/>
+      <c r="D358" s="20"/>
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
     </row>
     <row r="359" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D359" s="22"/>
+      <c r="D359" s="20"/>
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
     </row>
     <row r="360" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D360" s="22"/>
+      <c r="D360" s="20"/>
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
     </row>
     <row r="361" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D361" s="22"/>
+      <c r="D361" s="20"/>
       <c r="E361" s="2"/>
       <c r="F361" s="2"/>
     </row>
     <row r="362" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D362" s="22"/>
+      <c r="D362" s="20"/>
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
     </row>
     <row r="363" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D363" s="22"/>
+      <c r="D363" s="20"/>
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
     </row>
     <row r="364" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D364" s="22"/>
+      <c r="D364" s="20"/>
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
     </row>
     <row r="365" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D365" s="22"/>
+      <c r="D365" s="20"/>
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
     </row>
     <row r="366" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D366" s="22"/>
+      <c r="D366" s="20"/>
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
     </row>
     <row r="367" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D367" s="22"/>
+      <c r="D367" s="20"/>
       <c r="E367" s="2"/>
       <c r="F367" s="2"/>
     </row>
     <row r="368" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D368" s="22"/>
+      <c r="D368" s="20"/>
       <c r="E368" s="2"/>
       <c r="F368" s="2"/>
     </row>
     <row r="369" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D369" s="22"/>
+      <c r="D369" s="20"/>
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
     </row>
     <row r="370" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D370" s="22"/>
+      <c r="D370" s="20"/>
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
     </row>
     <row r="371" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D371" s="22"/>
+      <c r="D371" s="20"/>
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
     </row>
     <row r="372" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D372" s="22"/>
+      <c r="D372" s="20"/>
       <c r="E372" s="2"/>
       <c r="F372" s="2"/>
     </row>
     <row r="373" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D373" s="22"/>
+      <c r="D373" s="20"/>
       <c r="E373" s="2"/>
       <c r="F373" s="2"/>
     </row>
     <row r="374" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D374" s="22"/>
+      <c r="D374" s="20"/>
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
     </row>
     <row r="375" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D375" s="22"/>
+      <c r="D375" s="20"/>
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
     </row>
     <row r="376" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D376" s="22"/>
+      <c r="D376" s="20"/>
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
     </row>
     <row r="377" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D377" s="22"/>
+      <c r="D377" s="20"/>
       <c r="E377" s="2"/>
       <c r="F377" s="2"/>
     </row>
     <row r="378" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D378" s="22"/>
+      <c r="D378" s="20"/>
       <c r="E378" s="2"/>
       <c r="F378" s="2"/>
     </row>
     <row r="379" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D379" s="22"/>
+      <c r="D379" s="20"/>
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
     </row>
     <row r="380" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D380" s="22"/>
+      <c r="D380" s="20"/>
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
     </row>
     <row r="381" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D381" s="22"/>
+      <c r="D381" s="20"/>
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
     </row>
     <row r="382" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D382" s="22"/>
+      <c r="D382" s="20"/>
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
     </row>
     <row r="383" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D383" s="22"/>
+      <c r="D383" s="20"/>
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
     </row>
     <row r="384" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D384" s="22"/>
+      <c r="D384" s="20"/>
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
     </row>
     <row r="385" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D385" s="22"/>
+      <c r="D385" s="20"/>
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
     </row>
     <row r="386" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D386" s="22"/>
+      <c r="D386" s="20"/>
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
     </row>
     <row r="387" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D387" s="22"/>
+      <c r="D387" s="20"/>
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
     </row>
     <row r="388" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D388" s="22"/>
+      <c r="D388" s="20"/>
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
     </row>
     <row r="389" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D389" s="22"/>
+      <c r="D389" s="20"/>
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
     </row>
     <row r="390" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D390" s="22"/>
+      <c r="D390" s="20"/>
       <c r="E390" s="2"/>
       <c r="F390" s="2"/>
     </row>
     <row r="391" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D391" s="22"/>
+      <c r="D391" s="20"/>
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
     </row>
     <row r="392" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D392" s="22"/>
+      <c r="D392" s="20"/>
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
     </row>
     <row r="393" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D393" s="22"/>
+      <c r="D393" s="20"/>
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
     </row>
     <row r="394" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D394" s="22"/>
+      <c r="D394" s="20"/>
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
     </row>
     <row r="395" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D395" s="22"/>
+      <c r="D395" s="20"/>
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
     </row>
     <row r="396" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D396" s="22"/>
+      <c r="D396" s="20"/>
       <c r="E396" s="2"/>
       <c r="F396" s="2"/>
     </row>
     <row r="397" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D397" s="22"/>
+      <c r="D397" s="20"/>
       <c r="E397" s="2"/>
       <c r="F397" s="2"/>
     </row>
     <row r="398" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D398" s="22"/>
+      <c r="D398" s="20"/>
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
     </row>
     <row r="399" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D399" s="22"/>
+      <c r="D399" s="20"/>
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
     </row>
     <row r="400" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D400" s="22"/>
+      <c r="D400" s="20"/>
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
     </row>
     <row r="401" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D401" s="22"/>
+      <c r="D401" s="20"/>
       <c r="E401" s="2"/>
       <c r="F401" s="2"/>
     </row>
     <row r="402" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D402" s="22"/>
+      <c r="D402" s="20"/>
       <c r="E402" s="2"/>
       <c r="F402" s="2"/>
     </row>
     <row r="403" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D403" s="22"/>
+      <c r="D403" s="20"/>
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
     </row>
     <row r="404" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D404" s="22"/>
+      <c r="D404" s="20"/>
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
     </row>
     <row r="405" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D405" s="22"/>
+      <c r="D405" s="20"/>
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
     </row>
     <row r="406" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D406" s="22"/>
+      <c r="D406" s="20"/>
       <c r="E406" s="2"/>
       <c r="F406" s="2"/>
     </row>
     <row r="407" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D407" s="22"/>
+      <c r="D407" s="20"/>
       <c r="E407" s="2"/>
       <c r="F407" s="2"/>
     </row>
     <row r="408" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D408" s="22"/>
+      <c r="D408" s="20"/>
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
     </row>
     <row r="409" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D409" s="22"/>
+      <c r="D409" s="20"/>
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
     </row>
     <row r="410" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D410" s="22"/>
+      <c r="D410" s="20"/>
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
     </row>
     <row r="411" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D411" s="22"/>
+      <c r="D411" s="20"/>
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
     </row>
     <row r="412" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D412" s="22"/>
+      <c r="D412" s="20"/>
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
     </row>
     <row r="413" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D413" s="22"/>
+      <c r="D413" s="20"/>
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
     </row>
     <row r="414" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D414" s="22"/>
+      <c r="D414" s="20"/>
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
     </row>
     <row r="415" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D415" s="22"/>
+      <c r="D415" s="20"/>
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
     </row>
     <row r="416" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D416" s="22"/>
+      <c r="D416" s="20"/>
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
     </row>
     <row r="417" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D417" s="22"/>
+      <c r="D417" s="20"/>
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
     </row>
     <row r="418" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D418" s="22"/>
+      <c r="D418" s="20"/>
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
     </row>
     <row r="419" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D419" s="22"/>
+      <c r="D419" s="20"/>
       <c r="E419" s="2"/>
       <c r="F419" s="2"/>
     </row>
     <row r="420" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D420" s="22"/>
+      <c r="D420" s="20"/>
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
     </row>
     <row r="421" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D421" s="22"/>
+      <c r="D421" s="20"/>
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
     </row>
     <row r="422" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D422" s="22"/>
+      <c r="D422" s="20"/>
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
     </row>
     <row r="423" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D423" s="22"/>
+      <c r="D423" s="20"/>
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
     </row>
     <row r="424" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D424" s="22"/>
+      <c r="D424" s="20"/>
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
     </row>
     <row r="425" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D425" s="22"/>
+      <c r="D425" s="20"/>
       <c r="E425" s="2"/>
       <c r="F425" s="2"/>
     </row>
     <row r="426" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D426" s="22"/>
+      <c r="D426" s="20"/>
       <c r="E426" s="2"/>
       <c r="F426" s="2"/>
     </row>
     <row r="427" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D427" s="22"/>
+      <c r="D427" s="20"/>
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
     </row>
     <row r="428" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D428" s="22"/>
+      <c r="D428" s="20"/>
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
     </row>
     <row r="429" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D429" s="22"/>
+      <c r="D429" s="20"/>
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
     </row>
     <row r="430" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D430" s="22"/>
+      <c r="D430" s="20"/>
       <c r="E430" s="2"/>
       <c r="F430" s="2"/>
     </row>
     <row r="431" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D431" s="22"/>
+      <c r="D431" s="20"/>
       <c r="E431" s="2"/>
       <c r="F431" s="2"/>
     </row>
     <row r="432" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D432" s="22"/>
+      <c r="D432" s="20"/>
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
     </row>
     <row r="433" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D433" s="22"/>
+      <c r="D433" s="20"/>
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
     </row>
     <row r="434" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D434" s="22"/>
+      <c r="D434" s="20"/>
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
     </row>
     <row r="435" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D435" s="22"/>
+      <c r="D435" s="20"/>
       <c r="E435" s="2"/>
       <c r="F435" s="2"/>
     </row>
     <row r="436" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D436" s="22"/>
+      <c r="D436" s="20"/>
       <c r="E436" s="2"/>
       <c r="F436" s="2"/>
     </row>
     <row r="437" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D437" s="22"/>
+      <c r="D437" s="20"/>
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
     </row>
     <row r="438" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D438" s="22"/>
+      <c r="D438" s="20"/>
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
     </row>
     <row r="439" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D439" s="22"/>
+      <c r="D439" s="20"/>
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
     </row>
     <row r="440" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D440" s="22"/>
+      <c r="D440" s="20"/>
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
     </row>
     <row r="441" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D441" s="22"/>
+      <c r="D441" s="20"/>
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
     </row>
     <row r="442" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D442" s="22"/>
+      <c r="D442" s="20"/>
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
     </row>
     <row r="443" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D443" s="22"/>
+      <c r="D443" s="20"/>
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
     </row>
     <row r="444" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D444" s="22"/>
+      <c r="D444" s="20"/>
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
     </row>
     <row r="445" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D445" s="22"/>
+      <c r="D445" s="20"/>
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
     </row>
     <row r="446" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D446" s="22"/>
+      <c r="D446" s="20"/>
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
     </row>
     <row r="447" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D447" s="22"/>
+      <c r="D447" s="20"/>
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
     </row>
     <row r="448" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D448" s="22"/>
+      <c r="D448" s="20"/>
       <c r="E448" s="2"/>
       <c r="F448" s="2"/>
     </row>
     <row r="449" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D449" s="22"/>
+      <c r="D449" s="20"/>
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
     </row>
     <row r="450" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D450" s="22"/>
+      <c r="D450" s="20"/>
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
     </row>
     <row r="451" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D451" s="22"/>
+      <c r="D451" s="20"/>
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
     </row>
     <row r="452" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D452" s="22"/>
+      <c r="D452" s="20"/>
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
     </row>
     <row r="453" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D453" s="22"/>
+      <c r="D453" s="20"/>
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
     </row>
     <row r="454" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D454" s="22"/>
+      <c r="D454" s="20"/>
       <c r="E454" s="2"/>
       <c r="F454" s="2"/>
     </row>
     <row r="455" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D455" s="22"/>
+      <c r="D455" s="20"/>
       <c r="E455" s="2"/>
       <c r="F455" s="2"/>
     </row>
     <row r="456" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D456" s="22"/>
+      <c r="D456" s="20"/>
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
     </row>
     <row r="457" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D457" s="22"/>
+      <c r="D457" s="20"/>
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D458" s="22"/>
+      <c r="D458" s="20"/>
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
     </row>
     <row r="459" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D459" s="22"/>
+      <c r="D459" s="20"/>
       <c r="E459" s="2"/>
       <c r="F459" s="2"/>
     </row>
     <row r="460" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D460" s="22"/>
+      <c r="D460" s="20"/>
       <c r="E460" s="2"/>
       <c r="F460" s="2"/>
     </row>
     <row r="461" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D461" s="22"/>
+      <c r="D461" s="20"/>
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
     </row>
     <row r="462" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D462" s="22"/>
+      <c r="D462" s="20"/>
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
     </row>
     <row r="463" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D463" s="22"/>
+      <c r="D463" s="20"/>
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D464" s="22"/>
+      <c r="D464" s="20"/>
       <c r="E464" s="2"/>
       <c r="F464" s="2"/>
     </row>
     <row r="465" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D465" s="22"/>
+      <c r="D465" s="20"/>
       <c r="E465" s="2"/>
       <c r="F465" s="2"/>
     </row>
     <row r="466" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D466" s="22"/>
+      <c r="D466" s="20"/>
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
     </row>
     <row r="467" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D467" s="22"/>
+      <c r="D467" s="20"/>
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
     </row>
     <row r="468" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D468" s="22"/>
+      <c r="D468" s="20"/>
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
     </row>
     <row r="469" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D469" s="22"/>
+      <c r="D469" s="20"/>
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
     </row>
     <row r="470" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D470" s="22"/>
+      <c r="D470" s="20"/>
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D471" s="22"/>
+      <c r="D471" s="20"/>
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
     </row>
     <row r="472" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D472" s="22"/>
+      <c r="D472" s="20"/>
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
     </row>
     <row r="473" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D473" s="22"/>
+      <c r="D473" s="20"/>
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
     </row>
     <row r="474" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D474" s="22"/>
+      <c r="D474" s="20"/>
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
     </row>
     <row r="475" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D475" s="22"/>
+      <c r="D475" s="20"/>
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
     </row>
     <row r="476" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D476" s="22"/>
+      <c r="D476" s="20"/>
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
     </row>
     <row r="477" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D477" s="22"/>
+      <c r="D477" s="20"/>
       <c r="E477" s="2"/>
       <c r="F477" s="2"/>
     </row>
     <row r="478" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D478" s="22"/>
+      <c r="D478" s="20"/>
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
     </row>
     <row r="479" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D479" s="22"/>
+      <c r="D479" s="20"/>
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
     </row>
     <row r="480" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D480" s="22"/>
+      <c r="D480" s="20"/>
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
     </row>
     <row r="481" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D481" s="22"/>
+      <c r="D481" s="20"/>
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
     </row>
     <row r="482" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D482" s="22"/>
+      <c r="D482" s="20"/>
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
     </row>
     <row r="483" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D483" s="22"/>
+      <c r="D483" s="20"/>
       <c r="E483" s="2"/>
       <c r="F483" s="2"/>
     </row>
     <row r="484" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D484" s="22"/>
+      <c r="D484" s="20"/>
       <c r="E484" s="2"/>
       <c r="F484" s="2"/>
     </row>
     <row r="485" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D485" s="22"/>
+      <c r="D485" s="20"/>
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
     </row>
     <row r="486" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D486" s="22"/>
+      <c r="D486" s="20"/>
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
     </row>
     <row r="487" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D487" s="22"/>
+      <c r="D487" s="20"/>
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
     </row>
     <row r="488" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D488" s="22"/>
+      <c r="D488" s="20"/>
       <c r="E488" s="2"/>
       <c r="F488" s="2"/>
     </row>
     <row r="489" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D489" s="22"/>
+      <c r="D489" s="20"/>
       <c r="E489" s="2"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D490" s="22"/>
+      <c r="D490" s="20"/>
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
     </row>
     <row r="491" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D491" s="22"/>
+      <c r="D491" s="20"/>
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
     </row>
     <row r="492" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D492" s="22"/>
+      <c r="D492" s="20"/>
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
     </row>
     <row r="493" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D493" s="22"/>
+      <c r="D493" s="20"/>
       <c r="E493" s="2"/>
       <c r="F493" s="2"/>
     </row>
     <row r="494" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D494" s="22"/>
+      <c r="D494" s="20"/>
       <c r="E494" s="2"/>
       <c r="F494" s="2"/>
     </row>
     <row r="495" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D495" s="22"/>
+      <c r="D495" s="20"/>
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
     </row>
     <row r="496" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D496" s="22"/>
+      <c r="D496" s="20"/>
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D497" s="22"/>
+      <c r="D497" s="20"/>
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
     </row>
     <row r="498" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D498" s="22"/>
+      <c r="D498" s="20"/>
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
     </row>
     <row r="499" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D499" s="22"/>
+      <c r="D499" s="20"/>
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
     </row>
     <row r="500" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D500" s="22"/>
+      <c r="D500" s="20"/>
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
     </row>
     <row r="501" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D501" s="22"/>
+      <c r="D501" s="20"/>
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
     </row>
     <row r="502" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D502" s="22"/>
+      <c r="D502" s="20"/>
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
     </row>
     <row r="503" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D503" s="22"/>
+      <c r="D503" s="20"/>
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
     </row>
     <row r="504" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D504" s="22"/>
+      <c r="D504" s="20"/>
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
     </row>
     <row r="505" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D505" s="22"/>
+      <c r="D505" s="20"/>
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
     </row>
     <row r="506" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D506" s="22"/>
+      <c r="D506" s="20"/>
       <c r="E506" s="2"/>
       <c r="F506" s="2"/>
     </row>
     <row r="507" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D507" s="22"/>
+      <c r="D507" s="20"/>
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
     </row>
     <row r="508" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D508" s="22"/>
+      <c r="D508" s="20"/>
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D509" s="22"/>
+      <c r="D509" s="20"/>
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
     </row>
     <row r="510" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D510" s="22"/>
+      <c r="D510" s="20"/>
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
     </row>
     <row r="511" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D511" s="22"/>
+      <c r="D511" s="20"/>
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
     </row>
     <row r="512" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D512" s="22"/>
+      <c r="D512" s="20"/>
       <c r="E512" s="2"/>
       <c r="F512" s="2"/>
     </row>
     <row r="513" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D513" s="22"/>
+      <c r="D513" s="20"/>
       <c r="E513" s="2"/>
       <c r="F513" s="2"/>
     </row>
     <row r="514" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D514" s="22"/>
+      <c r="D514" s="20"/>
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
     </row>
     <row r="515" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D515" s="22"/>
+      <c r="D515" s="20"/>
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
     </row>
     <row r="516" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D516" s="22"/>
+      <c r="D516" s="20"/>
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D517" s="22"/>
+      <c r="D517" s="20"/>
       <c r="E517" s="2"/>
       <c r="F517" s="2"/>
     </row>
     <row r="518" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D518" s="22"/>
+      <c r="D518" s="20"/>
       <c r="E518" s="2"/>
       <c r="F518" s="2"/>
     </row>
     <row r="519" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D519" s="22"/>
+      <c r="D519" s="20"/>
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
     </row>
     <row r="520" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D520" s="22"/>
+      <c r="D520" s="20"/>
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
     </row>
     <row r="521" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D521" s="22"/>
+      <c r="D521" s="20"/>
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
     </row>
     <row r="522" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D522" s="22"/>
+      <c r="D522" s="20"/>
       <c r="E522" s="2"/>
       <c r="F522" s="2"/>
     </row>
     <row r="523" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D523" s="22"/>
+      <c r="D523" s="20"/>
       <c r="E523" s="2"/>
       <c r="F523" s="2"/>
     </row>
     <row r="524" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D524" s="22"/>
+      <c r="D524" s="20"/>
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
     </row>
     <row r="525" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D525" s="22"/>
+      <c r="D525" s="20"/>
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
     </row>
     <row r="526" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D526" s="22"/>
+      <c r="D526" s="20"/>
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
     </row>
     <row r="527" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D527" s="22"/>
+      <c r="D527" s="20"/>
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D528" s="22"/>
+      <c r="D528" s="20"/>
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
     </row>
     <row r="529" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D529" s="22"/>
+      <c r="D529" s="20"/>
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
     </row>
     <row r="530" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D530" s="22"/>
+      <c r="D530" s="20"/>
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
     </row>
     <row r="531" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D531" s="22"/>
+      <c r="D531" s="20"/>
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
     </row>
     <row r="532" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D532" s="22"/>
+      <c r="D532" s="20"/>
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
     </row>
     <row r="533" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D533" s="22"/>
+      <c r="D533" s="20"/>
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
     </row>
     <row r="534" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D534" s="22"/>
+      <c r="D534" s="20"/>
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
     </row>
     <row r="535" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D535" s="22"/>
+      <c r="D535" s="20"/>
       <c r="E535" s="2"/>
       <c r="F535" s="2"/>
     </row>
     <row r="536" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D536" s="22"/>
+      <c r="D536" s="20"/>
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
     </row>
     <row r="537" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D537" s="22"/>
+      <c r="D537" s="20"/>
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
     </row>
     <row r="538" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D538" s="22"/>
+      <c r="D538" s="20"/>
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
     </row>
     <row r="539" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D539" s="22"/>
+      <c r="D539" s="20"/>
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
     </row>
     <row r="540" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D540" s="22"/>
+      <c r="D540" s="20"/>
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
     </row>
     <row r="541" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D541" s="22"/>
+      <c r="D541" s="20"/>
       <c r="E541" s="2"/>
       <c r="F541" s="2"/>
     </row>
     <row r="542" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D542" s="22"/>
+      <c r="D542" s="20"/>
       <c r="E542" s="2"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D543" s="22"/>
+      <c r="D543" s="20"/>
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
     </row>
     <row r="544" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D544" s="22"/>
+      <c r="D544" s="20"/>
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
     </row>
     <row r="545" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D545" s="22"/>
+      <c r="D545" s="20"/>
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
     </row>
     <row r="546" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D546" s="22"/>
+      <c r="D546" s="20"/>
       <c r="E546" s="2"/>
       <c r="F546" s="2"/>
     </row>
     <row r="547" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D547" s="22"/>
+      <c r="D547" s="20"/>
       <c r="E547" s="2"/>
       <c r="F547" s="2"/>
     </row>
     <row r="548" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D548" s="22"/>
+      <c r="D548" s="20"/>
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
     </row>
     <row r="549" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D549" s="22"/>
+      <c r="D549" s="20"/>
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
     </row>
     <row r="550" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D550" s="22"/>
+      <c r="D550" s="20"/>
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
     </row>
     <row r="551" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D551" s="22"/>
+      <c r="D551" s="20"/>
       <c r="E551" s="2"/>
       <c r="F551" s="2"/>
     </row>
     <row r="552" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D552" s="22"/>
+      <c r="D552" s="20"/>
       <c r="E552" s="2"/>
       <c r="F552" s="2"/>
     </row>
     <row r="553" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D553" s="22"/>
+      <c r="D553" s="20"/>
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
     </row>
     <row r="554" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D554" s="22"/>
+      <c r="D554" s="20"/>
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D555" s="22"/>
+      <c r="D555" s="20"/>
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
     </row>
     <row r="556" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D556" s="22"/>
+      <c r="D556" s="20"/>
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
     </row>
     <row r="557" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D557" s="22"/>
+      <c r="D557" s="20"/>
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
     </row>
     <row r="558" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D558" s="22"/>
+      <c r="D558" s="20"/>
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
     </row>
     <row r="559" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D559" s="22"/>
+      <c r="D559" s="20"/>
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
     </row>
     <row r="560" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D560" s="22"/>
+      <c r="D560" s="20"/>
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
     </row>
     <row r="561" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D561" s="22"/>
+      <c r="D561" s="20"/>
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
     </row>
     <row r="562" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D562" s="22"/>
+      <c r="D562" s="20"/>
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
     </row>
     <row r="563" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D563" s="22"/>
+      <c r="D563" s="20"/>
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
     </row>
     <row r="564" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D564" s="22"/>
+      <c r="D564" s="20"/>
       <c r="E564" s="2"/>
       <c r="F564" s="2"/>
     </row>
     <row r="565" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D565" s="22"/>
+      <c r="D565" s="20"/>
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
     </row>
     <row r="566" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D566" s="22"/>
+      <c r="D566" s="20"/>
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
     </row>
     <row r="567" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D567" s="22"/>
+      <c r="D567" s="20"/>
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
     </row>
     <row r="568" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D568" s="22"/>
+      <c r="D568" s="20"/>
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
     </row>
     <row r="569" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D569" s="22"/>
+      <c r="D569" s="20"/>
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
     </row>
     <row r="570" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D570" s="22"/>
+      <c r="D570" s="20"/>
       <c r="E570" s="2"/>
       <c r="F570" s="2"/>
     </row>
     <row r="571" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D571" s="22"/>
+      <c r="D571" s="20"/>
       <c r="E571" s="2"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D572" s="22"/>
+      <c r="D572" s="20"/>
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
     </row>
     <row r="573" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D573" s="22"/>
+      <c r="D573" s="20"/>
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
     </row>
     <row r="574" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D574" s="22"/>
+      <c r="D574" s="20"/>
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
     </row>
     <row r="575" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D575" s="22"/>
+      <c r="D575" s="20"/>
       <c r="E575" s="2"/>
       <c r="F575" s="2"/>
     </row>
     <row r="576" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D576" s="22"/>
+      <c r="D576" s="20"/>
       <c r="E576" s="2"/>
       <c r="F576" s="2"/>
     </row>
     <row r="577" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D577" s="22"/>
+      <c r="D577" s="20"/>
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
     </row>
     <row r="578" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D578" s="22"/>
+      <c r="D578" s="20"/>
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
     </row>
     <row r="579" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D579" s="22"/>
+      <c r="D579" s="20"/>
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
     </row>
     <row r="580" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D580" s="22"/>
+      <c r="D580" s="20"/>
       <c r="E580" s="2"/>
       <c r="F580" s="2"/>
     </row>
     <row r="581" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D581" s="22"/>
+      <c r="D581" s="20"/>
       <c r="E581" s="2"/>
       <c r="F581" s="2"/>
     </row>
     <row r="582" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D582" s="22"/>
+      <c r="D582" s="20"/>
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
     </row>
     <row r="583" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D583" s="22"/>
+      <c r="D583" s="20"/>
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
     </row>
     <row r="584" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D584" s="22"/>
+      <c r="D584" s="20"/>
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
     </row>
     <row r="585" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D585" s="22"/>
+      <c r="D585" s="20"/>
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
     </row>
     <row r="586" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D586" s="22"/>
+      <c r="D586" s="20"/>
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D587" s="22"/>
+      <c r="D587" s="20"/>
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
     </row>
     <row r="588" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D588" s="22"/>
+      <c r="D588" s="20"/>
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
     </row>
     <row r="589" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D589" s="22"/>
+      <c r="D589" s="20"/>
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
     </row>
     <row r="590" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D590" s="22"/>
+      <c r="D590" s="20"/>
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
     </row>
     <row r="591" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D591" s="22"/>
+      <c r="D591" s="20"/>
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
     </row>
     <row r="592" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D592" s="22"/>
+      <c r="D592" s="20"/>
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
     </row>
     <row r="593" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D593" s="22"/>
+      <c r="D593" s="20"/>
       <c r="E593" s="2"/>
       <c r="F593" s="2"/>
     </row>
     <row r="594" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D594" s="22"/>
+      <c r="D594" s="20"/>
       <c r="E594" s="2"/>
       <c r="F594" s="2"/>
     </row>
     <row r="595" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D595" s="22"/>
+      <c r="D595" s="20"/>
       <c r="E595" s="2"/>
       <c r="F595" s="2"/>
     </row>
     <row r="596" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D596" s="22"/>
+      <c r="D596" s="20"/>
       <c r="E596" s="2"/>
       <c r="F596" s="2"/>
     </row>
     <row r="597" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D597" s="22"/>
+      <c r="D597" s="20"/>
       <c r="E597" s="2"/>
       <c r="F597" s="2"/>
     </row>
     <row r="598" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D598" s="22"/>
+      <c r="D598" s="20"/>
       <c r="E598" s="2"/>
       <c r="F598" s="2"/>
     </row>
     <row r="599" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D599" s="22"/>
+      <c r="D599" s="20"/>
       <c r="E599" s="2"/>
       <c r="F599" s="2"/>
     </row>
     <row r="600" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D600" s="22"/>
+      <c r="D600" s="20"/>
       <c r="E600" s="2"/>
       <c r="F600" s="2"/>
     </row>
     <row r="601" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D601" s="22"/>
+      <c r="D601" s="20"/>
       <c r="E601" s="2"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D602" s="22"/>
+      <c r="D602" s="20"/>
       <c r="E602" s="2"/>
       <c r="F602" s="2"/>
     </row>
     <row r="603" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D603" s="22"/>
+      <c r="D603" s="20"/>
       <c r="E603" s="2"/>
       <c r="F603" s="2"/>
     </row>
     <row r="604" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D604" s="22"/>
+      <c r="D604" s="20"/>
       <c r="E604" s="2"/>
       <c r="F604" s="2"/>
     </row>
     <row r="605" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D605" s="22"/>
+      <c r="D605" s="20"/>
       <c r="E605" s="2"/>
       <c r="F605" s="2"/>
     </row>
     <row r="606" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D606" s="22"/>
+      <c r="D606" s="20"/>
       <c r="E606" s="2"/>
       <c r="F606" s="2"/>
     </row>
     <row r="607" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D607" s="22"/>
+      <c r="D607" s="20"/>
       <c r="E607" s="2"/>
       <c r="F607" s="2"/>
     </row>
     <row r="608" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D608" s="22"/>
+      <c r="D608" s="20"/>
       <c r="E608" s="2"/>
       <c r="F608" s="2"/>
     </row>
     <row r="609" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D609" s="22"/>
+      <c r="D609" s="20"/>
       <c r="E609" s="2"/>
       <c r="F609" s="2"/>
     </row>
     <row r="610" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D610" s="22"/>
+      <c r="D610" s="20"/>
       <c r="E610" s="2"/>
       <c r="F610" s="2"/>
     </row>
     <row r="611" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D611" s="22"/>
+      <c r="D611" s="20"/>
       <c r="E611" s="2"/>
       <c r="F611" s="2"/>
     </row>
     <row r="612" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D612" s="22"/>
+      <c r="D612" s="20"/>
       <c r="E612" s="2"/>
       <c r="F612" s="2"/>
     </row>
     <row r="613" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D613" s="22"/>
+      <c r="D613" s="20"/>
       <c r="E613" s="2"/>
       <c r="F613" s="2"/>
     </row>
     <row r="614" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D614" s="22"/>
+      <c r="D614" s="20"/>
       <c r="E614" s="2"/>
       <c r="F614" s="2"/>
     </row>
     <row r="615" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D615" s="22"/>
+      <c r="D615" s="20"/>
       <c r="E615" s="2"/>
       <c r="F615" s="2"/>
     </row>
     <row r="616" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D616" s="22"/>
+      <c r="D616" s="20"/>
       <c r="E616" s="2"/>
       <c r="F616" s="2"/>
     </row>
     <row r="617" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D617" s="22"/>
+      <c r="D617" s="20"/>
       <c r="E617" s="2"/>
       <c r="F617" s="2"/>
     </row>
     <row r="618" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D618" s="22"/>
+      <c r="D618" s="20"/>
       <c r="E618" s="2"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D619" s="22"/>
+      <c r="D619" s="20"/>
       <c r="E619" s="2"/>
       <c r="F619" s="2"/>
     </row>
     <row r="620" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D620" s="22"/>
+      <c r="D620" s="20"/>
       <c r="E620" s="2"/>
       <c r="F620" s="2"/>
     </row>
     <row r="621" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D621" s="22"/>
+      <c r="D621" s="20"/>
       <c r="E621" s="2"/>
       <c r="F621" s="2"/>
     </row>
     <row r="622" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D622" s="22"/>
+      <c r="D622" s="20"/>
       <c r="E622" s="2"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D623" s="22"/>
+      <c r="D623" s="20"/>
       <c r="E623" s="2"/>
       <c r="F623" s="2"/>
     </row>
     <row r="624" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D624" s="22"/>
+      <c r="D624" s="20"/>
       <c r="E624" s="2"/>
       <c r="F624" s="2"/>
     </row>
     <row r="625" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D625" s="22"/>
+      <c r="D625" s="20"/>
       <c r="E625" s="2"/>
       <c r="F625" s="2"/>
     </row>
     <row r="626" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D626" s="22"/>
+      <c r="D626" s="20"/>
       <c r="E626" s="2"/>
       <c r="F626" s="2"/>
     </row>
     <row r="627" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D627" s="22"/>
+      <c r="D627" s="20"/>
       <c r="E627" s="2"/>
       <c r="F627" s="2"/>
     </row>
     <row r="628" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D628" s="22"/>
+      <c r="D628" s="20"/>
       <c r="E628" s="2"/>
       <c r="F628" s="2"/>
     </row>
     <row r="629" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D629" s="22"/>
+      <c r="D629" s="20"/>
       <c r="E629" s="2"/>
       <c r="F629" s="2"/>
     </row>
     <row r="630" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D630" s="22"/>
+      <c r="D630" s="20"/>
       <c r="E630" s="2"/>
       <c r="F630" s="2"/>
     </row>
     <row r="631" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D631" s="22"/>
+      <c r="D631" s="20"/>
       <c r="E631" s="2"/>
       <c r="F631" s="2"/>
     </row>
     <row r="632" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D632" s="22"/>
+      <c r="D632" s="20"/>
       <c r="E632" s="2"/>
       <c r="F632" s="2"/>
     </row>
     <row r="633" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D633" s="22"/>
+      <c r="D633" s="20"/>
       <c r="E633" s="2"/>
       <c r="F633" s="2"/>
     </row>
     <row r="634" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D634" s="22"/>
+      <c r="D634" s="20"/>
       <c r="E634" s="2"/>
       <c r="F634" s="2"/>
     </row>
     <row r="635" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D635" s="22"/>
+      <c r="D635" s="20"/>
       <c r="E635" s="2"/>
       <c r="F635" s="2"/>
     </row>
     <row r="636" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D636" s="22"/>
+      <c r="D636" s="20"/>
       <c r="E636" s="2"/>
       <c r="F636" s="2"/>
     </row>
     <row r="637" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D637" s="22"/>
+      <c r="D637" s="20"/>
       <c r="E637" s="2"/>
       <c r="F637" s="2"/>
     </row>
     <row r="638" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D638" s="22"/>
+      <c r="D638" s="20"/>
       <c r="E638" s="2"/>
       <c r="F638" s="2"/>
     </row>
     <row r="639" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D639" s="22"/>
+      <c r="D639" s="20"/>
       <c r="E639" s="2"/>
       <c r="F639" s="2"/>
     </row>
     <row r="640" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D640" s="22"/>
+      <c r="D640" s="20"/>
       <c r="E640" s="2"/>
       <c r="F640" s="2"/>
     </row>
     <row r="641" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D641" s="22"/>
+      <c r="D641" s="20"/>
       <c r="E641" s="2"/>
       <c r="F641" s="2"/>
     </row>
     <row r="642" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D642" s="22"/>
+      <c r="D642" s="20"/>
       <c r="E642" s="2"/>
       <c r="F642" s="2"/>
     </row>
     <row r="643" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D643" s="22"/>
+      <c r="D643" s="20"/>
       <c r="E643" s="2"/>
       <c r="F643" s="2"/>
     </row>
     <row r="644" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D644" s="22"/>
+      <c r="D644" s="20"/>
       <c r="E644" s="2"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D645" s="22"/>
+      <c r="D645" s="20"/>
       <c r="E645" s="2"/>
       <c r="F645" s="2"/>
     </row>
     <row r="646" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D646" s="22"/>
+      <c r="D646" s="20"/>
       <c r="E646" s="2"/>
       <c r="F646" s="2"/>
     </row>
     <row r="647" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D647" s="22"/>
+      <c r="D647" s="20"/>
       <c r="E647" s="2"/>
       <c r="F647" s="2"/>
     </row>
     <row r="648" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D648" s="22"/>
+      <c r="D648" s="20"/>
       <c r="E648" s="2"/>
       <c r="F648" s="2"/>
     </row>
     <row r="649" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D649" s="22"/>
+      <c r="D649" s="20"/>
       <c r="E649" s="2"/>
       <c r="F649" s="2"/>
     </row>
     <row r="650" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D650" s="22"/>
+      <c r="D650" s="20"/>
       <c r="E650" s="2"/>
       <c r="F650" s="2"/>
     </row>
     <row r="651" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D651" s="22"/>
+      <c r="D651" s="20"/>
       <c r="E651" s="2"/>
       <c r="F651" s="2"/>
     </row>
     <row r="652" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D652" s="22"/>
+      <c r="D652" s="20"/>
       <c r="E652" s="2"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D653" s="22"/>
+      <c r="D653" s="20"/>
       <c r="E653" s="2"/>
       <c r="F653" s="2"/>
     </row>
     <row r="654" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D654" s="22"/>
+      <c r="D654" s="20"/>
       <c r="E654" s="2"/>
       <c r="F654" s="2"/>
     </row>
     <row r="655" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D655" s="22"/>
+      <c r="D655" s="20"/>
       <c r="E655" s="2"/>
       <c r="F655" s="2"/>
     </row>
     <row r="656" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D656" s="22"/>
+      <c r="D656" s="20"/>
       <c r="E656" s="2"/>
       <c r="F656" s="2"/>
     </row>
     <row r="657" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D657" s="22"/>
+      <c r="D657" s="20"/>
       <c r="E657" s="2"/>
       <c r="F657" s="2"/>
     </row>
     <row r="658" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D658" s="22"/>
+      <c r="D658" s="20"/>
       <c r="E658" s="2"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D659" s="22"/>
+      <c r="D659" s="20"/>
       <c r="E659" s="2"/>
       <c r="F659" s="2"/>
     </row>
     <row r="660" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D660" s="22"/>
+      <c r="D660" s="20"/>
       <c r="E660" s="2"/>
       <c r="F660" s="2"/>
     </row>
     <row r="661" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D661" s="22"/>
+      <c r="D661" s="20"/>
       <c r="E661" s="2"/>
       <c r="F661" s="2"/>
     </row>
     <row r="662" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D662" s="22"/>
+      <c r="D662" s="20"/>
       <c r="E662" s="2"/>
       <c r="F662" s="2"/>
     </row>
     <row r="663" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D663" s="22"/>
+      <c r="D663" s="20"/>
       <c r="E663" s="2"/>
       <c r="F663" s="2"/>
     </row>
     <row r="664" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D664" s="22"/>
+      <c r="D664" s="20"/>
       <c r="E664" s="2"/>
       <c r="F664" s="2"/>
     </row>
     <row r="665" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D665" s="22"/>
+      <c r="D665" s="20"/>
       <c r="E665" s="2"/>
       <c r="F665" s="2"/>
     </row>
     <row r="666" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D666" s="22"/>
+      <c r="D666" s="20"/>
       <c r="E666" s="2"/>
       <c r="F666" s="2"/>
     </row>
     <row r="667" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D667" s="22"/>
+      <c r="D667" s="20"/>
       <c r="E667" s="2"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D668" s="22"/>
+      <c r="D668" s="20"/>
       <c r="E668" s="2"/>
       <c r="F668" s="2"/>
     </row>
     <row r="669" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D669" s="22"/>
+      <c r="D669" s="20"/>
       <c r="E669" s="2"/>
       <c r="F669" s="2"/>
     </row>
     <row r="670" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D670" s="22"/>
+      <c r="D670" s="20"/>
       <c r="E670" s="2"/>
       <c r="F670" s="2"/>
     </row>
     <row r="671" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D671" s="22"/>
+      <c r="D671" s="20"/>
       <c r="E671" s="2"/>
       <c r="F671" s="2"/>
     </row>
     <row r="672" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D672" s="22"/>
+      <c r="D672" s="20"/>
       <c r="E672" s="2"/>
       <c r="F672" s="2"/>
     </row>
     <row r="673" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D673" s="22"/>
+      <c r="D673" s="20"/>
       <c r="E673" s="2"/>
       <c r="F673" s="2"/>
     </row>
     <row r="674" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D674" s="22"/>
+      <c r="D674" s="20"/>
       <c r="E674" s="2"/>
       <c r="F674" s="2"/>
     </row>
     <row r="675" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D675" s="22"/>
+      <c r="D675" s="20"/>
       <c r="E675" s="2"/>
       <c r="F675" s="2"/>
     </row>
     <row r="676" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D676" s="22"/>
+      <c r="D676" s="20"/>
       <c r="E676" s="2"/>
       <c r="F676" s="2"/>
     </row>
     <row r="677" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D677" s="22"/>
+      <c r="D677" s="20"/>
       <c r="E677" s="2"/>
       <c r="F677" s="2"/>
     </row>
     <row r="678" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D678" s="22"/>
+      <c r="D678" s="20"/>
       <c r="E678" s="2"/>
       <c r="F678" s="2"/>
     </row>
     <row r="679" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D679" s="22"/>
+      <c r="D679" s="20"/>
       <c r="E679" s="2"/>
       <c r="F679" s="2"/>
     </row>
     <row r="680" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D680" s="22"/>
+      <c r="D680" s="20"/>
       <c r="E680" s="2"/>
       <c r="F680" s="2"/>
     </row>
     <row r="681" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D681" s="22"/>
+      <c r="D681" s="20"/>
       <c r="E681" s="2"/>
       <c r="F681" s="2"/>
     </row>
     <row r="682" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D682" s="22"/>
+      <c r="D682" s="20"/>
       <c r="E682" s="2"/>
       <c r="F682" s="2"/>
     </row>
     <row r="683" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D683" s="22"/>
+      <c r="D683" s="20"/>
       <c r="E683" s="2"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D684" s="22"/>
+      <c r="D684" s="20"/>
       <c r="E684" s="2"/>
       <c r="F684" s="2"/>
     </row>
     <row r="685" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D685" s="22"/>
+      <c r="D685" s="20"/>
       <c r="E685" s="2"/>
       <c r="F685" s="2"/>
     </row>
     <row r="686" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D686" s="22"/>
+      <c r="D686" s="20"/>
       <c r="E686" s="2"/>
       <c r="F686" s="2"/>
     </row>
     <row r="687" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D687" s="22"/>
+      <c r="D687" s="20"/>
       <c r="E687" s="2"/>
       <c r="F687" s="2"/>
     </row>
     <row r="688" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D688" s="22"/>
+      <c r="D688" s="20"/>
       <c r="E688" s="2"/>
       <c r="F688" s="2"/>
     </row>
     <row r="689" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D689" s="22"/>
+      <c r="D689" s="20"/>
       <c r="E689" s="2"/>
       <c r="F689" s="2"/>
     </row>
     <row r="690" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D690" s="22"/>
+      <c r="D690" s="20"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2"/>
     </row>
     <row r="691" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D691" s="22"/>
+      <c r="D691" s="20"/>
       <c r="E691" s="2"/>
       <c r="F691" s="2"/>
     </row>
     <row r="692" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D692" s="22"/>
+      <c r="D692" s="20"/>
       <c r="E692" s="2"/>
       <c r="F692" s="2"/>
     </row>
     <row r="693" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D693" s="22"/>
+      <c r="D693" s="20"/>
       <c r="E693" s="2"/>
       <c r="F693" s="2"/>
     </row>
     <row r="694" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D694" s="22"/>
+      <c r="D694" s="20"/>
       <c r="E694" s="2"/>
       <c r="F694" s="2"/>
     </row>
     <row r="695" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D695" s="22"/>
+      <c r="D695" s="20"/>
       <c r="E695" s="2"/>
       <c r="F695" s="2"/>
     </row>
     <row r="696" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D696" s="22"/>
+      <c r="D696" s="20"/>
       <c r="E696" s="2"/>
       <c r="F696" s="2"/>
     </row>
     <row r="697" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D697" s="22"/>
+      <c r="D697" s="20"/>
       <c r="E697" s="2"/>
       <c r="F697" s="2"/>
     </row>
     <row r="698" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D698" s="22"/>
+      <c r="D698" s="20"/>
       <c r="E698" s="2"/>
       <c r="F698" s="2"/>
     </row>
     <row r="699" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D699" s="22"/>
+      <c r="D699" s="20"/>
       <c r="E699" s="2"/>
       <c r="F699" s="2"/>
     </row>
     <row r="700" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D700" s="22"/>
+      <c r="D700" s="20"/>
       <c r="E700" s="2"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D701" s="22"/>
+      <c r="D701" s="20"/>
       <c r="E701" s="2"/>
       <c r="F701" s="2"/>
     </row>
     <row r="702" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D702" s="22"/>
+      <c r="D702" s="20"/>
       <c r="E702" s="2"/>
       <c r="F702" s="2"/>
     </row>
     <row r="703" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D703" s="22"/>
+      <c r="D703" s="20"/>
       <c r="E703" s="2"/>
       <c r="F703" s="2"/>
     </row>
     <row r="704" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D704" s="22"/>
+      <c r="D704" s="20"/>
       <c r="E704" s="2"/>
       <c r="F704" s="2"/>
     </row>
     <row r="705" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D705" s="22"/>
+      <c r="D705" s="20"/>
       <c r="E705" s="2"/>
       <c r="F705" s="2"/>
     </row>
     <row r="706" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D706" s="22"/>
+      <c r="D706" s="20"/>
       <c r="E706" s="2"/>
       <c r="F706" s="2"/>
     </row>
     <row r="707" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D707" s="22"/>
+      <c r="D707" s="20"/>
       <c r="E707" s="2"/>
       <c r="F707" s="2"/>
     </row>
     <row r="708" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D708" s="22"/>
+      <c r="D708" s="20"/>
       <c r="E708" s="2"/>
       <c r="F708" s="2"/>
     </row>
     <row r="709" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D709" s="22"/>
+      <c r="D709" s="20"/>
       <c r="E709" s="2"/>
       <c r="F709" s="2"/>
     </row>
     <row r="710" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D710" s="22"/>
+      <c r="D710" s="20"/>
       <c r="E710" s="2"/>
       <c r="F710" s="2"/>
     </row>
     <row r="711" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D711" s="22"/>
+      <c r="D711" s="20"/>
       <c r="E711" s="2"/>
       <c r="F711" s="2"/>
     </row>
     <row r="712" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D712" s="22"/>
+      <c r="D712" s="20"/>
       <c r="E712" s="2"/>
       <c r="F712" s="2"/>
     </row>
     <row r="713" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D713" s="22"/>
+      <c r="D713" s="20"/>
       <c r="E713" s="2"/>
       <c r="F713" s="2"/>
     </row>
     <row r="714" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D714" s="22"/>
+      <c r="D714" s="20"/>
       <c r="E714" s="2"/>
       <c r="F714" s="2"/>
     </row>
     <row r="715" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D715" s="22"/>
+      <c r="D715" s="20"/>
       <c r="E715" s="2"/>
       <c r="F715" s="2"/>
     </row>
     <row r="716" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D716" s="22"/>
+      <c r="D716" s="20"/>
       <c r="E716" s="2"/>
       <c r="F716" s="2"/>
     </row>
     <row r="717" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D717" s="22"/>
+      <c r="D717" s="20"/>
       <c r="E717" s="2"/>
       <c r="F717" s="2"/>
     </row>
     <row r="718" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D718" s="22"/>
+      <c r="D718" s="20"/>
       <c r="E718" s="2"/>
       <c r="F718" s="2"/>
     </row>
     <row r="719" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D719" s="22"/>
+      <c r="D719" s="20"/>
       <c r="E719" s="2"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D720" s="22"/>
+      <c r="D720" s="20"/>
       <c r="E720" s="2"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D721" s="22"/>
+      <c r="D721" s="20"/>
       <c r="E721" s="2"/>
       <c r="F721" s="2"/>
     </row>
     <row r="722" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D722" s="22"/>
+      <c r="D722" s="20"/>
       <c r="E722" s="2"/>
       <c r="F722" s="2"/>
     </row>
     <row r="723" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D723" s="22"/>
+      <c r="D723" s="20"/>
       <c r="E723" s="2"/>
       <c r="F723" s="2"/>
     </row>
     <row r="724" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D724" s="22"/>
+      <c r="D724" s="20"/>
       <c r="E724" s="2"/>
       <c r="F724" s="2"/>
     </row>
     <row r="725" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D725" s="22"/>
+      <c r="D725" s="20"/>
       <c r="E725" s="2"/>
       <c r="F725" s="2"/>
     </row>
     <row r="726" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D726" s="22"/>
+      <c r="D726" s="20"/>
       <c r="E726" s="2"/>
       <c r="F726" s="2"/>
     </row>
     <row r="727" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D727" s="22"/>
+      <c r="D727" s="20"/>
       <c r="E727" s="2"/>
       <c r="F727" s="2"/>
     </row>
     <row r="728" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D728" s="22"/>
+      <c r="D728" s="20"/>
       <c r="E728" s="2"/>
       <c r="F728" s="2"/>
     </row>
     <row r="729" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D729" s="22"/>
+      <c r="D729" s="20"/>
       <c r="E729" s="2"/>
       <c r="F729" s="2"/>
     </row>
     <row r="730" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D730" s="22"/>
+      <c r="D730" s="20"/>
       <c r="E730" s="2"/>
       <c r="F730" s="2"/>
     </row>
     <row r="731" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D731" s="22"/>
+      <c r="D731" s="20"/>
       <c r="E731" s="2"/>
       <c r="F731" s="2"/>
     </row>
     <row r="732" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D732" s="22"/>
+      <c r="D732" s="20"/>
       <c r="E732" s="2"/>
       <c r="F732" s="2"/>
     </row>
     <row r="733" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D733" s="22"/>
+      <c r="D733" s="20"/>
       <c r="E733" s="2"/>
       <c r="F733" s="2"/>
     </row>
     <row r="734" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D734" s="22"/>
+      <c r="D734" s="20"/>
       <c r="E734" s="2"/>
       <c r="F734" s="2"/>
     </row>
     <row r="735" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D735" s="22"/>
+      <c r="D735" s="20"/>
       <c r="E735" s="2"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D736" s="22"/>
+      <c r="D736" s="20"/>
       <c r="E736" s="2"/>
       <c r="F736" s="2"/>
     </row>
     <row r="737" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D737" s="22"/>
+      <c r="D737" s="20"/>
       <c r="E737" s="2"/>
       <c r="F737" s="2"/>
     </row>
     <row r="738" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D738" s="22"/>
+      <c r="D738" s="20"/>
       <c r="E738" s="2"/>
       <c r="F738" s="2"/>
     </row>
     <row r="739" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D739" s="22"/>
+      <c r="D739" s="20"/>
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
     <row r="740" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D740" s="22"/>
+      <c r="D740" s="20"/>
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
     <row r="741" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D741" s="22"/>
+      <c r="D741" s="20"/>
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
     <row r="742" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D742" s="22"/>
+      <c r="D742" s="20"/>
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
     <row r="743" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D743" s="22"/>
+      <c r="D743" s="20"/>
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
     <row r="744" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D744" s="22"/>
+      <c r="D744" s="20"/>
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
     <row r="745" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D745" s="22"/>
+      <c r="D745" s="20"/>
       <c r="E745" s="2"/>
       <c r="F745" s="2"/>
     </row>
     <row r="746" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D746" s="22"/>
+      <c r="D746" s="20"/>
       <c r="E746" s="2"/>
       <c r="F746" s="2"/>
     </row>
     <row r="747" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D747" s="22"/>
+      <c r="D747" s="20"/>
       <c r="E747" s="2"/>
       <c r="F747" s="2"/>
     </row>
     <row r="748" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D748" s="22"/>
+      <c r="D748" s="20"/>
       <c r="E748" s="2"/>
       <c r="F748" s="2"/>
     </row>
     <row r="749" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D749" s="22"/>
+      <c r="D749" s="20"/>
       <c r="E749" s="2"/>
       <c r="F749" s="2"/>
     </row>
     <row r="750" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D750" s="22"/>
+      <c r="D750" s="20"/>
       <c r="E750" s="2"/>
       <c r="F750" s="2"/>
     </row>
     <row r="751" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D751" s="22"/>
+      <c r="D751" s="20"/>
       <c r="E751" s="2"/>
       <c r="F751" s="2"/>
     </row>
     <row r="752" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D752" s="22"/>
+      <c r="D752" s="20"/>
       <c r="E752" s="2"/>
       <c r="F752" s="2"/>
     </row>
     <row r="753" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D753" s="22"/>
+      <c r="D753" s="20"/>
       <c r="E753" s="2"/>
       <c r="F753" s="2"/>
     </row>
     <row r="754" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D754" s="22"/>
+      <c r="D754" s="20"/>
       <c r="E754" s="2"/>
       <c r="F754" s="2"/>
     </row>
     <row r="755" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D755" s="22"/>
+      <c r="D755" s="20"/>
       <c r="E755" s="2"/>
       <c r="F755" s="2"/>
     </row>
     <row r="756" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D756" s="22"/>
+      <c r="D756" s="20"/>
       <c r="E756" s="2"/>
       <c r="F756" s="2"/>
     </row>
     <row r="757" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D757" s="22"/>
+      <c r="D757" s="20"/>
       <c r="E757" s="2"/>
       <c r="F757" s="2"/>
     </row>
     <row r="758" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D758" s="22"/>
+      <c r="D758" s="20"/>
       <c r="E758" s="2"/>
       <c r="F758" s="2"/>
     </row>
     <row r="759" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D759" s="22"/>
+      <c r="D759" s="20"/>
       <c r="E759" s="2"/>
       <c r="F759" s="2"/>
     </row>
     <row r="760" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D760" s="22"/>
+      <c r="D760" s="20"/>
       <c r="E760" s="2"/>
       <c r="F760" s="2"/>
     </row>
     <row r="761" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D761" s="22"/>
+      <c r="D761" s="20"/>
       <c r="E761" s="2"/>
       <c r="F761" s="2"/>
     </row>
     <row r="762" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D762" s="22"/>
+      <c r="D762" s="20"/>
       <c r="E762" s="2"/>
       <c r="F762" s="2"/>
     </row>
     <row r="763" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D763" s="22"/>
+      <c r="D763" s="20"/>
       <c r="E763" s="2"/>
       <c r="F763" s="2"/>
     </row>
     <row r="764" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D764" s="22"/>
+      <c r="D764" s="20"/>
       <c r="E764" s="2"/>
       <c r="F764" s="2"/>
     </row>
     <row r="765" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D765" s="22"/>
+      <c r="D765" s="20"/>
       <c r="E765" s="2"/>
       <c r="F765" s="2"/>
     </row>
     <row r="766" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D766" s="22"/>
+      <c r="D766" s="20"/>
       <c r="E766" s="2"/>
       <c r="F766" s="2"/>
     </row>
     <row r="767" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D767" s="22"/>
+      <c r="D767" s="20"/>
       <c r="E767" s="2"/>
       <c r="F767" s="2"/>
     </row>
     <row r="768" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D768" s="22"/>
+      <c r="D768" s="20"/>
       <c r="E768" s="2"/>
       <c r="F768" s="2"/>
     </row>
     <row r="769" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D769" s="22"/>
+      <c r="D769" s="20"/>
       <c r="E769" s="2"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D770" s="22"/>
+      <c r="D770" s="20"/>
       <c r="E770" s="2"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D771" s="22"/>
+      <c r="D771" s="20"/>
       <c r="E771" s="2"/>
       <c r="F771" s="2"/>
     </row>
     <row r="772" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D772" s="22"/>
+      <c r="D772" s="20"/>
       <c r="E772" s="2"/>
       <c r="F772" s="2"/>
     </row>
     <row r="773" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D773" s="22"/>
+      <c r="D773" s="20"/>
       <c r="E773" s="2"/>
       <c r="F773" s="2"/>
     </row>
     <row r="774" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D774" s="22"/>
+      <c r="D774" s="20"/>
       <c r="E774" s="2"/>
       <c r="F774" s="2"/>
     </row>
     <row r="775" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D775" s="22"/>
+      <c r="D775" s="20"/>
       <c r="E775" s="2"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D776" s="22"/>
+      <c r="D776" s="20"/>
       <c r="E776" s="2"/>
       <c r="F776" s="2"/>
     </row>
     <row r="777" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D777" s="22"/>
+      <c r="D777" s="20"/>
       <c r="E777" s="2"/>
       <c r="F777" s="2"/>
     </row>
     <row r="778" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D778" s="22"/>
+      <c r="D778" s="20"/>
       <c r="E778" s="2"/>
       <c r="F778" s="2"/>
     </row>
     <row r="779" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D779" s="22"/>
+      <c r="D779" s="20"/>
       <c r="E779" s="2"/>
       <c r="F779" s="2"/>
     </row>
     <row r="780" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D780" s="22"/>
+      <c r="D780" s="20"/>
       <c r="E780" s="2"/>
       <c r="F780" s="2"/>
     </row>
     <row r="781" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D781" s="22"/>
+      <c r="D781" s="20"/>
       <c r="E781" s="2"/>
       <c r="F781" s="2"/>
     </row>
     <row r="782" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D782" s="22"/>
+      <c r="D782" s="20"/>
       <c r="E782" s="2"/>
       <c r="F782" s="2"/>
     </row>
     <row r="783" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D783" s="22"/>
+      <c r="D783" s="20"/>
       <c r="E783" s="2"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D784" s="22"/>
+      <c r="D784" s="20"/>
       <c r="E784" s="2"/>
       <c r="F784" s="2"/>
     </row>
     <row r="785" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D785" s="22"/>
+      <c r="D785" s="20"/>
       <c r="E785" s="2"/>
       <c r="F785" s="2"/>
     </row>
     <row r="786" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D786" s="22"/>
+      <c r="D786" s="20"/>
       <c r="E786" s="2"/>
       <c r="F786" s="2"/>
     </row>
     <row r="787" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D787" s="22"/>
+      <c r="D787" s="20"/>
       <c r="E787" s="2"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D788" s="22"/>
+      <c r="D788" s="20"/>
       <c r="E788" s="2"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D789" s="22"/>
+      <c r="D789" s="20"/>
       <c r="E789" s="2"/>
       <c r="F789" s="2"/>
     </row>
     <row r="790" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D790" s="22"/>
+      <c r="D790" s="20"/>
       <c r="E790" s="2"/>
       <c r="F790" s="2"/>
     </row>
     <row r="791" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D791" s="22"/>
+      <c r="D791" s="20"/>
       <c r="E791" s="2"/>
       <c r="F791" s="2"/>
     </row>
     <row r="792" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D792" s="22"/>
+      <c r="D792" s="20"/>
       <c r="E792" s="2"/>
       <c r="F792" s="2"/>
     </row>
     <row r="793" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D793" s="22"/>
+      <c r="D793" s="20"/>
       <c r="E793" s="2"/>
       <c r="F793" s="2"/>
     </row>
     <row r="794" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D794" s="22"/>
+      <c r="D794" s="20"/>
       <c r="E794" s="2"/>
       <c r="F794" s="2"/>
     </row>
     <row r="795" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D795" s="22"/>
+      <c r="D795" s="20"/>
       <c r="E795" s="2"/>
       <c r="F795" s="2"/>
     </row>
     <row r="796" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D796" s="22"/>
+      <c r="D796" s="20"/>
       <c r="E796" s="2"/>
       <c r="F796" s="2"/>
     </row>
     <row r="797" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D797" s="22"/>
+      <c r="D797" s="20"/>
       <c r="E797" s="2"/>
       <c r="F797" s="2"/>
     </row>
     <row r="798" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D798" s="22"/>
+      <c r="D798" s="20"/>
       <c r="E798" s="2"/>
       <c r="F798" s="2"/>
     </row>
     <row r="799" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D799" s="22"/>
+      <c r="D799" s="20"/>
       <c r="E799" s="2"/>
       <c r="F799" s="2"/>
     </row>
     <row r="800" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D800" s="22"/>
+      <c r="D800" s="20"/>
       <c r="E800" s="2"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D801" s="22"/>
+      <c r="D801" s="20"/>
       <c r="E801" s="2"/>
       <c r="F801" s="2"/>
     </row>
     <row r="802" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D802" s="22"/>
+      <c r="D802" s="20"/>
       <c r="E802" s="2"/>
       <c r="F802" s="2"/>
     </row>
     <row r="803" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D803" s="22"/>
+      <c r="D803" s="20"/>
       <c r="E803" s="2"/>
       <c r="F803" s="2"/>
     </row>
     <row r="804" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D804" s="22"/>
+      <c r="D804" s="20"/>
       <c r="E804" s="2"/>
       <c r="F804" s="2"/>
     </row>
     <row r="805" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D805" s="22"/>
+      <c r="D805" s="20"/>
       <c r="E805" s="2"/>
       <c r="F805" s="2"/>
     </row>
     <row r="806" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D806" s="22"/>
+      <c r="D806" s="20"/>
       <c r="E806" s="2"/>
       <c r="F806" s="2"/>
     </row>
     <row r="807" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D807" s="22"/>
+      <c r="D807" s="20"/>
       <c r="E807" s="2"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D808" s="22"/>
+      <c r="D808" s="20"/>
       <c r="E808" s="2"/>
       <c r="F808" s="2"/>
     </row>
     <row r="809" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D809" s="22"/>
+      <c r="D809" s="20"/>
       <c r="E809" s="2"/>
       <c r="F809" s="2"/>
     </row>
     <row r="810" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D810" s="22"/>
+      <c r="D810" s="20"/>
       <c r="E810" s="2"/>
       <c r="F810" s="2"/>
     </row>
     <row r="811" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D811" s="22"/>
+      <c r="D811" s="20"/>
       <c r="E811" s="2"/>
       <c r="F811" s="2"/>
     </row>
     <row r="812" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D812" s="22"/>
+      <c r="D812" s="20"/>
       <c r="E812" s="2"/>
       <c r="F812" s="2"/>
     </row>
     <row r="813" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D813" s="22"/>
+      <c r="D813" s="20"/>
       <c r="E813" s="2"/>
       <c r="F813" s="2"/>
     </row>
     <row r="814" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D814" s="22"/>
+      <c r="D814" s="20"/>
       <c r="E814" s="2"/>
       <c r="F814" s="2"/>
     </row>
     <row r="815" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D815" s="22"/>
+      <c r="D815" s="20"/>
       <c r="E815" s="2"/>
       <c r="F815" s="2"/>
     </row>
     <row r="816" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D816" s="22"/>
+      <c r="D816" s="20"/>
       <c r="E816" s="2"/>
       <c r="F816" s="2"/>
     </row>
     <row r="817" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D817" s="22"/>
+      <c r="D817" s="20"/>
       <c r="E817" s="2"/>
       <c r="F817" s="2"/>
     </row>
     <row r="818" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D818" s="22"/>
+      <c r="D818" s="20"/>
       <c r="E818" s="2"/>
       <c r="F818" s="2"/>
     </row>
     <row r="819" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D819" s="22"/>
+      <c r="D819" s="20"/>
       <c r="E819" s="2"/>
       <c r="F819" s="2"/>
     </row>
     <row r="820" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D820" s="22"/>
+      <c r="D820" s="20"/>
       <c r="E820" s="2"/>
       <c r="F820" s="2"/>
     </row>
     <row r="821" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D821" s="22"/>
+      <c r="D821" s="20"/>
       <c r="E821" s="2"/>
       <c r="F821" s="2"/>
     </row>
     <row r="822" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D822" s="22"/>
+      <c r="D822" s="20"/>
       <c r="E822" s="2"/>
       <c r="F822" s="2"/>
     </row>
     <row r="823" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D823" s="22"/>
+      <c r="D823" s="20"/>
       <c r="E823" s="2"/>
       <c r="F823" s="2"/>
     </row>
     <row r="824" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D824" s="22"/>
+      <c r="D824" s="20"/>
       <c r="E824" s="2"/>
       <c r="F824" s="2"/>
     </row>
     <row r="825" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D825" s="22"/>
+      <c r="D825" s="20"/>
       <c r="E825" s="2"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D826" s="22"/>
+      <c r="D826" s="20"/>
       <c r="E826" s="2"/>
       <c r="F826" s="2"/>
     </row>
     <row r="827" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D827" s="22"/>
+      <c r="D827" s="20"/>
       <c r="E827" s="2"/>
       <c r="F827" s="2"/>
     </row>
     <row r="828" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D828" s="22"/>
+      <c r="D828" s="20"/>
       <c r="E828" s="2"/>
       <c r="F828" s="2"/>
     </row>
     <row r="829" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D829" s="22"/>
+      <c r="D829" s="20"/>
       <c r="E829" s="2"/>
       <c r="F829" s="2"/>
     </row>
     <row r="830" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D830" s="22"/>
+      <c r="D830" s="20"/>
       <c r="E830" s="2"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D831" s="22"/>
+      <c r="D831" s="20"/>
       <c r="E831" s="2"/>
       <c r="F831" s="2"/>
     </row>
     <row r="832" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D832" s="22"/>
+      <c r="D832" s="20"/>
       <c r="E832" s="2"/>
       <c r="F832" s="2"/>
     </row>
     <row r="833" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D833" s="22"/>
+      <c r="D833" s="20"/>
       <c r="E833" s="2"/>
       <c r="F833" s="2"/>
     </row>
     <row r="834" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D834" s="22"/>
+      <c r="D834" s="20"/>
       <c r="E834" s="2"/>
       <c r="F834" s="2"/>
     </row>
     <row r="835" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D835" s="22"/>
+      <c r="D835" s="20"/>
       <c r="E835" s="2"/>
       <c r="F835" s="2"/>
     </row>
     <row r="836" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D836" s="22"/>
+      <c r="D836" s="20"/>
       <c r="E836" s="2"/>
       <c r="F836" s="2"/>
     </row>
     <row r="837" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D837" s="22"/>
+      <c r="D837" s="20"/>
       <c r="E837" s="2"/>
       <c r="F837" s="2"/>
     </row>
     <row r="838" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D838" s="22"/>
+      <c r="D838" s="20"/>
       <c r="E838" s="2"/>
       <c r="F838" s="2"/>
     </row>
     <row r="839" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D839" s="22"/>
+      <c r="D839" s="20"/>
       <c r="E839" s="2"/>
       <c r="F839" s="2"/>
     </row>
     <row r="840" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D840" s="22"/>
+      <c r="D840" s="20"/>
       <c r="E840" s="2"/>
       <c r="F840" s="2"/>
     </row>
     <row r="841" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D841" s="22"/>
+      <c r="D841" s="20"/>
       <c r="E841" s="2"/>
       <c r="F841" s="2"/>
     </row>
     <row r="842" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D842" s="22"/>
+      <c r="D842" s="20"/>
       <c r="E842" s="2"/>
       <c r="F842" s="2"/>
     </row>
     <row r="843" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D843" s="22"/>
+      <c r="D843" s="20"/>
       <c r="E843" s="2"/>
       <c r="F843" s="2"/>
     </row>
     <row r="844" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D844" s="22"/>
+      <c r="D844" s="20"/>
       <c r="E844" s="2"/>
       <c r="F844" s="2"/>
     </row>
     <row r="845" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D845" s="22"/>
+      <c r="D845" s="20"/>
       <c r="E845" s="2"/>
       <c r="F845" s="2"/>
     </row>
     <row r="846" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D846" s="22"/>
+      <c r="D846" s="20"/>
       <c r="E846" s="2"/>
       <c r="F846" s="2"/>
     </row>
     <row r="847" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D847" s="22"/>
+      <c r="D847" s="20"/>
       <c r="E847" s="2"/>
       <c r="F847" s="2"/>
     </row>
     <row r="848" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D848" s="22"/>
+      <c r="D848" s="20"/>
       <c r="E848" s="2"/>
       <c r="F848" s="2"/>
     </row>
     <row r="849" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D849" s="22"/>
+      <c r="D849" s="20"/>
       <c r="E849" s="2"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D850" s="22"/>
+      <c r="D850" s="20"/>
       <c r="E850" s="2"/>
       <c r="F850" s="2"/>
     </row>
     <row r="851" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D851" s="22"/>
+      <c r="D851" s="20"/>
       <c r="E851" s="2"/>
       <c r="F851" s="2"/>
     </row>
     <row r="852" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D852" s="22"/>
+      <c r="D852" s="20"/>
       <c r="E852" s="2"/>
       <c r="F852" s="2"/>
     </row>
     <row r="853" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D853" s="22"/>
+      <c r="D853" s="20"/>
       <c r="E853" s="2"/>
       <c r="F853" s="2"/>
     </row>
     <row r="854" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D854" s="22"/>
+      <c r="D854" s="20"/>
       <c r="E854" s="2"/>
       <c r="F854" s="2"/>
     </row>
     <row r="855" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D855" s="22"/>
+      <c r="D855" s="20"/>
       <c r="E855" s="2"/>
       <c r="F855" s="2"/>
     </row>
     <row r="856" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D856" s="22"/>
+      <c r="D856" s="20"/>
       <c r="E856" s="2"/>
       <c r="F856" s="2"/>
     </row>
     <row r="857" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D857" s="22"/>
+      <c r="D857" s="20"/>
       <c r="E857" s="2"/>
       <c r="F857" s="2"/>
     </row>
     <row r="858" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D858" s="22"/>
+      <c r="D858" s="20"/>
       <c r="E858" s="2"/>
       <c r="F858" s="2"/>
     </row>
     <row r="859" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D859" s="22"/>
+      <c r="D859" s="20"/>
       <c r="E859" s="2"/>
       <c r="F859" s="2"/>
     </row>
     <row r="860" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D860" s="22"/>
+      <c r="D860" s="20"/>
       <c r="E860" s="2"/>
       <c r="F860" s="2"/>
     </row>
     <row r="861" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D861" s="22"/>
+      <c r="D861" s="20"/>
       <c r="E861" s="2"/>
       <c r="F861" s="2"/>
     </row>
     <row r="862" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D862" s="22"/>
+      <c r="D862" s="20"/>
       <c r="E862" s="2"/>
       <c r="F862" s="2"/>
     </row>
     <row r="863" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D863" s="22"/>
+      <c r="D863" s="20"/>
       <c r="E863" s="2"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D864" s="22"/>
+      <c r="D864" s="20"/>
       <c r="E864" s="2"/>
       <c r="F864" s="2"/>
     </row>
     <row r="865" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D865" s="22"/>
+      <c r="D865" s="20"/>
       <c r="E865" s="2"/>
       <c r="F865" s="2"/>
     </row>
     <row r="866" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D866" s="22"/>
+      <c r="D866" s="20"/>
       <c r="E866" s="2"/>
       <c r="F866" s="2"/>
     </row>
     <row r="867" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D867" s="22"/>
+      <c r="D867" s="20"/>
       <c r="E867" s="2"/>
       <c r="F867" s="2"/>
     </row>
     <row r="868" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D868" s="22"/>
+      <c r="D868" s="20"/>
       <c r="E868" s="2"/>
       <c r="F868" s="2"/>
     </row>
     <row r="869" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D869" s="22"/>
+      <c r="D869" s="20"/>
       <c r="E869" s="2"/>
       <c r="F869" s="2"/>
     </row>
     <row r="870" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D870" s="22"/>
+      <c r="D870" s="20"/>
       <c r="E870" s="2"/>
       <c r="F870" s="2"/>
     </row>
     <row r="871" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D871" s="22"/>
+      <c r="D871" s="20"/>
       <c r="E871" s="2"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D872" s="22"/>
+      <c r="D872" s="20"/>
       <c r="E872" s="2"/>
       <c r="F872" s="2"/>
     </row>
     <row r="873" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D873" s="22"/>
+      <c r="D873" s="20"/>
       <c r="E873" s="2"/>
       <c r="F873" s="2"/>
     </row>
     <row r="874" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D874" s="22"/>
+      <c r="D874" s="20"/>
       <c r="E874" s="2"/>
       <c r="F874" s="2"/>
     </row>
     <row r="875" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D875" s="22"/>
+      <c r="D875" s="20"/>
       <c r="E875" s="2"/>
       <c r="F875" s="2"/>
     </row>
     <row r="876" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D876" s="22"/>
+      <c r="D876" s="20"/>
       <c r="E876" s="2"/>
       <c r="F876" s="2"/>
     </row>
     <row r="877" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D877" s="22"/>
+      <c r="D877" s="20"/>
       <c r="E877" s="2"/>
       <c r="F877" s="2"/>
     </row>
     <row r="878" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D878" s="22"/>
+      <c r="D878" s="20"/>
       <c r="E878" s="2"/>
       <c r="F878" s="2"/>
     </row>
     <row r="879" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D879" s="22"/>
+      <c r="D879" s="20"/>
       <c r="E879" s="2"/>
       <c r="F879" s="2"/>
     </row>
     <row r="880" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D880" s="22"/>
+      <c r="D880" s="20"/>
       <c r="E880" s="2"/>
       <c r="F880" s="2"/>
     </row>
     <row r="881" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D881" s="22"/>
+      <c r="D881" s="20"/>
       <c r="E881" s="2"/>
       <c r="F881" s="2"/>
     </row>
     <row r="882" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D882" s="22"/>
+      <c r="D882" s="20"/>
       <c r="E882" s="2"/>
       <c r="F882" s="2"/>
     </row>
     <row r="883" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D883" s="22"/>
+      <c r="D883" s="20"/>
       <c r="E883" s="2"/>
       <c r="F883" s="2"/>
     </row>
     <row r="884" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D884" s="22"/>
+      <c r="D884" s="20"/>
       <c r="E884" s="2"/>
       <c r="F884" s="2"/>
     </row>
     <row r="885" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D885" s="22"/>
+      <c r="D885" s="20"/>
       <c r="E885" s="2"/>
       <c r="F885" s="2"/>
     </row>
     <row r="886" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D886" s="22"/>
+      <c r="D886" s="20"/>
       <c r="E886" s="2"/>
       <c r="F886" s="2"/>
     </row>
     <row r="887" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D887" s="22"/>
+      <c r="D887" s="20"/>
       <c r="E887" s="2"/>
       <c r="F887" s="2"/>
     </row>
     <row r="888" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D888" s="22"/>
+      <c r="D888" s="20"/>
       <c r="E888" s="2"/>
       <c r="F888" s="2"/>
     </row>
     <row r="889" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D889" s="22"/>
+      <c r="D889" s="20"/>
       <c r="E889" s="2"/>
       <c r="F889" s="2"/>
     </row>
     <row r="890" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D890" s="22"/>
+      <c r="D890" s="20"/>
       <c r="E890" s="2"/>
       <c r="F890" s="2"/>
     </row>
     <row r="891" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D891" s="22"/>
+      <c r="D891" s="20"/>
       <c r="E891" s="2"/>
       <c r="F891" s="2"/>
     </row>
     <row r="892" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D892" s="22"/>
+      <c r="D892" s="20"/>
       <c r="E892" s="2"/>
       <c r="F892" s="2"/>
     </row>
     <row r="893" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D893" s="22"/>
+      <c r="D893" s="20"/>
       <c r="E893" s="2"/>
       <c r="F893" s="2"/>
     </row>
     <row r="894" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D894" s="22"/>
+      <c r="D894" s="20"/>
       <c r="E894" s="2"/>
       <c r="F894" s="2"/>
     </row>
     <row r="895" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D895" s="22"/>
+      <c r="D895" s="20"/>
       <c r="E895" s="2"/>
       <c r="F895" s="2"/>
     </row>
     <row r="896" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D896" s="22"/>
+      <c r="D896" s="20"/>
       <c r="E896" s="2"/>
       <c r="F896" s="2"/>
     </row>
     <row r="897" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D897" s="22"/>
+      <c r="D897" s="20"/>
       <c r="E897" s="2"/>
       <c r="F897" s="2"/>
     </row>
     <row r="898" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D898" s="22"/>
+      <c r="D898" s="20"/>
       <c r="E898" s="2"/>
       <c r="F898" s="2"/>
     </row>
     <row r="899" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D899" s="22"/>
+      <c r="D899" s="20"/>
       <c r="E899" s="2"/>
       <c r="F899" s="2"/>
     </row>
     <row r="900" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D900" s="22"/>
+      <c r="D900" s="20"/>
       <c r="E900" s="2"/>
       <c r="F900" s="2"/>
     </row>
     <row r="901" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D901" s="22"/>
+      <c r="D901" s="20"/>
       <c r="E901" s="2"/>
       <c r="F901" s="2"/>
     </row>
     <row r="902" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D902" s="22"/>
+      <c r="D902" s="20"/>
       <c r="E902" s="2"/>
       <c r="F902" s="2"/>
     </row>
     <row r="903" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D903" s="22"/>
+      <c r="D903" s="20"/>
       <c r="E903" s="2"/>
       <c r="F903" s="2"/>
     </row>
     <row r="904" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D904" s="22"/>
+      <c r="D904" s="20"/>
       <c r="E904" s="2"/>
       <c r="F904" s="2"/>
     </row>
     <row r="905" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D905" s="22"/>
+      <c r="D905" s="20"/>
       <c r="E905" s="2"/>
       <c r="F905" s="2"/>
     </row>
     <row r="906" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D906" s="22"/>
+      <c r="D906" s="20"/>
       <c r="E906" s="2"/>
       <c r="F906" s="2"/>
     </row>
     <row r="907" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D907" s="22"/>
+      <c r="D907" s="20"/>
       <c r="E907" s="2"/>
       <c r="F907" s="2"/>
     </row>
     <row r="908" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D908" s="22"/>
+      <c r="D908" s="20"/>
       <c r="E908" s="2"/>
       <c r="F908" s="2"/>
     </row>
     <row r="909" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D909" s="22"/>
+      <c r="D909" s="20"/>
       <c r="E909" s="2"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D910" s="22"/>
+      <c r="D910" s="20"/>
       <c r="E910" s="2"/>
       <c r="F910" s="2"/>
     </row>
     <row r="911" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D911" s="22"/>
+      <c r="D911" s="20"/>
       <c r="E911" s="2"/>
       <c r="F911" s="2"/>
     </row>
     <row r="912" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D912" s="22"/>
+      <c r="D912" s="20"/>
       <c r="E912" s="2"/>
       <c r="F912" s="2"/>
     </row>
     <row r="913" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D913" s="22"/>
+      <c r="D913" s="20"/>
       <c r="E913" s="2"/>
       <c r="F913" s="2"/>
     </row>
     <row r="914" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D914" s="22"/>
+      <c r="D914" s="20"/>
       <c r="E914" s="2"/>
       <c r="F914" s="2"/>
     </row>
     <row r="915" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D915" s="22"/>
+      <c r="D915" s="20"/>
       <c r="E915" s="2"/>
       <c r="F915" s="2"/>
     </row>
     <row r="916" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D916" s="22"/>
+      <c r="D916" s="20"/>
       <c r="E916" s="2"/>
       <c r="F916" s="2"/>
     </row>
     <row r="917" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D917" s="22"/>
+      <c r="D917" s="20"/>
       <c r="E917" s="2"/>
       <c r="F917" s="2"/>
     </row>
     <row r="918" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D918" s="22"/>
+      <c r="D918" s="20"/>
       <c r="E918" s="2"/>
       <c r="F918" s="2"/>
     </row>
     <row r="919" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D919" s="22"/>
+      <c r="D919" s="20"/>
       <c r="E919" s="2"/>
       <c r="F919" s="2"/>
     </row>
     <row r="920" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D920" s="22"/>
+      <c r="D920" s="20"/>
       <c r="E920" s="2"/>
       <c r="F920" s="2"/>
     </row>
     <row r="921" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D921" s="22"/>
+      <c r="D921" s="20"/>
       <c r="E921" s="2"/>
       <c r="F921" s="2"/>
     </row>
     <row r="922" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D922" s="22"/>
+      <c r="D922" s="20"/>
       <c r="E922" s="2"/>
       <c r="F922" s="2"/>
     </row>
     <row r="923" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D923" s="22"/>
+      <c r="D923" s="20"/>
       <c r="E923" s="2"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D924" s="22"/>
+      <c r="D924" s="20"/>
       <c r="E924" s="2"/>
       <c r="F924" s="2"/>
     </row>
     <row r="925" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D925" s="22"/>
+      <c r="D925" s="20"/>
       <c r="E925" s="2"/>
       <c r="F925" s="2"/>
     </row>
     <row r="926" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D926" s="22"/>
+      <c r="D926" s="20"/>
       <c r="E926" s="2"/>
       <c r="F926" s="2"/>
     </row>
     <row r="927" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D927" s="22"/>
+      <c r="D927" s="20"/>
       <c r="E927" s="2"/>
       <c r="F927" s="2"/>
     </row>
     <row r="928" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D928" s="22"/>
+      <c r="D928" s="20"/>
       <c r="E928" s="2"/>
       <c r="F928" s="2"/>
     </row>
     <row r="929" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D929" s="22"/>
+      <c r="D929" s="20"/>
       <c r="E929" s="2"/>
       <c r="F929" s="2"/>
     </row>
     <row r="930" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D930" s="22"/>
+      <c r="D930" s="20"/>
       <c r="E930" s="2"/>
       <c r="F930" s="2"/>
     </row>
     <row r="931" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D931" s="22"/>
+      <c r="D931" s="20"/>
       <c r="E931" s="2"/>
       <c r="F931" s="2"/>
     </row>
     <row r="932" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D932" s="22"/>
+      <c r="D932" s="20"/>
       <c r="E932" s="2"/>
       <c r="F932" s="2"/>
     </row>
     <row r="933" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D933" s="22"/>
+      <c r="D933" s="20"/>
       <c r="E933" s="2"/>
       <c r="F933" s="2"/>
     </row>
     <row r="934" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D934" s="22"/>
+      <c r="D934" s="20"/>
       <c r="E934" s="2"/>
       <c r="F934" s="2"/>
     </row>
     <row r="935" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D935" s="22"/>
+      <c r="D935" s="20"/>
       <c r="E935" s="2"/>
       <c r="F935" s="2"/>
     </row>
     <row r="936" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D936" s="22"/>
+      <c r="D936" s="20"/>
       <c r="E936" s="2"/>
       <c r="F936" s="2"/>
     </row>
     <row r="937" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D937" s="22"/>
+      <c r="D937" s="20"/>
       <c r="E937" s="2"/>
       <c r="F937" s="2"/>
     </row>
     <row r="938" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D938" s="22"/>
+      <c r="D938" s="20"/>
       <c r="E938" s="2"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D939" s="22"/>
+      <c r="D939" s="20"/>
       <c r="E939" s="2"/>
       <c r="F939" s="2"/>
     </row>
     <row r="940" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D940" s="22"/>
+      <c r="D940" s="20"/>
       <c r="E940" s="2"/>
       <c r="F940" s="2"/>
     </row>
     <row r="941" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D941" s="22"/>
+      <c r="D941" s="20"/>
       <c r="E941" s="2"/>
       <c r="F941" s="2"/>
     </row>
     <row r="942" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D942" s="22"/>
+      <c r="D942" s="20"/>
       <c r="E942" s="2"/>
       <c r="F942" s="2"/>
     </row>
     <row r="943" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D943" s="22"/>
+      <c r="D943" s="20"/>
       <c r="E943" s="2"/>
       <c r="F943" s="2"/>
     </row>
     <row r="944" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D944" s="22"/>
+      <c r="D944" s="20"/>
       <c r="E944" s="2"/>
       <c r="F944" s="2"/>
     </row>
     <row r="945" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D945" s="22"/>
+      <c r="D945" s="20"/>
       <c r="E945" s="2"/>
       <c r="F945" s="2"/>
     </row>
     <row r="946" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D946" s="22"/>
+      <c r="D946" s="20"/>
       <c r="E946" s="2"/>
       <c r="F946" s="2"/>
     </row>
     <row r="947" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D947" s="22"/>
+      <c r="D947" s="20"/>
       <c r="E947" s="2"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D948" s="22"/>
+      <c r="D948" s="20"/>
       <c r="E948" s="2"/>
       <c r="F948" s="2"/>
     </row>
     <row r="949" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D949" s="22"/>
+      <c r="D949" s="20"/>
       <c r="E949" s="2"/>
       <c r="F949" s="2"/>
     </row>
     <row r="950" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D950" s="22"/>
+      <c r="D950" s="20"/>
       <c r="E950" s="2"/>
       <c r="F950" s="2"/>
     </row>
     <row r="951" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D951" s="22"/>
+      <c r="D951" s="20"/>
       <c r="E951" s="2"/>
       <c r="F951" s="2"/>
     </row>
     <row r="952" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D952" s="22"/>
+      <c r="D952" s="20"/>
       <c r="E952" s="2"/>
       <c r="F952" s="2"/>
     </row>
     <row r="953" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D953" s="22"/>
+      <c r="D953" s="20"/>
       <c r="E953" s="2"/>
       <c r="F953" s="2"/>
     </row>
     <row r="954" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D954" s="22"/>
+      <c r="D954" s="20"/>
       <c r="E954" s="2"/>
       <c r="F954" s="2"/>
     </row>
     <row r="955" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D955" s="22"/>
+      <c r="D955" s="20"/>
       <c r="E955" s="2"/>
       <c r="F955" s="2"/>
     </row>
     <row r="956" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D956" s="22"/>
+      <c r="D956" s="20"/>
       <c r="E956" s="2"/>
       <c r="F956" s="2"/>
     </row>
     <row r="957" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D957" s="22"/>
+      <c r="D957" s="20"/>
       <c r="E957" s="2"/>
       <c r="F957" s="2"/>
     </row>
     <row r="958" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D958" s="22"/>
+      <c r="D958" s="20"/>
       <c r="E958" s="2"/>
       <c r="F958" s="2"/>
     </row>
     <row r="959" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D959" s="22"/>
+      <c r="D959" s="20"/>
       <c r="E959" s="2"/>
       <c r="F959" s="2"/>
     </row>
     <row r="960" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D960" s="22"/>
+      <c r="D960" s="20"/>
       <c r="E960" s="2"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D961" s="22"/>
+      <c r="D961" s="20"/>
       <c r="E961" s="2"/>
       <c r="F961" s="2"/>
     </row>
     <row r="962" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D962" s="22"/>
+      <c r="D962" s="20"/>
       <c r="E962" s="2"/>
       <c r="F962" s="2"/>
     </row>
     <row r="963" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D963" s="22"/>
+      <c r="D963" s="20"/>
       <c r="E963" s="2"/>
       <c r="F963" s="2"/>
     </row>
     <row r="964" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D964" s="22"/>
+      <c r="D964" s="20"/>
       <c r="E964" s="2"/>
       <c r="F964" s="2"/>
     </row>
     <row r="965" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D965" s="22"/>
+      <c r="D965" s="20"/>
       <c r="E965" s="2"/>
       <c r="F965" s="2"/>
     </row>
     <row r="966" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D966" s="22"/>
+      <c r="D966" s="20"/>
       <c r="E966" s="2"/>
       <c r="F966" s="2"/>
     </row>
     <row r="967" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D967" s="22"/>
+      <c r="D967" s="20"/>
       <c r="E967" s="2"/>
       <c r="F967" s="2"/>
     </row>
     <row r="968" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D968" s="22"/>
+      <c r="D968" s="20"/>
       <c r="E968" s="2"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D969" s="22"/>
+      <c r="D969" s="20"/>
       <c r="E969" s="2"/>
       <c r="F969" s="2"/>
     </row>
     <row r="970" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D970" s="22"/>
+      <c r="D970" s="20"/>
       <c r="E970" s="2"/>
       <c r="F970" s="2"/>
     </row>
     <row r="971" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D971" s="22"/>
+      <c r="D971" s="20"/>
       <c r="E971" s="2"/>
       <c r="F971" s="2"/>
     </row>
     <row r="972" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D972" s="22"/>
+      <c r="D972" s="20"/>
       <c r="E972" s="2"/>
       <c r="F972" s="2"/>
     </row>
     <row r="973" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D973" s="22"/>
+      <c r="D973" s="20"/>
       <c r="E973" s="2"/>
       <c r="F973" s="2"/>
     </row>
     <row r="974" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D974" s="22"/>
+      <c r="D974" s="20"/>
       <c r="E974" s="2"/>
       <c r="F974" s="2"/>
     </row>
     <row r="975" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D975" s="22"/>
+      <c r="D975" s="20"/>
       <c r="E975" s="2"/>
       <c r="F975" s="2"/>
     </row>
     <row r="976" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D976" s="22"/>
+      <c r="D976" s="20"/>
       <c r="E976" s="2"/>
       <c r="F976" s="2"/>
     </row>
     <row r="977" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D977" s="22"/>
+      <c r="D977" s="20"/>
       <c r="E977" s="2"/>
       <c r="F977" s="2"/>
     </row>
     <row r="978" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D978" s="22"/>
+      <c r="D978" s="20"/>
       <c r="E978" s="2"/>
       <c r="F978" s="2"/>
     </row>
     <row r="979" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D979" s="22"/>
+      <c r="D979" s="20"/>
       <c r="E979" s="2"/>
       <c r="F979" s="2"/>
     </row>
     <row r="980" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D980" s="22"/>
+      <c r="D980" s="20"/>
       <c r="E980" s="2"/>
       <c r="F980" s="2"/>
     </row>
     <row r="981" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D981" s="22"/>
+      <c r="D981" s="20"/>
       <c r="E981" s="2"/>
       <c r="F981" s="2"/>
     </row>
     <row r="982" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D982" s="22"/>
+      <c r="D982" s="20"/>
       <c r="E982" s="2"/>
       <c r="F982" s="2"/>
     </row>
     <row r="983" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D983" s="22"/>
+      <c r="D983" s="20"/>
       <c r="E983" s="2"/>
       <c r="F983" s="2"/>
     </row>
     <row r="984" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D984" s="22"/>
+      <c r="D984" s="20"/>
       <c r="E984" s="2"/>
       <c r="F984" s="2"/>
     </row>
     <row r="985" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D985" s="22"/>
+      <c r="D985" s="20"/>
       <c r="E985" s="2"/>
       <c r="F985" s="2"/>
     </row>
     <row r="986" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D986" s="22"/>
+      <c r="D986" s="20"/>
       <c r="E986" s="2"/>
       <c r="F986" s="2"/>
     </row>
     <row r="987" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D987" s="22"/>
+      <c r="D987" s="20"/>
       <c r="E987" s="2"/>
       <c r="F987" s="2"/>
     </row>
     <row r="988" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D988" s="22"/>
+      <c r="D988" s="20"/>
       <c r="E988" s="2"/>
       <c r="F988" s="2"/>
     </row>
     <row r="989" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D989" s="22"/>
+      <c r="D989" s="20"/>
       <c r="E989" s="2"/>
       <c r="F989" s="2"/>
     </row>
     <row r="990" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D990" s="22"/>
+      <c r="D990" s="20"/>
       <c r="E990" s="2"/>
       <c r="F990" s="2"/>
     </row>
     <row r="991" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D991" s="22"/>
+      <c r="D991" s="20"/>
       <c r="E991" s="2"/>
       <c r="F991" s="2"/>
     </row>
     <row r="992" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D992" s="22"/>
+      <c r="D992" s="20"/>
       <c r="E992" s="2"/>
       <c r="F992" s="2"/>
     </row>
     <row r="993" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D993" s="22"/>
+      <c r="D993" s="20"/>
       <c r="E993" s="2"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D994" s="22"/>
+      <c r="D994" s="20"/>
       <c r="E994" s="2"/>
       <c r="F994" s="2"/>
     </row>
     <row r="995" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D995" s="22"/>
+      <c r="D995" s="20"/>
       <c r="E995" s="2"/>
       <c r="F995" s="2"/>
     </row>
     <row r="996" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D996" s="22"/>
+      <c r="D996" s="20"/>
       <c r="E996" s="2"/>
       <c r="F996" s="2"/>
     </row>
     <row r="997" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D997" s="22"/>
+      <c r="D997" s="20"/>
       <c r="E997" s="2"/>
       <c r="F997" s="2"/>
     </row>
     <row r="998" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D998" s="22"/>
+      <c r="D998" s="20"/>
       <c r="E998" s="2"/>
       <c r="F998" s="2"/>
     </row>
     <row r="999" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D999" s="22"/>
+      <c r="D999" s="20"/>
       <c r="E999" s="2"/>
       <c r="F999" s="2"/>
     </row>
     <row r="1000" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1000" s="22"/>
+      <c r="D1000" s="20"/>
       <c r="E1000" s="2"/>
       <c r="F1000" s="2"/>
     </row>
     <row r="1001" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1001" s="22"/>
+      <c r="D1001" s="20"/>
       <c r="E1001" s="2"/>
       <c r="F1001" s="2"/>
     </row>
     <row r="1002" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1002" s="22"/>
+      <c r="D1002" s="20"/>
       <c r="E1002" s="2"/>
       <c r="F1002" s="2"/>
     </row>
     <row r="1003" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1003" s="22"/>
+      <c r="D1003" s="20"/>
       <c r="E1003" s="2"/>
       <c r="F1003" s="2"/>
     </row>
     <row r="1004" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1004" s="22"/>
+      <c r="D1004" s="20"/>
       <c r="E1004" s="2"/>
       <c r="F1004" s="2"/>
     </row>
     <row r="1005" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1005" s="22"/>
+      <c r="D1005" s="20"/>
       <c r="E1005" s="2"/>
       <c r="F1005" s="2"/>
     </row>
     <row r="1006" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1006" s="22"/>
+      <c r="D1006" s="20"/>
       <c r="E1006" s="2"/>
       <c r="F1006" s="2"/>
     </row>
     <row r="1007" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1007" s="22"/>
+      <c r="D1007" s="20"/>
       <c r="E1007" s="2"/>
       <c r="F1007" s="2"/>
     </row>
     <row r="1008" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1008" s="22"/>
+      <c r="D1008" s="20"/>
       <c r="E1008" s="2"/>
       <c r="F1008" s="2"/>
     </row>
-    <row r="1009" spans="4:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D1009" s="22"/>
-      <c r="E1009" s="2"/>
-      <c r="F1009" s="2"/>
-    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
